--- a/learn_chinese2024.xlsx
+++ b/learn_chinese2024.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="20240107" sheetId="4" r:id="rId1"/>
+    <sheet name="2024014" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -45,6 +46,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>driving test</t>
     </r>
     <r>
@@ -61,6 +68,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">jià zhào </t>
     </r>
     <r>
@@ -77,6 +90,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Yes, A few day ago. I have no </t>
     </r>
     <r>
@@ -105,6 +123,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">shì ā ，jǐ tiān qián wǒ hái méi </t>
     </r>
     <r>
@@ -133,6 +156,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: Is the </t>
     </r>
     <r>
@@ -155,6 +183,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>kǎo shì</t>
     </r>
     <r>
@@ -201,6 +235,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">a </t>
     </r>
     <r>
@@ -223,6 +262,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">èn ，bào gè jià xiào ，rán hòu cān jiā </t>
     </r>
     <r>
@@ -275,6 +319,470 @@
   </si>
   <si>
     <t>get</t>
+  </si>
+  <si>
+    <t>Opening An Account</t>
+  </si>
+  <si>
+    <t>A: 你好，你办理什么业务？</t>
+  </si>
+  <si>
+    <t>A: Hello, What can i do for you?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ hǎo ，nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bàn lǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> shen me</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yè wù </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？</t>
+    </r>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>things, business</t>
+  </si>
+  <si>
+    <t>B: 你好，我想开一个账户。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:  Hello, i would like to open an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ hǎo ，wǒ xiǎng kāi yī gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zhàng hù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 你好，你想开哪种账户？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Okay, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>what kind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> of account do you want to open?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> nǐ hǎo ，nǐ xiǎng kāi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nǎ zhǒng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> zhàng hù ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 我想开一个活期账户。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: i want to open a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>current</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> account.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ xiǎng kāi yī gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>huó qī</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> zhàng hù </t>
+    </r>
+  </si>
+  <si>
+    <t>A: 我马上给你办。</t>
+  </si>
+  <si>
+    <t>A:  i will open it for you right now.</t>
+  </si>
+  <si>
+    <t>wǒ mǎ shàng gěi nǐ bàn</t>
+  </si>
+  <si>
+    <t>B: 开一个活期账户最低要存多少钱？</t>
+  </si>
+  <si>
+    <t>B:  what's the mininum deposit for opening a current account?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kāi yī gè huó qī zhàng hù zuì dī yào cún duō shǎo qián </t>
+  </si>
+  <si>
+    <t>A: 10元就可以了，你要存多少钱？</t>
+  </si>
+  <si>
+    <t>A: it's ten yuan. How much money do you want to deposit?</t>
+  </si>
+  <si>
+    <t>10yuán jiù kě yǐ le ，nǐ yào cún duō shǎo qián ？</t>
+  </si>
+  <si>
+    <t>B: 我要存3000元。</t>
+  </si>
+  <si>
+    <t>B:  well, here's 3000 yuan.</t>
+  </si>
+  <si>
+    <t>wǒ yào cún 3000yuán</t>
+  </si>
+  <si>
+    <t>A:请在这里写下你的名字，地址，还有你的</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  Please write down your name, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and the a mount of your</t>
+    </r>
+  </si>
+  <si>
+    <t>存款，设置一个6位数的密码。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">deposit here. And please choose a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>passcode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> of six numbers.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>qǐng zài zhè lǐ xiě xià nǐ de míng zì ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dì zhǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，hái yǒu nǐ de </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cún kuǎn ，shè zhì yī gè 6wèi shù de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mì mǎ</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 好的，给你。</t>
+  </si>
+  <si>
+    <t>B: Okay, here you are.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hǎo de ，gěi nǐ</t>
+  </si>
+  <si>
+    <t>A: 谢谢，请确认你的信息，并在空白处签字。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Thank you. Please </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>confirm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> your information and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sign your name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in the blank.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">xiè xiè ，qǐng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">què rèn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">nǐ de xìn xī ，bìng zài kōng bái chù </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">qiān zì </t>
+    </r>
+  </si>
+  <si>
+    <t>B: 好了。</t>
+  </si>
+  <si>
+    <t>B; Done.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hǎo le </t>
+  </si>
+  <si>
+    <r>
+      <t>A: 这是你的银行卡。你每次来银行存款或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <t>A: Here's your bank card, Bring your bank card with you every time you come to</t>
+  </si>
+  <si>
+    <t>请带着银行卡。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">deposit or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>withdraw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> money.</t>
+    </r>
+  </si>
+  <si>
+    <t>zhè shì nǐ de yín háng kǎ 。nǐ měi cì lái yín háng cún kuǎn huò qǔ kuǎn</t>
+  </si>
+  <si>
+    <t>qǐng dài zhe yín háng kǎ</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1741,7 @@
   <sheetPr/>
   <dimension ref="C1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -1427,4 +1935,248 @@
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:X43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="4:4">
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="3:20">
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="4:24">
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="8:13">
+      <c r="H5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20">
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="T6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="3:20">
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="T9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20">
+      <c r="C12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="T12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="3:20">
+      <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="T15" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20">
+      <c r="C18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="T18" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20">
+      <c r="C21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="T21" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20">
+      <c r="C24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20">
+      <c r="C27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="4:21">
+      <c r="D28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20">
+      <c r="C31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="3:20">
+      <c r="C34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="3:20">
+      <c r="C37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="3:20">
+      <c r="C40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="4:21">
+      <c r="D41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/learn_chinese2024.xlsx
+++ b/learn_chinese2024.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="20240107" sheetId="4" r:id="rId1"/>
     <sheet name="2024014" sheetId="5" r:id="rId2"/>
+    <sheet name="20240128" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="129">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -331,6 +332,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">nǐ hǎo ，nǐ </t>
     </r>
     <r>
@@ -379,6 +385,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  Hello, i would like to open an </t>
     </r>
     <r>
@@ -401,6 +412,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">nǐ hǎo ，wǒ xiǎng kāi yī gè </t>
     </r>
     <r>
@@ -426,6 +442,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: Okay, </t>
     </r>
     <r>
@@ -448,6 +469,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> nǐ hǎo ，nǐ xiǎng kāi </t>
     </r>
     <r>
@@ -473,6 +499,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: i want to open a </t>
     </r>
     <r>
@@ -495,6 +526,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ xiǎng kāi yī gè </t>
     </r>
     <r>
@@ -556,6 +592,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  Please write down your name, </t>
     </r>
     <r>
@@ -581,6 +622,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">deposit here. And please choose a </t>
     </r>
     <r>
@@ -603,6 +649,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>qǐng zài zhè lǐ xiě xià nǐ de míng zì ，</t>
     </r>
     <r>
@@ -625,6 +676,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">cún kuǎn ，shè zhì yī gè 6wèi shù de </t>
     </r>
     <r>
@@ -651,6 +707,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: Thank you. Please </t>
     </r>
     <r>
@@ -690,6 +751,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">xiè xiè ，qǐng </t>
     </r>
     <r>
@@ -730,6 +796,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>A: 这是你的银行卡。你每次来银行存款或</t>
     </r>
     <r>
@@ -758,6 +829,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">deposit or </t>
     </r>
     <r>
@@ -783,6 +859,269 @@
   </si>
   <si>
     <t>qǐng dài zhe yín háng kǎ</t>
+  </si>
+  <si>
+    <t>Booking A table</t>
+  </si>
+  <si>
+    <t>A: Steven 正在给一家酒店打电话预定餐厅。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Steven is calling a restaurant for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>booking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> a table.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Steven zhèng zài gěi yī jiā jiǔ diàn dǎ diàn huà </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yù dìng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> cān tīng </t>
+    </r>
+  </si>
+  <si>
+    <t>B: 对，我想预定今天的晚餐。</t>
+  </si>
+  <si>
+    <t>B: right, wo want to book today's night's food.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duì ，wǒ xiǎng yù dìng jīn tiān de wǎn cān </t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>A: 好的，什么时候需要？</t>
+  </si>
+  <si>
+    <t>A： All right. And what time would you like your table?</t>
+  </si>
+  <si>
+    <t>hǎo de ，shen me shí hòu xū yào ？</t>
+  </si>
+  <si>
+    <t>B: 大概7：30.</t>
+  </si>
+  <si>
+    <t>B: about 7:30</t>
+  </si>
+  <si>
+    <t>dà gài 7：30</t>
+  </si>
+  <si>
+    <t>A:  好的，请问你们有多少人？</t>
+  </si>
+  <si>
+    <t>A: Okay, but how many are there in your party?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hǎo de ，qǐng wèn nǐ men yǒu duō shǎo rén</t>
+  </si>
+  <si>
+    <t>B: 八个人。</t>
+  </si>
+  <si>
+    <t>B:  A party of eight.</t>
+  </si>
+  <si>
+    <t>bā gè rén</t>
+  </si>
+  <si>
+    <t>A: 请问你还有什么要求吗？</t>
+  </si>
+  <si>
+    <t>A: All right, Is there anything else i can do for you?</t>
+  </si>
+  <si>
+    <t>qǐng wèn nǐ hái yǒu shen me yào qiú ma</t>
+  </si>
+  <si>
+    <t>B:我希望您能给我安排一个能看到河的位置，</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:  Can you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>arrange</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> a table overlooking the river?</t>
+    </r>
+  </si>
+  <si>
+    <t>我们想欣赏一下夜景。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">we'd like to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>enjoy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> the evening view.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ xī wàng nín néng gěi wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ān pái</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yī gè néng kàn dào hé de wèi zhì ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ men xiǎng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xīn shǎng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yī xià yè jǐng 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A:  没问题，我会为您安排的。</t>
+  </si>
+  <si>
+    <t>A:  No problem, i'll arrange one for you.</t>
+  </si>
+  <si>
+    <t>méi wèn tí ，wǒ huì wéi nín ān pái de</t>
+  </si>
+  <si>
+    <t>B: 那太好了，谢谢你。顺便问一下，你们营业到几点。</t>
+  </si>
+  <si>
+    <t>nà tài hǎo le ，xiè xiè nǐ 。shùn biàn wèn yī xià ，</t>
+  </si>
+  <si>
+    <t>B: That's great. Thank you. By the way. how late are you</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ men </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yíng yè</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> dào jǐ diǎn 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>open</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> until?</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 我们一直工作到午夜。</t>
+  </si>
+  <si>
+    <t>A: We are open until midnight.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wǒ men yī zhí gōng zuò dào wǔ yè </t>
   </si>
 </sst>
 </file>
@@ -1942,7 +2281,7 @@
   <sheetPr/>
   <dimension ref="C1:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A21" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -2004,7 +2343,6 @@
       <c r="C9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="1"/>
       <c r="T9" s="1" t="s">
         <v>51</v>
       </c>
@@ -2032,7 +2370,6 @@
       <c r="C15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="1"/>
       <c r="T15" s="1" t="s">
         <v>57</v>
       </c>
@@ -2046,7 +2383,6 @@
       <c r="C18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="1"/>
       <c r="T18" s="1" t="s">
         <v>60</v>
       </c>
@@ -2060,7 +2396,6 @@
       <c r="C21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="1"/>
       <c r="T21" s="1" t="s">
         <v>63</v>
       </c>
@@ -2172,6 +2507,216 @@
     <row r="43" spans="4:4">
       <c r="D43" s="1" t="s">
         <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:X38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="4:4">
+      <c r="D2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="3:20">
+      <c r="C3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="4:24">
+      <c r="D4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="3:20">
+      <c r="C6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="T6" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="9:9">
+      <c r="I8" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20">
+      <c r="C10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20">
+      <c r="C14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20">
+      <c r="C17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20">
+      <c r="C20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20">
+      <c r="C23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20">
+      <c r="C26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="4:21">
+      <c r="D27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20">
+      <c r="C31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="T31" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="4:20">
+      <c r="D35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="4:21">
+      <c r="D36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U36" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="3:20">
+      <c r="C37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="T37" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/learn_chinese2024.xlsx
+++ b/learn_chinese2024.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="2"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="20240107" sheetId="4" r:id="rId1"/>
     <sheet name="2024014" sheetId="5" r:id="rId2"/>
     <sheet name="20240128" sheetId="6" r:id="rId3"/>
+    <sheet name="20240225" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="160">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -868,6 +869,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: Steven is calling a restaurant for </t>
     </r>
     <r>
@@ -890,6 +896,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Steven zhèng zài gěi yī jiā jiǔ diàn dǎ diàn huà </t>
     </r>
     <r>
@@ -972,6 +983,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  Can you </t>
     </r>
     <r>
@@ -997,6 +1013,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">we'd like to </t>
     </r>
     <r>
@@ -1019,6 +1040,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ xī wàng nín néng gěi wǒ </t>
     </r>
     <r>
@@ -1041,6 +1067,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ men xiǎng </t>
     </r>
     <r>
@@ -1081,6 +1112,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">nǐ men </t>
     </r>
     <r>
@@ -1103,6 +1139,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>open</t>
     </r>
     <r>
@@ -1122,6 +1164,388 @@
   </si>
   <si>
     <t xml:space="preserve">wǒ men yī zhí gōng zuò dào wǔ yè </t>
+  </si>
+  <si>
+    <t>Cheer sb up</t>
+  </si>
+  <si>
+    <t>A: 不用担心，我相信下一次你会做的更好。</t>
+  </si>
+  <si>
+    <t>A: Don't worry, i'm sure you will do better next time.</t>
+  </si>
+  <si>
+    <t>bú yòng dān xīn ，wǒ xiàng xìn xià yī cì nǐ huì zuò de gèng hǎo 。</t>
+  </si>
+  <si>
+    <t>B:虽然我知道在这种比赛中我总是很紧张，但是我没</t>
+  </si>
+  <si>
+    <t>B: i didn't realize it was so difficult. through i know</t>
+  </si>
+  <si>
+    <t>想到会这么难。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">i'm alwasy too </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nervous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in such </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>competition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">suī rán wǒ zhī dào zài zhè zhǒng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bǐ sài</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> zhōng wǒ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">zǒng shì hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jǐn zhāng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，dàn shì wǒ méi xiǎng dào huì zhè me nán 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 没关系，忘了它吧。</t>
+  </si>
+  <si>
+    <t>A: Doesn't matter. Forget it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">méi guān xì ，wàng le tā ba </t>
+  </si>
+  <si>
+    <t>B:我觉得我没有表现好。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:  i don't think i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>performed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> well.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ jue dé wǒ méi yǒu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>biǎo xiàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> hǎo</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 比我做的好多了。</t>
+  </si>
+  <si>
+    <t>A: Oh, that's much better then i did.</t>
+  </si>
+  <si>
+    <t>bǐ wǒ zuò de hǎo duō le 。</t>
+  </si>
+  <si>
+    <t>B:你能告诉我如何提高吗？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:  Can you tell me how to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>improve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> myself?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ néng gào sù wǒ rú hé </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tí gāo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t>A:这个没有秘密，你唯一要做的就是多练习，</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: There's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>no secret</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> at all, The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>only</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> thing for you</t>
+    </r>
+  </si>
+  <si>
+    <t>你会成功的。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">to do is to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>practice more</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, You will succeed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">zhè gè méi yǒu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mì mì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wéi yī</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yào zuò de jiù shì duō </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>liàn xí</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <t>nǐ huì chéng gōng de 。</t>
+  </si>
+  <si>
+    <t>B:谢谢你的鼓励。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Thank you for your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>encouragement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">xiè xiè nǐ de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gǔ lì</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1134,7 +1558,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1152,6 +1576,12 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1306,6 +1736,19 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -1630,143 +2073,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2114,7 +2558,7 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2124,7 +2568,7 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2163,7 +2607,7 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2315,7 +2759,7 @@
       <c r="D4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="X4" s="3"/>
+      <c r="X4" s="4"/>
     </row>
     <row r="5" spans="8:13">
       <c r="H5" s="1" t="s">
@@ -2329,7 +2773,7 @@
       <c r="C6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="4"/>
       <c r="T6" s="1" t="s">
         <v>48</v>
       </c>
@@ -2356,7 +2800,7 @@
       <c r="C12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="4"/>
       <c r="T12" s="1" t="s">
         <v>54</v>
       </c>
@@ -2521,7 +2965,7 @@
   <sheetPr/>
   <dimension ref="C1:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A21" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -2555,16 +2999,15 @@
       <c r="D4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X4" s="3"/>
+      <c r="X4" s="4"/>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="3"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="3:20">
       <c r="C6" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="1"/>
       <c r="T6" s="1" t="s">
         <v>94</v>
       </c>
@@ -2674,7 +3117,6 @@
       <c r="C31" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="1"/>
       <c r="T31" s="1" t="s">
         <v>119</v>
       </c>
@@ -2701,7 +3143,7 @@
       <c r="D36" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="U36" s="3" t="s">
+      <c r="U36" s="4" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2709,7 +3151,6 @@
       <c r="C37" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D37" s="1"/>
       <c r="T37" s="1" t="s">
         <v>127</v>
       </c>
@@ -2717,6 +3158,170 @@
     <row r="38" spans="4:4">
       <c r="D38" s="1" t="s">
         <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:X27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="28" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="29" max="29" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="30" max="1045" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1046" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23">
+      <c r="B3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23">
+      <c r="B6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="3:24">
+      <c r="C7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23">
+      <c r="B10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23">
+      <c r="B13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23">
+      <c r="B16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23">
+      <c r="B19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23">
+      <c r="B22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24">
+      <c r="C23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23">
+      <c r="B26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/learn_chinese2024.xlsx
+++ b/learn_chinese2024.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="3"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="20240107" sheetId="4" r:id="rId1"/>
     <sheet name="2024014" sheetId="5" r:id="rId2"/>
     <sheet name="20240128" sheetId="6" r:id="rId3"/>
     <sheet name="20240225" sheetId="7" r:id="rId4"/>
+    <sheet name="20240303" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="207">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -1188,6 +1189,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">i'm alwasy too </t>
     </r>
     <r>
@@ -1227,6 +1233,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">suī rán wǒ zhī dào zài zhè zhǒng </t>
     </r>
     <r>
@@ -1249,6 +1260,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">zǒng shì hěn </t>
     </r>
     <r>
@@ -1283,6 +1299,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  i don't think i </t>
     </r>
     <r>
@@ -1305,6 +1326,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ jue dé wǒ méi yǒu </t>
     </r>
     <r>
@@ -1339,6 +1365,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  Can you tell me how to </t>
     </r>
     <r>
@@ -1361,6 +1392,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">nǐ néng gào sù wǒ rú hé </t>
     </r>
     <r>
@@ -1386,6 +1422,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: There's </t>
     </r>
     <r>
@@ -1428,6 +1469,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">to do is to </t>
     </r>
     <r>
@@ -1450,6 +1496,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">zhè gè méi yǒu </t>
     </r>
     <r>
@@ -1512,6 +1563,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Thank you for your </t>
     </r>
     <r>
@@ -1534,6 +1590,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">xiè xiè nǐ de </t>
     </r>
     <r>
@@ -1545,6 +1607,445 @@
         <charset val="134"/>
       </rPr>
       <t>gǔ lì</t>
+    </r>
+  </si>
+  <si>
+    <t>Driving</t>
+  </si>
+  <si>
+    <t>A: hi michael, 我很累，你可以开会儿车吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: Hey Michael, i'm tired, Would you mind driving for a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hi michael, wǒ hěn lèi ，nǐ kě yǐ kāi huì ér chē ma ？ </t>
+  </si>
+  <si>
+    <t>while?</t>
+  </si>
+  <si>
+    <t>B: 抱歉，我想开车，但是我不会开车。</t>
+  </si>
+  <si>
+    <t>B:  Sorry, i would like to , but i don't know how to drive.</t>
+  </si>
+  <si>
+    <t>bào qiàn ，wǒ xiǎng kāi chē ，dàn shì wǒ bú huì kāi chē 。</t>
+  </si>
+  <si>
+    <t>A: 真的吗？你没有驾照，我以为每个人都有呢。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  Really? you don't have a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>license</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">? i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>thought</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> every one</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">zhēn de ma ？nǐ méi yǒu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jià zhào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <t>had a license.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yǐ wéi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> měi gè rén dōu yǒu ne </t>
+    </r>
+  </si>
+  <si>
+    <t>B: 不是，我从小到大都住在城市里，当我在家</t>
+  </si>
+  <si>
+    <t>B:  No, i've lived in cities all my life. And when i'm at home,</t>
+  </si>
+  <si>
+    <t>的时候，我经常坐地铁或公交车。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">i usually take the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>subway</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> or bus.</t>
+    </r>
+  </si>
+  <si>
+    <t>bú shì ，wǒ cóng xiǎo dào dà dōu zhù zài chéng shì lǐ ，dāng wǒ zài jiā</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">de shí hòu ，wǒ jīng cháng zuò </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dì tiě</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> huò gōng jiāo chē 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 我知道了，你以后会学开车吗？</t>
+  </si>
+  <si>
+    <t>A: I see. Do you think you'll ever learn to drive?</t>
+  </si>
+  <si>
+    <t>wǒ zhī dào le ，nǐ yǐ hòu huì xué kāi chē ma ？</t>
+  </si>
+  <si>
+    <t>B: 是的，我打算明年买一辆车，我觉得在美国</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:  Yes, i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to buy a car next year. i think you need one </t>
+    </r>
+  </si>
+  <si>
+    <t>需要一辆车。</t>
+  </si>
+  <si>
+    <t>in the US</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">shì de ，wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dǎ suàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> míng nián mǎi yī liàng chē ，wǒ jue dé zài měi guó </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">xū yào yī liàng chē 。 </t>
+  </si>
+  <si>
+    <t>A: 事实上，我现在也在考虑这个问题。在这个城市里</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A; Acutally, now that i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>think about</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> it. a lot of people in cityes</t>
+    </r>
+  </si>
+  <si>
+    <t>心</t>
+  </si>
+  <si>
+    <t>很多人也坐公交车。</t>
+  </si>
+  <si>
+    <t>here take the bus also.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> shì shí shàng ，wǒ xiàn zài yě zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kǎo lǜ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> zhè gè wèn tí 。zài zhè gè chéng shì lǐ</t>
+    </r>
+  </si>
+  <si>
+    <t>hěn duō rén yě zuò gōng jiāo chē 。</t>
+  </si>
+  <si>
+    <t>B: 嗯，我想旅游，我在这里已经有几个月了，但是我</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Well , i'd like to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>travel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> more, i've been here for a few months</t>
+    </r>
+  </si>
+  <si>
+    <t>觉得我什么都没看呢。</t>
+  </si>
+  <si>
+    <t>already, And i like i haven't see anything yes.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">èn ，wǒ xiǎng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lǚ yóu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，wǒ zài zhè lǐ yǐ jīng yǒu jǐ gè yuè le ，dàn shì wǒ</t>
+    </r>
+  </si>
+  <si>
+    <t>jue dé wǒ shen me dōu méi kàn ne 。</t>
+  </si>
+  <si>
+    <t>A:你打算怎么学车呢？你想让我教你吗？</t>
+  </si>
+  <si>
+    <t>A: how are you going to learn to drive? Do you want me to teach you?</t>
+  </si>
+  <si>
+    <t>nǐ dǎ suàn zěn me xué chē ne ？nǐ xiǎng ràng wǒ jiāo nǐ ma ？</t>
+  </si>
+  <si>
+    <t>B: 我在家附近报名了一个学习班。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B; i've already </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>signed up for a class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>near</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> my house.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ zài jiā </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fù jìn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> bào míng le yī gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xué xí bān</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。             </t>
     </r>
   </si>
 </sst>
@@ -3172,7 +3673,7 @@
   <sheetPr/>
   <dimension ref="B1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
@@ -3329,4 +3830,237 @@
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:AR35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="28" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="29" max="29" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="30" max="1045" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1046" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20">
+      <c r="B3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="3:21">
+      <c r="C4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="B6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20">
+      <c r="B9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="T9" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="3:21">
+      <c r="C10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20">
+      <c r="B12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="3:21">
+      <c r="C13" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20">
+      <c r="B16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="B19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="3:21">
+      <c r="C20" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="2:44">
+      <c r="B23" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="T23" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR23" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21">
+      <c r="C24" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="T27" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21">
+      <c r="C28" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="B31" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20">
+      <c r="B34" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/learn_chinese2024.xlsx
+++ b/learn_chinese2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="4"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="20240107" sheetId="4" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="20240128" sheetId="6" r:id="rId3"/>
     <sheet name="20240225" sheetId="7" r:id="rId4"/>
     <sheet name="20240303" sheetId="8" r:id="rId5"/>
+    <sheet name="202403010" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="238">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -1638,6 +1639,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  Really? you don't have a </t>
     </r>
     <r>
@@ -1677,6 +1683,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">zhēn de ma ？nǐ méi yǒu </t>
     </r>
     <r>
@@ -1702,6 +1713,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ </t>
     </r>
     <r>
@@ -1733,6 +1749,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">i usually take the </t>
     </r>
     <r>
@@ -1758,6 +1779,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">de shí hòu ，wǒ jīng cháng zuò </t>
     </r>
     <r>
@@ -1792,6 +1818,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  Yes, i </t>
     </r>
     <r>
@@ -1820,6 +1851,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">shì de ，wǒ </t>
     </r>
     <r>
@@ -1848,6 +1884,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A; Acutally, now that i </t>
     </r>
     <r>
@@ -1879,6 +1920,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> shì shí shàng ，wǒ xiàn zài yě zài </t>
     </r>
     <r>
@@ -1907,6 +1953,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Well , i'd like to </t>
     </r>
     <r>
@@ -1935,6 +1986,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">èn ，wǒ xiǎng </t>
     </r>
     <r>
@@ -1972,6 +2028,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B; i've already </t>
     </r>
     <r>
@@ -2011,6 +2072,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ zài jiā </t>
     </r>
     <r>
@@ -2046,6 +2112,381 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 。             </t>
+    </r>
+  </si>
+  <si>
+    <t>Do houseworke</t>
+  </si>
+  <si>
+    <t>A: 亲爱的，我回来了，你在说什么呢？</t>
+  </si>
+  <si>
+    <t>A: Darling, i'm back, What are you doing?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qīn ài de ，wǒ huí lái le ，nǐ zài shuō shen me ne ？  </t>
+  </si>
+  <si>
+    <t>B: 我在洗衣服。你现在饿了么？稍等一下，我给你</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B:  i'm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>washing clothes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. Are you hungry now?</t>
+    </r>
+  </si>
+  <si>
+    <t>做晚饭。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wait for a moment. i'll </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cook dinner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for you.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xǐ yī fú</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。nǐ xiàn zài è le me ？shāo děng yī xià ，wǒ gěi nǐ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>zuò wǎn fàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: Julia, 我们请一个保姆吧？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  Julia, should we get a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>maid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Julia, wǒ men qǐng yī gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bǎo mǔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ba ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 家务事我都能做，不需要请保姆。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: i can do all the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>housework</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. We don't need a maid.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>jiā wù shì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> wǒ dōu néng zuò ，bú xū yào qǐng bǎo mǔ 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 你在办公室已经很辛苦了，请一个保姆，</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  you have worked </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>very hard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in the office. if we can</t>
+    </r>
+  </si>
+  <si>
+    <t>你可以多休息。</t>
+  </si>
+  <si>
+    <t>get someone to help you. you can have more rest.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ zài bàn gōng shì yǐ jīng hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xīn kǔ le</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，qǐng yī gè bǎo mǔ ，</t>
+    </r>
+  </si>
+  <si>
+    <t>nǐ kě yǐ duō xiū xī 。</t>
+  </si>
+  <si>
+    <t>B: 真的不用了。</t>
+  </si>
+  <si>
+    <t>B:  We really don't need to.</t>
+  </si>
+  <si>
+    <t>zhēn de bú yòng le 。</t>
+  </si>
+  <si>
+    <t>A: 你是一个好妻子，但是你应该多关心你自己。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: you're a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>good wife</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, Julia, But you must </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>take care of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yourself.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ shì yī gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hǎo qī zǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，dàn shì nǐ yīng gāi duō </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>guān xīn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> nǐ zì jǐ 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 让我考虑一下。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B; Give me some time to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>think about</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> it.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> ràng wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kǎo lǜ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yī xià 。</t>
     </r>
   </si>
 </sst>
@@ -2079,14 +2520,20 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -2233,12 +2680,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2574,137 +3015,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2712,6 +3153,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3821,7 +4263,7 @@
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3837,7 +4279,7 @@
   <sheetPr/>
   <dimension ref="B1:AR35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -3892,7 +4334,6 @@
       <c r="B9" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="1"/>
       <c r="T9" s="1" t="s">
         <v>169</v>
       </c>
@@ -3979,7 +4420,6 @@
       <c r="B23" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C23" s="1"/>
       <c r="T23" s="1" t="s">
         <v>189</v>
       </c>
@@ -4009,7 +4449,7 @@
       <c r="B27" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="5"/>
       <c r="T27" s="1" t="s">
         <v>196</v>
       </c>
@@ -4056,6 +4496,174 @@
     <row r="35" spans="3:3">
       <c r="C35" s="1" t="s">
         <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:W27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="28" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="29" max="29" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="30" max="1045" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1046" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22">
+      <c r="B3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22">
+      <c r="B6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="3:23">
+      <c r="C7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="B10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="V10" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22">
+      <c r="B13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="V13" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22">
+      <c r="B16" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="3:23">
+      <c r="C17" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22">
+      <c r="B20" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="V20" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22">
+      <c r="B26" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="V26" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/learn_chinese2024.xlsx
+++ b/learn_chinese2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="5"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="20240107" sheetId="4" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="20240225" sheetId="7" r:id="rId4"/>
     <sheet name="20240303" sheetId="8" r:id="rId5"/>
     <sheet name="202403010" sheetId="9" r:id="rId6"/>
+    <sheet name="20240317" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="296">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -2131,6 +2132,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  i'm </t>
     </r>
     <r>
@@ -2156,6 +2162,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Wait for a moment. i'll </t>
     </r>
     <r>
@@ -2178,6 +2189,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ zài </t>
     </r>
     <r>
@@ -2200,6 +2216,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>zuò wǎn fàn</t>
     </r>
     <r>
@@ -2216,6 +2238,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  Julia, should we get a </t>
     </r>
     <r>
@@ -2238,6 +2265,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Julia, wǒ men qǐng yī gè </t>
     </r>
     <r>
@@ -2263,6 +2295,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: i can do all the </t>
     </r>
     <r>
@@ -2285,6 +2322,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>jiā wù shì</t>
     </r>
     <r>
@@ -2301,6 +2344,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  you have worked </t>
     </r>
     <r>
@@ -2329,6 +2377,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">nǐ zài bàn gōng shì yǐ jīng hěn </t>
     </r>
     <r>
@@ -2366,6 +2419,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: you're a </t>
     </r>
     <r>
@@ -2405,6 +2463,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">nǐ shì yī gè </t>
     </r>
     <r>
@@ -2447,6 +2510,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B; Give me some time to </t>
     </r>
     <r>
@@ -2469,6 +2537,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> ràng wǒ </t>
     </r>
     <r>
@@ -2488,6 +2561,637 @@
       </rPr>
       <t xml:space="preserve"> yī xià 。</t>
     </r>
+  </si>
+  <si>
+    <t>Tidy the room up</t>
+  </si>
+  <si>
+    <t>A: 亲爱的，这房子一团糟，我需要你帮忙整理一下，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A： Honey, the house is such a mess. I need you to </t>
+  </si>
+  <si>
+    <t>我的老板和她老公今晚过来吃晚饭，</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">help me tidy up a bit. My boss and her </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>husband</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>所以房间必须一尘不染。</t>
+  </si>
+  <si>
+    <t>are coming over for dinner and the house</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>qīn ài de ，zhè fáng zǐ yī tuán</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> zāo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">needs to be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>spotless</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ xū yào nǐ bāng máng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A65D"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>zhěng lǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> yī xià ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ de lǎo bǎn hé tā </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>lǎo gōng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> jīn wǎn guò lái chī wǎn fàn ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">suǒ yǐ fáng jiān bì xū </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>yī chén bú rǎn</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 我现在正忙着呢，我马上来。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">B: I’m in the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>middle of something</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> right now.</t>
+    </r>
+  </si>
+  <si>
+    <t>wǒ xiàn zài zhèng máng zhe ne ，wǒ mǎ shàng lái 。</t>
+  </si>
+  <si>
+    <t>i’ll be there in a second.</t>
+  </si>
+  <si>
+    <t>A: 我等不及了，我现在需要你的帮忙。</t>
+  </si>
+  <si>
+    <t>A: This can’t wait, I need your help now.</t>
+  </si>
+  <si>
+    <t>wǒ děng bú jí le ，wǒ xiàn zài xū yào nǐ de bāng máng 。</t>
+  </si>
+  <si>
+    <t>B: 好的，好的。我来了。</t>
+  </si>
+  <si>
+    <t>B: Alright, alright. i’m coming.</t>
+  </si>
+  <si>
+    <t>hǎo de ，hǎo de 。wǒ lái le 。</t>
+  </si>
+  <si>
+    <t>A: 看，这是我们需要完成的家务清单。你可以</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A: OK, here’s a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>list of chores</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> we need to get done.</t>
+    </r>
+  </si>
+  <si>
+    <t>扫地，拖地。还有家具需要除尘。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you can sweep and mop the floors. Oh, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kàn ，zhè shì wǒ men xū yào wán chéng </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">and the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A65D"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>furniture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> needs to be done.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>de jiā wù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> qīng dān</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。nǐ kě yǐ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sǎo dì ，tuō dì 。hái yǒu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A65D"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>jiā jù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> xū yào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>chú chén</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>clean the dust</t>
+  </si>
+  <si>
+    <t>B: 你知道吗？我必须得去商场拿个东西。所以，</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">B: You know what? I have to pick something up at the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>mall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>你为什么不打扫地板，我去超市买所有东西？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so why don’t you clean the floors and I’ll go to the </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nǐ zhī dào ma ？wǒ bì xū dé qù </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>shāng chǎng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A65D"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>supermarket</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and get all the groceries.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> ná gè dōng xī 。suǒ yǐ ，</t>
+  </si>
+  <si>
+    <t>all of things</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nǐ wéi shen me bú dǎ sǎo dì bǎn ，wǒ qù chāo shì mǎi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>suǒ yǒu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> dōng xī ？</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 当然可以，这很好。这是所有你需要买的东西清单，</t>
+  </si>
+  <si>
+    <t>A: Sure, that’s fine. Here is the list of all things you need to get.</t>
+  </si>
+  <si>
+    <t>别忘记了。还有，你可以在回家的路上买一瓶酒吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don’t forget anything. Can you pick up a bottle of wine on </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dāng rán kě yǐ ，zhè hěn hǎo 。zhè shì suǒ yǒu </t>
+  </si>
+  <si>
+    <t>your way home?</t>
+  </si>
+  <si>
+    <t>nǐ xū yào mǎi de dōng xī qīng dān ，</t>
+  </si>
+  <si>
+    <t>bié wàng jì le 。hái yǒu ，nǐ kě yǐ zài huí jiā de lù shàng mǎi yī píng jiǔ ma ？</t>
+  </si>
+  <si>
+    <t>B: 嗨，亲爱的。我回来了。哇，房子看起来很干净啊。</t>
+  </si>
+  <si>
+    <t>B: Hey. Honey i’m back. Wow, the house looks really good.</t>
+  </si>
+  <si>
+    <t>hēi ，qīn ài de 。wǒ huí lái le 。wa ，fáng zǐ kàn qǐ lái hěn gān  jìng ā 。</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>A: 你能把桌子布置一下吗？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Great! Can you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A65D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">nǐ néng bǎ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A65D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zhuō zǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">bù zhì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yī xià ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 稍等一下。</t>
+  </si>
+  <si>
+    <t>B: Just a second.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shāo děng yī xià </t>
   </si>
 </sst>
 </file>
@@ -2500,7 +3204,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2516,6 +3220,24 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00864B"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00A65D"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEF413D"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -2680,6 +3402,36 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFED1C24"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFED1C24"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00A65D"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3015,145 +3767,151 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3473,186 +4231,186 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="3:22">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="4:24">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:22">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="V7" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="4:23">
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="W8" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="3:22">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="V11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="3:22">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="V14" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="4:23">
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W15" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="3:22">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="V17" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="3:22">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="V20" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="4:23">
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="W21" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="4:23">
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="W22" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="3:22">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="V24" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="3:22">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="V27" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="4:23">
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="W28" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="7:7">
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3674,225 +4432,225 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="4:24">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="X4" s="4"/>
+      <c r="X4" s="10"/>
     </row>
     <row r="5" spans="8:13">
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="T6" s="1" t="s">
+      <c r="D6" s="10"/>
+      <c r="T6" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="3:20">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="3:20">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="T12" s="1" t="s">
+      <c r="D12" s="10"/>
+      <c r="T12" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="3:20">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="T15" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="3:20">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="T18" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="3:20">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="T21" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="3:20">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="T24" s="1" t="s">
+      <c r="T24" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="3:20">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="T27" s="1" t="s">
+      <c r="T27" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="28" spans="4:21">
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="U28" s="1" t="s">
+      <c r="U28" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" spans="3:20">
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="T31" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="34" spans="3:20">
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="T34" s="1" t="s">
+      <c r="T34" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="37" spans="3:20">
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="T37" s="1" t="s">
+      <c r="T37" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="40" spans="3:20">
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="T40" s="1" t="s">
+      <c r="T40" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="41" spans="4:21">
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="U41" s="1" t="s">
+      <c r="U41" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="42" spans="4:4">
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="43" spans="4:4">
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="7" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3914,192 +4672,192 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="4:24">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="X4" s="4"/>
+      <c r="X4" s="10"/>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="4"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="9:9">
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="3:20">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T10" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="7" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="14" spans="3:20">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="T14" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="17" spans="3:20">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="T17" s="7" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="20" spans="3:20">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T20" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="7" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="23" spans="3:20">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="T23" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="26" spans="3:20">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="T26" s="1" t="s">
+      <c r="T26" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="27" spans="4:21">
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="U27" s="1" t="s">
+      <c r="U27" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="7" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31" spans="3:20">
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="T31" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="35" spans="4:20">
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="T35" s="1" t="s">
+      <c r="T35" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="36" spans="4:21">
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="U36" s="4" t="s">
+      <c r="U36" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="3:20">
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="T37" s="1" t="s">
+      <c r="T37" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="7" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4121,149 +4879,149 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="28" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="29" max="29" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="30" max="1045" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1046" max="16384" width="9" style="2"/>
+    <col min="1" max="28" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="29" max="29" width="2.73148148148148" style="7" customWidth="1"/>
+    <col min="30" max="1045" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="1046" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="3" spans="2:23">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" s="7" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="6" spans="2:23">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="W6" s="7" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="7" spans="3:24">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="X7" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="10" spans="2:23">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="W10" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="13" spans="2:23">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="W13" s="7" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="16" spans="2:23">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="W16" s="7" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="19" spans="2:23">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="W19" s="7" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="22" spans="2:23">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="W22" s="7" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="23" spans="3:24">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="X23" s="1" t="s">
+      <c r="X23" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="7" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="26" spans="2:23">
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="W26" s="7" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="11" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4285,216 +5043,216 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="28" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="29" max="29" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="30" max="1045" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1046" max="16384" width="9" style="2"/>
+    <col min="1" max="28" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="29" max="29" width="2.73148148148148" style="7" customWidth="1"/>
+    <col min="30" max="1045" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="1046" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="7" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="4" spans="3:21">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" s="7" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="9" spans="2:20">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" s="7" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="10" spans="3:21">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="U10" s="7" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="12" spans="2:20">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="T12" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="13" spans="3:21">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="U13" s="7" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="7" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" s="7" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="T19" s="7" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="20" spans="3:21">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="U20" s="7" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="7" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="7" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="23" spans="2:44">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="T23" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="AR23" s="1" t="s">
+      <c r="AR23" s="7" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="24" spans="3:21">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="U24" s="1" t="s">
+      <c r="U24" s="7" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="7" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="7" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="T27" s="1" t="s">
+      <c r="C27" s="11"/>
+      <c r="T27" s="7" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="28" spans="3:21">
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="U28" s="1" t="s">
+      <c r="U28" s="7" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="7" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="31" spans="2:20">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="T31" s="7" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="34" spans="2:20">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="T34" s="1" t="s">
+      <c r="T34" s="7" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="35" spans="3:3">
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="7" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4510,162 +5268,445 @@
   <sheetPr/>
   <dimension ref="B1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="28" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="29" max="29" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="30" max="1045" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1046" max="16384" width="9" style="2"/>
+    <col min="1" max="28" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="29" max="29" width="2.73148148148148" style="7" customWidth="1"/>
+    <col min="30" max="1045" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="1046" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="3" spans="2:22">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="6" spans="2:22">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="V6" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="7" spans="3:23">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="W7" s="7" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="9" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="10" spans="2:22">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="V10" s="1" t="s">
+      <c r="V10" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="V13" s="1" t="s">
+      <c r="V13" s="7" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="10" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="16" spans="2:22">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="V16" s="7" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="17" spans="3:23">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="W17" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="18" spans="3:3">
+      <c r="C18" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22">
+      <c r="B20" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="V20" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22">
+      <c r="B26" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="V26" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:AA49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="4:4">
+      <c r="D2" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="3:26">
+      <c r="C3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z3" s="3"/>
+    </row>
+    <row r="4" spans="4:22">
+      <c r="D4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="4:22">
+      <c r="D5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="4:22">
+      <c r="D6" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="4:27">
+      <c r="D8" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA8" s="4"/>
+    </row>
+    <row r="9" spans="4:27">
+      <c r="D9" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA9" s="4"/>
+    </row>
+    <row r="10" spans="3:21">
+      <c r="C10" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="4:22">
+      <c r="D11" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="3:21">
+      <c r="C12" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="3:21">
+      <c r="C15" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="4:26">
+      <c r="D16" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z16" s="6"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="3:21">
       <c r="C18" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22">
-      <c r="B20" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="V20" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="2:22">
-      <c r="B23" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="26" spans="2:22">
-      <c r="B26" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C26" s="1"/>
+        <v>260</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="4:22">
+      <c r="D19" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="U19" s="4"/>
+      <c r="V19" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="4:22">
+      <c r="D20" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="4:21">
+      <c r="D22" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21">
+      <c r="C23" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="U23" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="4:22">
+      <c r="D24" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="4:22">
+      <c r="D25" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="4:22">
+      <c r="D26" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="L26" s="4"/>
       <c r="V26" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12">
+      <c r="D27" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="3:21">
+      <c r="C28" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29" spans="4:22">
+      <c r="D29" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="4:22">
+      <c r="D30" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33" spans="3:21">
+      <c r="C33" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35" spans="24:24">
+      <c r="X35" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="3:21">
+      <c r="C37" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="40" spans="3:21">
+      <c r="C40" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="49" ht="23.05" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/learn_chinese2024.xlsx
+++ b/learn_chinese2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="6"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="20240107" sheetId="4" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="20240303" sheetId="8" r:id="rId5"/>
     <sheet name="202403010" sheetId="9" r:id="rId6"/>
     <sheet name="20240317" sheetId="10" r:id="rId7"/>
+    <sheet name="20240324" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="330">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -2902,6 +2903,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">sǎo dì ，tuō dì 。hái yǒu </t>
     </r>
     <r>
@@ -3192,6 +3199,560 @@
   </si>
   <si>
     <t xml:space="preserve">shāo děng yī xià </t>
+  </si>
+  <si>
+    <t>I Need more Time.</t>
+  </si>
+  <si>
+    <t>A: Casey, 这组新闻资料的照片处理的怎么样了？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A: So，Casey, How are things going with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF009353"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>photos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> for </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Casey, zhè zǔ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>xīn wén zī liào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF009353"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>zhào piàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>press kit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B75BC"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>chù lǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> de zěn me yàng le ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B:嗯，我刚才正想跟你说这个事情，我可能需要</t>
+  </si>
+  <si>
+    <t>B: Yeah, i’ve been meaning to talk to you about that.</t>
+  </si>
+  <si>
+    <t>延长截止时间。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">I might need to ask for an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>extension</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> on that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF009353"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>deadline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>èn ，wǒ gāng cái zhèng xiǎng gēn nǐ shuō zhè gè shì qíng ，</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ kě néng xū yào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>yán chang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF009353"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> jié zhǐ shí jiān</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 你有一个多月的时间来完成，为什么事情还要延迟？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A:  You’ve had over a month for get this </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>finalized</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nǐ yǒu yī gè duō yuè de shí jiān lái </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>wán chéng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">why are things </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF009353"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>delayed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>wéi shen me shì qíng hái yào yán chí ？</t>
+  </si>
+  <si>
+    <t>B: 嗯，问题是我们遇到很多问题。</t>
+  </si>
+  <si>
+    <t>B: Well, we ran into a lot of problems.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">èn ，wèn tí shì wǒ men </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B75BC"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>yù dào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> hěn duō wèn tí 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 我不想听理由，我只想事情准时完成。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A: I’m not looking for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>excuses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> here. I just want to </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ bú xiǎng tīng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>lǐ yóu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，wǒ zhī xiǎng shì qíng</t>
+    </r>
+  </si>
+  <si>
+    <t>get the finished on time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> zhǔn shí wán chéng 。</t>
+  </si>
+  <si>
+    <t>B: 我知道了，实在是抱歉。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">B: I know. And I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>apologize</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> for the delay.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> wǒ zhī dào le ，shí zài shì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>bào qiàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>A: 我不会再把这个延期了，Casey，我现在马上要</t>
+  </si>
+  <si>
+    <t>A: I’m not going to put this off any longer. Casey,</t>
+  </si>
+  <si>
+    <t>拿到照片。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">I want those photos </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ASAP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>wǒ bú huì zài bǎ zhè gè yán qī le ，</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Casey，wǒ xiàn zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>mǎ shàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> yào </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3204,7 +3765,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3225,7 +3786,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF1B75BC"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00599D"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF00864B"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF407927"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -3405,13 +3990,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFED1C24"/>
+      <color rgb="FF009353"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFCE181E"/>
+      <color rgb="FFED1C24"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -3767,151 +4352,152 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4231,186 +4817,186 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="8"/>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="3:22">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="4:24">
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="X4" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:22">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="7" t="s">
+      <c r="V7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="4:23">
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="W8" s="7" t="s">
+      <c r="W8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="3:22">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V11" s="7" t="s">
+      <c r="V11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="3:22">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V14" s="7" t="s">
+      <c r="V14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="4:23">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W15" s="7" t="s">
+      <c r="W15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="3:22">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V17" s="7" t="s">
+      <c r="V17" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="3:22">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V20" s="7" t="s">
+      <c r="V20" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="4:23">
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W21" s="7" t="s">
+      <c r="W21" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="4:23">
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W22" s="7" t="s">
+      <c r="W22" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="3:22">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V24" s="7" t="s">
+      <c r="V24" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="3:22">
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V27" s="7" t="s">
+      <c r="V27" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="4:23">
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="W28" s="7" t="s">
+      <c r="W28" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="7:7">
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4432,225 +5018,225 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="8"/>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="4:24">
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="X4" s="10"/>
+      <c r="X4" s="11"/>
     </row>
     <row r="5" spans="8:13">
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="T6" s="7" t="s">
+      <c r="D6" s="11"/>
+      <c r="T6" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="3:20">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="T9" s="7" t="s">
+      <c r="T9" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="3:20">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="T12" s="7" t="s">
+      <c r="D12" s="11"/>
+      <c r="T12" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="3:20">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T15" s="7" t="s">
+      <c r="T15" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="3:20">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="T18" s="7" t="s">
+      <c r="T18" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="3:20">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T21" s="7" t="s">
+      <c r="T21" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="3:20">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T24" s="7" t="s">
+      <c r="T24" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="3:20">
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="T27" s="7" t="s">
+      <c r="T27" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="28" spans="4:21">
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="U28" s="7" t="s">
+      <c r="U28" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" spans="3:20">
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="T31" s="7" t="s">
+      <c r="T31" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="34" spans="3:20">
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T34" s="7" t="s">
+      <c r="T34" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="37" spans="3:20">
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="T37" s="7" t="s">
+      <c r="T37" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="40" spans="3:20">
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T40" s="7" t="s">
+      <c r="T40" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="41" spans="4:21">
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="U41" s="7" t="s">
+      <c r="U41" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="42" spans="4:4">
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="43" spans="4:4">
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4672,192 +5258,192 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="8"/>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="4:24">
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X4" s="10"/>
+      <c r="X4" s="11"/>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="10"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="T6" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="9:9">
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="3:20">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="T10" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="14" spans="3:20">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="T14" s="7" t="s">
+      <c r="T14" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="17" spans="3:20">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="T17" s="7" t="s">
+      <c r="T17" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="20" spans="3:20">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="T20" s="7" t="s">
+      <c r="T20" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="23" spans="3:20">
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="T23" s="7" t="s">
+      <c r="T23" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="26" spans="3:20">
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="T26" s="7" t="s">
+      <c r="T26" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="27" spans="4:21">
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="U27" s="7" t="s">
+      <c r="U27" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31" spans="3:20">
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="T31" s="7" t="s">
+      <c r="T31" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="35" spans="4:20">
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="T35" s="7" t="s">
+      <c r="T35" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="36" spans="4:21">
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="U36" s="10" t="s">
+      <c r="U36" s="11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="3:20">
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="T37" s="7" t="s">
+      <c r="T37" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4879,149 +5465,149 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="28" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="29" max="29" width="2.73148148148148" style="7" customWidth="1"/>
-    <col min="30" max="1045" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="1046" max="16384" width="9" style="8"/>
+    <col min="1" max="28" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="29" max="29" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="30" max="1045" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1046" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="3" spans="2:23">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="W3" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="6" spans="2:23">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="W6" s="7" t="s">
+      <c r="W6" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="7" spans="3:24">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="X7" s="7" t="s">
+      <c r="X7" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="10" spans="2:23">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="W10" s="7" t="s">
+      <c r="W10" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="13" spans="2:23">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="W13" s="7" t="s">
+      <c r="W13" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="16" spans="2:23">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="W16" s="7" t="s">
+      <c r="W16" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="19" spans="2:23">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="W19" s="7" t="s">
+      <c r="W19" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="22" spans="2:23">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="W22" s="7" t="s">
+      <c r="W22" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="23" spans="3:24">
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="X23" s="7" t="s">
+      <c r="X23" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="26" spans="2:23">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="W26" s="7" t="s">
+      <c r="W26" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="12" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5043,216 +5629,216 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="28" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="29" max="29" width="2.73148148148148" style="7" customWidth="1"/>
-    <col min="30" max="1045" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="1046" max="16384" width="9" style="8"/>
+    <col min="1" max="28" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="29" max="29" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="30" max="1045" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1046" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="4" spans="3:21">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="U4" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="T6" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="9" spans="2:20">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="T9" s="7" t="s">
+      <c r="T9" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="10" spans="3:21">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="U10" s="7" t="s">
+      <c r="U10" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="12" spans="2:20">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="T12" s="7" t="s">
+      <c r="T12" s="1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="13" spans="3:21">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="U13" s="7" t="s">
+      <c r="U13" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="T16" s="7" t="s">
+      <c r="T16" s="1" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="T19" s="7" t="s">
+      <c r="T19" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="20" spans="3:21">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="U20" s="7" t="s">
+      <c r="U20" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="1" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="23" spans="2:44">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="T23" s="7" t="s">
+      <c r="T23" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AR23" s="7" t="s">
+      <c r="AR23" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="24" spans="3:21">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="U24" s="7" t="s">
+      <c r="U24" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="T27" s="7" t="s">
+      <c r="C27" s="12"/>
+      <c r="T27" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="28" spans="3:21">
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="U28" s="7" t="s">
+      <c r="U28" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="1" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="31" spans="2:20">
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="T31" s="7" t="s">
+      <c r="T31" s="1" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="34" spans="2:20">
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="T34" s="7" t="s">
+      <c r="T34" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="35" spans="3:3">
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5274,149 +5860,149 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="28" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="29" max="29" width="2.73148148148148" style="7" customWidth="1"/>
-    <col min="30" max="1045" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="1046" max="16384" width="9" style="8"/>
+    <col min="1" max="28" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="29" max="29" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="30" max="1045" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1046" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="3" spans="2:22">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="1" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="1" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="6" spans="2:22">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="V6" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="7" spans="3:23">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="W7" s="7" t="s">
+      <c r="W7" s="1" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="1" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="10" spans="2:22">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="V10" s="7" t="s">
+      <c r="V10" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="V13" s="7" t="s">
+      <c r="V13" s="1" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="16" spans="2:22">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="V16" s="7" t="s">
+      <c r="V16" s="1" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="17" spans="3:23">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="W17" s="7" t="s">
+      <c r="W17" s="1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="1" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="20" spans="2:22">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="V20" s="7" t="s">
+      <c r="V20" s="1" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="1" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="23" spans="2:22">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="V23" s="7" t="s">
+      <c r="V23" s="1" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="1" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="26" spans="2:22">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="V26" s="7" t="s">
+      <c r="V26" s="1" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="1" t="s">
         <v>237</v>
       </c>
     </row>
@@ -5432,7 +6018,7 @@
   <sheetPr/>
   <dimension ref="C1:AA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A23" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
@@ -5461,13 +6047,13 @@
       <c r="U3" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="Z3" s="3"/>
+      <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="4:22">
       <c r="D4" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" s="2" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5480,35 +6066,35 @@
       </c>
     </row>
     <row r="6" spans="4:22">
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="V6" s="2" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="AA8" s="4"/>
+      <c r="AA8" s="6"/>
     </row>
     <row r="9" spans="4:27">
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="AA9" s="4"/>
+      <c r="AA9" s="6"/>
     </row>
     <row r="10" spans="3:21">
       <c r="C10" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="U10" s="2" t="s">
         <v>251</v>
       </c>
     </row>
@@ -5542,19 +6128,19 @@
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="Z16" s="6"/>
+      <c r="Z16" s="9"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="3"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="3:21">
       <c r="C18" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="U18" s="3" t="s">
+      <c r="U18" s="2" t="s">
         <v>261</v>
       </c>
     </row>
@@ -5562,7 +6148,7 @@
       <c r="D19" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="U19" s="4"/>
+      <c r="U19" s="6"/>
       <c r="V19" s="1" t="s">
         <v>263</v>
       </c>
@@ -5571,17 +6157,17 @@
       <c r="D20" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="V20" s="3" t="s">
+      <c r="V20" s="2" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="22" spans="4:21">
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>267</v>
       </c>
       <c r="U22" s="1" t="s">
@@ -5592,8 +6178,8 @@
       <c r="C23" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="U23" s="3" t="s">
+      <c r="D23" s="2"/>
+      <c r="U23" s="2" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5606,27 +6192,27 @@
       </c>
     </row>
     <row r="25" spans="4:22">
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="V25" s="5" t="s">
+      <c r="V25" s="8" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="26" spans="4:22">
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="L26" s="4"/>
+      <c r="L26" s="6"/>
       <c r="V26" s="1" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="L27" s="4"/>
+      <c r="L27" s="6"/>
     </row>
     <row r="28" spans="3:21">
       <c r="C28" s="1" t="s">
@@ -5653,12 +6239,12 @@
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>285</v>
       </c>
     </row>
@@ -5712,4 +6298,208 @@
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:AA50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.49074074074074" style="1" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="4:26">
+      <c r="D2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z2" s="4"/>
+    </row>
+    <row r="3" spans="3:20">
+      <c r="C3" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="4:21">
+      <c r="D4" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20">
+      <c r="C6" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="T6" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="4:27">
+      <c r="D7" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA7" s="6"/>
+    </row>
+    <row r="8" spans="4:27">
+      <c r="D8" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="AA8" s="6"/>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20">
+      <c r="C10" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="T10" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="4:24">
+      <c r="D11" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="X11" s="7"/>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="3:20">
+      <c r="C14" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="M14" s="4"/>
+      <c r="Q14" s="7"/>
+      <c r="T14" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="4:26">
+      <c r="D16" s="2"/>
+      <c r="Z16" s="9"/>
+    </row>
+    <row r="17" spans="3:20">
+      <c r="C17" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="T17" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="18" spans="4:21">
+      <c r="D18" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="4:21">
+      <c r="D19" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="U19" s="6"/>
+    </row>
+    <row r="20" spans="3:20">
+      <c r="C20" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="21" spans="4:19">
+      <c r="D21" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="S21" s="4"/>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="3:20">
+      <c r="C23" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="T23" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="4:21">
+      <c r="D24" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="25" spans="4:22">
+      <c r="D25" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="V25" s="8"/>
+    </row>
+    <row r="26" spans="4:12">
+      <c r="D26" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="50" ht="17.85" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/learn_chinese2024.xlsx
+++ b/learn_chinese2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="7"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="20240107" sheetId="4" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="202403010" sheetId="9" r:id="rId6"/>
     <sheet name="20240317" sheetId="10" r:id="rId7"/>
     <sheet name="20240324" sheetId="11" r:id="rId8"/>
+    <sheet name="20240414" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="352">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -3752,6 +3753,334 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> yào </t>
+    </r>
+  </si>
+  <si>
+    <t>Work Process</t>
+  </si>
+  <si>
+    <t>A:  嘿， Steven. 请坐，工作进行的怎么样了？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  Hi Steven, take a seat. How are things </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>at work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hēi ， Steven. qǐng zuò ，gōng zuò </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jìn xíng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  de zěn me yàng le ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 进展不错，但是时间上有点拖延。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: It's coming along well. But it's a little </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>delayed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">jìn zhǎn bú cuò ，dàn shì shí jiān shàng yǒu diǎn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tuō yán</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 能按时完成吗？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Can you finish it </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>on time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">néng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>àn shí</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> wán chéng ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B:我时间紧迫， 恐怕需要有人帮忙完成。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: I'm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pressed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for time and i'm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>afraid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> i need someone to help me.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ shí jiān </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jǐn pò</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ， </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kǒng pà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> xū yào yǒu rén bāng máng wán chéng </t>
+    </r>
+  </si>
+  <si>
+    <t>A: 好，我让Beker帮你。星期五一定要把书做好，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: Okay, i will let Beker to help you. We need to get the book done </t>
+  </si>
+  <si>
+    <t>并送到客户手里。不能拖延。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">and sent them to our </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> on Friday whitout delay.</t>
+    </r>
+  </si>
+  <si>
+    <t>hǎo ，wǒ ràng Bekerbāng nǐ 。xīng qī wǔ yī dìng yào bǎ shū zuò hǎo ，</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bìng sòng dào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kè hù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> shǒu lǐ 。bú néng tuō yán 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 好的，我保证做好。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Okay, we </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>promise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to do it well.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hǎo de ，wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bǎo zhèng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> zuò hǎo 。</t>
     </r>
   </si>
 </sst>
@@ -6305,7 +6634,7 @@
   <sheetPr/>
   <dimension ref="C1:AA50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A9" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -6502,4 +6831,132 @@
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:U20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.48148148148148" style="1" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="3:20">
+      <c r="C3" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20">
+      <c r="C6" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" ht="17.85" customHeight="1"/>
+    <row r="9" spans="3:20">
+      <c r="C9" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20">
+      <c r="C12" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="15" spans="3:20">
+      <c r="C15" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="16" spans="4:21">
+      <c r="D16" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20">
+      <c r="C19" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/learn_chinese2024.xlsx
+++ b/learn_chinese2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="1" activeTab="8"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="20240107" sheetId="4" r:id="rId1"/>
@@ -16,6 +16,8 @@
     <sheet name="20240317" sheetId="10" r:id="rId7"/>
     <sheet name="20240324" sheetId="11" r:id="rId8"/>
     <sheet name="20240414" sheetId="12" r:id="rId9"/>
+    <sheet name="20240421" sheetId="13" r:id="rId10"/>
+    <sheet name="20240505" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="424">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -3763,6 +3765,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  Hi Steven, take a seat. How are things </t>
     </r>
     <r>
@@ -3785,6 +3792,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">hēi ， Steven. qǐng zuò ，gōng zuò </t>
     </r>
     <r>
@@ -3810,6 +3822,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: It's coming along well. But it's a little </t>
     </r>
     <r>
@@ -3832,6 +3849,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">jìn zhǎn bú cuò ，dàn shì shí jiān shàng yǒu diǎn </t>
     </r>
     <r>
@@ -3857,6 +3879,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: Can you finish it </t>
     </r>
     <r>
@@ -3879,6 +3906,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">néng </t>
     </r>
     <r>
@@ -3904,6 +3936,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: I'm </t>
     </r>
     <r>
@@ -3943,6 +3980,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ shí jiān </t>
     </r>
     <r>
@@ -3991,6 +4033,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">and sent them to our </t>
     </r>
     <r>
@@ -4016,6 +4063,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">bìng sòng dào </t>
     </r>
     <r>
@@ -4041,6 +4093,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Okay, we </t>
     </r>
     <r>
@@ -4063,6 +4120,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">hǎo de ，wǒ </t>
     </r>
     <r>
@@ -4082,6 +4144,797 @@
       </rPr>
       <t xml:space="preserve"> zuò hǎo 。</t>
     </r>
+  </si>
+  <si>
+    <t>Planting Flowers</t>
+  </si>
+  <si>
+    <t>A: 喔，好漂亮的花园啊。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Oh, what a beautiful </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>garden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wō ，hǎo piāo liàng de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>huā yuán</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ā 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 这些是我种的玫瑰， 这些玫瑰已经开了一个星期了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: These are my </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>roses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. The roses have been in flower</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> zhè xiē shì wǒ zhòng  de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>méi guī</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ， </t>
+    </r>
+  </si>
+  <si>
+    <t>for a week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zhè xiē méi guī yǐ jīng kāi le yī gè xīng qī le </t>
+  </si>
+  <si>
+    <t>A: 玫瑰开花时，花园内很漂亮。你一定因为养花而获得</t>
+  </si>
+  <si>
+    <t>A:  The garden looks lovely when the roses are in bloom.</t>
+  </si>
+  <si>
+    <t>很多乐趣吧。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">You must have a lot of pleasure in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>planting flowers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">méi guī kāi huā shí ，huā yuán nèi hěn piāo liàng 。nǐ yī dìng yīn wéi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yǎng huā</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ér huò dé</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">hěn duō lè qù ba </t>
+  </si>
+  <si>
+    <t>B: 是啊，你说对了。我爱花，所以也爱养花。我得天天</t>
+  </si>
+  <si>
+    <t>B: Yes, you're right. i love flowers and hence have taken to growing them</t>
+  </si>
+  <si>
+    <t>照顾我的花，就像朋友一样关心它们。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>take care of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> my flowers every day as if they are my good friends.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">shì ā ，nǐ shuō duì le 。wǒ ài huā ，suǒ yǐ yě ài yǎng huā 。wǒ dé tiān tiān </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">zhào gù wǒ de huā ，jiù xiàng péng yǒu yī yàng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>guān xīn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> tā men 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 你太棒了，我对养花已经厌恶了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A:  you did a good job, but i got </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tired of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> working in the garden.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">nǐ tài bàng le ，wǒ duì yǎng huā yǐ jīng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yàn wù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 我明白。不懂花的人养不好花。如果你有天想养花，我</t>
+  </si>
+  <si>
+    <t>B: Oh, i see. People who don't understand flowers won't be able to grow them well.</t>
+  </si>
+  <si>
+    <t>可以帮助你了解他们。这样你就不用担心你那漂亮</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">I can help you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>learn more</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> if you want to plant flowers one day. In this way, </t>
+    </r>
+  </si>
+  <si>
+    <t>的花园会被荒废了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">you need not be afraid of your own sweet flower garden's being </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>neglected</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">wǒ míng bái 。bú dǒng huā de rén yǎng bú hǎo huā 。rú guǒ nǐ yǒu tiān xiǎng yǎng huā ，wǒ </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">kě yǐ bāng zhù nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>liáo  jiě</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> tā men 。zhè yàng nǐ jiù bú yòng dān xīn nǐ nà piāo liàng </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">de huā yuán huì bèi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>huāng fèi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le 。</t>
+    </r>
+  </si>
+  <si>
+    <t>Movie star</t>
+  </si>
+  <si>
+    <t>A: 她很漂亮，不是吗？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:She's so </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>beautiful</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, isn't she?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> tā hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>piāo liàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，bú shì ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 谁？</t>
+  </si>
+  <si>
+    <t>B: Who?</t>
+  </si>
+  <si>
+    <t>shuí ？</t>
+  </si>
+  <si>
+    <t>A: Julia</t>
+  </si>
+  <si>
+    <t>A: Julia.</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>B: 是的，她很有魅力，我很喜欢她。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Yeah, she is so </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>charming</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, I like her too.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">shì de ，tā hěn yǒu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mèi lì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，wǒ hěn xǐ huān tā 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A:听说她的电影马上上映了。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: It's said that her </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>new movie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> is going to come out.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tīng shuō tā de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>diàn yǐng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> mǎ shàng shàng yìng le 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 关于什么的电影？</t>
+  </si>
+  <si>
+    <t>B: What's the movie about?</t>
+  </si>
+  <si>
+    <t>guān yú shen me de diàn yǐng ？</t>
+  </si>
+  <si>
+    <t>A: 我不太清楚。</t>
+  </si>
+  <si>
+    <t>A: i'm not sure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wǒ bú tài qīng chǔ </t>
+  </si>
+  <si>
+    <t>B: 看一部你一点都不了解的电影， 你不觉得有问题吗？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: isn't it have some problem to see a movie that you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>know nothing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> about?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kàn yī bù nǐ yī diǎn dōu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bú liao jiě</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> de diàn yǐng ，</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> nǐ bú jue dé yǒu wèn tí ma</t>
+  </si>
+  <si>
+    <t>A: 我已经告诉你了， 我去看Julie的出演了。 我喜欢她，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: I already told you because Julie is in it, i like her because she's </t>
+  </si>
+  <si>
+    <t>不仅仅是因为她是一个出色的演员，也因为她很好，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not only a great actor, But also is very generous to give </t>
+  </si>
+  <si>
+    <t>为人类做出了很多贡献。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a lot of to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>many kinds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> of human.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">wǒ yǐ jīng gào sù nǐ le ， wǒ qù kàn Julie de chū yǎn le 。 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ xǐ huān tā ，bú jǐn jǐn shì yīn wéi tā shì yī gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>chū sè</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> de yǎn yuán ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">yě yīn wéi tā hěn hǎo，wéi rén lèi zuò chū le hěn duō </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gòng xiàn</t>
+    </r>
+  </si>
+  <si>
+    <t>B:是的，她很棒， 她关心社会， 我也很喜欢她。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Yeah, she's great. i also admire her for her </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>care about</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> society.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">shì de ，tā hěn bàng ， tā </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>guān xīn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> shè huì ，</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> wǒ yě hěn xǐ huān tā 。</t>
   </si>
 </sst>
 </file>
@@ -4094,7 +4947,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4319,6 +5172,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF009353"/>
       <name val="等线"/>
       <charset val="1"/>
@@ -4344,12 +5209,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00A65D"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -5336,6 +6195,382 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:Y25"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.48148148148148" style="1" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="4:4">
+      <c r="D2" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="3:24">
+      <c r="C3" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="3:24">
+      <c r="C6" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="4:25">
+      <c r="D7" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" ht="17.85" customHeight="1" spans="4:4">
+      <c r="D8" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="3:24">
+      <c r="C9" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="10" spans="4:25">
+      <c r="D10" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="3:24">
+      <c r="C13" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="4:25">
+      <c r="D14" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="17" spans="3:24">
+      <c r="C17" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="20" spans="3:24">
+      <c r="C20" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="21" spans="4:25">
+      <c r="D21" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="22" spans="4:25">
+      <c r="D22" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:W35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.48148148148148" style="1" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="4:4">
+      <c r="D2" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" spans="3:22">
+      <c r="C3" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="6" spans="3:22">
+      <c r="C6" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9" spans="3:22">
+      <c r="C9" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="12" spans="3:22">
+      <c r="C12" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="15" spans="3:22">
+      <c r="C15" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22">
+      <c r="C18" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22">
+      <c r="C21" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22">
+      <c r="C24" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22">
+      <c r="C27" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="28" spans="4:23">
+      <c r="D28" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="29" spans="4:23">
+      <c r="D29" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="33" spans="3:22">
+      <c r="C33" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -6838,8 +8073,8 @@
   <sheetPr/>
   <dimension ref="C1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>

--- a/learn_chinese2024.xlsx
+++ b/learn_chinese2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="3" activeTab="10"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="20240107" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="20240414" sheetId="12" r:id="rId9"/>
     <sheet name="20240421" sheetId="13" r:id="rId10"/>
     <sheet name="20240505" sheetId="14" r:id="rId11"/>
+    <sheet name="20240602" sheetId="16" r:id="rId12"/>
+    <sheet name="20240609" sheetId="17" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="510">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -4588,6 +4590,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:She's so </t>
     </r>
     <r>
@@ -4610,6 +4617,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> tā hěn </t>
     </r>
     <r>
@@ -4653,6 +4665,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Yeah, she is so </t>
     </r>
     <r>
@@ -4675,6 +4692,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">shì de ，tā hěn yǒu </t>
     </r>
     <r>
@@ -4700,6 +4722,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: It's said that her </t>
     </r>
     <r>
@@ -4722,6 +4749,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">tīng shuō tā de </t>
     </r>
     <r>
@@ -4765,6 +4797,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: isn't it have some problem to see a movie that you </t>
     </r>
     <r>
@@ -4787,6 +4824,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">kàn yī bù nǐ yī diǎn dōu </t>
     </r>
     <r>
@@ -4827,6 +4869,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">a lot of to </t>
     </r>
     <r>
@@ -4852,6 +4899,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ xǐ huān tā ，bú jǐn jǐn shì yīn wéi tā shì yī gè </t>
     </r>
     <r>
@@ -4874,6 +4926,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">yě yīn wéi tā hěn hǎo，wéi rén lèi zuò chū le hěn duō </t>
     </r>
     <r>
@@ -4891,6 +4948,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Yeah, she's great. i also admire her for her </t>
     </r>
     <r>
@@ -4913,6 +4975,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">shì de ，tā hěn bàng ， tā </t>
     </r>
     <r>
@@ -4935,6 +5002,776 @@
   </si>
   <si>
     <t xml:space="preserve"> wǒ yě hěn xǐ huān tā 。</t>
+  </si>
+  <si>
+    <t>quit somking</t>
+  </si>
+  <si>
+    <t>A: 亲爱的，我觉得你要戒烟了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A:Honey, i think you should </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>quit smoking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: qīn ài de ，wǒ jue dé nǐ yào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jiè yān</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 为什么？你以前不是说我抽烟的</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B:  Why? You said i was </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> when smoking.</t>
+    </r>
+  </si>
+  <si>
+    <t>时候很性感吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wéi shen me ？nǐ yǐ qián bú shì shuō wǒ chōu yān de </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">shí hòu hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xìng gǎn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 但是我更喜欢你健康。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A:  But i want you to be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dàn shì wǒ gèng xǐ huān nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jiàn kāng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 我知道吸烟有害。</t>
+  </si>
+  <si>
+    <t>B: Smoking is harmful to health, i know.</t>
+  </si>
+  <si>
+    <t>wǒ zhī dào xī yān yǒu hài 。</t>
+  </si>
+  <si>
+    <t>A: 看看这文章，上面说吸烟回导致癌症。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A:  Check out this article. It says smoking can </t>
+  </si>
+  <si>
+    <t>kàn kàn zhè wén zhāng ，</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lead to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> lung </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cancer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">shàng miàn shuō xī yān huì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dǎo zhì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ái zhèng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>肺  fei</t>
+  </si>
+  <si>
+    <t>B: 我才不相信呢？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B I don't </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>believe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> it.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wǒ cái bú </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xiang xìn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ne ？</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 但是你知道吸烟有害健康是吧？</t>
+  </si>
+  <si>
+    <t>A: But you know that somking does harm to health</t>
+  </si>
+  <si>
+    <t>dàn shì nǐ zhī dào xī yān yǒu hài jiàn kāng shì ba ？</t>
+  </si>
+  <si>
+    <t>right?</t>
+  </si>
+  <si>
+    <t>B:我当然知道吸烟有害健康，但是戒烟难啊。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: Of course i know it. But you know, it's hard to quit </t>
+  </si>
+  <si>
+    <t>wǒ dāng rán zhī dào xī yān yǒu hài jiàn kāng ，</t>
+  </si>
+  <si>
+    <t>somking.</t>
+  </si>
+  <si>
+    <t>dàn shì jiè yān nán ā 。</t>
+  </si>
+  <si>
+    <t>A: 别说废话了，你到底戒不戒烟</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Stop beating around the Bush</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. Will you quit or not?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bié shuō fèi huà le</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，nǐ dào dǐ jiè bú jiè yān  </t>
+    </r>
+  </si>
+  <si>
+    <t>相亲</t>
+  </si>
+  <si>
+    <t>Blind date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xiàng qīn </t>
+  </si>
+  <si>
+    <t>彩礼</t>
+  </si>
+  <si>
+    <t>Dowry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cǎi lǐ </t>
+  </si>
+  <si>
+    <t>嫁妆</t>
+  </si>
+  <si>
+    <t>dowry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jià zhuāng </t>
+  </si>
+  <si>
+    <t>高龄产妇</t>
+  </si>
+  <si>
+    <t>Elderly parturients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gāo líng chǎn fù </t>
+  </si>
+  <si>
+    <t>Making an appointment</t>
+  </si>
+  <si>
+    <t>A: 你好， 我能帮你什么吗？</t>
+  </si>
+  <si>
+    <t>A:Hello, How may i help you?</t>
+  </si>
+  <si>
+    <t>nǐ hǎo ， wǒ néng bāng nǐ shen me ma ？</t>
+  </si>
+  <si>
+    <t>B: 你好， 我是Julianna, 带电话想和MC 女士</t>
+  </si>
+  <si>
+    <r>
+      <t>B: Yes, This is Julianne, And i'm going to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> arrange</t>
+    </r>
+  </si>
+  <si>
+    <t>预约时间。</t>
+  </si>
+  <si>
+    <r>
+      <t>an appointment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> with Mrs. MC.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">nǐ hǎo ， wǒ shì Julianna, da diàn huà xiǎng hé MC nǚ shì </t>
+  </si>
+  <si>
+    <r>
+      <t>yù yuē</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> shí jiān 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 好的， 你想要预约哪一天？</t>
+  </si>
+  <si>
+    <t>A: Certainly, what day were you thing of?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hǎo de ， nǐ xiǎng yào yù yuē nǎ yī tiān ？</t>
+  </si>
+  <si>
+    <t>B: 周四可以吗？或者是她什么时候有空呢？</t>
+  </si>
+  <si>
+    <t>B: How's Thursday? Does she have any time available.</t>
+  </si>
+  <si>
+    <t>zhōu sì kě yǐ ma ？huò zhě shì tā shen me shí hòu yǒu kōng ne ？</t>
+  </si>
+  <si>
+    <t>A: 我在检查一下，  不好意思， 周四预约满了，</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Um, let me </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>double check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, unfortunately, she's booked</t>
+    </r>
+  </si>
+  <si>
+    <t>给你安排下周一可以吗？</t>
+  </si>
+  <si>
+    <r>
+      <t>solid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> on Thursday. How does next Monday work for you?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> wǒ zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jiǎn chá</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yī xià ，  bú hǎo yì sī ， zhōu sì yù yuē </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mǎn le</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">gěi nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ān pái</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> xià zhōu yī kě yǐ ma ？ </t>
+    </r>
+  </si>
+  <si>
+    <t>arrange</t>
+  </si>
+  <si>
+    <t>B:实际上， 周一我已经安排了一些事情， 周二</t>
+  </si>
+  <si>
+    <t>B: Actually, i've got something scheduled on Monday.</t>
+  </si>
+  <si>
+    <t>她有空吗？</t>
+  </si>
+  <si>
+    <t>Can she do Tuesday?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shí jì shàng ， zhōu yī wǒ yǐ jīng ān pái le yī xiē shì qíng ， zhōu èr </t>
+  </si>
+  <si>
+    <t>tā yǒu kōng ma ？</t>
+  </si>
+  <si>
+    <t>A:当然可以， 周二很好。请问您是哪里？</t>
+  </si>
+  <si>
+    <t>A; Sure. Tuesday's perfect. May i ask where you're calling from?</t>
+  </si>
+  <si>
+    <t>dāng rán kě yǐ ， zhōu èr hěn hǎo 。qǐng wèn nín shì nǎ lǐ ？</t>
+  </si>
+  <si>
+    <t>B:可以， 我是财务顾问。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B; Sure, i'm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Financial</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Advisers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kě yǐ ， wǒ shì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cái wù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gù wèn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A:其实周二时间不方便， 不好意思。</t>
+  </si>
+  <si>
+    <t>A: Tuesday's no good. Sorry about that.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">qí shí zhōu èr shí jiān </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bú fāng biàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ， bú hǎo yì sī 。</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4965,6 +5802,24 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5007,18 +5862,6 @@
       <color rgb="FFEF413D"/>
       <name val="等线"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -5169,12 +6012,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5540,16 +6377,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5558,119 +6392,122 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5686,6 +6523,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6033,7 +6871,7 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="X4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6043,7 +6881,7 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6082,7 +6920,7 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6374,8 +7212,8 @@
   <sheetPr/>
   <dimension ref="C1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -6562,6 +7400,437 @@
     <row r="35" spans="4:4">
       <c r="D35" s="1" t="s">
         <v>423</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:AD35"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="AD36" sqref="AD36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1030" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20">
+      <c r="B3" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="B6" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20">
+      <c r="B10" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="11" spans="3:23">
+      <c r="C11" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="W11" s="5"/>
+    </row>
+    <row r="13" spans="2:20">
+      <c r="B13" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="T13" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27">
+      <c r="B16" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:21">
+      <c r="C17" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30">
+      <c r="C18" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="B19" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="B22" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21">
+      <c r="C23" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25">
+      <c r="C26" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y26" s="3"/>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="B28" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:U31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1030" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20">
+      <c r="B3" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="B6" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="7" spans="3:21">
+      <c r="C7" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20">
+      <c r="B10" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20">
+      <c r="B13" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20">
+      <c r="B16" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="17" spans="3:21">
+      <c r="C17" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20">
+      <c r="C19" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="B20" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21">
+      <c r="C21" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="B24" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="B30" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="1" t="s">
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -6610,7 +7879,7 @@
       <c r="D4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="X4" s="11"/>
+      <c r="X4" s="3"/>
     </row>
     <row r="5" spans="8:13">
       <c r="H5" s="1" t="s">
@@ -6624,7 +7893,7 @@
       <c r="C6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="3"/>
       <c r="T6" s="1" t="s">
         <v>48</v>
       </c>
@@ -6651,7 +7920,7 @@
       <c r="C12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="3"/>
       <c r="T12" s="1" t="s">
         <v>54</v>
       </c>
@@ -6850,10 +8119,10 @@
       <c r="D4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X4" s="11"/>
+      <c r="X4" s="3"/>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="11"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="3:20">
       <c r="C6" s="1" t="s">
@@ -6994,7 +8263,7 @@
       <c r="D36" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="U36" s="11" t="s">
+      <c r="U36" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -7171,7 +8440,7 @@
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="13" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7357,7 +8626,7 @@
       <c r="B27" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="12"/>
+      <c r="C27" s="13"/>
       <c r="T27" s="1" t="s">
         <v>196</v>
       </c>
@@ -7475,7 +8744,7 @@
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="5" t="s">
         <v>216</v>
       </c>
     </row>
@@ -7501,7 +8770,7 @@
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="3" t="s">
         <v>222</v>
       </c>
     </row>
@@ -7646,13 +8915,13 @@
       <c r="D8" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="AA8" s="6"/>
+      <c r="AA8" s="9"/>
     </row>
     <row r="9" spans="4:27">
       <c r="D9" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="AA9" s="6"/>
+      <c r="AA9" s="9"/>
     </row>
     <row r="10" spans="3:21">
       <c r="C10" s="1" t="s">
@@ -7695,7 +8964,7 @@
       <c r="D16" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="Z16" s="9"/>
+      <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="2"/>
@@ -7712,7 +8981,7 @@
       <c r="D19" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="U19" s="6"/>
+      <c r="U19" s="9"/>
       <c r="V19" s="1" t="s">
         <v>263</v>
       </c>
@@ -7759,7 +9028,7 @@
       <c r="D25" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="V25" s="8" t="s">
+      <c r="V25" s="11" t="s">
         <v>274</v>
       </c>
     </row>
@@ -7767,7 +9036,7 @@
       <c r="D26" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="L26" s="6"/>
+      <c r="L26" s="9"/>
       <c r="V26" s="1" t="s">
         <v>276</v>
       </c>
@@ -7776,7 +9045,7 @@
       <c r="D27" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="L27" s="6"/>
+      <c r="L27" s="9"/>
     </row>
     <row r="28" spans="3:21">
       <c r="C28" s="1" t="s">
@@ -7892,7 +9161,7 @@
       <c r="D2" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="Z2" s="4"/>
+      <c r="Z2" s="7"/>
     </row>
     <row r="3" spans="3:20">
       <c r="C3" s="1" t="s">
@@ -7911,7 +9180,7 @@
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>301</v>
       </c>
     </row>
@@ -7931,13 +9200,13 @@
       <c r="U7" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="AA7" s="6"/>
+      <c r="AA7" s="9"/>
     </row>
     <row r="8" spans="4:27">
       <c r="D8" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="AA8" s="6"/>
+      <c r="AA8" s="9"/>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" s="2" t="s">
@@ -7948,7 +9217,7 @@
       <c r="C10" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="7"/>
       <c r="T10" s="2" t="s">
         <v>309</v>
       </c>
@@ -7960,7 +9229,7 @@
       <c r="U11" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="X11" s="7"/>
+      <c r="X11" s="10"/>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" s="2" t="s">
@@ -7974,9 +9243,9 @@
       <c r="C14" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="M14" s="4"/>
-      <c r="Q14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="M14" s="7"/>
+      <c r="Q14" s="10"/>
       <c r="T14" s="1" t="s">
         <v>314</v>
       </c>
@@ -7988,13 +9257,13 @@
     </row>
     <row r="16" spans="4:26">
       <c r="D16" s="2"/>
-      <c r="Z16" s="9"/>
+      <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="3:20">
       <c r="C17" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="7"/>
       <c r="T17" s="2" t="s">
         <v>317</v>
       </c>
@@ -8011,8 +9280,8 @@
       <c r="D19" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="L19" s="4"/>
-      <c r="U19" s="6"/>
+      <c r="L19" s="7"/>
+      <c r="U19" s="9"/>
     </row>
     <row r="20" spans="3:20">
       <c r="C20" s="1" t="s">
@@ -8026,16 +9295,16 @@
       <c r="D21" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="S21" s="4"/>
+      <c r="S21" s="7"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="4"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="3:20">
       <c r="C23" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="7"/>
       <c r="T23" s="1" t="s">
         <v>325</v>
       </c>
@@ -8052,13 +9321,13 @@
       <c r="D25" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="V25" s="8"/>
+      <c r="V25" s="11"/>
     </row>
     <row r="26" spans="4:12">
       <c r="D26" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="L26" s="6"/>
+      <c r="L26" s="9"/>
     </row>
     <row r="50" ht="17.85" customHeight="1"/>
   </sheetData>

--- a/learn_chinese2024.xlsx
+++ b/learn_chinese2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="5" activeTab="12"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="20240107" sheetId="4" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="20240505" sheetId="14" r:id="rId11"/>
     <sheet name="20240602" sheetId="16" r:id="rId12"/>
     <sheet name="20240609" sheetId="17" r:id="rId13"/>
+    <sheet name="20240616" sheetId="18" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="545">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -5470,6 +5471,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>B: Yes, This is Julianne, And i'm going to</t>
     </r>
     <r>
@@ -5487,6 +5493,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>an appointment</t>
     </r>
     <r>
@@ -5503,6 +5515,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>yù yuē</t>
     </r>
     <r>
@@ -5537,6 +5555,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: Um, let me </t>
     </r>
     <r>
@@ -5562,6 +5585,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>solid</t>
     </r>
     <r>
@@ -5575,6 +5604,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> wǒ zài </t>
     </r>
     <r>
@@ -5614,6 +5648,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">gěi nǐ </t>
     </r>
     <r>
@@ -5669,6 +5708,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B; Sure, i'm </t>
     </r>
     <r>
@@ -5708,6 +5752,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">kě yǐ ， wǒ shì </t>
     </r>
     <r>
@@ -5753,6 +5802,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">qí shí zhōu èr shí jiān </t>
     </r>
     <r>
@@ -5771,6 +5825,759 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> ， bú hǎo yì sī 。</t>
+    </r>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>B: 很抱歉，我来晚了。真不好意思让你等我。</t>
+  </si>
+  <si>
+    <r>
+      <t>B: I'm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> sorry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> i’m late. Really </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">sory </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">to have kept you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>waiting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>bào qiàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，wǒ lái wǎn le 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">zhēn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">bú hǎo yì sī </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ràng nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>děng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> wǒ 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 真没关系，你怎么会这么晚呢？</t>
+  </si>
+  <si>
+    <t>A: That’s quit alright. What made you so late.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">zhēn méi guān xì ，nǐ zěn me huì zhè me </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>wǎn ne</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 我正要出门的时候找不到门钥匙了。我记得</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: Well, when I was leaving. I just couldn’t </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>find</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to the door.</t>
+    </r>
+  </si>
+  <si>
+    <t>我把他放在桌子上了，可是就是找不到。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">I remembered that I put it on a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, but I just couldn’t find it.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ zhèng yào chū mén de shí hòu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>zhǎo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> bú dào mén</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> yào shí </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>le 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ jì dé wǒ bǎ tā fàng zài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>zhuō zǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> shàng le ，kě shì jiù shì zhǎo bú dào 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 后来找到了吗？</t>
+  </si>
+  <si>
+    <t>A: Did you find it at last?</t>
+  </si>
+  <si>
+    <t>hòu lái zhǎo dào le ma ？</t>
+  </si>
+  <si>
+    <t>B: 没有，我的妻子正好回来了，我就赶紧出来了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B:  No, my </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wife</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> just came back and I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">rushed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>out of the door.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">méi yǒu ，wǒ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">qī zǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zhèng hǎo huí lái le ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ jiù </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">gǎn jǐn chū lái </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>le 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 对我俩来说都很幸运，要不然我现在还在等着呢。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: it’s so </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fortunate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for both of you and me. Otherwise, I would still be waiting.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">duì wǒ liǎ lái shuō dōu hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">xìng yùn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <t>yào bú rán wǒ xiàn zài hái zài děng zhe ne 。</t>
+  </si>
+  <si>
+    <t>B: 是呀，更糟糕的是，我乘坐的那辆车半路上坏了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: Definitely, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>To make it worse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, the bus I took broke down </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>halfway</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">shì ya ，gèng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zāo gāo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> de shì ，wǒ chéng zuò de </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nà liàng chē </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>bàn lù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> shàng huài le 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A: 那你怎么来的？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>换</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>了一辆车吗？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A:  How did you come here? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Change</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to another bus?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>nà nǐ zěn me lái de ？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>huàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> le yī liàng chē ma ？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B:没有，我打车来的，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>要不然</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>还在路上呢。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: No. I got the taxi. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Otherwise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, i’d still be on the way.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>méi yǒu ，wǒ dǎ chē lái de ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yào bú rán</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> hái zài lù shàng ne 。</t>
     </r>
   </si>
 </sst>
@@ -5784,7 +6591,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5800,6 +6607,41 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEF413D"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1C1C1C"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1C1C1C"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -6015,6 +6857,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF62A73B"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF62A73B"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFED1C24"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFED1C24"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="9"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6027,21 +6893,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFED1C24"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFED1C24"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6377,137 +7231,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6524,6 +7378,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6871,7 +7731,7 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6881,7 +7741,7 @@
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6920,7 +7780,7 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7486,13 +8346,13 @@
       <c r="C11" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="W11" s="5"/>
+      <c r="W11" s="11"/>
     </row>
     <row r="13" spans="2:20">
       <c r="B13" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="9"/>
       <c r="T13" s="1" t="s">
         <v>437</v>
       </c>
@@ -7509,13 +8369,13 @@
       <c r="T16" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="AA16" s="3"/>
+      <c r="AA16" s="9"/>
     </row>
     <row r="17" spans="3:21">
       <c r="C17" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="U17" s="5" t="s">
+      <c r="U17" s="11" t="s">
         <v>442</v>
       </c>
     </row>
@@ -7574,7 +8434,7 @@
       <c r="U26" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="Y26" s="3"/>
+      <c r="Y26" s="9"/>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="1" t="s">
@@ -7590,7 +8450,7 @@
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="9" t="s">
         <v>459</v>
       </c>
     </row>
@@ -7650,8 +8510,8 @@
   <sheetPr/>
   <dimension ref="B1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -7699,7 +8559,7 @@
       <c r="C7" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="U7" s="9" t="s">
         <v>479</v>
       </c>
     </row>
@@ -7709,7 +8569,7 @@
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="9" t="s">
         <v>481</v>
       </c>
     </row>
@@ -7751,7 +8611,7 @@
       <c r="C17" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="U17" s="4" t="s">
+      <c r="U17" s="10" t="s">
         <v>491</v>
       </c>
     </row>
@@ -7764,7 +8624,7 @@
       <c r="C19" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="T19" s="5" t="s">
+      <c r="T19" s="11" t="s">
         <v>494</v>
       </c>
     </row>
@@ -7831,6 +8691,201 @@
     <row r="31" spans="3:3">
       <c r="C31" s="1" t="s">
         <v>509</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:AA30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4">
+      <c r="D3" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="4" spans="3:23">
+      <c r="C4" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="W4" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="7" spans="3:23">
+      <c r="C7" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="W7" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="10" spans="3:23">
+      <c r="C10" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="11" spans="4:24">
+      <c r="D11" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="13" spans="4:23">
+      <c r="D13" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="W13" s="6"/>
+    </row>
+    <row r="14" spans="3:23">
+      <c r="C14" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="W14" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="17" spans="3:27">
+      <c r="C17" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="AA17" s="2"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="7" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="19" spans="4:23">
+      <c r="D19" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="W19" s="6"/>
+    </row>
+    <row r="20" spans="3:23">
+      <c r="C20" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23">
+      <c r="C23" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23">
+      <c r="C26" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="W26" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="3:23">
+      <c r="C29" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="W29" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="1" t="s">
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -7879,7 +8934,7 @@
       <c r="D4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="X4" s="3"/>
+      <c r="X4" s="9"/>
     </row>
     <row r="5" spans="8:13">
       <c r="H5" s="1" t="s">
@@ -7893,7 +8948,7 @@
       <c r="C6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="9"/>
       <c r="T6" s="1" t="s">
         <v>48</v>
       </c>
@@ -7920,7 +8975,7 @@
       <c r="C12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="9"/>
       <c r="T12" s="1" t="s">
         <v>54</v>
       </c>
@@ -8119,10 +9174,10 @@
       <c r="D4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X4" s="3"/>
+      <c r="X4" s="9"/>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="3"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="3:20">
       <c r="C6" s="1" t="s">
@@ -8263,7 +9318,7 @@
       <c r="D36" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="U36" s="3" t="s">
+      <c r="U36" s="9" t="s">
         <v>125</v>
       </c>
     </row>
@@ -8440,7 +9495,7 @@
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="19" t="s">
         <v>159</v>
       </c>
     </row>
@@ -8626,7 +9681,7 @@
       <c r="B27" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="19"/>
       <c r="T27" s="1" t="s">
         <v>196</v>
       </c>
@@ -8744,7 +9799,7 @@
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="11" t="s">
         <v>216</v>
       </c>
     </row>
@@ -8770,7 +9825,7 @@
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="9" t="s">
         <v>222</v>
       </c>
     </row>
@@ -8915,13 +9970,13 @@
       <c r="D8" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="AA8" s="9"/>
+      <c r="AA8" s="15"/>
     </row>
     <row r="9" spans="4:27">
       <c r="D9" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="AA9" s="9"/>
+      <c r="AA9" s="15"/>
     </row>
     <row r="10" spans="3:21">
       <c r="C10" s="1" t="s">
@@ -8964,7 +10019,7 @@
       <c r="D16" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="Z16" s="12"/>
+      <c r="Z16" s="18"/>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="2"/>
@@ -8981,7 +10036,7 @@
       <c r="D19" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="U19" s="9"/>
+      <c r="U19" s="15"/>
       <c r="V19" s="1" t="s">
         <v>263</v>
       </c>
@@ -9028,7 +10083,7 @@
       <c r="D25" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="V25" s="11" t="s">
+      <c r="V25" s="17" t="s">
         <v>274</v>
       </c>
     </row>
@@ -9036,7 +10091,7 @@
       <c r="D26" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="L26" s="9"/>
+      <c r="L26" s="15"/>
       <c r="V26" s="1" t="s">
         <v>276</v>
       </c>
@@ -9045,7 +10100,7 @@
       <c r="D27" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="L27" s="9"/>
+      <c r="L27" s="15"/>
     </row>
     <row r="28" spans="3:21">
       <c r="C28" s="1" t="s">
@@ -9161,7 +10216,7 @@
       <c r="D2" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="Z2" s="7"/>
+      <c r="Z2" s="13"/>
     </row>
     <row r="3" spans="3:20">
       <c r="C3" s="1" t="s">
@@ -9180,7 +10235,7 @@
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="12" t="s">
         <v>301</v>
       </c>
     </row>
@@ -9200,13 +10255,13 @@
       <c r="U7" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="AA7" s="9"/>
+      <c r="AA7" s="15"/>
     </row>
     <row r="8" spans="4:27">
       <c r="D8" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="AA8" s="9"/>
+      <c r="AA8" s="15"/>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" s="2" t="s">
@@ -9217,7 +10272,7 @@
       <c r="C10" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="13"/>
       <c r="T10" s="2" t="s">
         <v>309</v>
       </c>
@@ -9229,7 +10284,7 @@
       <c r="U11" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="X11" s="10"/>
+      <c r="X11" s="16"/>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" s="2" t="s">
@@ -9243,9 +10298,9 @@
       <c r="C14" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="M14" s="7"/>
-      <c r="Q14" s="10"/>
+      <c r="D14" s="14"/>
+      <c r="M14" s="13"/>
+      <c r="Q14" s="16"/>
       <c r="T14" s="1" t="s">
         <v>314</v>
       </c>
@@ -9257,13 +10312,13 @@
     </row>
     <row r="16" spans="4:26">
       <c r="D16" s="2"/>
-      <c r="Z16" s="12"/>
+      <c r="Z16" s="18"/>
     </row>
     <row r="17" spans="3:20">
       <c r="C17" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="13"/>
       <c r="T17" s="2" t="s">
         <v>317</v>
       </c>
@@ -9280,8 +10335,8 @@
       <c r="D19" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="L19" s="7"/>
-      <c r="U19" s="9"/>
+      <c r="L19" s="13"/>
+      <c r="U19" s="15"/>
     </row>
     <row r="20" spans="3:20">
       <c r="C20" s="1" t="s">
@@ -9295,16 +10350,16 @@
       <c r="D21" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="S21" s="7"/>
+      <c r="S21" s="13"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="7"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" spans="3:20">
       <c r="C23" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="13"/>
       <c r="T23" s="1" t="s">
         <v>325</v>
       </c>
@@ -9321,13 +10376,13 @@
       <c r="D25" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="V25" s="11"/>
+      <c r="V25" s="17"/>
     </row>
     <row r="26" spans="4:12">
       <c r="D26" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="L26" s="9"/>
+      <c r="L26" s="15"/>
     </row>
     <row r="50" ht="17.85" customHeight="1"/>
   </sheetData>

--- a/learn_chinese2024.xlsx
+++ b/learn_chinese2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="6" activeTab="13"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="20240107" sheetId="4" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="20240602" sheetId="16" r:id="rId12"/>
     <sheet name="20240609" sheetId="17" r:id="rId13"/>
     <sheet name="20240616" sheetId="18" r:id="rId14"/>
+    <sheet name="20240630" sheetId="19" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="604">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -5835,6 +5836,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>B: I'm</t>
     </r>
     <r>
@@ -6578,6 +6584,890 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> hái zài lù shàng ne 。</t>
+    </r>
+  </si>
+  <si>
+    <t>Hesitate about doing</t>
+  </si>
+  <si>
+    <t>A: 你做好决定了吗？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Have you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>made up your mind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">nǐ zuò hǎo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jué dìng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le ma ？ </t>
+    </r>
+  </si>
+  <si>
+    <t>B: 你指的是什么？</t>
+  </si>
+  <si>
+    <t>B: What do you mean?</t>
+  </si>
+  <si>
+    <t>nǐ zhǐ de shì shen me ？</t>
+  </si>
+  <si>
+    <t>A:你决定好继续深造，还是毕业后在大城市找个工作。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: I mean, have you decided to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A65D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>continue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to study</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">nǐ jué dìng hǎo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A65D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jì xù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shēn zào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，hái shì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bì yè</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> hòu </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">or get a good job in a large city </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>after graduation?</t>
+    </r>
+  </si>
+  <si>
+    <t>zài dà chéng shì zhǎo gè gōng zuò 。</t>
+  </si>
+  <si>
+    <t>B: 我还没决定呢，我觉得这真的很难做选择。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: I haven’t decided yet. I think it’s really a hard </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>decision</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wǒ hái méi jué dìng ne ，wǒ jue dé zhè zhēn de hěn nán zuò </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xuǎn zé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 怎么会呢？其实很简单。如果你想学习的话，就继续</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: how come? it’s actually quite </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>simple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. If you want to study</t>
+    </r>
+  </si>
+  <si>
+    <t>你的学业。反之，你就在毕业后找一份稳定的工作。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you can continue your education, whereas you can </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">zěn me huì ne ？qí shí hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jiǎn dān</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。rú guǒ nǐ xiǎng xué xí de huà </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">find a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>steady</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> job </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>after</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> graduation.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">，jiù jì xù nǐ de xué yè 。fǎn zhī ，nǐ jiù zài bì yè hòu zhǎo yī fèn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>wěn dìng de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> gōng zuò 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 是啊，但是我的妈妈最近几年一直身体不好，我应该</t>
+  </si>
+  <si>
+    <t>B: Yes, but my mother has been in bad health.</t>
+  </si>
+  <si>
+    <t>担负起照顾家人的责任了，不是吗？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">I should </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>take care of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> my parents, shouldn’t I?</t>
+    </r>
+  </si>
+  <si>
+    <t>shì ā ，dàn shì wǒ de mā mā zuì jìn jǐ nián yī zhí shēn tǐ bú hǎo ，wǒ yīng gāi</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">dān fù qǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>zhào gù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> jiā rén de zé rèn le ，bú shì ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 你跟你家人说这件事了吗</t>
+  </si>
+  <si>
+    <t>A: Did you tell your parents about it?</t>
+  </si>
+  <si>
+    <t>nǐ gēn nǐ jiā rén shuō zhè jiàn shì le ma</t>
+  </si>
+  <si>
+    <t>B: 是的，但是我妈妈肯定支持我继续学习啊。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B:  Yes, But my mother </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>certainly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>supports</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> my continued study?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">shì de ，dàn shì wǒ mā mā </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kěn dìng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF62A73B"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zhī chí</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> wǒ jì xù xué xí ā </t>
+    </r>
+  </si>
+  <si>
+    <t>A: 那你爸爸呢？</t>
+  </si>
+  <si>
+    <t>A: what about your dad?</t>
+  </si>
+  <si>
+    <t>nà nǐ bà bà ne ？</t>
+  </si>
+  <si>
+    <t>B: 我爸爸让我自己做决定，所以我才不知道该怎么办。</t>
+  </si>
+  <si>
+    <t>B: My dad asked me to make my own decision. So I didn’t know what to do .</t>
+  </si>
+  <si>
+    <t>wǒ bà bà ràng wǒ zì jǐ zuò jué dìng ，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suō yǐ wǒ cái bú zhī dào gāi zěn me bàn </t>
+  </si>
+  <si>
+    <t>A: 明白了，这的确很难取舍，我有一个两全其美的办法。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: I see, it’s a really hard </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>choice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">. I guess there a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A65D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>good way to satisfy both sides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>míng bái le ，zhè di què hěn nán qǔ shě ，</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>wǒ yǒu yī gè</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A65D"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> liǎng quán qí měi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> de bàn fǎ </t>
+    </r>
+  </si>
+  <si>
+    <t>B: 什么办法。</t>
+  </si>
+  <si>
+    <t>B: what?\</t>
+  </si>
+  <si>
+    <t>shen me bàn fǎ 。</t>
+  </si>
+  <si>
+    <t>A: 英语系正好有一个职位空缺，你可以一边打工，一边学习</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A:  There is a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>vacancy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in the English department. You can study while working.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">yīng yǔ xì zhèng hǎo yǒu yī gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">zhí wèi kōng quē </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <t>nǐ kě yǐ yī biān dǎ gōng ，yī biān xué xí</t>
+  </si>
+  <si>
+    <t>B: 这样会不会影响我学习？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B:  But will it </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>affect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> my learning?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">zhè yàng huì bú huì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yǐng xiǎng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> wǒ xué xí ？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A: 别想太多，只要你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>努力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，我肯定你能收货很多的。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A:  Don’t think about it too much. As long as you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>work hard enough</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, i’m sure you will </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>get a log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">bié xiǎng tài duō ，zhī yào nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">nǔ lì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ kěn dìng nǐ néng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED1C24"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>shōu huò</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> hěn duō de 。</t>
     </r>
   </si>
 </sst>
@@ -6591,7 +7481,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="48">
+  <fonts count="49">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6612,18 +7502,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFEF413D"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF1C1C1C"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -6635,7 +7519,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF1C1C1C"/>
+      <color rgb="FFEF413D"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -6857,7 +7747,25 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFED1C24"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00A65D"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF62A73B"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -6866,12 +7774,6 @@
       <color rgb="FF62A73B"/>
       <name val="等线"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFED1C24"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6896,12 +7798,6 @@
       <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00A65D"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -8705,8 +9601,8 @@
   <sheetPr/>
   <dimension ref="C2:AA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -8731,18 +9627,18 @@
       <c r="C4" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="6"/>
       <c r="W4" s="1" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>514</v>
       </c>
     </row>
@@ -8750,7 +9646,7 @@
       <c r="C7" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="7"/>
       <c r="W7" s="1" t="s">
         <v>516</v>
       </c>
@@ -8777,27 +9673,27 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="W13" s="6"/>
+      <c r="W13" s="5"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="5"/>
       <c r="W14" s="1" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>526</v>
       </c>
     </row>
@@ -8811,7 +9707,7 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="4" t="s">
         <v>529</v>
       </c>
     </row>
@@ -8819,10 +9715,10 @@
       <c r="D19" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="W19" s="6"/>
+      <c r="W19" s="5"/>
     </row>
     <row r="20" spans="3:23">
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>531</v>
       </c>
       <c r="W20" s="1" t="s">
@@ -8830,12 +9726,12 @@
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>534</v>
       </c>
     </row>
@@ -8853,7 +9749,7 @@
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>538</v>
       </c>
     </row>
@@ -8861,24 +9757,24 @@
       <c r="C26" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="3"/>
       <c r="W26" s="1" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="4"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="3:23">
       <c r="C29" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="7"/>
       <c r="W29" s="1" t="s">
         <v>543</v>
       </c>
@@ -8887,6 +9783,299 @@
       <c r="D30" s="1" t="s">
         <v>544</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:AI50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="24" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="25" max="25" width="6.39814814814815" style="1" customWidth="1"/>
+    <col min="26" max="1021" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1022" max="1025" width="2.63888888888889" style="2" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4">
+      <c r="D3" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="4" spans="3:25">
+      <c r="C4" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="7" spans="3:25">
+      <c r="C7" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="10" spans="3:25">
+      <c r="C10" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="11" spans="4:26">
+      <c r="D11" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="13" spans="3:25">
+      <c r="C13" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="16" spans="3:25">
+      <c r="C16" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="17" spans="4:26">
+      <c r="D17" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="18" spans="4:26">
+      <c r="D18" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="20" spans="3:26">
+      <c r="C20" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="21" spans="4:26">
+      <c r="D21" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26">
+      <c r="C24" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26">
+      <c r="C27" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26">
+      <c r="C30" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="32" spans="27:27">
+      <c r="AA32" s="5"/>
+    </row>
+    <row r="33" spans="3:26">
+      <c r="C33" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="36" spans="3:26">
+      <c r="C36" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="39" spans="3:26">
+      <c r="C39" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="Z39" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="42" spans="3:26">
+      <c r="C42" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="Z42" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="45" spans="3:26">
+      <c r="C45" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="Z45" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="48" spans="3:26">
+      <c r="C48" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="Z48" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="50" spans="4:35">
+      <c r="D50" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="AI50" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/learn_chinese2024.xlsx
+++ b/learn_chinese2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="7" activeTab="14"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="8" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="20240107" sheetId="4" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="20240609" sheetId="17" r:id="rId13"/>
     <sheet name="20240616" sheetId="18" r:id="rId14"/>
     <sheet name="20240630" sheetId="19" r:id="rId15"/>
+    <sheet name="20240707" sheetId="20" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="669">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -6891,6 +6892,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">find a </t>
     </r>
     <r>
@@ -7469,6 +7475,552 @@
       </rPr>
       <t xml:space="preserve"> hěn duō de 。</t>
     </r>
+  </si>
+  <si>
+    <t>Having a Barbecue</t>
+  </si>
+  <si>
+    <t>A:明天的家庭烧烤所需要的一切都准备好了吗？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Is everything ready for the big </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>family barbecue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> tomorrow?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">míng tiān de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>jiā tíng shāo kǎo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> suǒ xū yào de yī qiē</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> dōu zhǔn bèi hǎo le ma ？</t>
+  </si>
+  <si>
+    <t>B:准备好了，牛排和肌肉都准备好了，我还买了</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: Yep, The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>steaks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>chicken</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> are ok, and i also bought hamburger </t>
+    </r>
+  </si>
+  <si>
+    <t>汉堡面包。</t>
+  </si>
+  <si>
+    <t>buns.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zhǔn bèi hǎo le ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>niú pái</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> hé </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jī ròu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> dōu zhǔn bèi hǎo le ，wǒ hái mǎi le </t>
+    </r>
+  </si>
+  <si>
+    <t>hàn bǎo miàn bāo</t>
+  </si>
+  <si>
+    <t>A: 我们还应该做几打热狗和烤肉串。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: We should also cook a couple of dozen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hot dogs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kebabs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ men hái yīng gāi zuò jǐ dǎ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>rè gǒu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> hé </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>kǎo ròu chuàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>B:是的，好主意。我们可以支起帐篷，</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: Yeah, good idea. We can set up the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> outside so we can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> form </t>
+    </r>
+  </si>
+  <si>
+    <t>这样太阳热的话，我们可以躲一下。</t>
+  </si>
+  <si>
+    <t>the sun if it gets too hot.</t>
+  </si>
+  <si>
+    <t>shì de ，hǎo zhǔ yì 。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wǒ men kě yǐ zhī qǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zhàng péng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，zhè yàng tài yáng rè de huà ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wǒ men kě yǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>duǒ yī xià</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A:  棒极了！我让Grace去拿一些冰啤酒。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A:  Great! i asked Grace to bring some </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>iced beers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> bàng jí le ！wǒ ràng Graceqù ná yī xiē </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bīng pí jiǔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>冷</t>
+  </si>
+  <si>
+    <t>凉</t>
+  </si>
+  <si>
+    <t>冰</t>
+  </si>
+  <si>
+    <t>冻</t>
+  </si>
+  <si>
+    <t>B: 这会是一次很棒的家庭烧烤。</t>
+  </si>
+  <si>
+    <t>B: This is gonna be a great barbecue.</t>
+  </si>
+  <si>
+    <t>zhè huì shì yī cì hěn bàng de jiā tíng shāo kǎo 。</t>
+  </si>
+  <si>
+    <t>A:天哪，不要啊，下雨了。。</t>
+  </si>
+  <si>
+    <t>A: Oh, no, it's rainning.</t>
+  </si>
+  <si>
+    <t>tiān nǎ ，bú yào ā ，xià yǔ le 。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lěng </t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liáng </t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bīng </t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dòng </t>
+  </si>
+  <si>
+    <t>freeze</t>
+  </si>
+  <si>
+    <t>温</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wēn </t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>河</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hé </t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>湖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hú </t>
+  </si>
+  <si>
+    <t>lake</t>
+  </si>
+  <si>
+    <t>江</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jiāng </t>
+  </si>
+  <si>
+    <t>热</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rè </t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>烈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liè </t>
+  </si>
+  <si>
+    <t>Lie</t>
+  </si>
+  <si>
+    <t>焰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yàn </t>
+  </si>
+  <si>
+    <t>flame</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t xml:space="preserve">huǒ </t>
+  </si>
+  <si>
+    <t>fire</t>
   </si>
 </sst>
 </file>
@@ -7481,7 +8033,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="50">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7502,12 +8054,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFEF413D"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF1C1C1C"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -7519,13 +8077,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFEF413D"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF1C1C1C"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -7747,6 +8299,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFED1C24"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -7790,12 +8354,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF009353"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -9627,18 +10185,18 @@
       <c r="C4" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="3"/>
       <c r="W4" s="1" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>514</v>
       </c>
     </row>
@@ -9646,7 +10204,7 @@
       <c r="C7" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="5"/>
       <c r="W7" s="1" t="s">
         <v>516</v>
       </c>
@@ -9673,27 +10231,27 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="W13" s="5"/>
+      <c r="W13" s="6"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="6"/>
       <c r="W14" s="1" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9707,7 +10265,7 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="7" t="s">
         <v>529</v>
       </c>
     </row>
@@ -9715,10 +10273,10 @@
       <c r="D19" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="W19" s="5"/>
+      <c r="W19" s="6"/>
     </row>
     <row r="20" spans="3:23">
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>531</v>
       </c>
       <c r="W20" s="1" t="s">
@@ -9726,12 +10284,12 @@
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>534</v>
       </c>
     </row>
@@ -9749,7 +10307,7 @@
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>538</v>
       </c>
     </row>
@@ -9757,24 +10315,24 @@
       <c r="C26" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="4"/>
       <c r="W26" s="1" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="4" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="3"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="3:23">
       <c r="C29" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="5"/>
       <c r="W29" s="1" t="s">
         <v>543</v>
       </c>
@@ -9796,8 +10354,8 @@
   <sheetPr/>
   <dimension ref="C2:AI50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T45" sqref="T45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -9864,7 +10422,7 @@
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>556</v>
       </c>
     </row>
@@ -9906,7 +10464,7 @@
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>566</v>
       </c>
     </row>
@@ -9927,17 +10485,17 @@
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="7" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="24" spans="3:26">
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>573</v>
       </c>
       <c r="Z24" s="1" t="s">
@@ -9976,7 +10534,7 @@
       </c>
     </row>
     <row r="32" spans="27:27">
-      <c r="AA32" s="5"/>
+      <c r="AA32" s="6"/>
     </row>
     <row r="33" spans="3:26">
       <c r="C33" s="1" t="s">
@@ -9992,7 +10550,7 @@
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="4" t="s">
         <v>585</v>
       </c>
     </row>
@@ -10010,7 +10568,7 @@
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>589</v>
       </c>
     </row>
@@ -10041,7 +10599,7 @@
       </c>
     </row>
     <row r="44" spans="4:4">
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="4" t="s">
         <v>596</v>
       </c>
     </row>
@@ -10072,10 +10630,333 @@
       </c>
     </row>
     <row r="50" spans="4:35">
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="4" t="s">
         <v>603</v>
       </c>
       <c r="AI50" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:Z39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="7" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1024" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1025" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22">
+      <c r="B4" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="V4" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="4" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="B7" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="V7" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="8" spans="3:23">
+      <c r="C8" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22">
+      <c r="B11" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="4" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="13" spans="3:22">
+      <c r="C13" s="4"/>
+      <c r="V13" s="6"/>
+    </row>
+    <row r="14" spans="2:22">
+      <c r="B14" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="V14" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="15" spans="3:23">
+      <c r="C15" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="17" spans="3:26">
+      <c r="C17" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="Z17" s="2"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="V19" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16">
+      <c r="C21" s="4"/>
+      <c r="M21" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22">
+      <c r="B22" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="V22" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22">
+      <c r="B25" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="V25" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="4" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" ht="14.4" spans="3:11">
+      <c r="C28" t="s">
+        <v>628</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="29" ht="14.4" spans="3:11">
+      <c r="C29" t="s">
+        <v>629</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="30" ht="14.4" spans="3:11">
+      <c r="C30" t="s">
+        <v>630</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="31" ht="14.4" spans="3:11">
+      <c r="C31" t="s">
+        <v>631</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="32" ht="14.4" spans="3:11">
+      <c r="C32" t="s">
+        <v>646</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="33" ht="14.4" spans="3:11">
+      <c r="C33" t="s">
+        <v>649</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="34" ht="14.4" spans="3:11">
+      <c r="C34" t="s">
+        <v>652</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="35" ht="14.4" spans="3:11">
+      <c r="C35" t="s">
+        <v>655</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="36" ht="14.4" spans="3:11">
+      <c r="C36" t="s">
+        <v>657</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="37" ht="14.4" spans="3:11">
+      <c r="C37" t="s">
+        <v>660</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="38" ht="14.4" spans="3:11">
+      <c r="C38" t="s">
+        <v>663</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="39" ht="14.4" spans="3:11">
+      <c r="C39" t="s">
+        <v>666</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>668</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/learn_chinese2024.xlsx
+++ b/learn_chinese2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="8" activeTab="15"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="9" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="20240107" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="20240616" sheetId="18" r:id="rId14"/>
     <sheet name="20240630" sheetId="19" r:id="rId15"/>
     <sheet name="20240707" sheetId="20" r:id="rId16"/>
+    <sheet name="20240714" sheetId="21" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="696">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -8021,6 +8022,366 @@
   </si>
   <si>
     <t>fire</t>
+  </si>
+  <si>
+    <t>bú yòng dān xīn ，wǒ xiang xìn xià yī cì nǐ huì zuò de gèng hǎo</t>
+  </si>
+  <si>
+    <r>
+      <t>B:虽然我知道在这种比赛种我总是很</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>紧张</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B: i didn't realize it was so difficult, thought i know </t>
+  </si>
+  <si>
+    <t>但我没想到会这么难？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">i'm always too </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nervous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in such </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>competition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">suī rán wǒ zhī dào zài zhè zhǒng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bǐ sài</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> zhǒng wǒ zǒng shì hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">jǐn zhāng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <t>dàn wǒ méi xiǎng dào huì zhè me nán ？</t>
+  </si>
+  <si>
+    <t>A: Doesn't matter, Forget it.</t>
+  </si>
+  <si>
+    <t>méi guān xì ，wàng le tā ba 。</t>
+  </si>
+  <si>
+    <t>B: 我觉得我没有表现好。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: i don't think i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>performed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> well.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wǒ jue dé wǒ méi yǒu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>biǎo xiàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> hǎo 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: Oh, that's much better than i did.</t>
+  </si>
+  <si>
+    <t>compare</t>
+  </si>
+  <si>
+    <t>B: 你能告诉我如何提高吗？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Can you tell me how to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>improve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> myself?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ néng gào sù wǒ rú hé </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tí gāo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 这个没有秘诀，你唯一要做的事就是多练，</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: There's no </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>secret</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> at all. The only thing for you to do </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">is to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>practice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> more. You will succeed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">zhè gè méi yǒu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mì jué</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，nǐ wéi yī yào zuò de shì jiù shì duō </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>liàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">nǐ huì chéng gōng de 。 </t>
+  </si>
+  <si>
+    <t>B: 谢谢你的鼓励。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Thank you for your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>encouragement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">xiè xiè nǐ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gǔ lì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>七上八下</t>
+  </si>
+  <si>
+    <t>笔</t>
   </si>
 </sst>
 </file>
@@ -8033,7 +8394,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="50">
+  <fonts count="51">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8299,6 +8660,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="1"/>
@@ -8324,12 +8697,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF62A73B"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF92D050"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -10647,7 +11014,7 @@
   <sheetPr/>
   <dimension ref="B2:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A21" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -10956,6 +11323,185 @@
       </c>
       <c r="K39" s="1" t="s">
         <v>668</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:U33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="7" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1024" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1025" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20">
+      <c r="B4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20">
+      <c r="B7" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="8" spans="3:21">
+      <c r="C8" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20">
+      <c r="B11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20">
+      <c r="B14" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="B20" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21">
+      <c r="C24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
   </sheetData>

--- a/learn_chinese2024.xlsx
+++ b/learn_chinese2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="9" activeTab="16"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="10" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="20240107" sheetId="4" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="20240630" sheetId="19" r:id="rId15"/>
     <sheet name="20240707" sheetId="20" r:id="rId16"/>
     <sheet name="20240714" sheetId="21" r:id="rId17"/>
+    <sheet name="20240721" sheetId="22" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="733">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -8028,6 +8029,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>B:虽然我知道在这种比赛种我总是很</t>
     </r>
     <r>
@@ -8056,6 +8062,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">i'm always too </t>
     </r>
     <r>
@@ -8095,6 +8106,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">suī rán wǒ zhī dào zài zhè zhǒng </t>
     </r>
     <r>
@@ -8146,6 +8162,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: i don't think i </t>
     </r>
     <r>
@@ -8168,6 +8189,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ jue dé wǒ méi yǒu </t>
     </r>
     <r>
@@ -8199,6 +8225,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Can you tell me how to </t>
     </r>
     <r>
@@ -8220,8 +8251,16 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">nǐ néng gào sù wǒ rú hé </t>
+    <t>A: 这个没有秘诀，你唯一要做的事就是多练，</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: There's no </t>
     </r>
     <r>
       <rPr>
@@ -8230,23 +8269,52 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>tí gāo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> ma ？</t>
-    </r>
-  </si>
-  <si>
-    <t>A: 这个没有秘诀，你唯一要做的事就是多练，</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A: There's no </t>
+      <t>secret</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> at all. The only thing for you to do </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">is to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>practice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> more. You will succeed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">zhè gè méi yǒu </t>
     </r>
     <r>
       <rPr>
@@ -8255,42 +8323,48 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>secret</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> at all. The only thing for you to do </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">is to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>practice</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> more. You will succeed.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">zhè gè méi yǒu </t>
+      <t>mì jué</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，nǐ wéi yī yào zuò de shì jiù shì duō </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>liàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">nǐ huì chéng gōng de 。 </t>
+  </si>
+  <si>
+    <t>B: 谢谢你的鼓励。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">xiè xiè nǐ de </t>
     </r>
     <r>
       <rPr>
@@ -8299,89 +8373,692 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>mì jué</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> ，nǐ wéi yī yào zuò de shì jiù shì duō </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>liàn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> ，</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">nǐ huì chéng gōng de 。 </t>
-  </si>
-  <si>
-    <t>B: 谢谢你的鼓励。</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">B: Thank you for your </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>encouragement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
+      <t>gǔ lì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>七上八下</t>
+  </si>
+  <si>
+    <t>笔</t>
+  </si>
+  <si>
+    <t>Far-sighted</t>
+  </si>
+  <si>
+    <t>A: 嗨，Arthur。 你怎么了？</t>
+  </si>
+  <si>
+    <t>A: Hello, Arthur, What seems to be the problem?</t>
+  </si>
+  <si>
+    <t>hēi ，Arthur。 nǐ zěn me le ？</t>
+  </si>
+  <si>
+    <t>B: Hey, 医生。我想我或许需要一副眼镜。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">B: Hey, doctor. I think I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B75BC"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>might</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> need </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>glasses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
       </rPr>
       <t>.</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">xiè xiè nǐ de </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>gǔ lì</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
+    <t>我头很痛，很难看清远处的东西。</t>
+  </si>
+  <si>
+    <t>i’m getting headaches and I really</t>
+  </si>
+  <si>
+    <t>但是我的视力一直很好。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">struggle to see things that are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF009353"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>far away</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Hey, yī shēng 。wǒ xiǎng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B75BC"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>wǒ huò</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> xǔ xū yào yī fù </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">But I have always have good </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>vision</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>yǎn jìng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。wǒ tóu hěn tòng ，hěn nán kàn qīng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF009353"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> yuǎn chù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> de dōng xī 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">dàn shì wǒ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>shì lì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> yī zhí hěn hǎo </t>
+    </r>
+  </si>
+  <si>
+    <t>A: 这样听起来，你可能得了远视眼。这样，遮住</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A: Sounds like you may </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> far-sighted. Okay,</t>
+    </r>
+  </si>
+  <si>
+    <t>左眼，读一下你前面的图表。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>cover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> your left eye and read the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>chart</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">zhè yàng tīng qǐ lái ，nǐ kě néng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>dé le</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> yuǎn shì yǎn 。</t>
+    </r>
+  </si>
+  <si>
+    <t>in front of you.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>zhè yàng ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>zhē zhù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> zuǒ yǎn ，dú yī xià nǐ qián miàn de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>tú biǎo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> 。</t>
     </r>
   </si>
   <si>
-    <t>七上八下</t>
-  </si>
-  <si>
-    <t>笔</t>
+    <t>B: 嗯，X, E, R, 3, 这个符号看的不清楚。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">B: Umm… X, E, R, 3.  and I can’t quite make out the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>symbol</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">èn ，X, E, R, 3, zhè gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>fú hào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> kàn de bú qīng chǔ 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: Arthur，你的视力糟糕透了。</t>
+  </si>
+  <si>
+    <t>A: Wow. Arthur! You’re as blind as a bat.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Arthur，nǐ de shì lì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> zāo gāo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> tòu le 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 是的，我知道我的视线有时真的很模糊。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">B: Yeah, I know my vision is really </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>blurry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> at times.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">shì de ，wǒ zhī dào wǒ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>shì xiàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> yǒu shí zhēn de hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>mó hú</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 好，那么你去另一个房间挑选一些镜框。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A:  Okay, then head on over to the other room and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF009353"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>pick out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> some </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B75BC"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>frames</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>hǎo ，nà me nǐ qù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> lìng yī gè</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> fáng jiān</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF009353"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> tiāo xuǎn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> yī xiē jìng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B75BC"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>kuàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 感谢医生。</t>
+  </si>
+  <si>
+    <t>B: Thanks.</t>
+  </si>
+  <si>
+    <t>gǎn xiè yī shēng 。</t>
+  </si>
+  <si>
+    <t>A: Arthur, 那是洗手间.</t>
+  </si>
+  <si>
+    <t>A: Arthur, that’s the bathroom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nà shì xǐ shǒu jiān </t>
   </si>
 </sst>
 </file>
@@ -8410,6 +9087,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00864B"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF407927"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00A65D"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEF413D"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -8474,37 +9181,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFCE181E"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF00599D"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00864B"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF407927"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00A65D"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFEF413D"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -8660,6 +9337,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF009353"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF92D050"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -8717,12 +9400,6 @@
       <color theme="9"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF009353"/>
-      <name val="等线"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -9182,17 +9859,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -9203,7 +9883,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -9524,186 +10209,186 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.63888888888889" style="9" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="9" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="9" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="3:22">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="4:24">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:22">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="V7" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="4:23">
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="W8" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="3:22">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="V11" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="3:22">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="V14" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="4:23">
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W15" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="3:22">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="V17" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="3:22">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="V20" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="4:23">
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="W21" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="4:23">
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="W22" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="3:22">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="V24" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="3:22">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="V27" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="4:23">
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="W28" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="7:7">
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="9" t="s">
         <v>40</v>
       </c>
     </row>
@@ -9725,159 +10410,159 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.48148148148148" style="1" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="2.62962962962963" style="9" customWidth="1"/>
+    <col min="3" max="3" width="2.48148148148148" style="9" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="9" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="9" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="9" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="3" spans="3:24">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="X3" s="9" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="9" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="6" spans="3:24">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="X6" s="9" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="7" spans="4:25">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Y7" s="9" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="8" ht="17.85" customHeight="1" spans="4:4">
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="9" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="9" spans="3:24">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="X9" s="9" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="10" spans="4:25">
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="Y10" s="9" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="9" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="9" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="13" spans="3:24">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="X13" s="9" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="14" spans="4:25">
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="Y14" s="1" t="s">
+      <c r="Y14" s="9" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="9" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="9" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="17" spans="3:24">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="X17" s="9" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="9" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="20" spans="3:24">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="X20" s="9" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="21" spans="4:25">
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="Y21" s="1" t="s">
+      <c r="Y21" s="9" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="22" spans="4:25">
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="Y22" s="1" t="s">
+      <c r="Y22" s="9" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="9" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="9" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="9" t="s">
         <v>384</v>
       </c>
     </row>
@@ -9899,187 +10584,187 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.48148148148148" style="1" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="2.62962962962963" style="9" customWidth="1"/>
+    <col min="3" max="3" width="2.48148148148148" style="9" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="9" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="9" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="9" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="3" spans="3:22">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="9" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="9" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="6" spans="3:22">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="V6" s="9" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="9" spans="3:22">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="V9" s="9" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="9" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="12" spans="3:22">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="V12" s="9" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="9" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="15" spans="3:22">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="V15" s="9" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="9" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="18" spans="3:22">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="V18" s="9" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="9" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="21" spans="3:22">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="V21" s="9" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="9" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="24" spans="3:22">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="V24" s="9" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="9" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="9" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="27" spans="3:22">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="V27" s="9" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="28" spans="4:23">
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="W28" s="9" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="29" spans="4:23">
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="W29" s="1" t="s">
+      <c r="W29" s="9" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="9" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="9" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="9" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="33" spans="3:22">
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="V33" s="1" t="s">
+      <c r="V33" s="9" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="9" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="9" t="s">
         <v>423</v>
       </c>
     </row>
@@ -10101,221 +10786,221 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.82407407407407" style="1" customWidth="1"/>
-    <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1030" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="2.62962962962963" style="9" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="9" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="9" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="9" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="9" customWidth="1"/>
+    <col min="1030" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="9" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="9" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="9" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="9" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="9" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T10" s="9" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="11" spans="3:23">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="W11" s="11"/>
+      <c r="W11" s="19"/>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="T13" s="1" t="s">
+      <c r="C13" s="17"/>
+      <c r="T13" s="9" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="9" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="16" spans="2:27">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="AA16" s="9"/>
+      <c r="AA16" s="17"/>
     </row>
     <row r="17" spans="3:21">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="U17" s="11" t="s">
+      <c r="U17" s="19" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="18" spans="3:30">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="AA18" s="1" t="s">
+      <c r="AA18" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="AD18" s="1">
+      <c r="AD18" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="T19" s="9" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="9" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="22" spans="2:20">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="T22" s="9" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="23" spans="3:21">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="U23" s="1" t="s">
+      <c r="U23" s="9" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="T25" s="1" t="s">
+      <c r="T25" s="9" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="26" spans="3:25">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="U26" s="1" t="s">
+      <c r="U26" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="Y26" s="9"/>
+      <c r="Y26" s="17"/>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="9" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="28" spans="2:20">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="T28" s="1" t="s">
+      <c r="T28" s="9" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="17" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="N32" s="9" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="N33" s="9" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="N34" s="9" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="N35" s="9" t="s">
         <v>471</v>
       </c>
     </row>
@@ -10337,180 +11022,180 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.82407407407407" style="1" customWidth="1"/>
-    <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1030" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="2.62962962962963" style="9" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="9" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="9" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="9" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="9" customWidth="1"/>
+    <col min="1030" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="9" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="9" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="9" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="7" spans="3:21">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="U7" s="17" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="9" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="17" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T10" s="9" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="9" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="T13" s="9" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="9" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" s="9" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="17" spans="3:21">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="U17" s="10" t="s">
+      <c r="U17" s="18" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="9" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="19" spans="3:20">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="T19" s="11" t="s">
+      <c r="T19" s="19" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T20" s="9" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="21" spans="3:21">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="U21" s="9" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="9" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="9" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="T24" s="1" t="s">
+      <c r="T24" s="9" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="9" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="T27" s="1" t="s">
+      <c r="T27" s="9" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="9" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="30" spans="2:20">
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="T30" s="1" t="s">
+      <c r="T30" s="9" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="9" t="s">
         <v>509</v>
       </c>
     </row>
@@ -10532,180 +11217,180 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.63888888888889" style="9" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="9" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="9" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="9" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="4" spans="3:23">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="W4" s="1" t="s">
+      <c r="D4" s="11"/>
+      <c r="W4" s="9" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="12" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="12" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="7" spans="3:23">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="W7" s="1" t="s">
+      <c r="D7" s="13"/>
+      <c r="W7" s="9" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="10" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="10" spans="3:23">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="W10" s="9" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="X11" s="9" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="12" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="W13" s="6"/>
+      <c r="W13" s="14"/>
     </row>
     <row r="14" spans="3:23">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="W14" s="1" t="s">
+      <c r="D14" s="14"/>
+      <c r="W14" s="9" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="12" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="17" spans="3:27">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="W17" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="AA17" s="2"/>
+      <c r="AA17" s="10"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="15" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="W19" s="6"/>
+      <c r="W19" s="14"/>
     </row>
     <row r="20" spans="3:23">
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="W20" s="9" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="12" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="12" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="23" spans="3:23">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="W23" s="9" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="9" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="12" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="26" spans="3:23">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="W26" s="1" t="s">
+      <c r="D26" s="12"/>
+      <c r="W26" s="9" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="12" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="4"/>
+      <c r="D28" s="12"/>
     </row>
     <row r="29" spans="3:23">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="W29" s="1" t="s">
+      <c r="D29" s="13"/>
+      <c r="W29" s="9" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="9" t="s">
         <v>544</v>
       </c>
     </row>
@@ -10727,280 +11412,280 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="24" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="25" max="25" width="6.39814814814815" style="1" customWidth="1"/>
-    <col min="26" max="1021" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1022" max="1025" width="2.63888888888889" style="2" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.63888888888889" style="9" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="9" customWidth="1"/>
+    <col min="10" max="24" width="2.63888888888889" style="9" customWidth="1"/>
+    <col min="25" max="25" width="6.39814814814815" style="9" customWidth="1"/>
+    <col min="26" max="1021" width="2.63888888888889" style="9" customWidth="1"/>
+    <col min="1022" max="1025" width="2.63888888888889" style="10" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="9" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="4" spans="3:25">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y4" s="9" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="9" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="7" spans="3:25">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Y7" s="9" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="9" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="10" spans="3:25">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="Y10" s="9" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="11" spans="4:26">
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="Z11" s="1" t="s">
+      <c r="Z11" s="9" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="12" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="13" spans="3:25">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Y13" s="9" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="9" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="16" spans="3:25">
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="Y16" s="1" t="s">
+      <c r="Y16" s="9" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="17" spans="4:26">
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="Z17" s="9" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="18" spans="4:26">
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="Z18" s="9" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="12" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="20" spans="3:26">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="Z20" s="1" t="s">
+      <c r="Z20" s="9" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="21" spans="4:26">
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="Z21" s="9" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="15" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="12" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="24" spans="3:26">
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="Z24" s="1" t="s">
+      <c r="Z24" s="9" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="9" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="27" spans="3:26">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="Z27" s="1" t="s">
+      <c r="Z27" s="9" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="9" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="30" spans="3:26">
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="Z30" s="1" t="s">
+      <c r="Z30" s="9" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="9" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="32" spans="27:27">
-      <c r="AA32" s="6"/>
+      <c r="AA32" s="14"/>
     </row>
     <row r="33" spans="3:26">
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="Z33" s="1" t="s">
+      <c r="Z33" s="9" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="9" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="12" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="36" spans="3:26">
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="Z36" s="1" t="s">
+      <c r="Z36" s="9" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="9" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="12" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="39" spans="3:26">
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="Z39" s="1" t="s">
+      <c r="Z39" s="9" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="40" spans="4:4">
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="9" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="42" spans="3:26">
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="Z42" s="1" t="s">
+      <c r="Z42" s="9" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="43" spans="4:4">
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="9" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="44" spans="4:4">
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="12" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="45" spans="3:26">
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="9" t="s">
         <v>597</v>
       </c>
-      <c r="Z45" s="1" t="s">
+      <c r="Z45" s="9" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="46" spans="4:4">
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="9" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="48" spans="3:26">
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="9" t="s">
         <v>600</v>
       </c>
-      <c r="Z48" s="1" t="s">
+      <c r="Z48" s="9" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="49" spans="4:4">
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="9" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="50" spans="4:35">
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="AI50" s="2"/>
+      <c r="AI50" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -11020,187 +11705,187 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="7" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="9" max="1024" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1025" max="16384" width="9" style="2"/>
+    <col min="1" max="7" width="2.63888888888889" style="9" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="9" customWidth="1"/>
+    <col min="9" max="1024" width="2.63888888888889" style="9" customWidth="1"/>
+    <col min="1025" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="V4" s="1" t="s">
+      <c r="C4" s="11"/>
+      <c r="V4" s="9" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="12" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="12" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="7" spans="2:22">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="V7" s="1" t="s">
+      <c r="C7" s="13"/>
+      <c r="V7" s="9" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="8" spans="3:23">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="W8" s="9" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="9" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="9" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="11" spans="2:22">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="V11" s="9" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="12" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="13" spans="3:22">
-      <c r="C13" s="4"/>
-      <c r="V13" s="6"/>
+      <c r="C13" s="12"/>
+      <c r="V13" s="14"/>
     </row>
     <row r="14" spans="2:22">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="V14" s="1" t="s">
+      <c r="C14" s="14"/>
+      <c r="V14" s="9" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="15" spans="3:23">
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W15" s="9" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="9" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="17" spans="3:26">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="Z17" s="2"/>
+      <c r="Z17" s="10"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="15" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="19" spans="2:22">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="9" t="s">
         <v>625</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="V19" s="1" t="s">
+      <c r="C19" s="16"/>
+      <c r="V19" s="9" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="9" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="21" spans="3:16">
-      <c r="C21" s="4"/>
-      <c r="M21" s="1" t="s">
+      <c r="C21" s="12"/>
+      <c r="M21" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="O21" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="P21" s="9" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="22" spans="2:22">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="V22" s="1" t="s">
+      <c r="C22" s="12"/>
+      <c r="V22" s="9" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="9" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="25" spans="2:22">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="V25" s="1" t="s">
+      <c r="C25" s="12"/>
+      <c r="V25" s="9" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="12" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="4"/>
+      <c r="C27" s="12"/>
     </row>
     <row r="28" ht="14.4" spans="3:11">
       <c r="C28" t="s">
         <v>628</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" s="9" t="s">
         <v>639</v>
       </c>
     </row>
@@ -11208,10 +11893,10 @@
       <c r="C29" t="s">
         <v>629</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" s="9" t="s">
         <v>641</v>
       </c>
     </row>
@@ -11219,10 +11904,10 @@
       <c r="C30" t="s">
         <v>630</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" s="9" t="s">
         <v>643</v>
       </c>
     </row>
@@ -11230,10 +11915,10 @@
       <c r="C31" t="s">
         <v>631</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" s="9" t="s">
         <v>645</v>
       </c>
     </row>
@@ -11241,10 +11926,10 @@
       <c r="C32" t="s">
         <v>646</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" s="9" t="s">
         <v>648</v>
       </c>
     </row>
@@ -11252,10 +11937,10 @@
       <c r="C33" t="s">
         <v>649</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" s="9" t="s">
         <v>651</v>
       </c>
     </row>
@@ -11263,10 +11948,10 @@
       <c r="C34" t="s">
         <v>652</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="9" t="s">
         <v>653</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="K34" s="9" t="s">
         <v>654</v>
       </c>
     </row>
@@ -11274,10 +11959,10 @@
       <c r="C35" t="s">
         <v>655</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K35" s="9" t="s">
         <v>651</v>
       </c>
     </row>
@@ -11285,10 +11970,10 @@
       <c r="C36" t="s">
         <v>657</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K36" s="9" t="s">
         <v>659</v>
       </c>
     </row>
@@ -11296,10 +11981,10 @@
       <c r="C37" t="s">
         <v>660</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="9" t="s">
         <v>661</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K37" s="9" t="s">
         <v>662</v>
       </c>
     </row>
@@ -11307,10 +11992,10 @@
       <c r="C38" t="s">
         <v>663</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K38" s="9" t="s">
         <v>665</v>
       </c>
     </row>
@@ -11318,10 +12003,10 @@
       <c r="C39" t="s">
         <v>666</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="K39" s="9" t="s">
         <v>668</v>
       </c>
     </row>
@@ -11337,173 +12022,399 @@
   <sheetPr/>
   <dimension ref="B2:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A8" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="7" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="9" max="1024" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1025" max="16384" width="9" style="2"/>
+    <col min="1" max="7" width="2.63888888888889" style="9" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="9" customWidth="1"/>
+    <col min="9" max="1024" width="2.63888888888889" style="9" customWidth="1"/>
+    <col min="1025" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="3:3">
+      <c r="C3" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20">
+      <c r="B4" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="9" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20">
+      <c r="B7" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="8" spans="3:21">
+      <c r="C8" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="9" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="9" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20">
+      <c r="B11" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="9" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20">
+      <c r="B14" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="9" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="9" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="B20" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="T20" s="9" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="T23" s="9" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21">
+      <c r="C24" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="U24" s="9" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="9" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="9" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="T27" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="9" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="9" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="9" t="s">
+        <v>693</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:AA39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="19" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="20" max="20" width="4.26851851851852" style="1" customWidth="1"/>
+    <col min="21" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="4:4">
+      <c r="D2" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="3" spans="3:20">
       <c r="C3" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20">
-      <c r="B4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3">
-      <c r="C5" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20">
-      <c r="B7" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="8" spans="3:21">
-      <c r="C8" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3">
-      <c r="C9" s="1" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20">
-      <c r="B11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3">
+        <v>695</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20">
+      <c r="C6" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="T6" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="7" spans="4:27">
+      <c r="D7" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="AA7" s="5"/>
+    </row>
+    <row r="8" spans="4:27">
+      <c r="D8" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="AA8" s="5"/>
+    </row>
+    <row r="9" spans="4:21">
+      <c r="D9" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="4" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="11" spans="4:24">
+      <c r="D11" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="X11" s="6"/>
+    </row>
+    <row r="12" spans="3:20">
       <c r="C12" s="1" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20">
-      <c r="B14" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" s="1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20">
-      <c r="B17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20">
-      <c r="B20" s="1" t="s">
-        <v>683</v>
+        <v>708</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="13" spans="4:21">
+      <c r="D13" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="14" spans="4:21">
+      <c r="D14" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="3" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="16" spans="4:26">
+      <c r="D16" s="3"/>
+      <c r="Z16" s="8"/>
+    </row>
+    <row r="17" spans="3:20">
+      <c r="C17" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="T17" s="3" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="19" spans="21:21">
+      <c r="U19" s="5"/>
+    </row>
+    <row r="20" spans="3:20">
+      <c r="C20" s="1" t="s">
+        <v>718</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20">
-      <c r="B23" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21">
-      <c r="C24" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="3:20">
+      <c r="C23" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="T23" s="3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="25" spans="22:22">
+      <c r="V25" s="7"/>
+    </row>
+    <row r="26" spans="3:20">
       <c r="C26" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="27" spans="2:20">
-      <c r="B27" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3">
-      <c r="C31" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
+        <v>724</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="L26" s="5"/>
+      <c r="T26" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12">
+      <c r="D27" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="3:20">
+      <c r="C29" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="T29" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20">
+      <c r="C32" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="T32" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="39" ht="23.05" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -11522,225 +12433,225 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.63888888888889" style="9" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="9" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="9" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="4:24">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="X4" s="9"/>
+      <c r="X4" s="17"/>
     </row>
     <row r="5" spans="8:13">
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="T6" s="1" t="s">
+      <c r="D6" s="17"/>
+      <c r="T6" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="3:20">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="3:20">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="T12" s="1" t="s">
+      <c r="D12" s="17"/>
+      <c r="T12" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="3:20">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="T15" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="3:20">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="T18" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="3:20">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="T21" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="3:20">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="T24" s="1" t="s">
+      <c r="T24" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="3:20">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="T27" s="1" t="s">
+      <c r="T27" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="28" spans="4:21">
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="U28" s="1" t="s">
+      <c r="U28" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" spans="3:20">
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="T31" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="34" spans="3:20">
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="T34" s="1" t="s">
+      <c r="T34" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="37" spans="3:20">
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="T37" s="1" t="s">
+      <c r="T37" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="40" spans="3:20">
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="T40" s="1" t="s">
+      <c r="T40" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="41" spans="4:21">
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="U41" s="1" t="s">
+      <c r="U41" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="42" spans="4:4">
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="43" spans="4:4">
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -11762,192 +12673,192 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.63888888888889" style="9" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="9" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="9" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="4:24">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="X4" s="9"/>
+      <c r="X4" s="17"/>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="9"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="9:9">
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="3:20">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T10" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="14" spans="3:20">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="T14" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="9" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="17" spans="3:20">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="T17" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="20" spans="3:20">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T20" s="9" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="23" spans="3:20">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="T23" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="9" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="26" spans="3:20">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="T26" s="1" t="s">
+      <c r="T26" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="27" spans="4:21">
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="U27" s="1" t="s">
+      <c r="U27" s="9" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="9" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="9" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31" spans="3:20">
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="T31" s="9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="9" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="35" spans="4:20">
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="T35" s="1" t="s">
+      <c r="T35" s="9" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="36" spans="4:21">
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="U36" s="9" t="s">
+      <c r="U36" s="17" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="3:20">
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="T37" s="1" t="s">
+      <c r="T37" s="9" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="9" t="s">
         <v>128</v>
       </c>
     </row>
@@ -11969,149 +12880,149 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="28" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="29" max="29" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="30" max="1045" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1046" max="16384" width="9" style="2"/>
+    <col min="1" max="28" width="2.63888888888889" style="9" customWidth="1"/>
+    <col min="29" max="29" width="2.73148148148148" style="9" customWidth="1"/>
+    <col min="30" max="1045" width="2.63888888888889" style="9" customWidth="1"/>
+    <col min="1046" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="3" spans="2:23">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" s="9" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="9" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="6" spans="2:23">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="W6" s="9" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="7" spans="3:24">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="X7" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="9" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="9" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="10" spans="2:23">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="W10" s="9" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="9" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="13" spans="2:23">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="W13" s="9" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="9" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="16" spans="2:23">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="W16" s="9" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="9" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="19" spans="2:23">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="W19" s="9" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="9" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="22" spans="2:23">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="W22" s="9" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="23" spans="3:24">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="X23" s="1" t="s">
+      <c r="X23" s="9" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="9" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="9" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="26" spans="2:23">
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="W26" s="9" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="27" t="s">
         <v>159</v>
       </c>
     </row>
@@ -12133,216 +13044,216 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="28" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="29" max="29" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="30" max="1045" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1046" max="16384" width="9" style="2"/>
+    <col min="1" max="28" width="2.63888888888889" style="9" customWidth="1"/>
+    <col min="29" max="29" width="2.73148148148148" style="9" customWidth="1"/>
+    <col min="30" max="1045" width="2.63888888888889" style="9" customWidth="1"/>
+    <col min="1046" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="9" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="4" spans="3:21">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="9" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="9" spans="2:20">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" s="9" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="10" spans="3:21">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="U10" s="9" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="9" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="12" spans="2:20">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="T12" s="9" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="13" spans="3:21">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="U13" s="9" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="9" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" s="9" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="9" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="T19" s="9" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="20" spans="3:21">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="U20" s="9" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="9" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="9" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="23" spans="2:44">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="T23" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="AR23" s="1" t="s">
+      <c r="AR23" s="9" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="24" spans="3:21">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="U24" s="1" t="s">
+      <c r="U24" s="9" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="9" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="9" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="T27" s="1" t="s">
+      <c r="C27" s="27"/>
+      <c r="T27" s="9" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="28" spans="3:21">
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="U28" s="1" t="s">
+      <c r="U28" s="9" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="9" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="9" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="31" spans="2:20">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="T31" s="9" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="9" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="34" spans="2:20">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="T34" s="1" t="s">
+      <c r="T34" s="9" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="35" spans="3:3">
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="9" t="s">
         <v>206</v>
       </c>
     </row>
@@ -12364,149 +13275,149 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="28" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="29" max="29" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="30" max="1045" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1046" max="16384" width="9" style="2"/>
+    <col min="1" max="28" width="2.63888888888889" style="9" customWidth="1"/>
+    <col min="29" max="29" width="2.73148148148148" style="9" customWidth="1"/>
+    <col min="30" max="1045" width="2.63888888888889" style="9" customWidth="1"/>
+    <col min="1046" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="3" spans="2:22">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="9" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="9" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="6" spans="2:22">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="V6" s="9" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="7" spans="3:23">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="W7" s="9" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="9" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="19" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="10" spans="2:22">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="V10" s="9" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="V13" s="9" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="17" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="16" spans="2:22">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="V16" s="9" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="17" spans="3:23">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="W17" s="9" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="9" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="9" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="20" spans="2:22">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="V20" s="9" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="9" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="23" spans="2:22">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="V23" s="9" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="9" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="26" spans="2:22">
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="V26" s="1" t="s">
+      <c r="V26" s="9" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="9" t="s">
         <v>237</v>
       </c>
     </row>
@@ -12528,271 +13439,271 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.62962962962963" style="9" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="9" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="9" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="3" spans="3:26">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="Z3" s="2"/>
+      <c r="Z3" s="10"/>
     </row>
     <row r="4" spans="4:22">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="V4" s="10" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="5" spans="4:22">
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" s="9" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="6" spans="4:22">
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="V6" s="10" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="10" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="AA8" s="15"/>
+      <c r="AA8" s="23"/>
     </row>
     <row r="9" spans="4:27">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="AA9" s="15"/>
+      <c r="AA9" s="23"/>
     </row>
     <row r="10" spans="3:21">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="U10" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="11" spans="4:22">
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="V11" s="9" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="12" spans="3:21">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="U12" s="9" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="9" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="15" spans="3:21">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="U15" s="9" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="Z16" s="18"/>
+      <c r="Z16" s="26"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="2"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="3:21">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="U18" s="2" t="s">
+      <c r="U18" s="10" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="19" spans="4:22">
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="U19" s="15"/>
-      <c r="V19" s="1" t="s">
+      <c r="U19" s="23"/>
+      <c r="V19" s="9" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="20" spans="4:22">
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="V20" s="2" t="s">
+      <c r="V20" s="10" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="10" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="22" spans="4:21">
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="U22" s="9" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="23" spans="3:21">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="U23" s="2" t="s">
+      <c r="D23" s="10"/>
+      <c r="U23" s="10" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="V24" s="9" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="25" spans="4:22">
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="V25" s="17" t="s">
+      <c r="V25" s="25" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="26" spans="4:22">
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="L26" s="15"/>
-      <c r="V26" s="1" t="s">
+      <c r="L26" s="23"/>
+      <c r="V26" s="9" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="L27" s="15"/>
+      <c r="L27" s="23"/>
     </row>
     <row r="28" spans="3:21">
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="U28" s="1" t="s">
+      <c r="U28" s="9" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="29" spans="4:22">
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="V29" s="1" t="s">
+      <c r="V29" s="9" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="30" spans="4:22">
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="V30" s="1" t="s">
+      <c r="V30" s="9" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="10" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="10" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="33" spans="3:21">
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="U33" s="1" t="s">
+      <c r="U33" s="9" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="9" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="35" spans="24:24">
-      <c r="X35" s="1" t="s">
+      <c r="X35" s="9" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="37" spans="3:21">
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="U37" s="1" t="s">
+      <c r="U37" s="9" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="9" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="40" spans="3:21">
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="U40" s="1" t="s">
+      <c r="U40" s="9" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="41" spans="4:4">
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="9" t="s">
         <v>295</v>
       </c>
     </row>
@@ -12815,190 +13726,190 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.49074074074074" style="1" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="2.62962962962963" style="9" customWidth="1"/>
+    <col min="3" max="3" width="4.49074074074074" style="9" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="9" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="9" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="9" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:26">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="Z2" s="13"/>
+      <c r="Z2" s="21"/>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="10" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="4" spans="4:21">
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="10" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="20" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="T6" s="1" t="s">
+      <c r="D6" s="10"/>
+      <c r="T6" s="9" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="U7" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="AA7" s="15"/>
+      <c r="AA7" s="23"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="AA8" s="15"/>
+      <c r="AA8" s="23"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="10" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="10" spans="3:20">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="T10" s="2" t="s">
+      <c r="D10" s="21"/>
+      <c r="T10" s="10" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="U11" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="X11" s="16"/>
+      <c r="X11" s="24"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="10" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="2"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="3:20">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="M14" s="13"/>
-      <c r="Q14" s="16"/>
-      <c r="T14" s="1" t="s">
+      <c r="D14" s="22"/>
+      <c r="M14" s="21"/>
+      <c r="Q14" s="24"/>
+      <c r="T14" s="9" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="10" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="2"/>
-      <c r="Z16" s="18"/>
+      <c r="D16" s="10"/>
+      <c r="Z16" s="26"/>
     </row>
     <row r="17" spans="3:20">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="T17" s="2" t="s">
+      <c r="D17" s="21"/>
+      <c r="T17" s="10" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="18" spans="4:21">
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="U18" s="9" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="19" spans="4:21">
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="L19" s="13"/>
-      <c r="U19" s="15"/>
+      <c r="L19" s="21"/>
+      <c r="U19" s="23"/>
     </row>
     <row r="20" spans="3:20">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="T20" s="10" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="21" spans="4:19">
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="S21" s="13"/>
+      <c r="S21" s="21"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="13"/>
+      <c r="D22" s="21"/>
     </row>
     <row r="23" spans="3:20">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="T23" s="1" t="s">
+      <c r="D23" s="21"/>
+      <c r="T23" s="9" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="24" spans="4:21">
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="U24" s="2" t="s">
+      <c r="U24" s="10" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="25" spans="4:22">
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="V25" s="17"/>
+      <c r="V25" s="25"/>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="L26" s="15"/>
+      <c r="L26" s="23"/>
     </row>
     <row r="50" ht="17.85" customHeight="1"/>
   </sheetData>
@@ -13019,113 +13930,113 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.48148148148148" style="1" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="2.62962962962963" style="9" customWidth="1"/>
+    <col min="3" max="3" width="2.48148148148148" style="9" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="9" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="9" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="9" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="9" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="9" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="9" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="8" ht="17.85" customHeight="1"/>
     <row r="9" spans="3:20">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" s="9" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="9" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="12" spans="3:20">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="T12" s="9" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="9" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="15" spans="3:20">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="T15" s="9" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="16" spans="4:21">
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="U16" s="9" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="9" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="9" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="19" spans="3:20">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="T19" s="9" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="9" t="s">
         <v>351</v>
       </c>
     </row>

--- a/learn_chinese2024.xlsx
+++ b/learn_chinese2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="10" activeTab="17"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="12" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="20240107" sheetId="4" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="20240707" sheetId="20" r:id="rId16"/>
     <sheet name="20240714" sheetId="21" r:id="rId17"/>
     <sheet name="20240721" sheetId="22" r:id="rId18"/>
+    <sheet name="20240728" sheetId="23" r:id="rId19"/>
+    <sheet name="20240805" sheetId="24" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="805">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -8521,6 +8523,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">But I have always have good </t>
     </r>
     <r>
@@ -9059,6 +9067,1118 @@
   </si>
   <si>
     <t xml:space="preserve">nà shì xǐ shǒu jiān </t>
+  </si>
+  <si>
+    <t>You must take care of your receipt</t>
+  </si>
+  <si>
+    <t>A: 如果不合适的话，我能退货吗？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: If it isn't </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>suitable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, can i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bring it back</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> rú guǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>bú hé shì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> de huà ，wǒ néng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>tuì huò</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 当然可以，只是你一定要保管好你的收据。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B:  Of course, But you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>must</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> take care of your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>receipt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">dāng rán kě yǐ ，zhī shì nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>yī dìng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> yào </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">bǎo guǎn hǎo nǐ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">shōu jù </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 可以多给我解释一下吗？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A:  Can you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>explain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> it more to me?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> kě yǐ duō gěi wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jiě shì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yī xià ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 好的，如果质量有问题，可以退货。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: Ok, it can be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>refunden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> if there's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>something wrong</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> with it.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">hǎo de ，rú guǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zhì liàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yǒu wèn tí ，kě yǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tuì huò</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 顺便问一下，可以换另一个牌子吗？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A:  By the way. May i have another </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>brand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> instead?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">shùn biàn wèn yī xià ，kě yǐ huàn lìng yī gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pái zǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 当然了，但你只能调货成同等价位或者</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B:  Certainly, But you can only change it for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>goods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> with the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>same</t>
+    </r>
+  </si>
+  <si>
+    <t>较低价位的商品。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> or lower.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">dāng rán le ，dàn nǐ zhī néng diào huan chéng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>tóng děng jià wèi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> huò zhě </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">jiào dī jià wèi de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">shāng pǐn </t>
+    </r>
+  </si>
+  <si>
+    <t>A: 我明白了，我买下了。</t>
+  </si>
+  <si>
+    <t>A:  i see, i'll take it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wǒ míng bái le ，wǒ mǎi xià le 。</t>
+  </si>
+  <si>
+    <t>Fired</t>
+  </si>
+  <si>
+    <t>A: 嗨， Isabel， 你想要见我？</t>
+  </si>
+  <si>
+    <t>A: Hi Isabel! You want to see me?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hei ， Isabel， ni xiang yao jian wo ？</t>
+  </si>
+  <si>
+    <t>B: 是的，进来，请坐。</t>
+  </si>
+  <si>
+    <t>B:  Yes. Come on , Have a seat.</t>
+  </si>
+  <si>
+    <t>shì de ，jìn lái， qǐng zuò 。</t>
+  </si>
+  <si>
+    <t>A: 一切都好吗？你似乎有点担忧。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Is everything okay? You </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>seem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> a bit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>preoccupied</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">yī qiē dōu hǎo ma ？nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>sì hū</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> yǒu diǎn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>dān yōu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>duo</t>
+  </si>
+  <si>
+    <t>B: 是的，这不是一个轻松的对话，公司</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: Well. This is not going to be an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>easy conversation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>作出一些决定，这可能会影响你的工作。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">The company has made some </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B75BC"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>decisions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> which </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">shì de ，zhè bú shì yī gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">qīng sōng de duì huà </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">will have a direct </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>impact</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> on your employment.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">gōng sī zuò chū yī xiē </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B75BC"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jué dìng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，zhè kě néng huì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yǐng xiǎng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> nǐ de gōng zuò 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 好吧。</t>
+  </si>
+  <si>
+    <t>A: Okay..</t>
+  </si>
+  <si>
+    <t>hǎo ba 。</t>
+  </si>
+  <si>
+    <t>B: 我就直说了，我们决定辞退你。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>don’t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> want to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> beat around the bush.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ jiù </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>zhí shuō</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> le ，wǒ men jué dìng cí tuì nǐ 。</t>
+    </r>
+  </si>
+  <si>
+    <t>We’re going to have to let you go.</t>
+  </si>
+  <si>
+    <t>A: 什么？为什么？我的意思是，就这样？</t>
+  </si>
+  <si>
+    <t>A: What?why?I mean...just like that? i’m fired?</t>
+  </si>
+  <si>
+    <t>我被辞退了？</t>
+  </si>
+  <si>
+    <t>shen me ？wéi shen me ？wǒ de yì sī shì ，jiù zhè yàng ？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wǒ bèi cí tuì le </t>
+  </si>
+  <si>
+    <t>B: 我很抱歉，但老实说，你是一个很糟糕的员工。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: i’m sorry but, to be honest, you’re a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>terrible</t>
+    </r>
+  </si>
+  <si>
+    <t>wǒ hěn bào qiàn ，dàn lǎo shí shuō ，</t>
+  </si>
+  <si>
+    <t>employee.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nǐ shì yī gè hěn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> zāo gāo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> de yuán gōng 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 什么?</t>
+  </si>
+  <si>
+    <t>A: What?</t>
+  </si>
+  <si>
+    <t>shén me</t>
+  </si>
+  <si>
+    <t>B:  你用办公室电话打国际长途。一个月请假8次。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B: You were caught making</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> international calls</t>
+    </r>
+  </si>
+  <si>
+    <t>还有你满身酒味。</t>
+  </si>
+  <si>
+    <t>from the office phone.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nǐ yòng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bàn gōng shì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> diàn huà dǎ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>guó jì chang tú</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B75BC"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">called in sick </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>eight times this month</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">yī gè yuè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B75BC"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>qǐng jià</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  8 cì 。hái yǒu nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mǎn shēn jiǔ wèi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">and you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>smell like alcohol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -9071,7 +10191,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="51">
+  <fonts count="54">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9092,13 +10212,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFCE181E"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="6.4"/>
+      <color rgb="FF4C4C4C"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00864B"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -9116,6 +10265,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFEF413D"/>
       <name val="等线"/>
       <charset val="1"/>
@@ -9123,23 +10278,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFEF413D"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCE181E"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -9157,6 +10295,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -9164,12 +10308,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -9337,6 +10475,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF1B75BC"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF009353"/>
       <name val="等线"/>
       <charset val="1"/>
@@ -9346,24 +10502,6 @@
       <color rgb="FF92D050"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="等线"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -9729,137 +10867,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9871,25 +11009,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10209,186 +11353,186 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="9" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="9" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="9" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="10"/>
+    <col min="1" max="8" width="2.63888888888889" style="15" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="15" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="15" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="3:22">
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="4:24">
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="17" t="s">
+      <c r="X4" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:22">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="V7" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="4:23">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="W8" s="9" t="s">
+      <c r="W8" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="3:22">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="V11" s="9" t="s">
+      <c r="V11" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="3:22">
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="V14" s="9" t="s">
+      <c r="V14" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="4:23">
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="W15" s="9" t="s">
+      <c r="W15" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="3:22">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="V17" s="9" t="s">
+      <c r="V17" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="3:22">
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="V20" s="9" t="s">
+      <c r="V20" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="4:23">
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="W21" s="9" t="s">
+      <c r="W21" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="4:23">
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="W22" s="9" t="s">
+      <c r="W22" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="3:22">
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="V24" s="9" t="s">
+      <c r="V24" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="3:22">
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="V27" s="9" t="s">
+      <c r="V27" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="4:23">
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="W28" s="9" t="s">
+      <c r="W28" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="7:7">
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -10410,159 +11554,159 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="9" customWidth="1"/>
-    <col min="3" max="3" width="2.48148148148148" style="9" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="9" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="9" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="9" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="10"/>
+    <col min="1" max="2" width="2.62962962962963" style="15" customWidth="1"/>
+    <col min="3" max="3" width="2.48148148148148" style="15" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="15" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="15" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="15" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="15" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="3" spans="3:24">
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X3" s="15" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="15" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="6" spans="3:24">
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="X6" s="9" t="s">
+      <c r="X6" s="15" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="7" spans="4:25">
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="Y7" s="9" t="s">
+      <c r="Y7" s="15" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="8" ht="17.85" customHeight="1" spans="4:4">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="15" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="9" spans="3:24">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="X9" s="9" t="s">
+      <c r="X9" s="15" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="10" spans="4:25">
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="Y10" s="9" t="s">
+      <c r="Y10" s="15" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="15" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="15" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="13" spans="3:24">
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="X13" s="9" t="s">
+      <c r="X13" s="15" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="14" spans="4:25">
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="Y14" s="9" t="s">
+      <c r="Y14" s="15" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="15" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="15" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="17" spans="3:24">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="X17" s="9" t="s">
+      <c r="X17" s="15" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="15" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="20" spans="3:24">
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="X20" s="9" t="s">
+      <c r="X20" s="15" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="21" spans="4:25">
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="Y21" s="9" t="s">
+      <c r="Y21" s="15" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="22" spans="4:25">
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="Y22" s="9" t="s">
+      <c r="Y22" s="15" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="15" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="15" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="15" t="s">
         <v>384</v>
       </c>
     </row>
@@ -10584,187 +11728,187 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="9" customWidth="1"/>
-    <col min="3" max="3" width="2.48148148148148" style="9" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="9" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="9" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="9" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="10"/>
+    <col min="1" max="2" width="2.62962962962963" style="15" customWidth="1"/>
+    <col min="3" max="3" width="2.48148148148148" style="15" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="15" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="15" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="15" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="15" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="3" spans="3:22">
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="15" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="15" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="6" spans="3:22">
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="V6" s="15" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="15" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="9" spans="3:22">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="V9" s="9" t="s">
+      <c r="V9" s="15" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="15" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="12" spans="3:22">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="V12" s="9" t="s">
+      <c r="V12" s="15" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="15" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="15" spans="3:22">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="V15" s="9" t="s">
+      <c r="V15" s="15" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="15" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="18" spans="3:22">
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="V18" s="9" t="s">
+      <c r="V18" s="15" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="15" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="21" spans="3:22">
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="V21" s="9" t="s">
+      <c r="V21" s="15" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="15" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="24" spans="3:22">
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="V24" s="9" t="s">
+      <c r="V24" s="15" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="15" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="15" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="27" spans="3:22">
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="15" t="s">
         <v>411</v>
       </c>
-      <c r="V27" s="9" t="s">
+      <c r="V27" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="28" spans="4:23">
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="W28" s="9" t="s">
+      <c r="W28" s="15" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="29" spans="4:23">
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="W29" s="9" t="s">
+      <c r="W29" s="15" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="15" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="15" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="15" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="33" spans="3:22">
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="V33" s="9" t="s">
+      <c r="V33" s="15" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="15" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="15" t="s">
         <v>423</v>
       </c>
     </row>
@@ -10786,221 +11930,221 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.62962962962963" style="9" customWidth="1"/>
-    <col min="2" max="2" width="2.82407407407407" style="9" customWidth="1"/>
-    <col min="3" max="7" width="2.62962962962963" style="9" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="9" customWidth="1"/>
-    <col min="9" max="1029" width="2.62962962962963" style="9" customWidth="1"/>
-    <col min="1030" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="2.62962962962963" style="15" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="15" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="15" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="15" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="15" customWidth="1"/>
+    <col min="1030" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="15" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="15" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="15" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="T6" s="15" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="15" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="15" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="15" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="T10" s="9" t="s">
+      <c r="T10" s="15" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="11" spans="3:23">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="W11" s="19"/>
+      <c r="W11" s="30"/>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="T13" s="9" t="s">
+      <c r="C13" s="23"/>
+      <c r="T13" s="15" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="15" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="16" spans="2:27">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="T16" s="9" t="s">
+      <c r="T16" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="AA16" s="17"/>
+      <c r="AA16" s="23"/>
     </row>
     <row r="17" spans="3:21">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="15" t="s">
         <v>441</v>
       </c>
-      <c r="U17" s="19" t="s">
+      <c r="U17" s="30" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="18" spans="3:30">
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="15" t="s">
         <v>443</v>
       </c>
-      <c r="AA18" s="9" t="s">
+      <c r="AA18" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="AD18" s="9">
+      <c r="AD18" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="T19" s="9" t="s">
+      <c r="T19" s="15" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="15" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="22" spans="2:20">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="15" t="s">
         <v>448</v>
       </c>
-      <c r="T22" s="9" t="s">
+      <c r="T22" s="15" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="23" spans="3:21">
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="U23" s="9" t="s">
+      <c r="U23" s="15" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="T25" s="9" t="s">
+      <c r="T25" s="15" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="26" spans="3:25">
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="15" t="s">
         <v>454</v>
       </c>
-      <c r="U26" s="9" t="s">
+      <c r="U26" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="Y26" s="17"/>
+      <c r="Y26" s="23"/>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="15" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="28" spans="2:20">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="T28" s="9" t="s">
+      <c r="T28" s="15" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="23" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="15" t="s">
         <v>460</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="N32" s="9" t="s">
+      <c r="N32" s="15" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="15" t="s">
         <v>463</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="15" t="s">
         <v>464</v>
       </c>
-      <c r="N33" s="9" t="s">
+      <c r="N33" s="15" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="15" t="s">
         <v>466</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="N34" s="9" t="s">
+      <c r="N34" s="15" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="15" t="s">
         <v>470</v>
       </c>
-      <c r="N35" s="9" t="s">
+      <c r="N35" s="15" t="s">
         <v>471</v>
       </c>
     </row>
@@ -11022,180 +12166,180 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.62962962962963" style="9" customWidth="1"/>
-    <col min="2" max="2" width="2.82407407407407" style="9" customWidth="1"/>
-    <col min="3" max="7" width="2.62962962962963" style="9" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="9" customWidth="1"/>
-    <col min="9" max="1029" width="2.62962962962963" style="9" customWidth="1"/>
-    <col min="1030" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="2.62962962962963" style="15" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="15" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="15" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="15" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="15" customWidth="1"/>
+    <col min="1030" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="15" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="15" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="15" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="T6" s="15" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="7" spans="3:21">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="U7" s="17" t="s">
+      <c r="U7" s="23" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="15" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="23" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="15" t="s">
         <v>482</v>
       </c>
-      <c r="T10" s="9" t="s">
+      <c r="T10" s="15" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="15" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="T13" s="9" t="s">
+      <c r="T13" s="15" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="15" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="T16" s="9" t="s">
+      <c r="T16" s="15" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="17" spans="3:21">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="15" t="s">
         <v>490</v>
       </c>
-      <c r="U17" s="18" t="s">
+      <c r="U17" s="29" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="15" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="19" spans="3:20">
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="T19" s="19" t="s">
+      <c r="T19" s="30" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="T20" s="9" t="s">
+      <c r="T20" s="15" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="21" spans="3:21">
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="15" t="s">
         <v>497</v>
       </c>
-      <c r="U21" s="9" t="s">
+      <c r="U21" s="15" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="15" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="15" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="T24" s="9" t="s">
+      <c r="T24" s="15" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="15" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="T27" s="9" t="s">
+      <c r="T27" s="15" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="15" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="30" spans="2:20">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="15" t="s">
         <v>507</v>
       </c>
-      <c r="T30" s="9" t="s">
+      <c r="T30" s="15" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="15" t="s">
         <v>509</v>
       </c>
     </row>
@@ -11217,180 +12361,180 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="9" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="9" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="9" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="10"/>
+    <col min="1" max="8" width="2.63888888888889" style="15" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="15" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="15" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="15" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="4" spans="3:23">
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="W4" s="9" t="s">
+      <c r="D4" s="17"/>
+      <c r="W4" s="15" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="18" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="18" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="7" spans="3:23">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="W7" s="9" t="s">
+      <c r="D7" s="19"/>
+      <c r="W7" s="15" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="16" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="10" spans="3:23">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="15" t="s">
         <v>518</v>
       </c>
-      <c r="W10" s="9" t="s">
+      <c r="W10" s="15" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="15" t="s">
         <v>520</v>
       </c>
-      <c r="X11" s="9" t="s">
+      <c r="X11" s="15" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="18" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="W13" s="14"/>
+      <c r="W13" s="22"/>
     </row>
     <row r="14" spans="3:23">
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="15" t="s">
         <v>524</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="W14" s="9" t="s">
+      <c r="D14" s="22"/>
+      <c r="W14" s="15" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="18" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="17" spans="3:27">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="15" t="s">
         <v>527</v>
       </c>
-      <c r="W17" s="9" t="s">
+      <c r="W17" s="15" t="s">
         <v>528</v>
       </c>
-      <c r="AA17" s="10"/>
+      <c r="AA17" s="16"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="20" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="21" t="s">
         <v>530</v>
       </c>
-      <c r="W19" s="14"/>
+      <c r="W19" s="22"/>
     </row>
     <row r="20" spans="3:23">
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="18" t="s">
         <v>531</v>
       </c>
-      <c r="W20" s="9" t="s">
+      <c r="W20" s="15" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="18" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="18" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="23" spans="3:23">
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="W23" s="9" t="s">
+      <c r="W23" s="15" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="15" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="18" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="26" spans="3:23">
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="15" t="s">
         <v>539</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="W26" s="9" t="s">
+      <c r="D26" s="18"/>
+      <c r="W26" s="15" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="18" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="12"/>
+      <c r="D28" s="18"/>
     </row>
     <row r="29" spans="3:23">
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="W29" s="9" t="s">
+      <c r="D29" s="19"/>
+      <c r="W29" s="15" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="15" t="s">
         <v>544</v>
       </c>
     </row>
@@ -11412,280 +12556,280 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="9" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="9" customWidth="1"/>
-    <col min="10" max="24" width="2.63888888888889" style="9" customWidth="1"/>
-    <col min="25" max="25" width="6.39814814814815" style="9" customWidth="1"/>
-    <col min="26" max="1021" width="2.63888888888889" style="9" customWidth="1"/>
-    <col min="1022" max="1025" width="2.63888888888889" style="10" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="10"/>
+    <col min="1" max="8" width="2.63888888888889" style="15" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="15" customWidth="1"/>
+    <col min="10" max="24" width="2.63888888888889" style="15" customWidth="1"/>
+    <col min="25" max="25" width="6.39814814814815" style="15" customWidth="1"/>
+    <col min="26" max="1021" width="2.63888888888889" style="15" customWidth="1"/>
+    <col min="1022" max="1025" width="2.63888888888889" style="16" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="15" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="4" spans="3:25">
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="Y4" s="15" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="15" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="7" spans="3:25">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="Y7" s="9" t="s">
+      <c r="Y7" s="15" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="15" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="10" spans="3:25">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="15" t="s">
         <v>552</v>
       </c>
-      <c r="Y10" s="9" t="s">
+      <c r="Y10" s="15" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="11" spans="4:26">
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="15" t="s">
         <v>554</v>
       </c>
-      <c r="Z11" s="9" t="s">
+      <c r="Z11" s="15" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="18" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="13" spans="3:25">
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="15" t="s">
         <v>557</v>
       </c>
-      <c r="Y13" s="9" t="s">
+      <c r="Y13" s="15" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="15" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="16" spans="3:25">
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="15" t="s">
         <v>560</v>
       </c>
-      <c r="Y16" s="9" t="s">
+      <c r="Y16" s="15" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="17" spans="4:26">
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="15" t="s">
         <v>562</v>
       </c>
-      <c r="Z17" s="9" t="s">
+      <c r="Z17" s="15" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="18" spans="4:26">
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="15" t="s">
         <v>564</v>
       </c>
-      <c r="Z18" s="9" t="s">
+      <c r="Z18" s="15" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="18" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="20" spans="3:26">
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="15" t="s">
         <v>567</v>
       </c>
-      <c r="Z20" s="9" t="s">
+      <c r="Z20" s="15" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="21" spans="4:26">
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="15" t="s">
         <v>569</v>
       </c>
-      <c r="Z21" s="9" t="s">
+      <c r="Z21" s="15" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="20" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="18" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="24" spans="3:26">
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="18" t="s">
         <v>573</v>
       </c>
-      <c r="Z24" s="9" t="s">
+      <c r="Z24" s="15" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="15" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="27" spans="3:26">
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="15" t="s">
         <v>576</v>
       </c>
-      <c r="Z27" s="9" t="s">
+      <c r="Z27" s="15" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="15" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="30" spans="3:26">
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="15" t="s">
         <v>579</v>
       </c>
-      <c r="Z30" s="9" t="s">
+      <c r="Z30" s="15" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="15" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="32" spans="27:27">
-      <c r="AA32" s="14"/>
+      <c r="AA32" s="22"/>
     </row>
     <row r="33" spans="3:26">
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="15" t="s">
         <v>582</v>
       </c>
-      <c r="Z33" s="9" t="s">
+      <c r="Z33" s="15" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="15" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="18" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="36" spans="3:26">
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="15" t="s">
         <v>586</v>
       </c>
-      <c r="Z36" s="9" t="s">
+      <c r="Z36" s="15" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="15" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="18" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="39" spans="3:26">
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="15" t="s">
         <v>590</v>
       </c>
-      <c r="Z39" s="9" t="s">
+      <c r="Z39" s="15" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="40" spans="4:4">
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="15" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="42" spans="3:26">
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="15" t="s">
         <v>593</v>
       </c>
-      <c r="Z42" s="9" t="s">
+      <c r="Z42" s="15" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="43" spans="4:4">
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="15" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="44" spans="4:4">
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="18" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="45" spans="3:26">
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="15" t="s">
         <v>597</v>
       </c>
-      <c r="Z45" s="9" t="s">
+      <c r="Z45" s="15" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="46" spans="4:4">
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="15" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="48" spans="3:26">
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="15" t="s">
         <v>600</v>
       </c>
-      <c r="Z48" s="9" t="s">
+      <c r="Z48" s="15" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="49" spans="4:4">
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="15" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="50" spans="4:35">
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="18" t="s">
         <v>603</v>
       </c>
-      <c r="AI50" s="10"/>
+      <c r="AI50" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -11705,187 +12849,187 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="7" width="2.63888888888889" style="9" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="9" customWidth="1"/>
-    <col min="9" max="1024" width="2.63888888888889" style="9" customWidth="1"/>
-    <col min="1025" max="16384" width="9" style="10"/>
+    <col min="1" max="7" width="2.63888888888889" style="15" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="15" customWidth="1"/>
+    <col min="9" max="1024" width="2.63888888888889" style="15" customWidth="1"/>
+    <col min="1025" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="15" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="15" t="s">
         <v>605</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="V4" s="9" t="s">
+      <c r="C4" s="17"/>
+      <c r="V4" s="15" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="18" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="18" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="7" spans="2:22">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="15" t="s">
         <v>609</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="V7" s="9" t="s">
+      <c r="C7" s="19"/>
+      <c r="V7" s="15" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="8" spans="3:23">
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="16" t="s">
         <v>611</v>
       </c>
-      <c r="W8" s="9" t="s">
+      <c r="W8" s="15" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="15" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="15" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="11" spans="2:22">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="15" t="s">
         <v>615</v>
       </c>
-      <c r="V11" s="9" t="s">
+      <c r="V11" s="15" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="18" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="13" spans="3:22">
-      <c r="C13" s="12"/>
-      <c r="V13" s="14"/>
+      <c r="C13" s="18"/>
+      <c r="V13" s="22"/>
     </row>
     <row r="14" spans="2:22">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="15" t="s">
         <v>618</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="V14" s="9" t="s">
+      <c r="C14" s="22"/>
+      <c r="V14" s="15" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="15" spans="3:23">
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="W15" s="9" t="s">
+      <c r="W15" s="15" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="17" spans="3:26">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="15" t="s">
         <v>623</v>
       </c>
-      <c r="Z17" s="10"/>
+      <c r="Z17" s="16"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="20" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="19" spans="2:22">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="15" t="s">
         <v>625</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="V19" s="9" t="s">
+      <c r="C19" s="21"/>
+      <c r="V19" s="15" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="12"/>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="15" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="21" spans="3:16">
-      <c r="C21" s="12"/>
-      <c r="M21" s="9" t="s">
+      <c r="C21" s="18"/>
+      <c r="M21" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="N21" s="9" t="s">
+      <c r="N21" s="15" t="s">
         <v>629</v>
       </c>
-      <c r="O21" s="9" t="s">
+      <c r="O21" s="15" t="s">
         <v>630</v>
       </c>
-      <c r="P21" s="9" t="s">
+      <c r="P21" s="15" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="22" spans="2:22">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="V22" s="9" t="s">
+      <c r="C22" s="18"/>
+      <c r="V22" s="15" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="15" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="25" spans="2:22">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="15" t="s">
         <v>635</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="V25" s="9" t="s">
+      <c r="C25" s="18"/>
+      <c r="V25" s="15" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="18" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="12"/>
+      <c r="C27" s="18"/>
     </row>
     <row r="28" ht="14.4" spans="3:11">
       <c r="C28" t="s">
         <v>628</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="15" t="s">
         <v>638</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="15" t="s">
         <v>639</v>
       </c>
     </row>
@@ -11893,10 +13037,10 @@
       <c r="C29" t="s">
         <v>629</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="K29" s="15" t="s">
         <v>641</v>
       </c>
     </row>
@@ -11904,10 +13048,10 @@
       <c r="C30" t="s">
         <v>630</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="15" t="s">
         <v>642</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="15" t="s">
         <v>643</v>
       </c>
     </row>
@@ -11915,10 +13059,10 @@
       <c r="C31" t="s">
         <v>631</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="15" t="s">
         <v>644</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="K31" s="15" t="s">
         <v>645</v>
       </c>
     </row>
@@ -11926,10 +13070,10 @@
       <c r="C32" t="s">
         <v>646</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="15" t="s">
         <v>647</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K32" s="15" t="s">
         <v>648</v>
       </c>
     </row>
@@ -11937,10 +13081,10 @@
       <c r="C33" t="s">
         <v>649</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="15" t="s">
         <v>650</v>
       </c>
-      <c r="K33" s="9" t="s">
+      <c r="K33" s="15" t="s">
         <v>651</v>
       </c>
     </row>
@@ -11948,10 +13092,10 @@
       <c r="C34" t="s">
         <v>652</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="15" t="s">
         <v>653</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K34" s="15" t="s">
         <v>654</v>
       </c>
     </row>
@@ -11959,10 +13103,10 @@
       <c r="C35" t="s">
         <v>655</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="15" t="s">
         <v>656</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="K35" s="15" t="s">
         <v>651</v>
       </c>
     </row>
@@ -11970,10 +13114,10 @@
       <c r="C36" t="s">
         <v>657</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="15" t="s">
         <v>658</v>
       </c>
-      <c r="K36" s="9" t="s">
+      <c r="K36" s="15" t="s">
         <v>659</v>
       </c>
     </row>
@@ -11981,10 +13125,10 @@
       <c r="C37" t="s">
         <v>660</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="15" t="s">
         <v>661</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="K37" s="15" t="s">
         <v>662</v>
       </c>
     </row>
@@ -11992,10 +13136,10 @@
       <c r="C38" t="s">
         <v>663</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="K38" s="9" t="s">
+      <c r="K38" s="15" t="s">
         <v>665</v>
       </c>
     </row>
@@ -12003,10 +13147,10 @@
       <c r="C39" t="s">
         <v>666</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="15" t="s">
         <v>667</v>
       </c>
-      <c r="K39" s="9" t="s">
+      <c r="K39" s="15" t="s">
         <v>668</v>
       </c>
     </row>
@@ -12028,164 +13172,164 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="7" width="2.63888888888889" style="9" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="9" customWidth="1"/>
-    <col min="9" max="1024" width="2.63888888888889" style="9" customWidth="1"/>
-    <col min="1025" max="16384" width="9" style="10"/>
+    <col min="1" max="7" width="2.63888888888889" style="15" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="15" customWidth="1"/>
+    <col min="9" max="1024" width="2.63888888888889" style="15" customWidth="1"/>
+    <col min="1025" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="15" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:20">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="15" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="7" spans="2:20">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="15" t="s">
         <v>670</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="T7" s="15" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="8" spans="3:21">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="15" t="s">
         <v>672</v>
       </c>
-      <c r="U8" s="9" t="s">
+      <c r="U8" s="15" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="15" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="15" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="T11" s="9" t="s">
+      <c r="T11" s="15" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="15" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="14" spans="2:20">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="15" t="s">
         <v>678</v>
       </c>
-      <c r="T14" s="9" t="s">
+      <c r="T14" s="15" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="15" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="T17" s="9" t="s">
+      <c r="T17" s="15" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="15" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="15" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="15" t="s">
         <v>683</v>
       </c>
-      <c r="T20" s="9" t="s">
+      <c r="T20" s="15" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="15" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="23" spans="2:20">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="15" t="s">
         <v>685</v>
       </c>
-      <c r="T23" s="9" t="s">
+      <c r="T23" s="15" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="24" spans="3:21">
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="U24" s="9" t="s">
+      <c r="U24" s="15" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="15" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="15" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="15" t="s">
         <v>690</v>
       </c>
-      <c r="T27" s="9" t="s">
+      <c r="T27" s="15" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="15" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="15" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="15" t="s">
         <v>693</v>
       </c>
     </row>
@@ -12201,220 +13345,398 @@
   <sheetPr/>
   <dimension ref="C1:AA39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="19" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="20" max="20" width="4.26851851851852" style="1" customWidth="1"/>
-    <col min="21" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.62962962962963" style="15" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="15" customWidth="1"/>
+    <col min="10" max="19" width="2.62962962962963" style="15" customWidth="1"/>
+    <col min="20" max="20" width="4.26851851851852" style="15" customWidth="1"/>
+    <col min="21" max="1025" width="2.62962962962963" style="15" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="15" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="15" t="s">
         <v>695</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="15" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="15" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="15" t="s">
         <v>698</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="T6" s="3" t="s">
+      <c r="D6" s="16"/>
+      <c r="T6" s="16" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="15" t="s">
         <v>700</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="U7" s="15" t="s">
         <v>701</v>
       </c>
-      <c r="AA7" s="5"/>
+      <c r="AA7" s="25"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="15" t="s">
         <v>702</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="U8" s="16" t="s">
         <v>703</v>
       </c>
-      <c r="AA8" s="5"/>
+      <c r="AA8" s="25"/>
     </row>
     <row r="9" spans="4:21">
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="16" t="s">
         <v>704</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="U9" s="16" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="24" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="16" t="s">
         <v>707</v>
       </c>
-      <c r="X11" s="6"/>
+      <c r="X11" s="26"/>
     </row>
     <row r="12" spans="3:20">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="15" t="s">
         <v>708</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="T12" s="16" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="13" spans="4:21">
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="15" t="s">
         <v>710</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="U13" s="16" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="14" spans="4:21">
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="16" t="s">
         <v>712</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="U14" s="15" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="16" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="3"/>
-      <c r="Z16" s="8"/>
+      <c r="D16" s="16"/>
+      <c r="Z16" s="28"/>
     </row>
     <row r="17" spans="3:20">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="15" t="s">
         <v>715</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="T17" s="3" t="s">
+      <c r="D17" s="16"/>
+      <c r="T17" s="16" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="16" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="19" spans="21:21">
-      <c r="U19" s="5"/>
+      <c r="U19" s="25"/>
     </row>
     <row r="20" spans="3:20">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="15" t="s">
         <v>718</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T20" s="15" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="16" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="3"/>
+      <c r="D22" s="16"/>
     </row>
     <row r="23" spans="3:20">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="15" t="s">
         <v>721</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="T23" s="3" t="s">
+      <c r="D23" s="16"/>
+      <c r="T23" s="16" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="16" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="25" spans="22:22">
-      <c r="V25" s="7"/>
+      <c r="V25" s="27"/>
     </row>
     <row r="26" spans="3:20">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="15" t="s">
         <v>724</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="L26" s="5"/>
-      <c r="T26" s="3" t="s">
+      <c r="D26" s="16"/>
+      <c r="L26" s="25"/>
+      <c r="T26" s="16" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="16" t="s">
         <v>726</v>
       </c>
-      <c r="L27" s="5"/>
+      <c r="L27" s="25"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="3"/>
+      <c r="D28" s="16"/>
     </row>
     <row r="29" spans="3:20">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="15" t="s">
         <v>727</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="T29" s="1" t="s">
+      <c r="D29" s="16"/>
+      <c r="T29" s="15" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="15" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="32" spans="3:20">
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="15" t="s">
         <v>730</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="T32" s="1" t="s">
+      <c r="D32" s="16"/>
+      <c r="T32" s="15" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="16" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="39" ht="23.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:Z29"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="7" width="2.63888888888889" style="15" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="15" customWidth="1"/>
+    <col min="9" max="1024" width="2.63888888888889" style="15" customWidth="1"/>
+    <col min="1025" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" s="15" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19">
+      <c r="B4" s="15" t="s">
+        <v>734</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="S4" s="15" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="18" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="18"/>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="B7" s="15" t="s">
+        <v>737</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="S7" s="15" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="16" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="15" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19">
+      <c r="B10" s="15" t="s">
+        <v>741</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="15" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="18"/>
+    </row>
+    <row r="13" spans="2:22">
+      <c r="B13" s="15" t="s">
+        <v>744</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="S13" s="15" t="s">
+        <v>745</v>
+      </c>
+      <c r="V13" s="22"/>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="15" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="18"/>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="B16" s="15" t="s">
+        <v>747</v>
+      </c>
+      <c r="S16" s="15" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="17" spans="3:26">
+      <c r="C17" s="15" t="s">
+        <v>749</v>
+      </c>
+      <c r="Z17" s="16"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="20"/>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="S19" s="15" t="s">
+        <v>751</v>
+      </c>
+      <c r="V19" s="22"/>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="B20" s="18"/>
+      <c r="C20" s="15" t="s">
+        <v>752</v>
+      </c>
+      <c r="T20" s="23" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="18" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="18" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19">
+      <c r="B23" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="S23" s="15" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="15" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="18"/>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="18"/>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="18"/>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="18"/>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="19"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -12433,228 +13755,501 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="9" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="9" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="9" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="10"/>
+    <col min="1" max="8" width="2.63888888888889" style="15" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="15" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="15" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="4:24">
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="X4" s="17"/>
+      <c r="X4" s="23"/>
     </row>
     <row r="5" spans="8:13">
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="T6" s="9" t="s">
+      <c r="D6" s="23"/>
+      <c r="T6" s="15" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="3:20">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="T9" s="9" t="s">
+      <c r="T9" s="15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="3:20">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="T12" s="9" t="s">
+      <c r="D12" s="23"/>
+      <c r="T12" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="3:20">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="T15" s="9" t="s">
+      <c r="T15" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="3:20">
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="T18" s="9" t="s">
+      <c r="T18" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="3:20">
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="T21" s="9" t="s">
+      <c r="T21" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="3:20">
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="T24" s="9" t="s">
+      <c r="T24" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="3:20">
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="T27" s="9" t="s">
+      <c r="T27" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="28" spans="4:21">
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="U28" s="9" t="s">
+      <c r="U28" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" spans="3:20">
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="T31" s="9" t="s">
+      <c r="T31" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="34" spans="3:20">
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="T34" s="9" t="s">
+      <c r="T34" s="15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="37" spans="3:20">
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="T37" s="9" t="s">
+      <c r="T37" s="15" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="40" spans="3:20">
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="T40" s="9" t="s">
+      <c r="T40" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="41" spans="4:21">
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="U41" s="9" t="s">
+      <c r="U41" s="15" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="42" spans="4:4">
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="15" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="43" spans="4:4">
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="15" t="s">
         <v>88</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:AB49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="4:27">
+      <c r="D2" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="AA2" s="6"/>
+    </row>
+    <row r="3" spans="3:21">
+      <c r="C3" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="3:21">
+      <c r="C6" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="U6" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="7" spans="4:28">
+      <c r="D7" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="AB7" s="8"/>
+    </row>
+    <row r="8" spans="4:28">
+      <c r="D8" s="3"/>
+      <c r="AB8" s="8"/>
+    </row>
+    <row r="9" spans="3:21">
+      <c r="C9" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="U9" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="11" spans="6:25">
+      <c r="F11" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="T11" s="3"/>
+      <c r="Y11" s="11"/>
+    </row>
+    <row r="12" spans="3:21">
+      <c r="C12" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="13" spans="4:22">
+      <c r="D13" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="T13" s="10"/>
+      <c r="V13" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="14" spans="4:22">
+      <c r="D14" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="V14" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="4" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="16" spans="3:27">
+      <c r="C16" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="U16" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="AA16" s="14"/>
+    </row>
+    <row r="17" spans="4:19">
+      <c r="D17" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="4:20">
+      <c r="D18" s="3"/>
+      <c r="T18" s="3"/>
+    </row>
+    <row r="19" spans="3:25">
+      <c r="C19" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="U19" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="4:22">
+      <c r="D20" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="S20" s="3"/>
+      <c r="T20" s="6"/>
+      <c r="V20" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="3:25">
+      <c r="C22" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="U22" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="Y22" s="3"/>
+    </row>
+    <row r="23" spans="4:26">
+      <c r="D23" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="S23" s="3"/>
+      <c r="U23" s="6"/>
+      <c r="Z23" s="9"/>
+    </row>
+    <row r="24" spans="4:23">
+      <c r="D24" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="W24" s="12"/>
+    </row>
+    <row r="25" spans="4:12">
+      <c r="D25" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="3:21">
+      <c r="C26" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="27" spans="4:22">
+      <c r="D27" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" s="5"/>
+      <c r="D28" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21">
+      <c r="C29" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21">
+      <c r="C32" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="33" spans="4:22">
+      <c r="D33" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="34" spans="4:22">
+      <c r="D34" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="T34" s="13"/>
+      <c r="V34" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="35" spans="4:22">
+      <c r="D35" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="V35" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="49" ht="17.85" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -12673,192 +14268,192 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="9" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="9" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="9" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="10"/>
+    <col min="1" max="8" width="2.63888888888889" style="15" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="15" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="15" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="15" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="15" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="4:24">
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="X4" s="17"/>
+      <c r="X4" s="23"/>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="17"/>
+      <c r="D5" s="23"/>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="T6" s="15" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="15" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="9:9">
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="15" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="3:20">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="T10" s="9" t="s">
+      <c r="T10" s="15" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="15" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="14" spans="3:20">
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="T14" s="9" t="s">
+      <c r="T14" s="15" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="15" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="17" spans="3:20">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="T17" s="9" t="s">
+      <c r="T17" s="15" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="15" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="20" spans="3:20">
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="T20" s="9" t="s">
+      <c r="T20" s="15" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="15" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="23" spans="3:20">
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="T23" s="9" t="s">
+      <c r="T23" s="15" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="15" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="26" spans="3:20">
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="T26" s="9" t="s">
+      <c r="T26" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="27" spans="4:21">
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="U27" s="9" t="s">
+      <c r="U27" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="15" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31" spans="3:20">
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="T31" s="9" t="s">
+      <c r="T31" s="15" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="15" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="35" spans="4:20">
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="T35" s="9" t="s">
+      <c r="T35" s="15" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="36" spans="4:21">
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="U36" s="17" t="s">
+      <c r="U36" s="23" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="3:20">
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="T37" s="9" t="s">
+      <c r="T37" s="15" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="15" t="s">
         <v>128</v>
       </c>
     </row>
@@ -12880,149 +14475,149 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="28" width="2.63888888888889" style="9" customWidth="1"/>
-    <col min="29" max="29" width="2.73148148148148" style="9" customWidth="1"/>
-    <col min="30" max="1045" width="2.63888888888889" style="9" customWidth="1"/>
-    <col min="1046" max="16384" width="9" style="10"/>
+    <col min="1" max="28" width="2.63888888888889" style="15" customWidth="1"/>
+    <col min="29" max="29" width="2.73148148148148" style="15" customWidth="1"/>
+    <col min="30" max="1045" width="2.63888888888889" style="15" customWidth="1"/>
+    <col min="1046" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="15" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="3" spans="2:23">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="W3" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="15" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="6" spans="2:23">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="15" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="7" spans="3:24">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="X7" s="9" t="s">
+      <c r="X7" s="15" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="15" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="15" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="10" spans="2:23">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="W10" s="9" t="s">
+      <c r="W10" s="15" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="15" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="13" spans="2:23">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="W13" s="9" t="s">
+      <c r="W13" s="15" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="15" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="16" spans="2:23">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="W16" s="9" t="s">
+      <c r="W16" s="15" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="15" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="19" spans="2:23">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="W19" s="9" t="s">
+      <c r="W19" s="15" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="15" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="22" spans="2:23">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="W22" s="9" t="s">
+      <c r="W22" s="15" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="23" spans="3:24">
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="X23" s="9" t="s">
+      <c r="X23" s="15" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="15" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="15" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="26" spans="2:23">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="W26" s="9" t="s">
+      <c r="W26" s="15" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="33" t="s">
         <v>159</v>
       </c>
     </row>
@@ -13044,216 +14639,216 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="28" width="2.63888888888889" style="9" customWidth="1"/>
-    <col min="29" max="29" width="2.73148148148148" style="9" customWidth="1"/>
-    <col min="30" max="1045" width="2.63888888888889" style="9" customWidth="1"/>
-    <col min="1046" max="16384" width="9" style="10"/>
+    <col min="1" max="28" width="2.63888888888889" style="15" customWidth="1"/>
+    <col min="29" max="29" width="2.73148148148148" style="15" customWidth="1"/>
+    <col min="30" max="1045" width="2.63888888888889" style="15" customWidth="1"/>
+    <col min="1046" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="15" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="15" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="4" spans="3:21">
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="15" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="T6" s="15" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="15" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="9" spans="2:20">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="T9" s="9" t="s">
+      <c r="T9" s="15" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="10" spans="3:21">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="U10" s="9" t="s">
+      <c r="U10" s="15" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="15" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="12" spans="2:20">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="T12" s="9" t="s">
+      <c r="T12" s="15" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="13" spans="3:21">
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="U13" s="9" t="s">
+      <c r="U13" s="15" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="15" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="15" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="T16" s="9" t="s">
+      <c r="T16" s="15" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="15" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="T19" s="9" t="s">
+      <c r="T19" s="15" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="20" spans="3:21">
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="U20" s="9" t="s">
+      <c r="U20" s="15" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="15" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="15" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="23" spans="2:44">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="T23" s="9" t="s">
+      <c r="T23" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="AR23" s="9" t="s">
+      <c r="AR23" s="15" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="24" spans="3:21">
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="U24" s="9" t="s">
+      <c r="U24" s="15" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="15" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="15" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="T27" s="9" t="s">
+      <c r="C27" s="33"/>
+      <c r="T27" s="15" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="28" spans="3:21">
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="U28" s="9" t="s">
+      <c r="U28" s="15" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="15" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="15" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="31" spans="2:20">
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="T31" s="9" t="s">
+      <c r="T31" s="15" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="15" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="34" spans="2:20">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="T34" s="9" t="s">
+      <c r="T34" s="15" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="35" spans="3:3">
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="15" t="s">
         <v>206</v>
       </c>
     </row>
@@ -13275,149 +14870,149 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="28" width="2.63888888888889" style="9" customWidth="1"/>
-    <col min="29" max="29" width="2.73148148148148" style="9" customWidth="1"/>
-    <col min="30" max="1045" width="2.63888888888889" style="9" customWidth="1"/>
-    <col min="1046" max="16384" width="9" style="10"/>
+    <col min="1" max="28" width="2.63888888888889" style="15" customWidth="1"/>
+    <col min="29" max="29" width="2.73148148148148" style="15" customWidth="1"/>
+    <col min="30" max="1045" width="2.63888888888889" style="15" customWidth="1"/>
+    <col min="1046" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="15" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="3" spans="2:22">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="15" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="15" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="6" spans="2:22">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="V6" s="15" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="7" spans="3:23">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="W7" s="9" t="s">
+      <c r="W7" s="15" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="15" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="30" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="10" spans="2:22">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="V10" s="9" t="s">
+      <c r="V10" s="15" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="15" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="V13" s="9" t="s">
+      <c r="V13" s="15" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="23" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="16" spans="2:22">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="V16" s="9" t="s">
+      <c r="V16" s="15" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="17" spans="3:23">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="W17" s="9" t="s">
+      <c r="W17" s="15" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="15" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="20" spans="2:22">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="V20" s="9" t="s">
+      <c r="V20" s="15" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="15" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="23" spans="2:22">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="V23" s="9" t="s">
+      <c r="V23" s="15" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="26" spans="2:22">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="V26" s="9" t="s">
+      <c r="V26" s="15" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="15" t="s">
         <v>237</v>
       </c>
     </row>
@@ -13439,271 +15034,271 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="9" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="9" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="9" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="10"/>
+    <col min="1" max="8" width="2.62962962962963" style="15" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="15" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="15" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="15" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="3" spans="3:26">
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="Z3" s="10"/>
+      <c r="Z3" s="16"/>
     </row>
     <row r="4" spans="4:22">
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="V4" s="16" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="5" spans="4:22">
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="V5" s="9" t="s">
+      <c r="V5" s="15" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="6" spans="4:22">
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="V6" s="10" t="s">
+      <c r="V6" s="16" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="16" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="AA8" s="23"/>
+      <c r="AA8" s="25"/>
     </row>
     <row r="9" spans="4:27">
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="AA9" s="23"/>
+      <c r="AA9" s="25"/>
     </row>
     <row r="10" spans="3:21">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="U10" s="10" t="s">
+      <c r="U10" s="16" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="11" spans="4:22">
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="V11" s="9" t="s">
+      <c r="V11" s="15" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="12" spans="3:21">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="U12" s="9" t="s">
+      <c r="U12" s="15" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="15" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="15" spans="3:21">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="U15" s="9" t="s">
+      <c r="U15" s="15" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="Z16" s="26"/>
+      <c r="Z16" s="28"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="10"/>
+      <c r="D17" s="16"/>
     </row>
     <row r="18" spans="3:21">
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="U18" s="10" t="s">
+      <c r="U18" s="16" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="19" spans="4:22">
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="U19" s="23"/>
-      <c r="V19" s="9" t="s">
+      <c r="U19" s="25"/>
+      <c r="V19" s="15" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="20" spans="4:22">
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="V20" s="10" t="s">
+      <c r="V20" s="16" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="16" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="22" spans="4:21">
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="U22" s="9" t="s">
+      <c r="U22" s="15" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="23" spans="3:21">
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="U23" s="10" t="s">
+      <c r="D23" s="16"/>
+      <c r="U23" s="16" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="V24" s="9" t="s">
+      <c r="V24" s="15" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="25" spans="4:22">
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="V25" s="25" t="s">
+      <c r="V25" s="27" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="26" spans="4:22">
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="L26" s="23"/>
-      <c r="V26" s="9" t="s">
+      <c r="L26" s="25"/>
+      <c r="V26" s="15" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="L27" s="23"/>
+      <c r="L27" s="25"/>
     </row>
     <row r="28" spans="3:21">
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="U28" s="9" t="s">
+      <c r="U28" s="15" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="29" spans="4:22">
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="V29" s="9" t="s">
+      <c r="V29" s="15" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="30" spans="4:22">
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="V30" s="9" t="s">
+      <c r="V30" s="15" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="16" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="16" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="33" spans="3:21">
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="U33" s="9" t="s">
+      <c r="U33" s="15" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="15" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="35" spans="24:24">
-      <c r="X35" s="9" t="s">
+      <c r="X35" s="15" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="37" spans="3:21">
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="U37" s="9" t="s">
+      <c r="U37" s="15" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="15" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="40" spans="3:21">
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="U40" s="9" t="s">
+      <c r="U40" s="15" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="41" spans="4:4">
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="15" t="s">
         <v>295</v>
       </c>
     </row>
@@ -13726,190 +15321,190 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="9" customWidth="1"/>
-    <col min="3" max="3" width="4.49074074074074" style="9" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="9" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="9" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="9" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="10"/>
+    <col min="1" max="2" width="2.62962962962963" style="15" customWidth="1"/>
+    <col min="3" max="3" width="4.49074074074074" style="15" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="15" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="15" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="15" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:26">
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="Z2" s="21"/>
+      <c r="Z2" s="24"/>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="16" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="4" spans="4:21">
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="U4" s="16" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="31" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="T6" s="9" t="s">
+      <c r="D6" s="16"/>
+      <c r="T6" s="15" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="U7" s="10" t="s">
+      <c r="U7" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="AA7" s="23"/>
+      <c r="AA7" s="25"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="AA8" s="23"/>
+      <c r="AA8" s="25"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="16" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="10" spans="3:20">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="T10" s="10" t="s">
+      <c r="D10" s="24"/>
+      <c r="T10" s="16" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="U11" s="10" t="s">
+      <c r="U11" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="X11" s="24"/>
+      <c r="X11" s="26"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="16" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="10"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="3:20">
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="M14" s="21"/>
-      <c r="Q14" s="24"/>
-      <c r="T14" s="9" t="s">
+      <c r="D14" s="32"/>
+      <c r="M14" s="24"/>
+      <c r="Q14" s="26"/>
+      <c r="T14" s="15" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="16" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="10"/>
-      <c r="Z16" s="26"/>
+      <c r="D16" s="16"/>
+      <c r="Z16" s="28"/>
     </row>
     <row r="17" spans="3:20">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="T17" s="10" t="s">
+      <c r="D17" s="24"/>
+      <c r="T17" s="16" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="18" spans="4:21">
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="U18" s="9" t="s">
+      <c r="U18" s="15" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="19" spans="4:21">
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="L19" s="21"/>
-      <c r="U19" s="23"/>
+      <c r="L19" s="24"/>
+      <c r="U19" s="25"/>
     </row>
     <row r="20" spans="3:20">
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="T20" s="10" t="s">
+      <c r="T20" s="16" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="21" spans="4:19">
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="S21" s="21"/>
+      <c r="S21" s="24"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="21"/>
+      <c r="D22" s="24"/>
     </row>
     <row r="23" spans="3:20">
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="T23" s="9" t="s">
+      <c r="D23" s="24"/>
+      <c r="T23" s="15" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="24" spans="4:21">
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="U24" s="10" t="s">
+      <c r="U24" s="16" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="25" spans="4:22">
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="V25" s="25"/>
+      <c r="V25" s="27"/>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="L26" s="23"/>
+      <c r="L26" s="25"/>
     </row>
     <row r="50" ht="17.85" customHeight="1"/>
   </sheetData>
@@ -13930,113 +15525,113 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="9" customWidth="1"/>
-    <col min="3" max="3" width="2.48148148148148" style="9" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="9" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="9" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="9" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="10"/>
+    <col min="1" max="2" width="2.62962962962963" style="15" customWidth="1"/>
+    <col min="3" max="3" width="2.48148148148148" style="15" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="15" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="15" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="15" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="15" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="15" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="15" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="T6" s="15" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="15" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="8" ht="17.85" customHeight="1"/>
     <row r="9" spans="3:20">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="T9" s="9" t="s">
+      <c r="T9" s="15" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="15" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="12" spans="3:20">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="T12" s="9" t="s">
+      <c r="T12" s="15" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="15" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="15" spans="3:20">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="T15" s="9" t="s">
+      <c r="T15" s="15" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="16" spans="4:21">
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="U16" s="9" t="s">
+      <c r="U16" s="15" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="15" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="15" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="19" spans="3:20">
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="T19" s="9" t="s">
+      <c r="T19" s="15" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="15" t="s">
         <v>351</v>
       </c>
     </row>

--- a/learn_chinese2024.xlsx
+++ b/learn_chinese2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="12" activeTab="19"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="13" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="20240107" sheetId="4" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="20240721" sheetId="22" r:id="rId18"/>
     <sheet name="20240728" sheetId="23" r:id="rId19"/>
     <sheet name="20240805" sheetId="24" r:id="rId20"/>
+    <sheet name="20240818" sheetId="25" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="849">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -9795,6 +9796,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">will have a direct </t>
     </r>
     <r>
@@ -9817,6 +9823,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">gōng sī zuò chū yī xiē </t>
     </r>
     <r>
@@ -10045,6 +10057,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">nǐ yòng </t>
     </r>
     <r>
@@ -10179,6 +10196,614 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>Shopping online</t>
+  </si>
+  <si>
+    <t>A: 你在做什么？</t>
+  </si>
+  <si>
+    <t>A: What are you doing?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nǐ zài zuò shen me ？ </t>
+  </si>
+  <si>
+    <t>B: 我在网上买一个漂亮的枕头。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B:  i'm just looking for a nice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pillow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> on Ebay.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> wǒ zài wǎng shàng mǎi yī gè piāo liàng de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>zhěn tóu</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 你在网上买枕头，太荒唐了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A:  you're shopping for a pillow online? That's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>absurd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> nǐ zài wǎng shàng mǎi zhěn tóu ，tài </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>huāng táng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B:为什么？我没必要离开家庭逛几十家店</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B:  Why?i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>don't have to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> leave the house or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>browse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> a dozen stores to find</t>
+    </r>
+  </si>
+  <si>
+    <t>只买个枕头。这样我只需要网上搜一下，</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">what i'm looking for. This way, i just search for it online, quick and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>easy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>即快又方便。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wéi shen me ？wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>méi bì yào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> lí kāi jiā tíng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>guàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> jǐ shí jiā diàn</t>
+    </r>
+  </si>
+  <si>
+    <t>zhī mǎi gè zhěn tóu 。zhè yàng wǒ zhī xū yào wǎng shàng sōu yī xià ，</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">jí kuài yòu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fāng biàn</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 我明白了，可是你怎么付钱呢？你怎么知道</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A:  i see. But how do you pay for it? How do you know you're </t>
+  </si>
+  <si>
+    <t>不会被骗？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">not going to be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ripped off</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> by the seller?</t>
+    </r>
+  </si>
+  <si>
+    <t>wǒ míng bái le ，kě shì nǐ zěn me fù qián ne ？nǐ zěn me zhī dào</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">bú huì bèi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>piàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 网站使用点数制度，如果卖家出现差错，客户</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B:  Well, the website handles a point </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>system</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> where if the seller does </t>
+    </r>
+  </si>
+  <si>
+    <t>会给差评，那样你就知道他的店是否可靠。</t>
+  </si>
+  <si>
+    <t>something wrong, people comment negatively and then you know</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǎng zhàn shǐ yòng diǎn shù </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>zhì dù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">that he may not be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>trustworthy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">rú guǒ mài jiā </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>chū xiàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> chà cuò ，kè hù </t>
+    </r>
+  </si>
+  <si>
+    <t>happened</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">huì gěi chà píng ，nà yàng nǐ jiù zhī dào tā de diàn shì fǒu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>kě kào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>A: 那听起来十分安全。那怎么付钱？需要信用卡吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A:  Wow, that sounds pretty safe. So how do you pay? Do you need </t>
+  </si>
+  <si>
+    <t>nà tīng qǐ lái shí fèn ān quán 。nà zěn me fù qián ？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>credit card</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">xū yào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xìn yòng kǎ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ma ？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B: 你可以用信用卡，或者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>借记卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>B:  you can use a credit card or you  card.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">nǐ kě yǐ yòng xìn yòng kǎ ，huò zhě </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jiè jì kǎ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A:买它吧。</t>
+  </si>
+  <si>
+    <t>A: Let's do it.</t>
+  </si>
+  <si>
+    <t>mǎi tā ba 。</t>
   </si>
 </sst>
 </file>
@@ -10212,7 +10837,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFEF413D"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -10220,6 +10845,30 @@
       <sz val="11"/>
       <name val="等线"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1C1C1C"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1C1C1C"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -10274,30 +10923,6 @@
       <color rgb="FFEF413D"/>
       <name val="等线"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFEF413D"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1C1C1C"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1C1C1C"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCE181E"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -10997,12 +11622,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -11015,22 +11639,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -11353,186 +11967,186 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="15" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="15" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="15" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="16"/>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="3:22">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="V3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="4:24">
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="23" t="s">
+      <c r="X4" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:22">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="15" t="s">
+      <c r="V7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="4:23">
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="W8" s="15" t="s">
+      <c r="W8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="3:22">
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V11" s="15" t="s">
+      <c r="V11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="3:22">
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V14" s="15" t="s">
+      <c r="V14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="4:23">
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W15" s="15" t="s">
+      <c r="W15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="3:22">
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V17" s="15" t="s">
+      <c r="V17" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="3:22">
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V20" s="15" t="s">
+      <c r="V20" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="4:23">
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W21" s="15" t="s">
+      <c r="W21" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="4:23">
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W22" s="15" t="s">
+      <c r="W22" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="3:22">
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V24" s="15" t="s">
+      <c r="V24" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="3:22">
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V27" s="15" t="s">
+      <c r="V27" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="4:23">
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="W28" s="15" t="s">
+      <c r="W28" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="7:7">
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -11554,159 +12168,159 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="15" customWidth="1"/>
-    <col min="3" max="3" width="2.48148148148148" style="15" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="15" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="15" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="15" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="16"/>
+    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.48148148148148" style="1" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="1" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="3" spans="3:24">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="X3" s="15" t="s">
+      <c r="X3" s="1" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="1" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="6" spans="3:24">
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="X6" s="15" t="s">
+      <c r="X6" s="1" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="7" spans="4:25">
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="Y7" s="15" t="s">
+      <c r="Y7" s="1" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="8" ht="17.85" customHeight="1" spans="4:4">
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="1" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="9" spans="3:24">
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="X9" s="15" t="s">
+      <c r="X9" s="1" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="10" spans="4:25">
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="Y10" s="15" t="s">
+      <c r="Y10" s="1" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="1" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="1" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="13" spans="3:24">
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="X13" s="15" t="s">
+      <c r="X13" s="1" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="14" spans="4:25">
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="Y14" s="15" t="s">
+      <c r="Y14" s="1" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="1" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="1" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="17" spans="3:24">
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="X17" s="15" t="s">
+      <c r="X17" s="1" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="1" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="20" spans="3:24">
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="X20" s="15" t="s">
+      <c r="X20" s="1" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="21" spans="4:25">
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="Y21" s="15" t="s">
+      <c r="Y21" s="1" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="22" spans="4:25">
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="Y22" s="15" t="s">
+      <c r="Y22" s="1" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="1" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="1" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="1" t="s">
         <v>384</v>
       </c>
     </row>
@@ -11728,187 +12342,187 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="15" customWidth="1"/>
-    <col min="3" max="3" width="2.48148148148148" style="15" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="15" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="15" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="15" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="16"/>
+    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.48148148148148" style="1" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="1" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="3" spans="3:22">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="V3" s="1" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="1" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="6" spans="3:22">
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="V6" s="15" t="s">
+      <c r="V6" s="1" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="1" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="9" spans="3:22">
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="V9" s="15" t="s">
+      <c r="V9" s="1" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="1" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="12" spans="3:22">
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="V12" s="15" t="s">
+      <c r="V12" s="1" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="1" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="15" spans="3:22">
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="V15" s="15" t="s">
+      <c r="V15" s="1" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="18" spans="3:22">
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="V18" s="15" t="s">
+      <c r="V18" s="1" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="1" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="21" spans="3:22">
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="V21" s="15" t="s">
+      <c r="V21" s="1" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="1" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="24" spans="3:22">
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="V24" s="15" t="s">
+      <c r="V24" s="1" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="1" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="1" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="27" spans="3:22">
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="V27" s="15" t="s">
+      <c r="V27" s="1" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="28" spans="4:23">
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="W28" s="15" t="s">
+      <c r="W28" s="1" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="29" spans="4:23">
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="W29" s="15" t="s">
+      <c r="W29" s="1" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="1" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="1" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="1" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="33" spans="3:22">
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="V33" s="15" t="s">
+      <c r="V33" s="1" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="1" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="1" t="s">
         <v>423</v>
       </c>
     </row>
@@ -11930,221 +12544,221 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.62962962962963" style="15" customWidth="1"/>
-    <col min="2" max="2" width="2.82407407407407" style="15" customWidth="1"/>
-    <col min="3" max="7" width="2.62962962962963" style="15" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="15" customWidth="1"/>
-    <col min="9" max="1029" width="2.62962962962963" style="15" customWidth="1"/>
-    <col min="1030" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1030" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="1" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="1" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="1" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="T6" s="15" t="s">
+      <c r="T6" s="1" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="1" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="1" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="1" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="T10" s="15" t="s">
+      <c r="T10" s="1" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="11" spans="3:23">
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="W11" s="30"/>
+      <c r="W11" s="16"/>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="T13" s="15" t="s">
+      <c r="C13" s="18"/>
+      <c r="T13" s="1" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="1" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="16" spans="2:27">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="T16" s="15" t="s">
+      <c r="T16" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="AA16" s="23"/>
+      <c r="AA16" s="18"/>
     </row>
     <row r="17" spans="3:21">
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="U17" s="30" t="s">
+      <c r="U17" s="16" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="18" spans="3:30">
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="AA18" s="15" t="s">
+      <c r="AA18" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="AD18" s="15">
+      <c r="AD18" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="T19" s="15" t="s">
+      <c r="T19" s="1" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="1" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="22" spans="2:20">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="T22" s="15" t="s">
+      <c r="T22" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="23" spans="3:21">
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="U23" s="15" t="s">
+      <c r="U23" s="1" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="T25" s="15" t="s">
+      <c r="T25" s="1" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="26" spans="3:25">
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="U26" s="15" t="s">
+      <c r="U26" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="Y26" s="23"/>
+      <c r="Y26" s="18"/>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="1" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="28" spans="2:20">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="T28" s="15" t="s">
+      <c r="T28" s="1" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="18" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="N32" s="15" t="s">
+      <c r="N32" s="1" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="N33" s="15" t="s">
+      <c r="N33" s="1" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G34" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="N34" s="15" t="s">
+      <c r="N34" s="1" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="N35" s="15" t="s">
+      <c r="N35" s="1" t="s">
         <v>471</v>
       </c>
     </row>
@@ -12166,180 +12780,180 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.62962962962963" style="15" customWidth="1"/>
-    <col min="2" max="2" width="2.82407407407407" style="15" customWidth="1"/>
-    <col min="3" max="7" width="2.62962962962963" style="15" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="15" customWidth="1"/>
-    <col min="9" max="1029" width="2.62962962962963" style="15" customWidth="1"/>
-    <col min="1030" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1030" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="1" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="1" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="1" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="T6" s="15" t="s">
+      <c r="T6" s="1" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="7" spans="3:21">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="U7" s="23" t="s">
+      <c r="U7" s="18" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="1" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="18" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="T10" s="15" t="s">
+      <c r="T10" s="1" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="1" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="T13" s="15" t="s">
+      <c r="T13" s="1" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="1" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="T16" s="15" t="s">
+      <c r="T16" s="1" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="17" spans="3:21">
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="U17" s="29" t="s">
+      <c r="U17" s="19" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="1" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="19" spans="3:20">
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="T19" s="30" t="s">
+      <c r="T19" s="16" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="T20" s="15" t="s">
+      <c r="T20" s="1" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="21" spans="3:21">
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="U21" s="15" t="s">
+      <c r="U21" s="1" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="1" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="1" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="T24" s="15" t="s">
+      <c r="T24" s="1" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="1" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="T27" s="15" t="s">
+      <c r="T27" s="1" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="1" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="30" spans="2:20">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="T30" s="15" t="s">
+      <c r="T30" s="1" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="1" t="s">
         <v>509</v>
       </c>
     </row>
@@ -12361,180 +12975,180 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="15" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="15" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="15" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="16"/>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="1" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="4" spans="3:23">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="W4" s="15" t="s">
+      <c r="D4" s="3"/>
+      <c r="W4" s="1" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="4" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="4" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="7" spans="3:23">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="W7" s="15" t="s">
+      <c r="D7" s="5"/>
+      <c r="W7" s="1" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="2" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="10" spans="3:23">
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="W10" s="15" t="s">
+      <c r="W10" s="1" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="X11" s="15" t="s">
+      <c r="X11" s="1" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="4" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="W13" s="22"/>
+      <c r="W13" s="8"/>
     </row>
     <row r="14" spans="3:23">
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="W14" s="15" t="s">
+      <c r="D14" s="8"/>
+      <c r="W14" s="1" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="4" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="17" spans="3:27">
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="W17" s="15" t="s">
+      <c r="W17" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="AA17" s="16"/>
+      <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="6" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="W19" s="22"/>
+      <c r="W19" s="8"/>
     </row>
     <row r="20" spans="3:23">
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="W20" s="15" t="s">
+      <c r="W20" s="1" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="4" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="4" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="23" spans="3:23">
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="W23" s="15" t="s">
+      <c r="W23" s="1" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="4" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="26" spans="3:23">
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="W26" s="15" t="s">
+      <c r="D26" s="4"/>
+      <c r="W26" s="1" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="4" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="18"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="3:23">
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="W29" s="15" t="s">
+      <c r="D29" s="5"/>
+      <c r="W29" s="1" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="1" t="s">
         <v>544</v>
       </c>
     </row>
@@ -12556,280 +13170,280 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="15" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="15" customWidth="1"/>
-    <col min="10" max="24" width="2.63888888888889" style="15" customWidth="1"/>
-    <col min="25" max="25" width="6.39814814814815" style="15" customWidth="1"/>
-    <col min="26" max="1021" width="2.63888888888889" style="15" customWidth="1"/>
-    <col min="1022" max="1025" width="2.63888888888889" style="16" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="16"/>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="24" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="25" max="25" width="6.39814814814815" style="1" customWidth="1"/>
+    <col min="26" max="1021" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1022" max="1025" width="2.63888888888889" style="2" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="1" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="4" spans="3:25">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="Y4" s="15" t="s">
+      <c r="Y4" s="1" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="1" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="7" spans="3:25">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="Y7" s="15" t="s">
+      <c r="Y7" s="1" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="1" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="10" spans="3:25">
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="Y10" s="15" t="s">
+      <c r="Y10" s="1" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="11" spans="4:26">
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="Z11" s="15" t="s">
+      <c r="Z11" s="1" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="4" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="13" spans="3:25">
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="Y13" s="15" t="s">
+      <c r="Y13" s="1" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="1" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="16" spans="3:25">
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="Y16" s="15" t="s">
+      <c r="Y16" s="1" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="17" spans="4:26">
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="Z17" s="15" t="s">
+      <c r="Z17" s="1" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="18" spans="4:26">
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="Z18" s="15" t="s">
+      <c r="Z18" s="1" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="4" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="20" spans="3:26">
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="Z20" s="15" t="s">
+      <c r="Z20" s="1" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="21" spans="4:26">
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="Z21" s="15" t="s">
+      <c r="Z21" s="1" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="6" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="4" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="24" spans="3:26">
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="Z24" s="15" t="s">
+      <c r="Z24" s="1" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="1" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="27" spans="3:26">
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="Z27" s="15" t="s">
+      <c r="Z27" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="1" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="30" spans="3:26">
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="Z30" s="15" t="s">
+      <c r="Z30" s="1" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="1" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="32" spans="27:27">
-      <c r="AA32" s="22"/>
+      <c r="AA32" s="8"/>
     </row>
     <row r="33" spans="3:26">
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="Z33" s="15" t="s">
+      <c r="Z33" s="1" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="1" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="4" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="36" spans="3:26">
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="Z36" s="15" t="s">
+      <c r="Z36" s="1" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="1" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="4" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="39" spans="3:26">
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="Z39" s="15" t="s">
+      <c r="Z39" s="1" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="40" spans="4:4">
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="1" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="42" spans="3:26">
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="Z42" s="15" t="s">
+      <c r="Z42" s="1" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="43" spans="4:4">
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="1" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="44" spans="4:4">
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="4" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="45" spans="3:26">
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="Z45" s="15" t="s">
+      <c r="Z45" s="1" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="46" spans="4:4">
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="1" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="48" spans="3:26">
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="Z48" s="15" t="s">
+      <c r="Z48" s="1" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="49" spans="4:4">
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="1" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="50" spans="4:35">
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="AI50" s="16"/>
+      <c r="AI50" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -12849,187 +13463,187 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="7" width="2.63888888888889" style="15" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="15" customWidth="1"/>
-    <col min="9" max="1024" width="2.63888888888889" style="15" customWidth="1"/>
-    <col min="1025" max="16384" width="9" style="16"/>
+    <col min="1" max="7" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1024" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1025" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="1" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="V4" s="15" t="s">
+      <c r="C4" s="3"/>
+      <c r="V4" s="1" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="4" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="4" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="7" spans="2:22">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="V7" s="15" t="s">
+      <c r="C7" s="5"/>
+      <c r="V7" s="1" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="8" spans="3:23">
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="W8" s="15" t="s">
+      <c r="W8" s="1" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="1" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="1" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="11" spans="2:22">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="V11" s="15" t="s">
+      <c r="V11" s="1" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="4" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="13" spans="3:22">
-      <c r="C13" s="18"/>
-      <c r="V13" s="22"/>
+      <c r="C13" s="4"/>
+      <c r="V13" s="8"/>
     </row>
     <row r="14" spans="2:22">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="V14" s="15" t="s">
+      <c r="C14" s="8"/>
+      <c r="V14" s="1" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="15" spans="3:23">
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="W15" s="15" t="s">
+      <c r="W15" s="1" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="1" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="17" spans="3:26">
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="Z17" s="16"/>
+      <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="6" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="19" spans="2:22">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="V19" s="15" t="s">
+      <c r="C19" s="7"/>
+      <c r="V19" s="1" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="18"/>
-      <c r="C20" s="15" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="1" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="21" spans="3:16">
-      <c r="C21" s="18"/>
-      <c r="M21" s="15" t="s">
+      <c r="C21" s="4"/>
+      <c r="M21" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="N21" s="15" t="s">
+      <c r="N21" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="O21" s="15" t="s">
+      <c r="O21" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="P21" s="15" t="s">
+      <c r="P21" s="1" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="22" spans="2:22">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="V22" s="15" t="s">
+      <c r="C22" s="4"/>
+      <c r="V22" s="1" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="1" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="25" spans="2:22">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="V25" s="15" t="s">
+      <c r="C25" s="4"/>
+      <c r="V25" s="1" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="4" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="18"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" ht="14.4" spans="3:11">
       <c r="C28" t="s">
         <v>628</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="K28" s="15" t="s">
+      <c r="K28" s="1" t="s">
         <v>639</v>
       </c>
     </row>
@@ -13037,10 +13651,10 @@
       <c r="C29" t="s">
         <v>629</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="K29" s="15" t="s">
+      <c r="K29" s="1" t="s">
         <v>641</v>
       </c>
     </row>
@@ -13048,10 +13662,10 @@
       <c r="C30" t="s">
         <v>630</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="K30" s="15" t="s">
+      <c r="K30" s="1" t="s">
         <v>643</v>
       </c>
     </row>
@@ -13059,10 +13673,10 @@
       <c r="C31" t="s">
         <v>631</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="K31" s="15" t="s">
+      <c r="K31" s="1" t="s">
         <v>645</v>
       </c>
     </row>
@@ -13070,10 +13684,10 @@
       <c r="C32" t="s">
         <v>646</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="K32" s="15" t="s">
+      <c r="K32" s="1" t="s">
         <v>648</v>
       </c>
     </row>
@@ -13081,10 +13695,10 @@
       <c r="C33" t="s">
         <v>649</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="K33" s="15" t="s">
+      <c r="K33" s="1" t="s">
         <v>651</v>
       </c>
     </row>
@@ -13092,10 +13706,10 @@
       <c r="C34" t="s">
         <v>652</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="K34" s="15" t="s">
+      <c r="K34" s="1" t="s">
         <v>654</v>
       </c>
     </row>
@@ -13103,10 +13717,10 @@
       <c r="C35" t="s">
         <v>655</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="K35" s="15" t="s">
+      <c r="K35" s="1" t="s">
         <v>651</v>
       </c>
     </row>
@@ -13114,10 +13728,10 @@
       <c r="C36" t="s">
         <v>657</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="K36" s="15" t="s">
+      <c r="K36" s="1" t="s">
         <v>659</v>
       </c>
     </row>
@@ -13125,10 +13739,10 @@
       <c r="C37" t="s">
         <v>660</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="K37" s="15" t="s">
+      <c r="K37" s="1" t="s">
         <v>662</v>
       </c>
     </row>
@@ -13136,10 +13750,10 @@
       <c r="C38" t="s">
         <v>663</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="K38" s="15" t="s">
+      <c r="K38" s="1" t="s">
         <v>665</v>
       </c>
     </row>
@@ -13147,10 +13761,10 @@
       <c r="C39" t="s">
         <v>666</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="K39" s="15" t="s">
+      <c r="K39" s="1" t="s">
         <v>668</v>
       </c>
     </row>
@@ -13172,164 +13786,164 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="7" width="2.63888888888889" style="15" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="15" customWidth="1"/>
-    <col min="9" max="1024" width="2.63888888888889" style="15" customWidth="1"/>
-    <col min="1025" max="16384" width="9" style="16"/>
+    <col min="1" max="7" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1024" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1025" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:20">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="T4" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="1" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="7" spans="2:20">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="T7" s="15" t="s">
+      <c r="T7" s="1" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="8" spans="3:21">
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="U8" s="15" t="s">
+      <c r="U8" s="1" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="1" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="1" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="T11" s="15" t="s">
+      <c r="T11" s="1" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="1" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="14" spans="2:20">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="T14" s="15" t="s">
+      <c r="T14" s="1" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="1" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="T17" s="15" t="s">
+      <c r="T17" s="1" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="1" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="T20" s="15" t="s">
+      <c r="T20" s="1" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="23" spans="2:20">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="T23" s="15" t="s">
+      <c r="T23" s="1" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="24" spans="3:21">
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="U24" s="15" t="s">
+      <c r="U24" s="1" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="1" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="1" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="T27" s="15" t="s">
+      <c r="T27" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="1" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="1" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="1" t="s">
         <v>693</v>
       </c>
     </row>
@@ -13351,210 +13965,210 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="15" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="15" customWidth="1"/>
-    <col min="10" max="19" width="2.62962962962963" style="15" customWidth="1"/>
-    <col min="20" max="20" width="4.26851851851852" style="15" customWidth="1"/>
-    <col min="21" max="1025" width="2.62962962962963" style="15" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="16"/>
+    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="19" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="20" max="20" width="4.26851851851852" style="1" customWidth="1"/>
+    <col min="21" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="1" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="1" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="1" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="T6" s="16" t="s">
+      <c r="D6" s="2"/>
+      <c r="T6" s="2" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="U7" s="15" t="s">
+      <c r="U7" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="AA7" s="25"/>
+      <c r="AA7" s="11"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="U8" s="16" t="s">
+      <c r="U8" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="AA8" s="25"/>
+      <c r="AA8" s="11"/>
     </row>
     <row r="9" spans="4:21">
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="U9" s="16" t="s">
+      <c r="U9" s="2" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="9" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="X11" s="26"/>
+      <c r="X11" s="14"/>
     </row>
     <row r="12" spans="3:20">
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="T12" s="16" t="s">
+      <c r="T12" s="2" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="13" spans="4:21">
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="U13" s="16" t="s">
+      <c r="U13" s="2" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="14" spans="4:21">
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="U14" s="15" t="s">
+      <c r="U14" s="1" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="2" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="16"/>
-      <c r="Z16" s="28"/>
+      <c r="D16" s="2"/>
+      <c r="Z16" s="17"/>
     </row>
     <row r="17" spans="3:20">
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="T17" s="16" t="s">
+      <c r="D17" s="2"/>
+      <c r="T17" s="2" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="2" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="19" spans="21:21">
-      <c r="U19" s="25"/>
+      <c r="U19" s="11"/>
     </row>
     <row r="20" spans="3:20">
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="T20" s="15" t="s">
+      <c r="T20" s="1" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="2" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="16"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="3:20">
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="T23" s="16" t="s">
+      <c r="D23" s="2"/>
+      <c r="T23" s="2" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="2" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="25" spans="22:22">
-      <c r="V25" s="27"/>
+      <c r="V25" s="15"/>
     </row>
     <row r="26" spans="3:20">
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="L26" s="25"/>
-      <c r="T26" s="16" t="s">
+      <c r="D26" s="2"/>
+      <c r="L26" s="11"/>
+      <c r="T26" s="2" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="L27" s="25"/>
+      <c r="L27" s="11"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="16"/>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="3:20">
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="T29" s="15" t="s">
+      <c r="D29" s="2"/>
+      <c r="T29" s="1" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="1" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="32" spans="3:20">
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="T32" s="15" t="s">
+      <c r="D32" s="2"/>
+      <c r="T32" s="1" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="2" t="s">
         <v>732</v>
       </c>
     </row>
@@ -13577,165 +14191,165 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="7" width="2.63888888888889" style="15" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="15" customWidth="1"/>
-    <col min="9" max="1024" width="2.63888888888889" style="15" customWidth="1"/>
-    <col min="1025" max="16384" width="9" style="16"/>
+    <col min="1" max="7" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1024" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1025" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="1" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="4" spans="2:19">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="S4" s="15" t="s">
+      <c r="C4" s="3"/>
+      <c r="S4" s="1" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="4" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="18"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="S7" s="15" t="s">
+      <c r="C7" s="5"/>
+      <c r="S7" s="1" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="2" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="1" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="S10" s="15" t="s">
+      <c r="S10" s="1" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="1" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="18"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="S13" s="15" t="s">
+      <c r="C13" s="4"/>
+      <c r="S13" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="V13" s="22"/>
+      <c r="V13" s="8"/>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="1" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="18"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="S16" s="15" t="s">
+      <c r="S16" s="1" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="17" spans="3:26">
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="Z17" s="16"/>
+      <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="20"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="2:22">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="S19" s="15" t="s">
+      <c r="C19" s="7"/>
+      <c r="S19" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="V19" s="22"/>
+      <c r="V19" s="8"/>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="18"/>
-      <c r="C20" s="15" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="T20" s="23" t="s">
+      <c r="T20" s="18" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="4" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="4" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="23" spans="2:19">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="S23" s="15" t="s">
+      <c r="S23" s="1" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="1" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="18"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="18"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="18"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="18"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="19"/>
+      <c r="C29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -13755,225 +14369,225 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="15" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="15" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="15" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="16"/>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="4:24">
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="X4" s="23"/>
+      <c r="X4" s="18"/>
     </row>
     <row r="5" spans="8:13">
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="T6" s="15" t="s">
+      <c r="D6" s="18"/>
+      <c r="T6" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="3:20">
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="T9" s="15" t="s">
+      <c r="T9" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="3:20">
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="T12" s="15" t="s">
+      <c r="D12" s="18"/>
+      <c r="T12" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="3:20">
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T15" s="15" t="s">
+      <c r="T15" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="3:20">
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="T18" s="15" t="s">
+      <c r="T18" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="3:20">
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T21" s="15" t="s">
+      <c r="T21" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="3:20">
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T24" s="15" t="s">
+      <c r="T24" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="3:20">
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="T27" s="15" t="s">
+      <c r="T27" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="28" spans="4:21">
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="U28" s="15" t="s">
+      <c r="U28" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" spans="3:20">
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="T31" s="15" t="s">
+      <c r="T31" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="34" spans="3:20">
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T34" s="15" t="s">
+      <c r="T34" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="37" spans="3:20">
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="T37" s="15" t="s">
+      <c r="T37" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="40" spans="3:20">
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T40" s="15" t="s">
+      <c r="T40" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="41" spans="4:21">
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="U41" s="15" t="s">
+      <c r="U41" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="42" spans="4:4">
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="43" spans="4:4">
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -13989,7 +14603,7 @@
   <sheetPr/>
   <dimension ref="C1:AB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -14012,7 +14626,7 @@
       <c r="D2" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="AA2" s="6"/>
+      <c r="AA2" s="9"/>
     </row>
     <row r="3" spans="3:21">
       <c r="C3" s="1" t="s">
@@ -14028,40 +14642,40 @@
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="3"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="3:21">
       <c r="C6" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="5"/>
       <c r="U6" s="1" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="7" spans="4:28">
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>765</v>
       </c>
-      <c r="S7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="AB7" s="8"/>
+      <c r="S7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="AB7" s="11"/>
     </row>
     <row r="8" spans="4:28">
-      <c r="D8" s="3"/>
-      <c r="AB8" s="8"/>
+      <c r="D8" s="2"/>
+      <c r="AB8" s="11"/>
     </row>
     <row r="9" spans="3:21">
       <c r="C9" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="2"/>
       <c r="U9" s="1" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>768</v>
       </c>
     </row>
@@ -14069,41 +14683,41 @@
       <c r="F11" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="T11" s="3"/>
-      <c r="Y11" s="11"/>
+      <c r="T11" s="2"/>
+      <c r="Y11" s="14"/>
     </row>
     <row r="12" spans="3:21">
       <c r="C12" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="T12" s="9"/>
+      <c r="D12" s="2"/>
+      <c r="T12" s="12"/>
       <c r="U12" s="1" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="13" spans="4:22">
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="T13" s="10"/>
+      <c r="T13" s="13"/>
       <c r="V13" s="1" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="14" spans="4:22">
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
+      <c r="M14" s="9"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
       <c r="V14" s="1" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>776</v>
       </c>
     </row>
@@ -14111,74 +14725,74 @@
       <c r="C16" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="2"/>
       <c r="U16" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="AA16" s="14"/>
+      <c r="AA16" s="17"/>
     </row>
     <row r="17" spans="4:19">
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="S17" s="3"/>
+      <c r="S17" s="2"/>
     </row>
     <row r="18" spans="4:20">
-      <c r="D18" s="3"/>
-      <c r="T18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="T18" s="2"/>
     </row>
     <row r="19" spans="3:25">
       <c r="C19" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="2"/>
       <c r="U19" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="Y19" s="3"/>
+      <c r="Y19" s="2"/>
     </row>
     <row r="20" spans="4:22">
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="S20" s="3"/>
-      <c r="T20" s="6"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="9"/>
       <c r="V20" s="1" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="3"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="3:25">
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="9"/>
       <c r="U22" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="Y22" s="3"/>
+      <c r="Y22" s="2"/>
     </row>
     <row r="23" spans="4:26">
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="S23" s="3"/>
-      <c r="U23" s="6"/>
-      <c r="Z23" s="9"/>
+      <c r="S23" s="2"/>
+      <c r="U23" s="9"/>
+      <c r="Z23" s="12"/>
     </row>
     <row r="24" spans="4:23">
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="W24" s="12"/>
+      <c r="W24" s="15"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="L25" s="8"/>
+      <c r="L25" s="11"/>
     </row>
     <row r="26" spans="3:21">
       <c r="C26" s="1" t="s">
@@ -14197,7 +14811,7 @@
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="5"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="1" t="s">
         <v>793</v>
       </c>
@@ -14235,7 +14849,7 @@
       <c r="D34" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="T34" s="13"/>
+      <c r="T34" s="16"/>
       <c r="V34" s="1" t="s">
         <v>802</v>
       </c>
@@ -14244,12 +14858,245 @@
       <c r="D35" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="E35" s="7"/>
+      <c r="E35" s="10"/>
       <c r="V35" s="1" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="49" ht="17.85" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:AA35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4">
+      <c r="D3" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="4" spans="3:22">
+      <c r="C4" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="V4" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" s="4" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="3:22">
+      <c r="C7" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="V7" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="10" spans="3:22">
+      <c r="C10" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="3:23">
+      <c r="C13" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="V13" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="W13" s="8"/>
+    </row>
+    <row r="14" spans="4:23">
+      <c r="D14" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="4" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="17" spans="4:27">
+      <c r="D17" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="AA17" s="2"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="6" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22">
+      <c r="C19" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="V19" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="20" spans="3:23">
+      <c r="C20" s="4"/>
+      <c r="D20" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="4" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="4" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22">
+      <c r="C23" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="24" spans="4:23">
+      <c r="D24" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="25" spans="4:23">
+      <c r="D25" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="26" spans="4:19">
+      <c r="D26" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="4" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22">
+      <c r="C28" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="V28" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="29" spans="4:23">
+      <c r="D29" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22">
+      <c r="C31" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="34" spans="3:22">
+      <c r="C34" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -14268,192 +15115,192 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="15" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="15" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="15" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="16"/>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="4:24">
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X4" s="23"/>
+      <c r="X4" s="18"/>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="23"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="T6" s="15" t="s">
+      <c r="T6" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="9:9">
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="3:20">
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="T10" s="15" t="s">
+      <c r="T10" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="14" spans="3:20">
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="T14" s="15" t="s">
+      <c r="T14" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="17" spans="3:20">
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="T17" s="15" t="s">
+      <c r="T17" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="20" spans="3:20">
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="T20" s="15" t="s">
+      <c r="T20" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="23" spans="3:20">
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="T23" s="15" t="s">
+      <c r="T23" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="26" spans="3:20">
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="T26" s="15" t="s">
+      <c r="T26" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="27" spans="4:21">
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="U27" s="15" t="s">
+      <c r="U27" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31" spans="3:20">
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="T31" s="15" t="s">
+      <c r="T31" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="35" spans="4:20">
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="T35" s="15" t="s">
+      <c r="T35" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="36" spans="4:21">
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="U36" s="23" t="s">
+      <c r="U36" s="18" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="3:20">
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="T37" s="15" t="s">
+      <c r="T37" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -14475,149 +15322,149 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="28" width="2.63888888888889" style="15" customWidth="1"/>
-    <col min="29" max="29" width="2.73148148148148" style="15" customWidth="1"/>
-    <col min="30" max="1045" width="2.63888888888889" style="15" customWidth="1"/>
-    <col min="1046" max="16384" width="9" style="16"/>
+    <col min="1" max="28" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="29" max="29" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="30" max="1045" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1046" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="3" spans="2:23">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="W3" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="6" spans="2:23">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="W6" s="15" t="s">
+      <c r="W6" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="7" spans="3:24">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="X7" s="15" t="s">
+      <c r="X7" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="10" spans="2:23">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="W10" s="15" t="s">
+      <c r="W10" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="13" spans="2:23">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="W13" s="15" t="s">
+      <c r="W13" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="16" spans="2:23">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="W16" s="15" t="s">
+      <c r="W16" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="19" spans="2:23">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="W19" s="15" t="s">
+      <c r="W19" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="22" spans="2:23">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="W22" s="15" t="s">
+      <c r="W22" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="23" spans="3:24">
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="X23" s="15" t="s">
+      <c r="X23" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="26" spans="2:23">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="W26" s="15" t="s">
+      <c r="W26" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="22" t="s">
         <v>159</v>
       </c>
     </row>
@@ -14639,216 +15486,216 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="28" width="2.63888888888889" style="15" customWidth="1"/>
-    <col min="29" max="29" width="2.73148148148148" style="15" customWidth="1"/>
-    <col min="30" max="1045" width="2.63888888888889" style="15" customWidth="1"/>
-    <col min="1046" max="16384" width="9" style="16"/>
+    <col min="1" max="28" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="29" max="29" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="30" max="1045" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1046" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="4" spans="3:21">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="U4" s="15" t="s">
+      <c r="U4" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="T6" s="15" t="s">
+      <c r="T6" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="9" spans="2:20">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="T9" s="15" t="s">
+      <c r="T9" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="10" spans="3:21">
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="U10" s="15" t="s">
+      <c r="U10" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="12" spans="2:20">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="T12" s="15" t="s">
+      <c r="T12" s="1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="13" spans="3:21">
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="U13" s="15" t="s">
+      <c r="U13" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="1" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="T16" s="15" t="s">
+      <c r="T16" s="1" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="T19" s="15" t="s">
+      <c r="T19" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="20" spans="3:21">
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="U20" s="15" t="s">
+      <c r="U20" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="1" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="23" spans="2:44">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="T23" s="15" t="s">
+      <c r="T23" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AR23" s="15" t="s">
+      <c r="AR23" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="24" spans="3:21">
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="U24" s="15" t="s">
+      <c r="U24" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="T27" s="15" t="s">
+      <c r="C27" s="22"/>
+      <c r="T27" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="28" spans="3:21">
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="U28" s="15" t="s">
+      <c r="U28" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="1" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="31" spans="2:20">
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="T31" s="15" t="s">
+      <c r="T31" s="1" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="34" spans="2:20">
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="T34" s="15" t="s">
+      <c r="T34" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="35" spans="3:3">
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -14870,149 +15717,149 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="28" width="2.63888888888889" style="15" customWidth="1"/>
-    <col min="29" max="29" width="2.73148148148148" style="15" customWidth="1"/>
-    <col min="30" max="1045" width="2.63888888888889" style="15" customWidth="1"/>
-    <col min="1046" max="16384" width="9" style="16"/>
+    <col min="1" max="28" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="29" max="29" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="30" max="1045" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1046" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="1" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="3" spans="2:22">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="V3" s="1" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="1" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="6" spans="2:22">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="V6" s="15" t="s">
+      <c r="V6" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="7" spans="3:23">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="W7" s="15" t="s">
+      <c r="W7" s="1" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="1" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="16" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="10" spans="2:22">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="V10" s="15" t="s">
+      <c r="V10" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="1" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="V13" s="15" t="s">
+      <c r="V13" s="1" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="18" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="16" spans="2:22">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="V16" s="15" t="s">
+      <c r="V16" s="1" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="17" spans="3:23">
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="W17" s="15" t="s">
+      <c r="W17" s="1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="1" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="20" spans="2:22">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="V20" s="15" t="s">
+      <c r="V20" s="1" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="1" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="23" spans="2:22">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="V23" s="15" t="s">
+      <c r="V23" s="1" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="1" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="26" spans="2:22">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="V26" s="15" t="s">
+      <c r="V26" s="1" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="1" t="s">
         <v>237</v>
       </c>
     </row>
@@ -15034,271 +15881,271 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="15" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="15" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="15" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="16"/>
+    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="1" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="3" spans="3:26">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="U3" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="Z3" s="16"/>
+      <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="4:22">
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="V4" s="16" t="s">
+      <c r="V4" s="2" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="5" spans="4:22">
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="V5" s="15" t="s">
+      <c r="V5" s="1" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="6" spans="4:22">
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="V6" s="16" t="s">
+      <c r="V6" s="2" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="2" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="AA8" s="25"/>
+      <c r="AA8" s="11"/>
     </row>
     <row r="9" spans="4:27">
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="AA9" s="25"/>
+      <c r="AA9" s="11"/>
     </row>
     <row r="10" spans="3:21">
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="U10" s="16" t="s">
+      <c r="U10" s="2" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="11" spans="4:22">
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="V11" s="15" t="s">
+      <c r="V11" s="1" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="12" spans="3:21">
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="U12" s="15" t="s">
+      <c r="U12" s="1" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="1" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="15" spans="3:21">
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="U15" s="15" t="s">
+      <c r="U15" s="1" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="Z16" s="28"/>
+      <c r="Z16" s="17"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="16"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="3:21">
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="U18" s="16" t="s">
+      <c r="U18" s="2" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="19" spans="4:22">
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="U19" s="25"/>
-      <c r="V19" s="15" t="s">
+      <c r="U19" s="11"/>
+      <c r="V19" s="1" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="20" spans="4:22">
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="V20" s="16" t="s">
+      <c r="V20" s="2" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="2" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="22" spans="4:21">
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="U22" s="15" t="s">
+      <c r="U22" s="1" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="23" spans="3:21">
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="U23" s="16" t="s">
+      <c r="D23" s="2"/>
+      <c r="U23" s="2" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="V24" s="15" t="s">
+      <c r="V24" s="1" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="25" spans="4:22">
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="V25" s="27" t="s">
+      <c r="V25" s="15" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="26" spans="4:22">
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="L26" s="25"/>
-      <c r="V26" s="15" t="s">
+      <c r="L26" s="11"/>
+      <c r="V26" s="1" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="L27" s="25"/>
+      <c r="L27" s="11"/>
     </row>
     <row r="28" spans="3:21">
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="U28" s="15" t="s">
+      <c r="U28" s="1" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="29" spans="4:22">
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="V29" s="15" t="s">
+      <c r="V29" s="1" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="30" spans="4:22">
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="V30" s="15" t="s">
+      <c r="V30" s="1" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="2" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="2" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="33" spans="3:21">
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="U33" s="15" t="s">
+      <c r="U33" s="1" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="1" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="35" spans="24:24">
-      <c r="X35" s="15" t="s">
+      <c r="X35" s="1" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="37" spans="3:21">
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="U37" s="15" t="s">
+      <c r="U37" s="1" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="40" spans="3:21">
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="U40" s="15" t="s">
+      <c r="U40" s="1" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="41" spans="4:4">
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="1" t="s">
         <v>295</v>
       </c>
     </row>
@@ -15321,190 +16168,190 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="15" customWidth="1"/>
-    <col min="3" max="3" width="4.49074074074074" style="15" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="15" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="15" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="15" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="16"/>
+    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.49074074074074" style="1" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:26">
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="Z2" s="24"/>
+      <c r="Z2" s="9"/>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="2" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="4" spans="4:21">
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="U4" s="16" t="s">
+      <c r="U4" s="2" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="20" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="T6" s="15" t="s">
+      <c r="D6" s="2"/>
+      <c r="T6" s="1" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="U7" s="16" t="s">
+      <c r="U7" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="AA7" s="25"/>
+      <c r="AA7" s="11"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="AA8" s="25"/>
+      <c r="AA8" s="11"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="2" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="10" spans="3:20">
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="T10" s="16" t="s">
+      <c r="D10" s="9"/>
+      <c r="T10" s="2" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="U11" s="16" t="s">
+      <c r="U11" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="X11" s="26"/>
+      <c r="X11" s="14"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="2" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="16"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="3:20">
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="M14" s="24"/>
-      <c r="Q14" s="26"/>
-      <c r="T14" s="15" t="s">
+      <c r="D14" s="21"/>
+      <c r="M14" s="9"/>
+      <c r="Q14" s="14"/>
+      <c r="T14" s="1" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="2" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="16"/>
-      <c r="Z16" s="28"/>
+      <c r="D16" s="2"/>
+      <c r="Z16" s="17"/>
     </row>
     <row r="17" spans="3:20">
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="T17" s="16" t="s">
+      <c r="D17" s="9"/>
+      <c r="T17" s="2" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="18" spans="4:21">
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="U18" s="15" t="s">
+      <c r="U18" s="1" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="19" spans="4:21">
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="L19" s="24"/>
-      <c r="U19" s="25"/>
+      <c r="L19" s="9"/>
+      <c r="U19" s="11"/>
     </row>
     <row r="20" spans="3:20">
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="T20" s="16" t="s">
+      <c r="T20" s="2" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="21" spans="4:19">
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="S21" s="24"/>
+      <c r="S21" s="9"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="24"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="3:20">
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="T23" s="15" t="s">
+      <c r="D23" s="9"/>
+      <c r="T23" s="1" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="24" spans="4:21">
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="U24" s="16" t="s">
+      <c r="U24" s="2" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="25" spans="4:22">
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="V25" s="27"/>
+      <c r="V25" s="15"/>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="L26" s="25"/>
+      <c r="L26" s="11"/>
     </row>
     <row r="50" ht="17.85" customHeight="1"/>
   </sheetData>
@@ -15525,113 +16372,113 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="15" customWidth="1"/>
-    <col min="3" max="3" width="2.48148148148148" style="15" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="15" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="15" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="15" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="16"/>
+    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.48148148148148" style="1" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="1" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="1" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="1" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="T6" s="15" t="s">
+      <c r="T6" s="1" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="1" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="8" ht="17.85" customHeight="1"/>
     <row r="9" spans="3:20">
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="T9" s="15" t="s">
+      <c r="T9" s="1" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="1" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="12" spans="3:20">
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="T12" s="15" t="s">
+      <c r="T12" s="1" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="1" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="15" spans="3:20">
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="T15" s="15" t="s">
+      <c r="T15" s="1" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="16" spans="4:21">
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="U16" s="15" t="s">
+      <c r="U16" s="1" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="1" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="1" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="19" spans="3:20">
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="T19" s="15" t="s">
+      <c r="T19" s="1" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="1" t="s">
         <v>351</v>
       </c>
     </row>

--- a/learn_chinese2024.xlsx
+++ b/learn_chinese2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="13" activeTab="20"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="14" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="20240107" sheetId="4" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="20240728" sheetId="23" r:id="rId19"/>
     <sheet name="20240805" sheetId="24" r:id="rId20"/>
     <sheet name="20240818" sheetId="25" r:id="rId21"/>
+    <sheet name="20240825" sheetId="26" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="883">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -10804,6 +10805,362 @@
   </si>
   <si>
     <t>mǎi tā ba 。</t>
+  </si>
+  <si>
+    <t>Down in spirits</t>
+  </si>
+  <si>
+    <t>A: Tommy, 你的情绪好像很低，怎么了？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Tommy, Why are you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>so depressed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Tommy, nǐ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>qíng xù hǎo xiàng hěn dī</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，zěn me le</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 没什么，就是觉得有点儿累。</t>
+  </si>
+  <si>
+    <t>B:  oh, nothing, i’m just tired.</t>
+  </si>
+  <si>
+    <t>méi shen me ，jiù shì jue dé yǒu diǎn ér lèi 。</t>
+  </si>
+  <si>
+    <t>A: Tommy，你有什么事情可以和我说。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: Come on tommy. You can tell me </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tommy，nǐ yǒu shen me shì qíng  kě yǐ hé wǒ shuō </t>
+  </si>
+  <si>
+    <t>B: 老板给了我特别多的活， 昨天晚上我又干</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: The boss gave me such </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a lot of work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to do.</t>
+    </r>
+  </si>
+  <si>
+    <t>到了十点，问题是到现在还没做完呢。</t>
+  </si>
+  <si>
+    <t>I working until 10 o’clock yesterday. And</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">lǎo bǎn gěi le wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tè bié duō de huó</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ， </t>
+    </r>
+  </si>
+  <si>
+    <t>it has not been finished.</t>
+  </si>
+  <si>
+    <t>zuó tiān wǎn shàng wǒ yòu gàn</t>
+  </si>
+  <si>
+    <t>dào le shí diǎn ，wèn tí shì dào xiàn zài hái méi zuò wán ne</t>
+  </si>
+  <si>
+    <t>A: 你为什么不和你的老板谈谈呢？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Why don’t you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>talk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to you boss?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">nǐ wéi shen me bú hé nǐ de lǎo bǎn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tán tán</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ne ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 我跟他谈了，可他说找不着别人来帮我。</t>
+  </si>
+  <si>
+    <t>B: I have talked to him, but he just said he couldn’t find</t>
+  </si>
+  <si>
+    <t>我对他很生气。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">another person to help me. i’m </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>really angry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> with him.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">wǒ gēn tā tán le ，kě tā shuō zhǎo bú zhao bié rén lái bāng wǒ </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wǒ duì tā </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>hěn shēng qì</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 放松点，我相信你的老板知道你工作得多辛苦。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Just relax. I think you boss understands </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>how hard you’re working</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">fàng sōng diǎn ，wǒ xiàng xìn nǐ de lǎo bǎn </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">zhī dào nǐ gōng zuò dé duō </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>xīn kǔ</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 但愿如此</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>I hope so</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>dàn yuàn rú cǐ</t>
   </si>
 </sst>
 </file>
@@ -10847,8 +11204,20 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="6.4"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -10867,18 +11236,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFCE181E"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCE181E"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="6.4"/>
-      <color rgb="FF4C4C4C"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -13014,7 +13371,7 @@
       <c r="C7" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="W7" s="1" t="s">
         <v>516</v>
       </c>
@@ -13049,13 +13406,13 @@
       <c r="D13" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="W13" s="8"/>
+      <c r="W13" s="7"/>
     </row>
     <row r="14" spans="3:23">
       <c r="C14" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="7"/>
       <c r="W14" s="1" t="s">
         <v>525</v>
       </c>
@@ -13075,15 +13432,15 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="8" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="W19" s="8"/>
+      <c r="W19" s="7"/>
     </row>
     <row r="20" spans="3:23">
       <c r="C20" s="4" t="s">
@@ -13142,7 +13499,7 @@
       <c r="C29" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="6"/>
       <c r="W29" s="1" t="s">
         <v>543</v>
       </c>
@@ -13295,7 +13652,7 @@
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="8" t="s">
         <v>571</v>
       </c>
     </row>
@@ -13344,7 +13701,7 @@
       </c>
     </row>
     <row r="32" spans="27:27">
-      <c r="AA32" s="8"/>
+      <c r="AA32" s="7"/>
     </row>
     <row r="33" spans="3:26">
       <c r="C33" s="1" t="s">
@@ -13502,7 +13859,7 @@
       <c r="B7" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="6"/>
       <c r="V7" s="1" t="s">
         <v>610</v>
       </c>
@@ -13540,13 +13897,13 @@
     </row>
     <row r="13" spans="3:22">
       <c r="C13" s="4"/>
-      <c r="V13" s="8"/>
+      <c r="V13" s="7"/>
     </row>
     <row r="14" spans="2:22">
       <c r="B14" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="7"/>
       <c r="V14" s="1" t="s">
         <v>619</v>
       </c>
@@ -13571,7 +13928,7 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="8" t="s">
         <v>624</v>
       </c>
     </row>
@@ -13579,7 +13936,7 @@
       <c r="B19" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="9"/>
       <c r="V19" s="1" t="s">
         <v>626</v>
       </c>
@@ -14032,7 +14389,7 @@
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>706</v>
       </c>
     </row>
@@ -14228,7 +14585,7 @@
       <c r="B7" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="6"/>
       <c r="S7" s="1" t="s">
         <v>738</v>
       </c>
@@ -14267,7 +14624,7 @@
       <c r="S13" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="V13" s="8"/>
+      <c r="V13" s="7"/>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="1" t="s">
@@ -14292,17 +14649,17 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="6"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="2:22">
       <c r="B19" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="9"/>
       <c r="S19" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="V19" s="8"/>
+      <c r="V19" s="7"/>
     </row>
     <row r="20" spans="2:20">
       <c r="B20" s="4"/>
@@ -14349,7 +14706,7 @@
       <c r="C28" s="4"/>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="5"/>
+      <c r="C29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -14626,7 +14983,7 @@
       <c r="D2" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="AA2" s="9"/>
+      <c r="AA2" s="10"/>
     </row>
     <row r="3" spans="3:21">
       <c r="C3" s="1" t="s">
@@ -14648,13 +15005,13 @@
       <c r="C6" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="6"/>
       <c r="U6" s="1" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="7" spans="4:28">
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>765</v>
       </c>
       <c r="S7" s="2"/>
@@ -14709,7 +15066,7 @@
       <c r="D14" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="M14" s="9"/>
+      <c r="M14" s="10"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
       <c r="V14" s="1" t="s">
@@ -14717,7 +15074,7 @@
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>776</v>
       </c>
     </row>
@@ -14756,7 +15113,7 @@
         <v>782</v>
       </c>
       <c r="S20" s="2"/>
-      <c r="T20" s="9"/>
+      <c r="T20" s="10"/>
       <c r="V20" s="1" t="s">
         <v>783</v>
       </c>
@@ -14768,7 +15125,7 @@
       <c r="C22" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="10"/>
       <c r="U22" s="1" t="s">
         <v>785</v>
       </c>
@@ -14779,11 +15136,11 @@
         <v>786</v>
       </c>
       <c r="S23" s="2"/>
-      <c r="U23" s="9"/>
+      <c r="U23" s="10"/>
       <c r="Z23" s="12"/>
     </row>
     <row r="24" spans="4:23">
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="6" t="s">
         <v>787</v>
       </c>
       <c r="W24" s="15"/>
@@ -14858,7 +15215,7 @@
       <c r="D35" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="E35" s="10"/>
+      <c r="E35" s="5"/>
       <c r="V35" s="1" t="s">
         <v>804</v>
       </c>
@@ -14876,7 +15233,7 @@
   <sheetPr/>
   <dimension ref="C2:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -14919,7 +15276,7 @@
       <c r="C7" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="V7" s="1" t="s">
         <v>810</v>
       </c>
@@ -14953,7 +15310,7 @@
       <c r="V13" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="W13" s="8"/>
+      <c r="W13" s="7"/>
     </row>
     <row r="14" spans="4:23">
       <c r="D14" s="1" t="s">
@@ -14980,7 +15337,7 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="8" t="s">
         <v>822</v>
       </c>
     </row>
@@ -14988,7 +15345,7 @@
       <c r="C19" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="9"/>
       <c r="V19" s="1" t="s">
         <v>824</v>
       </c>
@@ -15059,7 +15416,7 @@
       </c>
     </row>
     <row r="29" spans="4:23">
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="6" t="s">
         <v>840</v>
       </c>
       <c r="W29" s="1" t="s">
@@ -15096,6 +15453,214 @@
       <c r="D35" s="1" t="s">
         <v>848</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:AO31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4">
+      <c r="D3" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="4" spans="3:21">
+      <c r="C4" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="U4" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="4:4">
+      <c r="D5" s="4" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="3:21">
+      <c r="C7" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="U7" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="10" spans="3:21">
+      <c r="C10" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="3:21">
+      <c r="C13" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="U13" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="14" spans="4:24">
+      <c r="D14" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="W14" s="2"/>
+      <c r="X14" s="7"/>
+    </row>
+    <row r="15" spans="4:22">
+      <c r="D15" s="6" t="s">
+        <v>863</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="2" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="3:23">
+      <c r="C19" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="U19" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="W19" s="7"/>
+    </row>
+    <row r="20" spans="4:28">
+      <c r="D20" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="AB20" s="2"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="3:24">
+      <c r="C22" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="U22" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="X22" s="7"/>
+    </row>
+    <row r="23" spans="4:24">
+      <c r="D23" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="X23" s="7"/>
+    </row>
+    <row r="24" spans="3:21">
+      <c r="C24" s="4"/>
+      <c r="D24" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="U24" s="2"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="2" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21">
+      <c r="C26" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="U26" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="6" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21">
+      <c r="C29" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="U29" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="7" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="31" spans="40:41">
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -16185,7 +16750,7 @@
       <c r="D2" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="Z2" s="9"/>
+      <c r="Z2" s="10"/>
     </row>
     <row r="3" spans="3:20">
       <c r="C3" s="1" t="s">
@@ -16241,7 +16806,7 @@
       <c r="C10" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="10"/>
       <c r="T10" s="2" t="s">
         <v>309</v>
       </c>
@@ -16268,7 +16833,7 @@
         <v>313</v>
       </c>
       <c r="D14" s="21"/>
-      <c r="M14" s="9"/>
+      <c r="M14" s="10"/>
       <c r="Q14" s="14"/>
       <c r="T14" s="1" t="s">
         <v>314</v>
@@ -16287,7 +16852,7 @@
       <c r="C17" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D17" s="10"/>
       <c r="T17" s="2" t="s">
         <v>317</v>
       </c>
@@ -16304,7 +16869,7 @@
       <c r="D19" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="L19" s="9"/>
+      <c r="L19" s="10"/>
       <c r="U19" s="11"/>
     </row>
     <row r="20" spans="3:20">
@@ -16319,16 +16884,16 @@
       <c r="D21" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="S21" s="9"/>
+      <c r="S21" s="10"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="9"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="3:20">
       <c r="C23" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="10"/>
       <c r="T23" s="1" t="s">
         <v>325</v>
       </c>

--- a/learn_chinese2024.xlsx
+++ b/learn_chinese2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="14" activeTab="21"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="15" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="20240107" sheetId="4" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="20240805" sheetId="24" r:id="rId20"/>
     <sheet name="20240818" sheetId="25" r:id="rId21"/>
     <sheet name="20240825" sheetId="26" r:id="rId22"/>
+    <sheet name="20240901" sheetId="27" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="927">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -11161,6 +11162,456 @@
   </si>
   <si>
     <t>dàn yuàn rú cǐ</t>
+  </si>
+  <si>
+    <t>Asking for Raise</t>
+  </si>
+  <si>
+    <t>A: 老板，打扰一下，我想和你谈谈。</t>
+  </si>
+  <si>
+    <t>A: Excuse me , sir, may i talk to you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lǎo bǎn ，dǎ rǎo yī xià ，wǒ xiǎng hé nǐ tán tán </t>
+  </si>
+  <si>
+    <t>B: 奥，是bill啊，当然可以，请进，有什么事情吗？</t>
+  </si>
+  <si>
+    <t>B: Bill! sure, come on in, What can i do for you ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ào ，shì bill ā ，dāng rán kě yǐ ，qǐng jìn ，yǒu shen me shì qíng ma </t>
+  </si>
+  <si>
+    <t>A: 老板，你知道的，我在我们这家公司已经有十年了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: Well sir. as you know, i have been an employee of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lǎo bǎn ，nǐ zhī dào de ，wǒ zài wǒ men zhè jiā </t>
+  </si>
+  <si>
+    <t>this compony for over ten years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gōng sī yǐ jīng yǒu shí nián le </t>
+  </si>
+  <si>
+    <t>B; 是的。</t>
+  </si>
+  <si>
+    <t>B: Yes.</t>
+  </si>
+  <si>
+    <t>shì de</t>
+  </si>
+  <si>
+    <t>A:老板，我就不拐弯抹角了，我想要加薪。目前有三家</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: i won't </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>beat around the bush</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, sir. i would like a </t>
+    </r>
+  </si>
+  <si>
+    <t>公司找我，但我决定先和你谈谈。</t>
+  </si>
+  <si>
+    <t>raise. i currently have three companies after me</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">lǎo bǎn ，wǒ jiù bú </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>guǎi wān mò jiǎo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le ，</t>
+    </r>
+  </si>
+  <si>
+    <t>and i decide to talk to you first.</t>
+  </si>
+  <si>
+    <t>wǒ xiǎng yào jiā xīn 。mù qián yǒu sān jiā</t>
+  </si>
+  <si>
+    <t>gōng sī zhǎo wǒ ，dàn wǒ jué dìng xiān hé nǐ tán tán 。</t>
+  </si>
+  <si>
+    <t>B:加薪？我也想给你加薪，但是目前还不是时候。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A raise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>? Son, i would love to give you a raise,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jiā xīn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ？wǒ yě xiǎng gěi nǐ jiā xīn ，</t>
+    </r>
+  </si>
+  <si>
+    <t>but this is just not the right time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dàn shì mù qián hái bú shì shí hòu </t>
+  </si>
+  <si>
+    <t>A: 我理解你的处境。我知道目前经济下滑对销售产生</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>understand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and i know that the</t>
+    </r>
+  </si>
+  <si>
+    <t>负面影响。但是你也必须顾及一下我十年的辛苦工作，</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">current </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>economic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>downturn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> has had a negative</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lǐ jiě</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> nǐ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>chù jìng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。wǒ zhī dào mù qián </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jīng jì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>impact</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sales</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, but you must also take into consideration</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xià huá</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> duì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xiāo shòu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> chǎn shēng</t>
+    </r>
+  </si>
+  <si>
+    <t>my hard work.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">fù miàn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yǐng xiǎng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。dàn shì nǐ yě bì xū gù jí yī xià wǒ shí nián de xīn kǔ gōng zuò</t>
+    </r>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>B:考虑到这些，我愿意给你加薪10%。</t>
+  </si>
+  <si>
+    <t>B: Think about that, i'm will to offer you a ten percnent raise.</t>
+  </si>
+  <si>
+    <t>kǎo lǜ dào zhè xiē ，wǒ yuàn yì gěi nǐ jiā xīn 10%</t>
+  </si>
+  <si>
+    <t>A: 谢谢老板。</t>
+  </si>
+  <si>
+    <t>A: Thanks Boss.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> xiè xiè lǎo bǎn</t>
   </si>
 </sst>
 </file>
@@ -11173,7 +11624,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="54">
+  <fonts count="55">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11194,14 +11645,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFEF413D"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="等线"/>
-      <charset val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEF413D"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="6.4"/>
@@ -11271,21 +11740,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFEF413D"/>
       <name val="等线"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -11457,21 +11914,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF1B75BC"/>
+      <color theme="9"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
+      <color rgb="FF62A73B"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFED1C24"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF62A73B"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <color rgb="FF00A65D"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFED1C24"/>
+      <name val="等线"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -11487,37 +11962,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFED1C24"/>
+      <color rgb="FF0070C0"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00A65D"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF62A73B"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF62A73B"/>
+      <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFED1C24"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9"/>
+      <color rgb="FF1B75BC"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -11849,16 +12306,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -11867,119 +12321,122 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11989,7 +12446,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -12001,10 +12461,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -12324,186 +12787,186 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="3:22">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="4:24">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="18" t="s">
+      <c r="X4" s="24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:22">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="V7" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="4:23">
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="W8" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="3:22">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="V11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="3:22">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="V14" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="4:23">
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W15" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="3:22">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="V17" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="3:22">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="V20" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="4:23">
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="W21" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="4:23">
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="W22" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="3:22">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="V24" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="3:22">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="V27" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="4:23">
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="W28" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="7:7">
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -12525,159 +12988,159 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.48148148148148" style="1" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="2.62962962962963" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.48148148148148" style="7" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="7" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="3" spans="3:24">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="X3" s="7" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="6" spans="3:24">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="X6" s="7" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="7" spans="4:25">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Y7" s="7" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="8" ht="17.85" customHeight="1" spans="4:4">
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="7" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="9" spans="3:24">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="X9" s="7" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="10" spans="4:25">
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="Y10" s="7" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="7" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="7" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="13" spans="3:24">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="X13" s="7" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="14" spans="4:25">
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="Y14" s="1" t="s">
+      <c r="Y14" s="7" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="7" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="7" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="17" spans="3:24">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="X17" s="7" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="7" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="20" spans="3:24">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="X20" s="7" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="21" spans="4:25">
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="Y21" s="1" t="s">
+      <c r="Y21" s="7" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="22" spans="4:25">
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="Y22" s="1" t="s">
+      <c r="Y22" s="7" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="7" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="7" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="7" t="s">
         <v>384</v>
       </c>
     </row>
@@ -12699,187 +13162,187 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.48148148148148" style="1" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="2.62962962962963" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.48148148148148" style="7" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="7" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="3" spans="3:22">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="7" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="6" spans="3:22">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="V6" s="7" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="7" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="9" spans="3:22">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="V9" s="7" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="7" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="12" spans="3:22">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="V12" s="7" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="7" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="15" spans="3:22">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="V15" s="7" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="7" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="18" spans="3:22">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="V18" s="7" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="7" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="21" spans="3:22">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="V21" s="7" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="7" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="24" spans="3:22">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="V24" s="7" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="7" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="7" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="27" spans="3:22">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="V27" s="7" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="28" spans="4:23">
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="W28" s="7" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="29" spans="4:23">
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="W29" s="1" t="s">
+      <c r="W29" s="7" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="7" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="7" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="7" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="33" spans="3:22">
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="V33" s="1" t="s">
+      <c r="V33" s="7" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="7" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="7" t="s">
         <v>423</v>
       </c>
     </row>
@@ -12901,221 +13364,221 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.82407407407407" style="1" customWidth="1"/>
-    <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1030" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="2.62962962962963" style="7" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="7" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="7" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="7" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="7" customWidth="1"/>
+    <col min="1030" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="7" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="7" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T10" s="7" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="11" spans="3:23">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="W11" s="16"/>
+      <c r="W11" s="22"/>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="T13" s="1" t="s">
+      <c r="C13" s="24"/>
+      <c r="T13" s="7" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="16" spans="2:27">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="AA16" s="18"/>
+      <c r="AA16" s="24"/>
     </row>
     <row r="17" spans="3:21">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="U17" s="16" t="s">
+      <c r="U17" s="22" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="18" spans="3:30">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="AA18" s="1" t="s">
+      <c r="AA18" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="AD18" s="1">
+      <c r="AD18" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="T19" s="7" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="7" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="22" spans="2:20">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="T22" s="7" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="23" spans="3:21">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="U23" s="1" t="s">
+      <c r="U23" s="7" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="T25" s="1" t="s">
+      <c r="T25" s="7" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="26" spans="3:25">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="U26" s="1" t="s">
+      <c r="U26" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="Y26" s="18"/>
+      <c r="Y26" s="24"/>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="7" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="28" spans="2:20">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="T28" s="1" t="s">
+      <c r="T28" s="7" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="24" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="N32" s="7" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="N33" s="7" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="N34" s="7" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="N35" s="7" t="s">
         <v>471</v>
       </c>
     </row>
@@ -13137,180 +13600,180 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.82407407407407" style="1" customWidth="1"/>
-    <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1030" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="2.62962962962963" style="7" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="7" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="7" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="7" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="7" customWidth="1"/>
+    <col min="1030" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="7" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="7" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="7" spans="3:21">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="U7" s="18" t="s">
+      <c r="U7" s="24" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="24" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T10" s="7" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="T13" s="7" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" s="7" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="17" spans="3:21">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="U17" s="19" t="s">
+      <c r="U17" s="25" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="7" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="19" spans="3:20">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="T19" s="16" t="s">
+      <c r="T19" s="22" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T20" s="7" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="21" spans="3:21">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="U21" s="7" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="7" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="7" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="T24" s="1" t="s">
+      <c r="T24" s="7" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="7" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="T27" s="1" t="s">
+      <c r="T27" s="7" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="7" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="30" spans="2:20">
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="T30" s="1" t="s">
+      <c r="T30" s="7" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="7" t="s">
         <v>509</v>
       </c>
     </row>
@@ -13332,180 +13795,180 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="4" spans="3:23">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="W4" s="1" t="s">
+      <c r="D4" s="9"/>
+      <c r="W4" s="7" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="10" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="10" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="7" spans="3:23">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="W7" s="1" t="s">
+      <c r="D7" s="12"/>
+      <c r="W7" s="7" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="8" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="10" spans="3:23">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="W10" s="7" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="X11" s="7" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="10" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="W13" s="7"/>
+      <c r="W13" s="13"/>
     </row>
     <row r="14" spans="3:23">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="W14" s="1" t="s">
+      <c r="D14" s="13"/>
+      <c r="W14" s="7" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="10" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="17" spans="3:27">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="W17" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="AA17" s="2"/>
+      <c r="AA17" s="8"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="14" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="15" t="s">
         <v>530</v>
       </c>
-      <c r="W19" s="7"/>
+      <c r="W19" s="13"/>
     </row>
     <row r="20" spans="3:23">
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="W20" s="7" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="10" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="10" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="23" spans="3:23">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="W23" s="7" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="7" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="10" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="26" spans="3:23">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="W26" s="1" t="s">
+      <c r="D26" s="10"/>
+      <c r="W26" s="7" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="10" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="4"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="3:23">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="W29" s="1" t="s">
+      <c r="D29" s="12"/>
+      <c r="W29" s="7" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="7" t="s">
         <v>544</v>
       </c>
     </row>
@@ -13527,280 +13990,280 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="24" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="25" max="25" width="6.39814814814815" style="1" customWidth="1"/>
-    <col min="26" max="1021" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1022" max="1025" width="2.63888888888889" style="2" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
+    <col min="10" max="24" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="25" max="25" width="6.39814814814815" style="7" customWidth="1"/>
+    <col min="26" max="1021" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="1022" max="1025" width="2.63888888888889" style="8" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="4" spans="3:25">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y4" s="7" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="7" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="7" spans="3:25">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Y7" s="7" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="7" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="10" spans="3:25">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="Y10" s="7" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="11" spans="4:26">
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="Z11" s="1" t="s">
+      <c r="Z11" s="7" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="10" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="13" spans="3:25">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Y13" s="7" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="7" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="16" spans="3:25">
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="Y16" s="1" t="s">
+      <c r="Y16" s="7" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="17" spans="4:26">
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="Z17" s="7" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="18" spans="4:26">
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="Z18" s="7" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="10" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="20" spans="3:26">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="Z20" s="1" t="s">
+      <c r="Z20" s="7" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="21" spans="4:26">
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="Z21" s="7" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="14" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="10" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="24" spans="3:26">
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="Z24" s="1" t="s">
+      <c r="Z24" s="7" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="7" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="27" spans="3:26">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="Z27" s="1" t="s">
+      <c r="Z27" s="7" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="7" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="30" spans="3:26">
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="Z30" s="1" t="s">
+      <c r="Z30" s="7" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="7" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="32" spans="27:27">
-      <c r="AA32" s="7"/>
+      <c r="AA32" s="13"/>
     </row>
     <row r="33" spans="3:26">
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="Z33" s="1" t="s">
+      <c r="Z33" s="7" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="7" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="10" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="36" spans="3:26">
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="Z36" s="1" t="s">
+      <c r="Z36" s="7" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="7" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="10" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="39" spans="3:26">
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="Z39" s="1" t="s">
+      <c r="Z39" s="7" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="40" spans="4:4">
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="7" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="42" spans="3:26">
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="Z42" s="1" t="s">
+      <c r="Z42" s="7" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="43" spans="4:4">
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="7" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="44" spans="4:4">
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="10" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="45" spans="3:26">
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="Z45" s="1" t="s">
+      <c r="Z45" s="7" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="46" spans="4:4">
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="7" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="48" spans="3:26">
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="Z48" s="1" t="s">
+      <c r="Z48" s="7" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="49" spans="4:4">
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="7" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="50" spans="4:35">
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="10" t="s">
         <v>603</v>
       </c>
-      <c r="AI50" s="2"/>
+      <c r="AI50" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -13820,187 +14283,187 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="7" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="9" max="1024" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1025" max="16384" width="9" style="2"/>
+    <col min="1" max="7" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="7" customWidth="1"/>
+    <col min="9" max="1024" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="1025" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="V4" s="1" t="s">
+      <c r="C4" s="9"/>
+      <c r="V4" s="7" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="10" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="10" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="7" spans="2:22">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="V7" s="1" t="s">
+      <c r="C7" s="12"/>
+      <c r="V7" s="7" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="8" spans="3:23">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="W8" s="7" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="11" spans="2:22">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="V11" s="7" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="10" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="13" spans="3:22">
-      <c r="C13" s="4"/>
-      <c r="V13" s="7"/>
+      <c r="C13" s="10"/>
+      <c r="V13" s="13"/>
     </row>
     <row r="14" spans="2:22">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="V14" s="1" t="s">
+      <c r="C14" s="13"/>
+      <c r="V14" s="7" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="15" spans="3:23">
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W15" s="7" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="7" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="17" spans="3:26">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="Z17" s="2"/>
+      <c r="Z17" s="8"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="14" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="19" spans="2:22">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="V19" s="1" t="s">
+      <c r="C19" s="15"/>
+      <c r="V19" s="7" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="7" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="21" spans="3:16">
-      <c r="C21" s="4"/>
-      <c r="M21" s="1" t="s">
+      <c r="C21" s="10"/>
+      <c r="M21" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="O21" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="P21" s="7" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="22" spans="2:22">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="V22" s="1" t="s">
+      <c r="C22" s="10"/>
+      <c r="V22" s="7" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="7" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="25" spans="2:22">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="V25" s="1" t="s">
+      <c r="C25" s="10"/>
+      <c r="V25" s="7" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="10" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="4"/>
+      <c r="C27" s="10"/>
     </row>
     <row r="28" ht="14.4" spans="3:11">
       <c r="C28" t="s">
         <v>628</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" s="7" t="s">
         <v>639</v>
       </c>
     </row>
@@ -14008,10 +14471,10 @@
       <c r="C29" t="s">
         <v>629</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" s="7" t="s">
         <v>641</v>
       </c>
     </row>
@@ -14019,10 +14482,10 @@
       <c r="C30" t="s">
         <v>630</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" s="7" t="s">
         <v>643</v>
       </c>
     </row>
@@ -14030,10 +14493,10 @@
       <c r="C31" t="s">
         <v>631</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" s="7" t="s">
         <v>645</v>
       </c>
     </row>
@@ -14041,10 +14504,10 @@
       <c r="C32" t="s">
         <v>646</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" s="7" t="s">
         <v>648</v>
       </c>
     </row>
@@ -14052,10 +14515,10 @@
       <c r="C33" t="s">
         <v>649</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" s="7" t="s">
         <v>651</v>
       </c>
     </row>
@@ -14063,10 +14526,10 @@
       <c r="C34" t="s">
         <v>652</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="K34" s="7" t="s">
         <v>654</v>
       </c>
     </row>
@@ -14074,10 +14537,10 @@
       <c r="C35" t="s">
         <v>655</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K35" s="7" t="s">
         <v>651</v>
       </c>
     </row>
@@ -14085,10 +14548,10 @@
       <c r="C36" t="s">
         <v>657</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K36" s="7" t="s">
         <v>659</v>
       </c>
     </row>
@@ -14096,10 +14559,10 @@
       <c r="C37" t="s">
         <v>660</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K37" s="7" t="s">
         <v>662</v>
       </c>
     </row>
@@ -14107,10 +14570,10 @@
       <c r="C38" t="s">
         <v>663</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K38" s="7" t="s">
         <v>665</v>
       </c>
     </row>
@@ -14118,10 +14581,10 @@
       <c r="C39" t="s">
         <v>666</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="K39" s="7" t="s">
         <v>668</v>
       </c>
     </row>
@@ -14143,164 +14606,164 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="7" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="9" max="1024" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1025" max="16384" width="9" style="2"/>
+    <col min="1" max="7" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="7" customWidth="1"/>
+    <col min="9" max="1024" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="1025" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:20">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" s="7" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="7" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="7" spans="2:20">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" s="7" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="8" spans="3:21">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="U8" s="7" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="T11" s="7" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="14" spans="2:20">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="T14" s="7" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="7" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="T17" s="7" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="7" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="7" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T20" s="7" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="23" spans="2:20">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="T23" s="7" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="24" spans="3:21">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="U24" s="1" t="s">
+      <c r="U24" s="7" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="7" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="7" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="T27" s="1" t="s">
+      <c r="T27" s="7" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="7" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="7" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="7" t="s">
         <v>693</v>
       </c>
     </row>
@@ -14322,210 +14785,210 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="19" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="20" max="20" width="4.26851851851852" style="1" customWidth="1"/>
-    <col min="21" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.62962962962963" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
+    <col min="10" max="19" width="2.62962962962963" style="7" customWidth="1"/>
+    <col min="20" max="20" width="4.26851851851852" style="7" customWidth="1"/>
+    <col min="21" max="1025" width="2.62962962962963" style="7" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="7" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="T6" s="2" t="s">
+      <c r="D6" s="8"/>
+      <c r="T6" s="8" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="U7" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="AA7" s="11"/>
+      <c r="AA7" s="17"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="U8" s="8" t="s">
         <v>703</v>
       </c>
-      <c r="AA8" s="11"/>
+      <c r="AA8" s="17"/>
     </row>
     <row r="9" spans="4:21">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="8" t="s">
         <v>704</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="U9" s="8" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="16" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="8" t="s">
         <v>707</v>
       </c>
-      <c r="X11" s="14"/>
+      <c r="X11" s="20"/>
     </row>
     <row r="12" spans="3:20">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="T12" s="8" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="13" spans="4:21">
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="7" t="s">
         <v>710</v>
       </c>
-      <c r="U13" s="2" t="s">
+      <c r="U13" s="8" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="14" spans="4:21">
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="U14" s="7" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="8" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="2"/>
-      <c r="Z16" s="17"/>
+      <c r="D16" s="8"/>
+      <c r="Z16" s="23"/>
     </row>
     <row r="17" spans="3:20">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>715</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="T17" s="2" t="s">
+      <c r="D17" s="8"/>
+      <c r="T17" s="8" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="8" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="19" spans="21:21">
-      <c r="U19" s="11"/>
+      <c r="U19" s="17"/>
     </row>
     <row r="20" spans="3:20">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T20" s="7" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="8" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="2"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="3:20">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="T23" s="2" t="s">
+      <c r="D23" s="8"/>
+      <c r="T23" s="8" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="8" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="25" spans="22:22">
-      <c r="V25" s="15"/>
+      <c r="V25" s="21"/>
     </row>
     <row r="26" spans="3:20">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="7" t="s">
         <v>724</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="L26" s="11"/>
-      <c r="T26" s="2" t="s">
+      <c r="D26" s="8"/>
+      <c r="L26" s="17"/>
+      <c r="T26" s="8" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="8" t="s">
         <v>726</v>
       </c>
-      <c r="L27" s="11"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="2"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="3:20">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="T29" s="1" t="s">
+      <c r="D29" s="8"/>
+      <c r="T29" s="7" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="7" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="32" spans="3:20">
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="T32" s="1" t="s">
+      <c r="D32" s="8"/>
+      <c r="T32" s="7" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="8" t="s">
         <v>732</v>
       </c>
     </row>
@@ -14548,165 +15011,165 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="7" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="9" max="1024" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1025" max="16384" width="9" style="2"/>
+    <col min="1" max="7" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="7" customWidth="1"/>
+    <col min="9" max="1024" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="1025" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="4" spans="2:19">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>734</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="S4" s="1" t="s">
+      <c r="C4" s="9"/>
+      <c r="S4" s="7" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="10" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="4"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>737</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="S7" s="1" t="s">
+      <c r="C7" s="12"/>
+      <c r="S7" s="7" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="8" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>741</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="S10" s="7" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="4"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="S13" s="1" t="s">
+      <c r="C13" s="10"/>
+      <c r="S13" s="7" t="s">
         <v>745</v>
       </c>
-      <c r="V13" s="7"/>
+      <c r="V13" s="13"/>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="4"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="7" t="s">
         <v>747</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="S16" s="7" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="17" spans="3:26">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="Z17" s="2"/>
+      <c r="Z17" s="8"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="8"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" spans="2:22">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="S19" s="1" t="s">
+      <c r="C19" s="15"/>
+      <c r="S19" s="7" t="s">
         <v>751</v>
       </c>
-      <c r="V19" s="7"/>
+      <c r="V19" s="13"/>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="4"/>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="7" t="s">
         <v>752</v>
       </c>
-      <c r="T20" s="18" t="s">
+      <c r="T20" s="24" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="10" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="10" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="23" spans="2:19">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="7" t="s">
         <v>756</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="S23" s="7" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="7" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="4"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="4"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="4"/>
+      <c r="C27" s="10"/>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="4"/>
+      <c r="C28" s="10"/>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="6"/>
+      <c r="C29" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -14726,225 +15189,225 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="4:24">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="X4" s="18"/>
+      <c r="X4" s="24"/>
     </row>
     <row r="5" spans="8:13">
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="T6" s="1" t="s">
+      <c r="D6" s="24"/>
+      <c r="T6" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="3:20">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="3:20">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="T12" s="1" t="s">
+      <c r="D12" s="24"/>
+      <c r="T12" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="3:20">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="T15" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="3:20">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="T18" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="3:20">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="T21" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="3:20">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="T24" s="1" t="s">
+      <c r="T24" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="3:20">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="T27" s="1" t="s">
+      <c r="T27" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="28" spans="4:21">
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="U28" s="1" t="s">
+      <c r="U28" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" spans="3:20">
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="T31" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="34" spans="3:20">
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="T34" s="1" t="s">
+      <c r="T34" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="37" spans="3:20">
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="T37" s="1" t="s">
+      <c r="T37" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="40" spans="3:20">
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="T40" s="1" t="s">
+      <c r="T40" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="41" spans="4:21">
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="U41" s="1" t="s">
+      <c r="U41" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="42" spans="4:4">
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="43" spans="4:4">
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="7" t="s">
         <v>88</v>
       </c>
     </row>
@@ -14966,257 +15429,257 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="1" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="2.62962962962963" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="7" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="7" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:27">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>759</v>
       </c>
-      <c r="AA2" s="10"/>
+      <c r="AA2" s="16"/>
     </row>
     <row r="3" spans="3:21">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>760</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" s="7" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="2"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="3:21">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>763</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="U6" s="1" t="s">
+      <c r="D6" s="12"/>
+      <c r="U6" s="7" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="7" spans="4:28">
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="AB7" s="11"/>
+      <c r="S7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="AB7" s="17"/>
     </row>
     <row r="8" spans="4:28">
-      <c r="D8" s="2"/>
-      <c r="AB8" s="11"/>
+      <c r="D8" s="8"/>
+      <c r="AB8" s="17"/>
     </row>
     <row r="9" spans="3:21">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="U9" s="1" t="s">
+      <c r="D9" s="8"/>
+      <c r="U9" s="7" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="8" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="11" spans="6:25">
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="7" t="s">
         <v>769</v>
       </c>
-      <c r="T11" s="2"/>
-      <c r="Y11" s="14"/>
+      <c r="T11" s="8"/>
+      <c r="Y11" s="20"/>
     </row>
     <row r="12" spans="3:21">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="1" t="s">
+      <c r="D12" s="8"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="7" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="13" spans="4:22">
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="8" t="s">
         <v>772</v>
       </c>
-      <c r="T13" s="13"/>
-      <c r="V13" s="1" t="s">
+      <c r="T13" s="19"/>
+      <c r="V13" s="7" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="14" spans="4:22">
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="8" t="s">
         <v>774</v>
       </c>
-      <c r="M14" s="10"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="V14" s="1" t="s">
+      <c r="M14" s="16"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="V14" s="7" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="12" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="16" spans="3:27">
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="7" t="s">
         <v>777</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="U16" s="1" t="s">
+      <c r="D16" s="8"/>
+      <c r="U16" s="7" t="s">
         <v>778</v>
       </c>
-      <c r="AA16" s="17"/>
+      <c r="AA16" s="23"/>
     </row>
     <row r="17" spans="4:19">
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="10" t="s">
         <v>779</v>
       </c>
-      <c r="S17" s="2"/>
+      <c r="S17" s="8"/>
     </row>
     <row r="18" spans="4:20">
-      <c r="D18" s="2"/>
-      <c r="T18" s="2"/>
+      <c r="D18" s="8"/>
+      <c r="T18" s="8"/>
     </row>
     <row r="19" spans="3:25">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="U19" s="1" t="s">
+      <c r="D19" s="8"/>
+      <c r="U19" s="7" t="s">
         <v>781</v>
       </c>
-      <c r="Y19" s="2"/>
+      <c r="Y19" s="8"/>
     </row>
     <row r="20" spans="4:22">
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="8" t="s">
         <v>782</v>
       </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="10"/>
-      <c r="V20" s="1" t="s">
+      <c r="S20" s="8"/>
+      <c r="T20" s="16"/>
+      <c r="V20" s="7" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="2"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="3:25">
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="8" t="s">
         <v>784</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="U22" s="1" t="s">
+      <c r="D22" s="16"/>
+      <c r="U22" s="7" t="s">
         <v>785</v>
       </c>
-      <c r="Y22" s="2"/>
+      <c r="Y22" s="8"/>
     </row>
     <row r="23" spans="4:26">
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="8" t="s">
         <v>786</v>
       </c>
-      <c r="S23" s="2"/>
-      <c r="U23" s="10"/>
-      <c r="Z23" s="12"/>
+      <c r="S23" s="8"/>
+      <c r="U23" s="16"/>
+      <c r="Z23" s="18"/>
     </row>
     <row r="24" spans="4:23">
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="12" t="s">
         <v>787</v>
       </c>
-      <c r="W24" s="15"/>
+      <c r="W24" s="21"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="8" t="s">
         <v>788</v>
       </c>
-      <c r="L25" s="11"/>
+      <c r="L25" s="17"/>
     </row>
     <row r="26" spans="3:21">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="U26" s="1" t="s">
+      <c r="U26" s="7" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="27" spans="4:22">
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="7" t="s">
         <v>791</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="V27" s="7" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="4"/>
-      <c r="D28" s="1" t="s">
+      <c r="C28" s="10"/>
+      <c r="D28" s="7" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="29" spans="3:21">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="U29" s="1" t="s">
+      <c r="U29" s="7" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="7" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="32" spans="3:21">
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="7" t="s">
         <v>797</v>
       </c>
-      <c r="U32" s="1" t="s">
+      <c r="U32" s="7" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="33" spans="4:22">
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="7" t="s">
         <v>799</v>
       </c>
-      <c r="V33" s="1" t="s">
+      <c r="V33" s="7" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="34" spans="4:22">
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="T34" s="16"/>
-      <c r="V34" s="1" t="s">
+      <c r="T34" s="22"/>
+      <c r="V34" s="7" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="35" spans="4:22">
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="7" t="s">
         <v>803</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="V35" s="1" t="s">
+      <c r="E35" s="11"/>
+      <c r="V35" s="7" t="s">
         <v>804</v>
       </c>
     </row>
@@ -15239,218 +15702,218 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="4" spans="3:22">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>806</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="V4" s="1" t="s">
+      <c r="D4" s="9"/>
+      <c r="V4" s="7" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="10" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="4"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="3:22">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>809</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="V7" s="1" t="s">
+      <c r="D7" s="12"/>
+      <c r="V7" s="7" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="8" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="10" spans="3:22">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>812</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="V10" s="7" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="7" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="4"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="3:23">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="7" t="s">
         <v>815</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="V13" s="1" t="s">
+      <c r="D13" s="10"/>
+      <c r="V13" s="7" t="s">
         <v>816</v>
       </c>
-      <c r="W13" s="7"/>
+      <c r="W13" s="13"/>
     </row>
     <row r="14" spans="4:23">
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="7" t="s">
         <v>817</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="W14" s="7" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="10" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="7" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="17" spans="4:27">
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="7" t="s">
         <v>821</v>
       </c>
-      <c r="AA17" s="2"/>
+      <c r="AA17" s="8"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="14" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="19" spans="3:22">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="7" t="s">
         <v>823</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="V19" s="1" t="s">
+      <c r="D19" s="15"/>
+      <c r="V19" s="7" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="20" spans="3:23">
-      <c r="C20" s="4"/>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="7" t="s">
         <v>825</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="W20" s="7" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="10" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="10" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="23" spans="3:22">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="7" t="s">
         <v>829</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="V23" s="7" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="24" spans="4:23">
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="7" t="s">
         <v>831</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="W24" s="7" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="25" spans="4:23">
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="10" t="s">
         <v>833</v>
       </c>
-      <c r="W25" s="1" t="s">
+      <c r="W25" s="7" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="26" spans="4:19">
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="10" t="s">
         <v>835</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="S26" s="7" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="10" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="28" spans="3:22">
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="V28" s="1" t="s">
+      <c r="D28" s="10"/>
+      <c r="V28" s="7" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="29" spans="4:23">
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="12" t="s">
         <v>840</v>
       </c>
-      <c r="W29" s="1" t="s">
+      <c r="W29" s="7" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="7" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="31" spans="3:22">
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="7" t="s">
         <v>843</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="V31" s="7" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="7" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="34" spans="3:22">
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="7" t="s">
         <v>846</v>
       </c>
-      <c r="V34" s="1" t="s">
+      <c r="V34" s="7" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="7" t="s">
         <v>848</v>
       </c>
     </row>
@@ -15466,201 +15929,430 @@
   <sheetPr/>
   <dimension ref="C2:AO31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4">
+      <c r="D3" s="7" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="4" spans="3:21">
+      <c r="C4" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="U4" s="7" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="4:4">
+      <c r="D5" s="10" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="3:21">
+      <c r="C7" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="U7" s="7" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="8" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="10" spans="3:21">
+      <c r="C10" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="7" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="3:21">
+      <c r="C13" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="U13" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="14" spans="4:24">
+      <c r="D14" s="10" t="s">
+        <v>861</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="W14" s="8"/>
+      <c r="X14" s="13"/>
+    </row>
+    <row r="15" spans="4:22">
+      <c r="D15" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="8" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="8" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="3:23">
+      <c r="C19" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="U19" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="W19" s="13"/>
+    </row>
+    <row r="20" spans="4:28">
+      <c r="D20" s="12" t="s">
+        <v>869</v>
+      </c>
+      <c r="AB20" s="8"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="3:24">
+      <c r="C22" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="U22" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="X22" s="13"/>
+    </row>
+    <row r="23" spans="4:24">
+      <c r="D23" s="8" t="s">
+        <v>872</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="X23" s="13"/>
+    </row>
+    <row r="24" spans="3:21">
+      <c r="C24" s="10"/>
+      <c r="D24" s="12" t="s">
+        <v>874</v>
+      </c>
+      <c r="U24" s="8"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="8" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21">
+      <c r="C26" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="U26" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="12" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="8" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21">
+      <c r="C29" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="U29" s="7" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="13" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="31" spans="40:41">
+      <c r="AN31" s="8"/>
+      <c r="AO31" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:X37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="10" max="1020" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1021" max="1025" width="2.63888888888889" style="2" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
+    <row r="1" spans="3:3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" spans="3:3">
       <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="4:4">
-      <c r="D3" s="1" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="4" spans="3:21">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22">
+      <c r="B3" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
       <c r="C4" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="U4" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="5" ht="13" customHeight="1" spans="4:4">
-      <c r="D5" s="4" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="6" spans="4:4">
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="3:21">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22">
+      <c r="B6" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
       <c r="C7" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="U7" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="8" spans="4:4">
-      <c r="D8" s="2" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="10" spans="3:21">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="B9" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="10" spans="3:22">
       <c r="C10" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="11" spans="4:4">
-      <c r="D11" s="1" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="12" spans="4:4">
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="3:21">
+        <v>892</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22">
+      <c r="B12" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
       <c r="C13" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="U13" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="14" spans="4:24">
-      <c r="D14" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="W14" s="2"/>
-      <c r="X14" s="7"/>
-    </row>
-    <row r="15" spans="4:22">
-      <c r="D15" s="6" t="s">
-        <v>863</v>
+        <v>897</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22">
+      <c r="B15" s="1" t="s">
+        <v>898</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="16" spans="4:4">
-      <c r="D16" s="2" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="2" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="3:23">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="16" spans="3:23">
+      <c r="C16" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="17" spans="3:23">
+      <c r="C17" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
       <c r="C19" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="U19" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="W19" s="7"/>
-    </row>
-    <row r="20" spans="4:28">
-      <c r="D20" s="6" t="s">
-        <v>869</v>
-      </c>
-      <c r="AB20" s="2"/>
-    </row>
-    <row r="21" spans="4:4">
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="3:24">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22">
+      <c r="B20" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="V20" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22">
+      <c r="C21" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="V21" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
       <c r="C22" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="U22" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="X22" s="7"/>
-    </row>
-    <row r="23" spans="4:24">
-      <c r="D23" s="2" t="s">
-        <v>872</v>
+        <v>910</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23" s="1" t="s">
+        <v>911</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="X23" s="7"/>
-    </row>
-    <row r="24" spans="3:21">
-      <c r="C24" s="4"/>
-      <c r="D24" s="6" t="s">
-        <v>874</v>
-      </c>
-      <c r="U24" s="2"/>
-    </row>
-    <row r="25" spans="4:4">
-      <c r="D25" s="2" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="26" spans="3:21">
-      <c r="C26" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="U26" s="1" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="27" spans="4:4">
-      <c r="D27" s="6" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="28" spans="4:4">
-      <c r="D28" s="2" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="29" spans="3:21">
-      <c r="C29" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="U29" s="1" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="30" spans="4:4">
-      <c r="D30" s="7" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="31" spans="40:41">
-      <c r="AN31" s="2"/>
-      <c r="AO31" s="2"/>
+        <v>912</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23">
+      <c r="C24" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="25" ht="14" customHeight="1" spans="3:22">
+      <c r="C25" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="V25" s="6" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23">
+      <c r="C26" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22">
+      <c r="B29" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22">
+      <c r="B32" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="34" spans="24:24">
+      <c r="X34" s="2"/>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -15680,192 +16372,192 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="4:24">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="X4" s="18"/>
+      <c r="X4" s="24"/>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="18"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="9:9">
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="3:20">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T10" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="7" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="14" spans="3:20">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="T14" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="17" spans="3:20">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="T17" s="7" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="20" spans="3:20">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T20" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="7" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="23" spans="3:20">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="T23" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="26" spans="3:20">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="T26" s="1" t="s">
+      <c r="T26" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="27" spans="4:21">
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="U27" s="1" t="s">
+      <c r="U27" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="7" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31" spans="3:20">
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="T31" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="35" spans="4:20">
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="T35" s="1" t="s">
+      <c r="T35" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="36" spans="4:21">
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="U36" s="18" t="s">
+      <c r="U36" s="24" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="3:20">
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="T37" s="1" t="s">
+      <c r="T37" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="7" t="s">
         <v>128</v>
       </c>
     </row>
@@ -15887,149 +16579,149 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="28" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="29" max="29" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="30" max="1045" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1046" max="16384" width="9" style="2"/>
+    <col min="1" max="28" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="29" max="29" width="2.73148148148148" style="7" customWidth="1"/>
+    <col min="30" max="1045" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="1046" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="3" spans="2:23">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" s="7" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="6" spans="2:23">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="W6" s="7" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="7" spans="3:24">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="X7" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="10" spans="2:23">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="W10" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="13" spans="2:23">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="W13" s="7" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="16" spans="2:23">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="W16" s="7" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="19" spans="2:23">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="W19" s="7" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="22" spans="2:23">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="W22" s="7" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="23" spans="3:24">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="X23" s="1" t="s">
+      <c r="X23" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="7" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="26" spans="2:23">
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="W26" s="7" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="28" t="s">
         <v>159</v>
       </c>
     </row>
@@ -16051,216 +16743,216 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="28" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="29" max="29" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="30" max="1045" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1046" max="16384" width="9" style="2"/>
+    <col min="1" max="28" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="29" max="29" width="2.73148148148148" style="7" customWidth="1"/>
+    <col min="30" max="1045" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="1046" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="7" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="4" spans="3:21">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" s="7" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="9" spans="2:20">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" s="7" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="10" spans="3:21">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="U10" s="7" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="12" spans="2:20">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="T12" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="13" spans="3:21">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="U13" s="7" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="7" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" s="7" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="T19" s="7" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="20" spans="3:21">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="U20" s="7" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="7" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="7" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="23" spans="2:44">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="T23" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="AR23" s="1" t="s">
+      <c r="AR23" s="7" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="24" spans="3:21">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="U24" s="1" t="s">
+      <c r="U24" s="7" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="7" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="7" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="T27" s="1" t="s">
+      <c r="C27" s="28"/>
+      <c r="T27" s="7" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="28" spans="3:21">
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="U28" s="1" t="s">
+      <c r="U28" s="7" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="7" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="31" spans="2:20">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="T31" s="7" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="34" spans="2:20">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="T34" s="1" t="s">
+      <c r="T34" s="7" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="35" spans="3:3">
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="7" t="s">
         <v>206</v>
       </c>
     </row>
@@ -16282,149 +16974,149 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="28" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="29" max="29" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="30" max="1045" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1046" max="16384" width="9" style="2"/>
+    <col min="1" max="28" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="29" max="29" width="2.73148148148148" style="7" customWidth="1"/>
+    <col min="30" max="1045" width="2.63888888888889" style="7" customWidth="1"/>
+    <col min="1046" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="3" spans="2:22">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="6" spans="2:22">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="V6" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="7" spans="3:23">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="W7" s="7" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="22" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="10" spans="2:22">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="V10" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="V13" s="7" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="24" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="16" spans="2:22">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="V16" s="7" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="17" spans="3:23">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="W17" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="7" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="7" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="20" spans="2:22">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="V20" s="7" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="7" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="23" spans="2:22">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="V23" s="7" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="7" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="26" spans="2:22">
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="V26" s="1" t="s">
+      <c r="V26" s="7" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="7" t="s">
         <v>237</v>
       </c>
     </row>
@@ -16446,271 +17138,271 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.62962962962963" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="7" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="3" spans="3:26">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="Z3" s="2"/>
+      <c r="Z3" s="8"/>
     </row>
     <row r="4" spans="4:22">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="V4" s="8" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="5" spans="4:22">
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" s="7" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="6" spans="4:22">
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="V6" s="8" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="8" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="AA8" s="11"/>
+      <c r="AA8" s="17"/>
     </row>
     <row r="9" spans="4:27">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="AA9" s="11"/>
+      <c r="AA9" s="17"/>
     </row>
     <row r="10" spans="3:21">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="U10" s="8" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="11" spans="4:22">
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="V11" s="7" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="12" spans="3:21">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="U12" s="7" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="15" spans="3:21">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="U15" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="Z16" s="17"/>
+      <c r="Z16" s="23"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="2"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="3:21">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="U18" s="2" t="s">
+      <c r="U18" s="8" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="19" spans="4:22">
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="U19" s="11"/>
-      <c r="V19" s="1" t="s">
+      <c r="U19" s="17"/>
+      <c r="V19" s="7" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="20" spans="4:22">
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="V20" s="2" t="s">
+      <c r="V20" s="8" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="8" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="22" spans="4:21">
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="U22" s="7" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="23" spans="3:21">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="U23" s="2" t="s">
+      <c r="D23" s="8"/>
+      <c r="U23" s="8" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="V24" s="7" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="25" spans="4:22">
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="V25" s="15" t="s">
+      <c r="V25" s="21" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="26" spans="4:22">
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="L26" s="11"/>
-      <c r="V26" s="1" t="s">
+      <c r="L26" s="17"/>
+      <c r="V26" s="7" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="L27" s="11"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="3:21">
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="U28" s="1" t="s">
+      <c r="U28" s="7" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="29" spans="4:22">
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="V29" s="1" t="s">
+      <c r="V29" s="7" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="30" spans="4:22">
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="V30" s="1" t="s">
+      <c r="V30" s="7" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="8" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="8" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="33" spans="3:21">
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="U33" s="1" t="s">
+      <c r="U33" s="7" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="7" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="35" spans="24:24">
-      <c r="X35" s="1" t="s">
+      <c r="X35" s="7" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="37" spans="3:21">
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="U37" s="1" t="s">
+      <c r="U37" s="7" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="7" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="40" spans="3:21">
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="U40" s="1" t="s">
+      <c r="U40" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="41" spans="4:4">
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="7" t="s">
         <v>295</v>
       </c>
     </row>
@@ -16733,190 +17425,190 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.49074074074074" style="1" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="2.62962962962963" style="7" customWidth="1"/>
+    <col min="3" max="3" width="4.49074074074074" style="7" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="7" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:26">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="Z2" s="10"/>
+      <c r="Z2" s="16"/>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="8" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="4" spans="4:21">
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="8" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="26" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="T6" s="1" t="s">
+      <c r="D6" s="8"/>
+      <c r="T6" s="7" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="U7" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="AA7" s="11"/>
+      <c r="AA7" s="17"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AA8" s="11"/>
+      <c r="AA8" s="17"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="8" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="10" spans="3:20">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="T10" s="2" t="s">
+      <c r="D10" s="16"/>
+      <c r="T10" s="8" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="U11" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="X11" s="14"/>
+      <c r="X11" s="20"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="8" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="2"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="3:20">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="M14" s="10"/>
-      <c r="Q14" s="14"/>
-      <c r="T14" s="1" t="s">
+      <c r="D14" s="27"/>
+      <c r="M14" s="16"/>
+      <c r="Q14" s="20"/>
+      <c r="T14" s="7" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="8" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="2"/>
-      <c r="Z16" s="17"/>
+      <c r="D16" s="8"/>
+      <c r="Z16" s="23"/>
     </row>
     <row r="17" spans="3:20">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="T17" s="2" t="s">
+      <c r="D17" s="16"/>
+      <c r="T17" s="8" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="18" spans="4:21">
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="U18" s="7" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="19" spans="4:21">
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="L19" s="10"/>
-      <c r="U19" s="11"/>
+      <c r="L19" s="16"/>
+      <c r="U19" s="17"/>
     </row>
     <row r="20" spans="3:20">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="T20" s="8" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="21" spans="4:19">
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="S21" s="10"/>
+      <c r="S21" s="16"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="10"/>
+      <c r="D22" s="16"/>
     </row>
     <row r="23" spans="3:20">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="T23" s="1" t="s">
+      <c r="D23" s="16"/>
+      <c r="T23" s="7" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="24" spans="4:21">
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="U24" s="2" t="s">
+      <c r="U24" s="8" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="25" spans="4:22">
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="V25" s="15"/>
+      <c r="V25" s="21"/>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="L26" s="11"/>
+      <c r="L26" s="17"/>
     </row>
     <row r="50" ht="17.85" customHeight="1"/>
   </sheetData>
@@ -16937,113 +17629,113 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.48148148148148" style="1" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="2.62962962962963" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.48148148148148" style="7" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="7" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="7" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="7" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="7" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="8" ht="17.85" customHeight="1"/>
     <row r="9" spans="3:20">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="7" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="12" spans="3:20">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="T12" s="7" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="7" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="15" spans="3:20">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="T15" s="7" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="16" spans="4:21">
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="U16" s="7" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="7" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="7" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="19" spans="3:20">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="T19" s="7" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="7" t="s">
         <v>351</v>
       </c>
     </row>

--- a/learn_chinese2024.xlsx
+++ b/learn_chinese2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="15" activeTab="22"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="16" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="20240107" sheetId="4" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="20240818" sheetId="25" r:id="rId21"/>
     <sheet name="20240825" sheetId="26" r:id="rId22"/>
     <sheet name="20240901" sheetId="27" r:id="rId23"/>
+    <sheet name="20240908" sheetId="29" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="969">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -11612,6 +11613,596 @@
   </si>
   <si>
     <t xml:space="preserve"> xiè xiè lǎo bǎn</t>
+  </si>
+  <si>
+    <t>Thrift</t>
+  </si>
+  <si>
+    <t>A: 嘿 Steven， 你有很多的钱， 为什么还住在</t>
+  </si>
+  <si>
+    <t>A: Hey Steven, you have a large chunk of money,</t>
+  </si>
+  <si>
+    <t>那个旧的公寓里，而不是买一套别墅呢？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">but why do you still live in a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>old</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>flat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> instead of</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">hēi  Steven， nǐ yǒu hěn duō de qián ， </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">buying a new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>villa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wéi shen me hái zhù zài nà gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jiù de gōng yù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> lǐ ，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ér bú shì mǎi yī tào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bié shù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ne ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 我喜欢这儿， 喜欢周围的邻居们。而且我</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B:  I like to live here and enjoy my </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>neighbor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'s</t>
+    </r>
+  </si>
+  <si>
+    <t>不认为因为我有钱就可以随意的挥霍。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">company, And i don't think i should </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>waste</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> money</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wǒ xǐ huān zhè ér ， xǐ huān zhōu wéi de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lín jū</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> men 。</t>
+    </r>
+  </si>
+  <si>
+    <t>just because i have much of it.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ér qiě wǒ bú rèn wéi yīn wéi wǒ yǒu qián jiù kě yǐ suí yì de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>huī huò</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>langfei</t>
+  </si>
+  <si>
+    <t>A: 但是我发现你很舍不得花钱， 看看你开的车</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A:  But i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>found</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> you always </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hate to part</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> with your money.</t>
+    </r>
+  </si>
+  <si>
+    <t>都破成什么样了。</t>
+  </si>
+  <si>
+    <t>Look at the car you dirve. it's such a junker.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> dàn shì wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>fā xiàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> nǐ hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>shě bú dé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> huā qián ， </t>
+    </r>
+  </si>
+  <si>
+    <t>kàn kàn nǐ kāi de chē dōu pò chéng shen me yàng le 。</t>
+  </si>
+  <si>
+    <t>B: 哦， 那车是破了点，但是性能还很好。我觉得</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B:  Oh, the car is old but still in good </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>condition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. i just</t>
+    </r>
+  </si>
+  <si>
+    <t>无论我们是贫穷还是富有，都应该节俭。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">think we should be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>thrifty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> whether you're rich</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ò ， nà chē shì pò le diǎn ，dàn shì </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>xìng néng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>or not.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">hái hěn hǎo 。wǒ jue dé wú lùn wǒ men shì pín qióng hái shì fù yǒu ，dōu yīng gāi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jiē jiǎn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 可是，可是</t>
+  </si>
+  <si>
+    <t>A:  but， but</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kě shì ，kě shì</t>
+  </si>
+  <si>
+    <t>B: 可是什么？记住，节俭不仅仅是一大美德，而且</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B:  But what? Just remember that thrift is not only a </t>
+  </si>
+  <si>
+    <t>是一大财源。</t>
+  </si>
+  <si>
+    <r>
+      <t>great virtue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, but alse a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>great revenue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> kě shì shen me ？jì zhù ，jiē jiǎn bú jǐn jǐn shì yī dà </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>měi dé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，ér qiě </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">shì yī dà </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>cái yuán</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 也许你说的对。</t>
+  </si>
+  <si>
+    <t>A; Maybe you're right.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> yě xǔ nǐ shuō de duì </t>
   </si>
 </sst>
 </file>
@@ -11624,7 +12215,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="55">
+  <fonts count="58">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11645,12 +12236,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFEF413D"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -11667,28 +12282,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFEF413D"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="6.4"/>
       <color rgb="FF4C4C4C"/>
       <name val="等线"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCE181E"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -11920,7 +12517,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF62A73B"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF009353"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1B75BC"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFED1C24"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -11934,7 +12555,13 @@
       <sz val="11"/>
       <color rgb="FF62A73B"/>
       <name val="等线"/>
-      <charset val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -11944,39 +12571,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFED1C24"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF009353"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF92D050"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
+      <color rgb="FF62A73B"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF1B75BC"/>
+      <color rgb="FFFFC000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -12306,16 +12915,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12324,119 +12930,122 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12446,10 +13055,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -12461,13 +13067,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -12787,186 +13392,186 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="8"/>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="3:22">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="4:24">
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="24" t="s">
+      <c r="X4" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:22">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="7" t="s">
+      <c r="V7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="4:23">
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="W8" s="7" t="s">
+      <c r="W8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="3:22">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V11" s="7" t="s">
+      <c r="V11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="3:22">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V14" s="7" t="s">
+      <c r="V14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="4:23">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W15" s="7" t="s">
+      <c r="W15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="3:22">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V17" s="7" t="s">
+      <c r="V17" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="3:22">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V20" s="7" t="s">
+      <c r="V20" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="4:23">
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W21" s="7" t="s">
+      <c r="W21" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="4:23">
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W22" s="7" t="s">
+      <c r="W22" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="3:22">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V24" s="7" t="s">
+      <c r="V24" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="3:22">
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V27" s="7" t="s">
+      <c r="V27" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="4:23">
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="W28" s="7" t="s">
+      <c r="W28" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="7:7">
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -12988,159 +13593,159 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="7" customWidth="1"/>
-    <col min="3" max="3" width="2.48148148148148" style="7" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="7" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="7" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="8"/>
+    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.48148148148148" style="1" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="3" spans="3:24">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="X3" s="1" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="6" spans="3:24">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="X6" s="7" t="s">
+      <c r="X6" s="1" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="7" spans="4:25">
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="Y7" s="7" t="s">
+      <c r="Y7" s="1" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="8" ht="17.85" customHeight="1" spans="4:4">
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="1" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="9" spans="3:24">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="X9" s="7" t="s">
+      <c r="X9" s="1" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="10" spans="4:25">
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="Y10" s="7" t="s">
+      <c r="Y10" s="1" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="1" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="1" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="13" spans="3:24">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="X13" s="7" t="s">
+      <c r="X13" s="1" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="14" spans="4:25">
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="Y14" s="7" t="s">
+      <c r="Y14" s="1" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="1" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="1" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="17" spans="3:24">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="X17" s="7" t="s">
+      <c r="X17" s="1" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="1" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="20" spans="3:24">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="X20" s="7" t="s">
+      <c r="X20" s="1" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="21" spans="4:25">
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="Y21" s="7" t="s">
+      <c r="Y21" s="1" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="22" spans="4:25">
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="Y22" s="7" t="s">
+      <c r="Y22" s="1" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="1" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="1" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="1" t="s">
         <v>384</v>
       </c>
     </row>
@@ -13162,187 +13767,187 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="7" customWidth="1"/>
-    <col min="3" max="3" width="2.48148148148148" style="7" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="7" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="7" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="8"/>
+    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.48148148148148" style="1" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="3" spans="3:22">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="1" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="6" spans="3:22">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="V6" s="1" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="1" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="9" spans="3:22">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="V9" s="7" t="s">
+      <c r="V9" s="1" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="1" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="12" spans="3:22">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="V12" s="7" t="s">
+      <c r="V12" s="1" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="1" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="15" spans="3:22">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="V15" s="7" t="s">
+      <c r="V15" s="1" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="18" spans="3:22">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="V18" s="7" t="s">
+      <c r="V18" s="1" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="1" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="21" spans="3:22">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="V21" s="7" t="s">
+      <c r="V21" s="1" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="1" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="24" spans="3:22">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="V24" s="7" t="s">
+      <c r="V24" s="1" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="1" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="1" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="27" spans="3:22">
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="V27" s="7" t="s">
+      <c r="V27" s="1" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="28" spans="4:23">
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="W28" s="7" t="s">
+      <c r="W28" s="1" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="29" spans="4:23">
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="W29" s="7" t="s">
+      <c r="W29" s="1" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="1" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="1" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="1" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="33" spans="3:22">
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="V33" s="7" t="s">
+      <c r="V33" s="1" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="1" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="1" t="s">
         <v>423</v>
       </c>
     </row>
@@ -13364,221 +13969,221 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.62962962962963" style="7" customWidth="1"/>
-    <col min="2" max="2" width="2.82407407407407" style="7" customWidth="1"/>
-    <col min="3" max="7" width="2.62962962962963" style="7" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="7" customWidth="1"/>
-    <col min="9" max="1029" width="2.62962962962963" style="7" customWidth="1"/>
-    <col min="1030" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1030" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="1" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="1" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="T6" s="1" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="1" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="T10" s="1" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="11" spans="3:23">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="W11" s="22"/>
+      <c r="W11" s="9"/>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="T13" s="7" t="s">
+      <c r="C13" s="7"/>
+      <c r="T13" s="1" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="16" spans="2:27">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="T16" s="7" t="s">
+      <c r="T16" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="AA16" s="24"/>
+      <c r="AA16" s="7"/>
     </row>
     <row r="17" spans="3:21">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="U17" s="22" t="s">
+      <c r="U17" s="9" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="18" spans="3:30">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="AA18" s="7" t="s">
+      <c r="AA18" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="AD18" s="7">
+      <c r="AD18" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="T19" s="7" t="s">
+      <c r="T19" s="1" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="1" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="22" spans="2:20">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="T22" s="7" t="s">
+      <c r="T22" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="23" spans="3:21">
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="U23" s="7" t="s">
+      <c r="U23" s="1" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="T25" s="7" t="s">
+      <c r="T25" s="1" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="26" spans="3:25">
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="U26" s="7" t="s">
+      <c r="U26" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="Y26" s="24"/>
+      <c r="Y26" s="7"/>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="1" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="28" spans="2:20">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="T28" s="7" t="s">
+      <c r="T28" s="1" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="7" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="N32" s="7" t="s">
+      <c r="N32" s="1" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="N33" s="7" t="s">
+      <c r="N33" s="1" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="N34" s="7" t="s">
+      <c r="N34" s="1" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="N35" s="7" t="s">
+      <c r="N35" s="1" t="s">
         <v>471</v>
       </c>
     </row>
@@ -13600,180 +14205,180 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.62962962962963" style="7" customWidth="1"/>
-    <col min="2" max="2" width="2.82407407407407" style="7" customWidth="1"/>
-    <col min="3" max="7" width="2.62962962962963" style="7" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="7" customWidth="1"/>
-    <col min="9" max="1029" width="2.62962962962963" style="7" customWidth="1"/>
-    <col min="1030" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1030" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="1" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="1" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="T6" s="1" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="7" spans="3:21">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="U7" s="24" t="s">
+      <c r="U7" s="7" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="1" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="7" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="T10" s="1" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="T13" s="7" t="s">
+      <c r="T13" s="1" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="T16" s="7" t="s">
+      <c r="T16" s="1" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="17" spans="3:21">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="U17" s="25" t="s">
+      <c r="U17" s="21" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="1" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="19" spans="3:20">
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="T19" s="22" t="s">
+      <c r="T19" s="9" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="T20" s="7" t="s">
+      <c r="T20" s="1" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="21" spans="3:21">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="U21" s="7" t="s">
+      <c r="U21" s="1" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="1" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="1" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="T24" s="7" t="s">
+      <c r="T24" s="1" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="1" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="T27" s="7" t="s">
+      <c r="T27" s="1" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="1" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="30" spans="2:20">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="T30" s="7" t="s">
+      <c r="T30" s="1" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="1" t="s">
         <v>509</v>
       </c>
     </row>
@@ -13795,180 +14400,180 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="8"/>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="4" spans="3:23">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="W4" s="7" t="s">
+      <c r="D4" s="3"/>
+      <c r="W4" s="1" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="4" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="4" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="7" spans="3:23">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="W7" s="7" t="s">
+      <c r="D7" s="5"/>
+      <c r="W7" s="1" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="2" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="10" spans="3:23">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="W10" s="7" t="s">
+      <c r="W10" s="1" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="X11" s="7" t="s">
+      <c r="X11" s="1" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="4" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="W13" s="13"/>
+      <c r="W13" s="8"/>
     </row>
     <row r="14" spans="3:23">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="W14" s="7" t="s">
+      <c r="D14" s="8"/>
+      <c r="W14" s="1" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="4" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="17" spans="3:27">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="W17" s="7" t="s">
+      <c r="W17" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="AA17" s="8"/>
+      <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="12" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="W19" s="13"/>
+      <c r="W19" s="8"/>
     </row>
     <row r="20" spans="3:23">
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="W20" s="7" t="s">
+      <c r="W20" s="1" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="4" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="4" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="23" spans="3:23">
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="W23" s="7" t="s">
+      <c r="W23" s="1" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="4" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="26" spans="3:23">
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="W26" s="7" t="s">
+      <c r="D26" s="4"/>
+      <c r="W26" s="1" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="4" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="10"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="3:23">
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="W29" s="7" t="s">
+      <c r="D29" s="5"/>
+      <c r="W29" s="1" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="1" t="s">
         <v>544</v>
       </c>
     </row>
@@ -13990,280 +14595,280 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
-    <col min="10" max="24" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="25" max="25" width="6.39814814814815" style="7" customWidth="1"/>
-    <col min="26" max="1021" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="1022" max="1025" width="2.63888888888889" style="8" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="8"/>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="24" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="25" max="25" width="6.39814814814815" style="1" customWidth="1"/>
+    <col min="26" max="1021" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1022" max="1025" width="2.63888888888889" style="2" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="4" spans="3:25">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="Y4" s="7" t="s">
+      <c r="Y4" s="1" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="7" spans="3:25">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="Y7" s="7" t="s">
+      <c r="Y7" s="1" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="1" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="10" spans="3:25">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="Y10" s="7" t="s">
+      <c r="Y10" s="1" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="11" spans="4:26">
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="Z11" s="7" t="s">
+      <c r="Z11" s="1" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="4" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="13" spans="3:25">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="Y13" s="7" t="s">
+      <c r="Y13" s="1" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="1" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="16" spans="3:25">
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="Y16" s="7" t="s">
+      <c r="Y16" s="1" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="17" spans="4:26">
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="Z17" s="7" t="s">
+      <c r="Z17" s="1" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="18" spans="4:26">
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="Z18" s="7" t="s">
+      <c r="Z18" s="1" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="4" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="20" spans="3:26">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="Z20" s="7" t="s">
+      <c r="Z20" s="1" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="21" spans="4:26">
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="Z21" s="7" t="s">
+      <c r="Z21" s="1" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="12" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="4" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="24" spans="3:26">
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="Z24" s="7" t="s">
+      <c r="Z24" s="1" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="1" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="27" spans="3:26">
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="Z27" s="7" t="s">
+      <c r="Z27" s="1" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="1" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="30" spans="3:26">
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="Z30" s="7" t="s">
+      <c r="Z30" s="1" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="1" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="32" spans="27:27">
-      <c r="AA32" s="13"/>
+      <c r="AA32" s="8"/>
     </row>
     <row r="33" spans="3:26">
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="Z33" s="7" t="s">
+      <c r="Z33" s="1" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="1" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="4" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="36" spans="3:26">
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="Z36" s="7" t="s">
+      <c r="Z36" s="1" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="1" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="4" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="39" spans="3:26">
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="Z39" s="7" t="s">
+      <c r="Z39" s="1" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="40" spans="4:4">
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="1" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="42" spans="3:26">
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="Z42" s="7" t="s">
+      <c r="Z42" s="1" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="43" spans="4:4">
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="1" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="44" spans="4:4">
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="4" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="45" spans="3:26">
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="Z45" s="7" t="s">
+      <c r="Z45" s="1" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="46" spans="4:4">
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="1" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="48" spans="3:26">
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="Z48" s="7" t="s">
+      <c r="Z48" s="1" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="49" spans="4:4">
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="1" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="50" spans="4:35">
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="AI50" s="8"/>
+      <c r="AI50" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -14283,187 +14888,187 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="7" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="7" customWidth="1"/>
-    <col min="9" max="1024" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="1025" max="16384" width="9" style="8"/>
+    <col min="1" max="7" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1024" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1025" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="V4" s="7" t="s">
+      <c r="C4" s="3"/>
+      <c r="V4" s="1" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="4" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="4" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="7" spans="2:22">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="V7" s="7" t="s">
+      <c r="C7" s="5"/>
+      <c r="V7" s="1" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="8" spans="3:23">
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="W8" s="7" t="s">
+      <c r="W8" s="1" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="11" spans="2:22">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="V11" s="7" t="s">
+      <c r="V11" s="1" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="4" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="13" spans="3:22">
-      <c r="C13" s="10"/>
-      <c r="V13" s="13"/>
+      <c r="C13" s="4"/>
+      <c r="V13" s="8"/>
     </row>
     <row r="14" spans="2:22">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="V14" s="7" t="s">
+      <c r="C14" s="8"/>
+      <c r="V14" s="1" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="15" spans="3:23">
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="W15" s="7" t="s">
+      <c r="W15" s="1" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="1" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="17" spans="3:26">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="Z17" s="8"/>
+      <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="12" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="19" spans="2:22">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="V19" s="7" t="s">
+      <c r="C19" s="13"/>
+      <c r="V19" s="1" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="1" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="21" spans="3:16">
-      <c r="C21" s="10"/>
-      <c r="M21" s="7" t="s">
+      <c r="C21" s="4"/>
+      <c r="M21" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="O21" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="P21" s="1" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="22" spans="2:22">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="V22" s="7" t="s">
+      <c r="C22" s="4"/>
+      <c r="V22" s="1" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="1" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="25" spans="2:22">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="V25" s="7" t="s">
+      <c r="C25" s="4"/>
+      <c r="V25" s="1" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="4" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="10"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" ht="14.4" spans="3:11">
       <c r="C28" t="s">
         <v>628</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="1" t="s">
         <v>639</v>
       </c>
     </row>
@@ -14471,10 +15076,10 @@
       <c r="C29" t="s">
         <v>629</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="K29" s="1" t="s">
         <v>641</v>
       </c>
     </row>
@@ -14482,10 +15087,10 @@
       <c r="C30" t="s">
         <v>630</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="K30" s="1" t="s">
         <v>643</v>
       </c>
     </row>
@@ -14493,10 +15098,10 @@
       <c r="C31" t="s">
         <v>631</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="K31" s="1" t="s">
         <v>645</v>
       </c>
     </row>
@@ -14504,10 +15109,10 @@
       <c r="C32" t="s">
         <v>646</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="K32" s="1" t="s">
         <v>648</v>
       </c>
     </row>
@@ -14515,10 +15120,10 @@
       <c r="C33" t="s">
         <v>649</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="K33" s="1" t="s">
         <v>651</v>
       </c>
     </row>
@@ -14526,10 +15131,10 @@
       <c r="C34" t="s">
         <v>652</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="K34" s="1" t="s">
         <v>654</v>
       </c>
     </row>
@@ -14537,10 +15142,10 @@
       <c r="C35" t="s">
         <v>655</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="K35" s="1" t="s">
         <v>651</v>
       </c>
     </row>
@@ -14548,10 +15153,10 @@
       <c r="C36" t="s">
         <v>657</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="K36" s="1" t="s">
         <v>659</v>
       </c>
     </row>
@@ -14559,10 +15164,10 @@
       <c r="C37" t="s">
         <v>660</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="K37" s="1" t="s">
         <v>662</v>
       </c>
     </row>
@@ -14570,10 +15175,10 @@
       <c r="C38" t="s">
         <v>663</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="K38" s="1" t="s">
         <v>665</v>
       </c>
     </row>
@@ -14581,10 +15186,10 @@
       <c r="C39" t="s">
         <v>666</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="K39" s="1" t="s">
         <v>668</v>
       </c>
     </row>
@@ -14606,164 +15211,164 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="7" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="7" customWidth="1"/>
-    <col min="9" max="1024" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="1025" max="16384" width="9" style="8"/>
+    <col min="1" max="7" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1024" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1025" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:20">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="1" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="7" spans="2:20">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="T7" s="1" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="8" spans="3:21">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="U8" s="7" t="s">
+      <c r="U8" s="1" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="T11" s="7" t="s">
+      <c r="T11" s="1" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="1" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="14" spans="2:20">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="T14" s="7" t="s">
+      <c r="T14" s="1" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="1" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="T17" s="7" t="s">
+      <c r="T17" s="1" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="1" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="T20" s="7" t="s">
+      <c r="T20" s="1" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="23" spans="2:20">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="T23" s="7" t="s">
+      <c r="T23" s="1" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="24" spans="3:21">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="U24" s="7" t="s">
+      <c r="U24" s="1" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="1" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="1" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="T27" s="7" t="s">
+      <c r="T27" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="1" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="1" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="1" t="s">
         <v>693</v>
       </c>
     </row>
@@ -14785,210 +15390,210 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="7" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
-    <col min="10" max="19" width="2.62962962962963" style="7" customWidth="1"/>
-    <col min="20" max="20" width="4.26851851851852" style="7" customWidth="1"/>
-    <col min="21" max="1025" width="2.62962962962963" style="7" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="8"/>
+    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="19" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="20" max="20" width="4.26851851851852" style="1" customWidth="1"/>
+    <col min="21" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="1" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="T6" s="8" t="s">
+      <c r="D6" s="2"/>
+      <c r="T6" s="2" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="U7" s="7" t="s">
+      <c r="U7" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="AA7" s="17"/>
+      <c r="AA7" s="15"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="U8" s="8" t="s">
+      <c r="U8" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="AA8" s="17"/>
+      <c r="AA8" s="15"/>
     </row>
     <row r="9" spans="4:21">
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="U9" s="8" t="s">
+      <c r="U9" s="2" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="X11" s="20"/>
+      <c r="X11" s="18"/>
     </row>
     <row r="12" spans="3:20">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="T12" s="8" t="s">
+      <c r="T12" s="2" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="13" spans="4:21">
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="U13" s="8" t="s">
+      <c r="U13" s="2" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="14" spans="4:21">
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="U14" s="7" t="s">
+      <c r="U14" s="1" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="2" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="8"/>
-      <c r="Z16" s="23"/>
+      <c r="D16" s="2"/>
+      <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="3:20">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="T17" s="8" t="s">
+      <c r="D17" s="2"/>
+      <c r="T17" s="2" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="2" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="19" spans="21:21">
-      <c r="U19" s="17"/>
+      <c r="U19" s="15"/>
     </row>
     <row r="20" spans="3:20">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="T20" s="7" t="s">
+      <c r="T20" s="1" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="2" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="8"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="3:20">
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="T23" s="8" t="s">
+      <c r="D23" s="2"/>
+      <c r="T23" s="2" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="2" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="25" spans="22:22">
-      <c r="V25" s="21"/>
+      <c r="V25" s="19"/>
     </row>
     <row r="26" spans="3:20">
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="L26" s="17"/>
-      <c r="T26" s="8" t="s">
+      <c r="D26" s="2"/>
+      <c r="L26" s="15"/>
+      <c r="T26" s="2" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="L27" s="17"/>
+      <c r="L27" s="15"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="8"/>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="3:20">
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="T29" s="7" t="s">
+      <c r="D29" s="2"/>
+      <c r="T29" s="1" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="1" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="32" spans="3:20">
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="T32" s="7" t="s">
+      <c r="D32" s="2"/>
+      <c r="T32" s="1" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="2" t="s">
         <v>732</v>
       </c>
     </row>
@@ -15011,165 +15616,165 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="7" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="7" customWidth="1"/>
-    <col min="9" max="1024" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="1025" max="16384" width="9" style="8"/>
+    <col min="1" max="7" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="9" max="1024" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1025" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="4" spans="2:19">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="S4" s="7" t="s">
+      <c r="C4" s="3"/>
+      <c r="S4" s="1" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="4" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="10"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="S7" s="7" t="s">
+      <c r="C7" s="5"/>
+      <c r="S7" s="1" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="2" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="S10" s="7" t="s">
+      <c r="S10" s="1" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="10"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="S13" s="7" t="s">
+      <c r="C13" s="4"/>
+      <c r="S13" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="V13" s="13"/>
+      <c r="V13" s="8"/>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="10"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="S16" s="7" t="s">
+      <c r="S16" s="1" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="17" spans="3:26">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="Z17" s="8"/>
+      <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" spans="2:22">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="S19" s="7" t="s">
+      <c r="C19" s="13"/>
+      <c r="S19" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="V19" s="13"/>
+      <c r="V19" s="8"/>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="10"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="T20" s="24" t="s">
+      <c r="T20" s="7" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="4" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="4" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="23" spans="2:19">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="S23" s="7" t="s">
+      <c r="S23" s="1" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="1" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="10"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="10"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="10"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="10"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="12"/>
+      <c r="C29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -15189,225 +15794,225 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="8"/>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="4:24">
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="X4" s="24"/>
+      <c r="X4" s="7"/>
     </row>
     <row r="5" spans="8:13">
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="T6" s="7" t="s">
+      <c r="D6" s="7"/>
+      <c r="T6" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="3:20">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="T9" s="7" t="s">
+      <c r="T9" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="3:20">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="T12" s="7" t="s">
+      <c r="D12" s="7"/>
+      <c r="T12" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="3:20">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T15" s="7" t="s">
+      <c r="T15" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="3:20">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="T18" s="7" t="s">
+      <c r="T18" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="3:20">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T21" s="7" t="s">
+      <c r="T21" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="3:20">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T24" s="7" t="s">
+      <c r="T24" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="3:20">
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="T27" s="7" t="s">
+      <c r="T27" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="28" spans="4:21">
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="U28" s="7" t="s">
+      <c r="U28" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" spans="3:20">
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="T31" s="7" t="s">
+      <c r="T31" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="34" spans="3:20">
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T34" s="7" t="s">
+      <c r="T34" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="37" spans="3:20">
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="T37" s="7" t="s">
+      <c r="T37" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="40" spans="3:20">
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T40" s="7" t="s">
+      <c r="T40" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="41" spans="4:21">
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="U41" s="7" t="s">
+      <c r="U41" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="42" spans="4:4">
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="43" spans="4:4">
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -15429,257 +16034,257 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="7" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="7" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="7" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="7" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="8"/>
+    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="1" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:27">
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="AA2" s="16"/>
+      <c r="AA2" s="14"/>
     </row>
     <row r="3" spans="3:21">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="1" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="8"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="3:21">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="U6" s="7" t="s">
+      <c r="D6" s="5"/>
+      <c r="U6" s="1" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="7" spans="4:28">
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="5" t="s">
         <v>765</v>
       </c>
-      <c r="S7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="AB7" s="17"/>
+      <c r="S7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="AB7" s="15"/>
     </row>
     <row r="8" spans="4:28">
-      <c r="D8" s="8"/>
-      <c r="AB8" s="17"/>
+      <c r="D8" s="2"/>
+      <c r="AB8" s="15"/>
     </row>
     <row r="9" spans="3:21">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="U9" s="7" t="s">
+      <c r="D9" s="2"/>
+      <c r="U9" s="1" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="2" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="11" spans="6:25">
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="T11" s="8"/>
-      <c r="Y11" s="20"/>
+      <c r="T11" s="2"/>
+      <c r="Y11" s="18"/>
     </row>
     <row r="12" spans="3:21">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="7" t="s">
+      <c r="D12" s="2"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="1" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="13" spans="4:22">
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="T13" s="19"/>
-      <c r="V13" s="7" t="s">
+      <c r="T13" s="17"/>
+      <c r="V13" s="1" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="14" spans="4:22">
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="M14" s="16"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="V14" s="7" t="s">
+      <c r="M14" s="14"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="V14" s="1" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="5" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="16" spans="3:27">
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="U16" s="7" t="s">
+      <c r="D16" s="2"/>
+      <c r="U16" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="AA16" s="23"/>
+      <c r="AA16" s="20"/>
     </row>
     <row r="17" spans="4:19">
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="S17" s="8"/>
+      <c r="S17" s="2"/>
     </row>
     <row r="18" spans="4:20">
-      <c r="D18" s="8"/>
-      <c r="T18" s="8"/>
+      <c r="D18" s="2"/>
+      <c r="T18" s="2"/>
     </row>
     <row r="19" spans="3:25">
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="U19" s="7" t="s">
+      <c r="D19" s="2"/>
+      <c r="U19" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="Y19" s="8"/>
+      <c r="Y19" s="2"/>
     </row>
     <row r="20" spans="4:22">
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="S20" s="8"/>
-      <c r="T20" s="16"/>
-      <c r="V20" s="7" t="s">
+      <c r="S20" s="2"/>
+      <c r="T20" s="14"/>
+      <c r="V20" s="1" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="8"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="3:25">
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="U22" s="7" t="s">
+      <c r="D22" s="14"/>
+      <c r="U22" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="Y22" s="8"/>
+      <c r="Y22" s="2"/>
     </row>
     <row r="23" spans="4:26">
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="S23" s="8"/>
-      <c r="U23" s="16"/>
-      <c r="Z23" s="18"/>
+      <c r="S23" s="2"/>
+      <c r="U23" s="14"/>
+      <c r="Z23" s="16"/>
     </row>
     <row r="24" spans="4:23">
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="W24" s="21"/>
+      <c r="W24" s="19"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="L25" s="17"/>
+      <c r="L25" s="15"/>
     </row>
     <row r="26" spans="3:21">
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="U26" s="7" t="s">
+      <c r="U26" s="1" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="27" spans="4:22">
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="V27" s="7" t="s">
+      <c r="V27" s="1" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="10"/>
-      <c r="D28" s="7" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="1" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="29" spans="3:21">
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="U29" s="7" t="s">
+      <c r="U29" s="1" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="1" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="32" spans="3:21">
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="U32" s="7" t="s">
+      <c r="U32" s="1" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="33" spans="4:22">
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="V33" s="7" t="s">
+      <c r="V33" s="1" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="34" spans="4:22">
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="T34" s="22"/>
-      <c r="V34" s="7" t="s">
+      <c r="T34" s="9"/>
+      <c r="V34" s="1" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="35" spans="4:22">
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="1" t="s">
         <v>803</v>
       </c>
       <c r="E35" s="11"/>
-      <c r="V35" s="7" t="s">
+      <c r="V35" s="1" t="s">
         <v>804</v>
       </c>
     </row>
@@ -15702,218 +16307,218 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="8"/>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="4" spans="3:22">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="V4" s="7" t="s">
+      <c r="D4" s="3"/>
+      <c r="V4" s="1" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="4" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="10"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="3:22">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="V7" s="7" t="s">
+      <c r="D7" s="5"/>
+      <c r="V7" s="1" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="2" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="10" spans="3:22">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="V10" s="7" t="s">
+      <c r="V10" s="1" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="1" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="10"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="3:23">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="V13" s="7" t="s">
+      <c r="D13" s="4"/>
+      <c r="V13" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="W13" s="13"/>
+      <c r="W13" s="8"/>
     </row>
     <row r="14" spans="4:23">
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="W14" s="7" t="s">
+      <c r="W14" s="1" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="4" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="1" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="17" spans="4:27">
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="AA17" s="8"/>
+      <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="12" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="19" spans="3:22">
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="V19" s="7" t="s">
+      <c r="D19" s="13"/>
+      <c r="V19" s="1" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="20" spans="3:23">
-      <c r="C20" s="10"/>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="W20" s="7" t="s">
+      <c r="W20" s="1" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="4" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="4" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="23" spans="3:22">
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="V23" s="7" t="s">
+      <c r="V23" s="1" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="24" spans="4:23">
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="W24" s="7" t="s">
+      <c r="W24" s="1" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="25" spans="4:23">
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="4" t="s">
         <v>833</v>
       </c>
-      <c r="W25" s="7" t="s">
+      <c r="W25" s="1" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="26" spans="4:19">
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="4" t="s">
         <v>835</v>
       </c>
-      <c r="S26" s="7" t="s">
+      <c r="S26" s="1" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="4" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="28" spans="3:22">
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="V28" s="7" t="s">
+      <c r="D28" s="4"/>
+      <c r="V28" s="1" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="29" spans="4:23">
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="W29" s="7" t="s">
+      <c r="W29" s="1" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="1" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="31" spans="3:22">
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="V31" s="7" t="s">
+      <c r="V31" s="1" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="1" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="34" spans="3:22">
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="V34" s="7" t="s">
+      <c r="V34" s="1" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="1" t="s">
         <v>848</v>
       </c>
     </row>
@@ -15935,33 +16540,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="8"/>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="4" spans="3:21">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="U4" s="7" t="s">
+      <c r="D4" s="3"/>
+      <c r="U4" s="1" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1" spans="4:4">
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="4" t="s">
         <v>852</v>
       </c>
     </row>
@@ -15969,161 +16574,161 @@
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="3:21">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="U7" s="7" t="s">
+      <c r="D7" s="5"/>
+      <c r="U7" s="1" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="2" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="10" spans="3:21">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="U10" s="7" t="s">
+      <c r="U10" s="1" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="1" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="10"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="3:21">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="U13" s="7" t="s">
+      <c r="D13" s="4"/>
+      <c r="U13" s="1" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="14" spans="4:24">
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="V14" s="7" t="s">
+      <c r="V14" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="W14" s="8"/>
-      <c r="X14" s="13"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="8"/>
     </row>
     <row r="15" spans="4:22">
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="V15" s="7" t="s">
+      <c r="V15" s="1" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="2" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="2" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="8"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="3:23">
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="U19" s="7" t="s">
+      <c r="D19" s="5"/>
+      <c r="U19" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="W19" s="13"/>
+      <c r="W19" s="8"/>
     </row>
     <row r="20" spans="4:28">
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="5" t="s">
         <v>869</v>
       </c>
-      <c r="AB20" s="8"/>
+      <c r="AB20" s="2"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="12"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="3:24">
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="U22" s="7" t="s">
+      <c r="D22" s="2"/>
+      <c r="U22" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="X22" s="13"/>
+      <c r="X22" s="8"/>
     </row>
     <row r="23" spans="4:24">
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="V23" s="7" t="s">
+      <c r="V23" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="X23" s="13"/>
+      <c r="X23" s="8"/>
     </row>
     <row r="24" spans="3:21">
-      <c r="C24" s="10"/>
-      <c r="D24" s="12" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="5" t="s">
         <v>874</v>
       </c>
-      <c r="U24" s="8"/>
+      <c r="U24" s="2"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="2" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="26" spans="3:21">
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="U26" s="7" t="s">
+      <c r="D26" s="2"/>
+      <c r="U26" s="1" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="5" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="2" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="29" spans="3:21">
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="U29" s="7" t="s">
+      <c r="D29" s="5"/>
+      <c r="U29" s="1" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="8" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="31" spans="40:41">
-      <c r="AN31" s="8"/>
-      <c r="AO31" s="8"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -16137,8 +16742,8 @@
   <sheetPr/>
   <dimension ref="B1:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -16258,16 +16863,16 @@
       <c r="B20" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="4"/>
       <c r="V20" s="1" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="21" spans="3:22">
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="7" t="s">
         <v>908</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="4"/>
       <c r="V21" s="1" t="s">
         <v>909</v>
       </c>
@@ -16297,12 +16902,12 @@
       <c r="C25" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="V25" s="6" t="s">
+      <c r="V25" s="10" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="26" spans="3:23">
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="9" t="s">
         <v>917</v>
       </c>
       <c r="W26" s="1" t="s">
@@ -16349,10 +16954,247 @@
       <c r="X34" s="2"/>
     </row>
     <row r="36" spans="3:3">
-      <c r="C36" s="3"/>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="3"/>
+      <c r="C37" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:AMP32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AD30" sqref="AD30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1030" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1031" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4">
+      <c r="D3" s="1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="4" spans="3:21">
+      <c r="C4" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="U4" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="4:22">
+      <c r="D5" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="6" spans="4:1030">
+      <c r="D6" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="AMP6" s="2"/>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="9" spans="3:21">
+      <c r="C9" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="U9" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="10" spans="4:22">
+      <c r="D10" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="11" spans="4:22">
+      <c r="D11" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="12" spans="4:28">
+      <c r="D12" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="13" spans="3:21">
+      <c r="C13" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="U13" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="14" spans="4:22">
+      <c r="D14" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="15" spans="4:29">
+      <c r="D15" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="8"/>
+    </row>
+    <row r="16" spans="4:27">
+      <c r="D16" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="AA16" s="9"/>
+    </row>
+    <row r="17" spans="3:21">
+      <c r="C17" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="U17" s="1" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="18" spans="4:22">
+      <c r="D18" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="19" spans="4:22">
+      <c r="D19" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="20" spans="4:28">
+      <c r="D20" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="AB20" s="8"/>
+    </row>
+    <row r="21" spans="3:33">
+      <c r="C21" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="U21" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="AG21" s="2"/>
+    </row>
+    <row r="22" ht="17" customHeight="1" spans="4:4">
+      <c r="D22" s="5" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="23" spans="4:29">
+      <c r="D23" s="2"/>
+      <c r="AC23" s="8"/>
+    </row>
+    <row r="24" spans="3:29">
+      <c r="C24" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="U24" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="AC24" s="8"/>
+    </row>
+    <row r="25" spans="3:26">
+      <c r="C25" s="4"/>
+      <c r="D25" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="V25" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="Z25" s="2"/>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21">
+      <c r="C28" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="U28" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="4" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="45:46">
+      <c r="AS32" s="2"/>
+      <c r="AT32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -16372,192 +17214,192 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="8"/>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="4:24">
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X4" s="24"/>
+      <c r="X4" s="7"/>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="24"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="T6" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="9:9">
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="3:20">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="T10" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="14" spans="3:20">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="T14" s="7" t="s">
+      <c r="T14" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="17" spans="3:20">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="T17" s="7" t="s">
+      <c r="T17" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="20" spans="3:20">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="T20" s="7" t="s">
+      <c r="T20" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="23" spans="3:20">
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="T23" s="7" t="s">
+      <c r="T23" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="26" spans="3:20">
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="T26" s="7" t="s">
+      <c r="T26" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="27" spans="4:21">
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="U27" s="7" t="s">
+      <c r="U27" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31" spans="3:20">
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="T31" s="7" t="s">
+      <c r="T31" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="35" spans="4:20">
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="T35" s="7" t="s">
+      <c r="T35" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="36" spans="4:21">
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="U36" s="24" t="s">
+      <c r="U36" s="7" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="3:20">
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="T37" s="7" t="s">
+      <c r="T37" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -16579,149 +17421,149 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="28" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="29" max="29" width="2.73148148148148" style="7" customWidth="1"/>
-    <col min="30" max="1045" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="1046" max="16384" width="9" style="8"/>
+    <col min="1" max="28" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="29" max="29" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="30" max="1045" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1046" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="3" spans="2:23">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="W3" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="6" spans="2:23">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="W6" s="7" t="s">
+      <c r="W6" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="7" spans="3:24">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="X7" s="7" t="s">
+      <c r="X7" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="10" spans="2:23">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="W10" s="7" t="s">
+      <c r="W10" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="13" spans="2:23">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="W13" s="7" t="s">
+      <c r="W13" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="16" spans="2:23">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="W16" s="7" t="s">
+      <c r="W16" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="19" spans="2:23">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="W19" s="7" t="s">
+      <c r="W19" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="22" spans="2:23">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="W22" s="7" t="s">
+      <c r="W22" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="23" spans="3:24">
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="X23" s="7" t="s">
+      <c r="X23" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="26" spans="2:23">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="W26" s="7" t="s">
+      <c r="W26" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="24" t="s">
         <v>159</v>
       </c>
     </row>
@@ -16743,216 +17585,216 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="28" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="29" max="29" width="2.73148148148148" style="7" customWidth="1"/>
-    <col min="30" max="1045" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="1046" max="16384" width="9" style="8"/>
+    <col min="1" max="28" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="29" max="29" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="30" max="1045" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1046" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="4" spans="3:21">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="U4" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="T6" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="9" spans="2:20">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="T9" s="7" t="s">
+      <c r="T9" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="10" spans="3:21">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="U10" s="7" t="s">
+      <c r="U10" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="12" spans="2:20">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="T12" s="7" t="s">
+      <c r="T12" s="1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="13" spans="3:21">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="U13" s="7" t="s">
+      <c r="U13" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="T16" s="7" t="s">
+      <c r="T16" s="1" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="T19" s="7" t="s">
+      <c r="T19" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="20" spans="3:21">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="U20" s="7" t="s">
+      <c r="U20" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="1" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="23" spans="2:44">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="T23" s="7" t="s">
+      <c r="T23" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AR23" s="7" t="s">
+      <c r="AR23" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="24" spans="3:21">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="U24" s="7" t="s">
+      <c r="U24" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="T27" s="7" t="s">
+      <c r="C27" s="24"/>
+      <c r="T27" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="28" spans="3:21">
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="U28" s="7" t="s">
+      <c r="U28" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="1" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="31" spans="2:20">
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="T31" s="7" t="s">
+      <c r="T31" s="1" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="34" spans="2:20">
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="T34" s="7" t="s">
+      <c r="T34" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="35" spans="3:3">
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -16974,149 +17816,149 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="28" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="29" max="29" width="2.73148148148148" style="7" customWidth="1"/>
-    <col min="30" max="1045" width="2.63888888888889" style="7" customWidth="1"/>
-    <col min="1046" max="16384" width="9" style="8"/>
+    <col min="1" max="28" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="29" max="29" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="30" max="1045" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1046" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="3" spans="2:22">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="1" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="1" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="6" spans="2:22">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="V6" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="7" spans="3:23">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="W7" s="7" t="s">
+      <c r="W7" s="1" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="1" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="9" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="10" spans="2:22">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="V10" s="7" t="s">
+      <c r="V10" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="V13" s="7" t="s">
+      <c r="V13" s="1" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="7" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="16" spans="2:22">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="V16" s="7" t="s">
+      <c r="V16" s="1" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="17" spans="3:23">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="W17" s="7" t="s">
+      <c r="W17" s="1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="1" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="20" spans="2:22">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="V20" s="7" t="s">
+      <c r="V20" s="1" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="1" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="23" spans="2:22">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="V23" s="7" t="s">
+      <c r="V23" s="1" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="1" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="26" spans="2:22">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="V26" s="7" t="s">
+      <c r="V26" s="1" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="1" t="s">
         <v>237</v>
       </c>
     </row>
@@ -17138,271 +17980,271 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="7" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="7" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="8"/>
+    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="3" spans="3:26">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="Z3" s="8"/>
+      <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="4:22">
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="V4" s="2" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="5" spans="4:22">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="V5" s="7" t="s">
+      <c r="V5" s="1" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="6" spans="4:22">
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="V6" s="8" t="s">
+      <c r="V6" s="2" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="2" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="AA8" s="17"/>
+      <c r="AA8" s="15"/>
     </row>
     <row r="9" spans="4:27">
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="AA9" s="17"/>
+      <c r="AA9" s="15"/>
     </row>
     <row r="10" spans="3:21">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="U10" s="8" t="s">
+      <c r="U10" s="2" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="11" spans="4:22">
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="V11" s="7" t="s">
+      <c r="V11" s="1" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="12" spans="3:21">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="U12" s="7" t="s">
+      <c r="U12" s="1" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="1" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="15" spans="3:21">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="U15" s="7" t="s">
+      <c r="U15" s="1" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="Z16" s="23"/>
+      <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="8"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="3:21">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="U18" s="8" t="s">
+      <c r="U18" s="2" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="19" spans="4:22">
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="U19" s="17"/>
-      <c r="V19" s="7" t="s">
+      <c r="U19" s="15"/>
+      <c r="V19" s="1" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="20" spans="4:22">
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="V20" s="8" t="s">
+      <c r="V20" s="2" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="2" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="22" spans="4:21">
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="U22" s="7" t="s">
+      <c r="U22" s="1" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="23" spans="3:21">
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="U23" s="8" t="s">
+      <c r="D23" s="2"/>
+      <c r="U23" s="2" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="V24" s="7" t="s">
+      <c r="V24" s="1" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="25" spans="4:22">
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="V25" s="21" t="s">
+      <c r="V25" s="19" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="26" spans="4:22">
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="V26" s="7" t="s">
+      <c r="L26" s="15"/>
+      <c r="V26" s="1" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="L27" s="17"/>
+      <c r="L27" s="15"/>
     </row>
     <row r="28" spans="3:21">
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="U28" s="7" t="s">
+      <c r="U28" s="1" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="29" spans="4:22">
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="V29" s="7" t="s">
+      <c r="V29" s="1" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="30" spans="4:22">
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="V30" s="7" t="s">
+      <c r="V30" s="1" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="2" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="2" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="33" spans="3:21">
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="U33" s="7" t="s">
+      <c r="U33" s="1" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="1" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="35" spans="24:24">
-      <c r="X35" s="7" t="s">
+      <c r="X35" s="1" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="37" spans="3:21">
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="U37" s="7" t="s">
+      <c r="U37" s="1" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="40" spans="3:21">
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="U40" s="7" t="s">
+      <c r="U40" s="1" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="41" spans="4:4">
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="1" t="s">
         <v>295</v>
       </c>
     </row>
@@ -17425,190 +18267,190 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="7" customWidth="1"/>
-    <col min="3" max="3" width="4.49074074074074" style="7" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="7" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="7" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="8"/>
+    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.49074074074074" style="1" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:26">
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="Z2" s="16"/>
+      <c r="Z2" s="14"/>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="2" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="4" spans="4:21">
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="U4" s="2" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="22" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="T6" s="7" t="s">
+      <c r="D6" s="2"/>
+      <c r="T6" s="1" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="U7" s="8" t="s">
+      <c r="U7" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="AA7" s="17"/>
+      <c r="AA7" s="15"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="AA8" s="17"/>
+      <c r="AA8" s="15"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="2" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="10" spans="3:20">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="T10" s="8" t="s">
+      <c r="D10" s="14"/>
+      <c r="T10" s="2" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="U11" s="8" t="s">
+      <c r="U11" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="X11" s="20"/>
+      <c r="X11" s="18"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="2" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="8"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="3:20">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="M14" s="16"/>
-      <c r="Q14" s="20"/>
-      <c r="T14" s="7" t="s">
+      <c r="D14" s="23"/>
+      <c r="M14" s="14"/>
+      <c r="Q14" s="18"/>
+      <c r="T14" s="1" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="2" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="8"/>
-      <c r="Z16" s="23"/>
+      <c r="D16" s="2"/>
+      <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="3:20">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="T17" s="8" t="s">
+      <c r="D17" s="14"/>
+      <c r="T17" s="2" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="18" spans="4:21">
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="U18" s="7" t="s">
+      <c r="U18" s="1" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="19" spans="4:21">
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="L19" s="16"/>
-      <c r="U19" s="17"/>
+      <c r="L19" s="14"/>
+      <c r="U19" s="15"/>
     </row>
     <row r="20" spans="3:20">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="T20" s="8" t="s">
+      <c r="T20" s="2" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="21" spans="4:19">
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="S21" s="16"/>
+      <c r="S21" s="14"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="16"/>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="3:20">
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="T23" s="7" t="s">
+      <c r="D23" s="14"/>
+      <c r="T23" s="1" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="24" spans="4:21">
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="U24" s="8" t="s">
+      <c r="U24" s="2" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="25" spans="4:22">
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="V25" s="21"/>
+      <c r="V25" s="19"/>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="L26" s="17"/>
+      <c r="L26" s="15"/>
     </row>
     <row r="50" ht="17.85" customHeight="1"/>
   </sheetData>
@@ -17629,113 +18471,113 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="7" customWidth="1"/>
-    <col min="3" max="3" width="2.48148148148148" style="7" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="7" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="7" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="7" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="8"/>
+    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.48148148148148" style="1" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="1" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="T6" s="1" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="1" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="8" ht="17.85" customHeight="1"/>
     <row r="9" spans="3:20">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="T9" s="7" t="s">
+      <c r="T9" s="1" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="1" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="12" spans="3:20">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="T12" s="7" t="s">
+      <c r="T12" s="1" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="1" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="15" spans="3:20">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="T15" s="7" t="s">
+      <c r="T15" s="1" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="16" spans="4:21">
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="U16" s="7" t="s">
+      <c r="U16" s="1" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="1" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="1" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="19" spans="3:20">
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="T19" s="7" t="s">
+      <c r="T19" s="1" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="1" t="s">
         <v>351</v>
       </c>
     </row>

--- a/learn_chinese2024.xlsx
+++ b/learn_chinese2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="16" activeTab="23"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="17" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="20240107" sheetId="4" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="20240825" sheetId="26" r:id="rId22"/>
     <sheet name="20240901" sheetId="27" r:id="rId23"/>
     <sheet name="20240908" sheetId="29" r:id="rId24"/>
+    <sheet name="20240922" sheetId="30" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="1017">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -12115,6 +12116,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>great virtue</t>
     </r>
     <r>
@@ -12174,6 +12181,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">shì yī dà </t>
     </r>
     <r>
@@ -12203,6 +12216,375 @@
   </si>
   <si>
     <t xml:space="preserve"> yě xǔ nǐ shuō de duì </t>
+  </si>
+  <si>
+    <t>Can you give me a better</t>
+  </si>
+  <si>
+    <t>A: 你好，有什么需要帮忙的吗？</t>
+  </si>
+  <si>
+    <t>A: Hello, may i help you?</t>
+  </si>
+  <si>
+    <t>nǐ hǎo ，yǒu shen me xū yào bāng máng de ma ？</t>
+  </si>
+  <si>
+    <t>B:是的，这件衣服很不错，多少钱？</t>
+  </si>
+  <si>
+    <t>B: Yeah, this dress is really nice, How much is it?</t>
+  </si>
+  <si>
+    <t>shì de ，zhè jiàn yī fú hěn bú cuò ，duō shǎo qián ？</t>
+  </si>
+  <si>
+    <t>A: 那件是150美元。</t>
+  </si>
+  <si>
+    <t>A: That one is one hundred and fifty dollars.</t>
+  </si>
+  <si>
+    <t>nà jiàn shì 150měi yuán 。</t>
+  </si>
+  <si>
+    <t>B:150美元？在那边的那一件呢？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B: One hundred and fifty dollars? What about this </t>
+  </si>
+  <si>
+    <t>150měi yuán ？zài nà biān de nà yī jiàn ne ？</t>
+  </si>
+  <si>
+    <t>other one over here?</t>
+  </si>
+  <si>
+    <t>A:那件140美元。</t>
+  </si>
+  <si>
+    <t>A: That's one hundred and forty.</t>
+  </si>
+  <si>
+    <t>nà jiàn 140měi yuán</t>
+  </si>
+  <si>
+    <t>B: 额，有点超出我的价格范围了，你能</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Hmm... That's a bit out of my </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. Can you</t>
+    </r>
+  </si>
+  <si>
+    <t>给我便宜点吗？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">give me a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>better deal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">é ，yǒu diǎn chāo chū wǒ de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jià gé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fàn wéi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le ，nǐ néng </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">gěi wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pian yí</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> diǎn ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 这件是DaMarco的独家设计，这价格已经</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A:  This is an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>exclusive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> by DaMarco, it's a good price.</t>
+    </r>
+  </si>
+  <si>
+    <t>很好了。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">zhè jiàn shì DaMarco de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dú jiā</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shè jì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，zhè jià gé yǐ jīng </t>
+    </r>
+  </si>
+  <si>
+    <t>hěn hǎo le</t>
+  </si>
+  <si>
+    <t>B:嗯，我不懂这个，我再到处看看吧。</t>
+  </si>
+  <si>
+    <t>B: well, i don't know this. i think i'll look around.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">èn ，wǒ bú dǒng zhè gè ，wǒ zài dào chù kàn kàn ba </t>
+  </si>
+  <si>
+    <t>A: 好吧，好吧，100美元怎么样？</t>
+  </si>
+  <si>
+    <t>A: Ok, Ok, how about one hundred dollars?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hǎo ba ，hǎo ba ，100měi yuán zěn me yàng </t>
+  </si>
+  <si>
+    <t>B: 那还是超出了我的预算。假如我买两件裙子呢？</t>
+  </si>
+  <si>
+    <t>B: That's still more than i wanted to spend. What if i</t>
+  </si>
+  <si>
+    <t>nà hái shì chāo chū le wǒ de yù suàn 。</t>
+  </si>
+  <si>
+    <t>take both dresses?</t>
+  </si>
+  <si>
+    <t>jiǎ rú wǒ mǎi liǎng jiàn qún zǐ ne ？</t>
+  </si>
+  <si>
+    <t>A:我可以给你一个优惠，因为你看起来是个不错的人，</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: i can give you a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>special discount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> just because you </t>
+    </r>
+  </si>
+  <si>
+    <t>100美元两件。</t>
+  </si>
+  <si>
+    <t>seem like a nice person. One hundred for both.</t>
+  </si>
+  <si>
+    <r>
+      <t>wǒ kě yǐ gěi nǐ yī gè</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yōu huì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，yīn wéi nǐ kàn qǐ lái shì gè bú cuò de rén ，</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">100měi yuán liǎng jiàn </t>
+  </si>
+  <si>
+    <t>B:很好，我买了。</t>
+  </si>
+  <si>
+    <t>B: Great, You've got a deal.</t>
+  </si>
+  <si>
+    <t>hěn hǎo ，wǒ mǎi le 。</t>
   </si>
 </sst>
 </file>
@@ -12511,25 +12893,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9"/>
+      <color rgb="FF62A73B"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFED1C24"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF009353"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1B75BC"/>
+      <color theme="9"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -12547,9 +12923,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFED1C24"/>
+      <color rgb="FF1B75BC"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00A65D"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF009353"/>
+      <name val="等线"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -12561,11 +12949,17 @@
       <sz val="11"/>
       <color rgb="FFFFC000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00A65D"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -12574,18 +12968,6 @@
       <color rgb="FF92D050"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF62A73B"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
-      <name val="等线"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -16971,8 +17353,8 @@
   <sheetPr/>
   <dimension ref="C2:AMP32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="AD30" sqref="AD30"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AZ22" sqref="AZ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -17195,6 +17577,281 @@
     <row r="32" spans="45:46">
       <c r="AS32" s="2"/>
       <c r="AT32" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:AMP42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="U34" sqref="U34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1030" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1031" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4">
+      <c r="D3" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="4" spans="3:22">
+      <c r="C4" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="V4" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="4:4">
+      <c r="D5" s="4" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="6" spans="1030:1030">
+      <c r="AMP6" s="2"/>
+    </row>
+    <row r="7" spans="3:22">
+      <c r="C7" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="V7" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="3:22">
+      <c r="C10" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="V10" s="1" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="13" spans="3:22">
+      <c r="C13" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="V13" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="14" spans="4:23">
+      <c r="D14" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="15" spans="4:29">
+      <c r="D15" s="4"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="8"/>
+    </row>
+    <row r="16" spans="3:27">
+      <c r="C16" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="V16" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="AA16" s="9"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="4" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="3:22">
+      <c r="C19" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="V19" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="20" spans="4:28">
+      <c r="D20" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="AB20" s="8"/>
+    </row>
+    <row r="21" spans="4:33">
+      <c r="D21" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="AG21" s="2"/>
+    </row>
+    <row r="22" ht="17" customHeight="1" spans="4:4">
+      <c r="D22" s="5" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29">
+      <c r="C23" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="V23" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="AC23" s="8"/>
+    </row>
+    <row r="24" spans="4:29">
+      <c r="D24" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="AC24" s="8"/>
+    </row>
+    <row r="25" spans="3:26">
+      <c r="C25" s="4"/>
+      <c r="D25" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="V25" s="7"/>
+      <c r="Z25" s="2"/>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="2" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="3:22">
+      <c r="C28" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="V28" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="4" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="3:22">
+      <c r="C31" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="32" spans="4:46">
+      <c r="D32" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AS32" s="2"/>
+      <c r="AT32" s="2"/>
+    </row>
+    <row r="34" spans="3:22">
+      <c r="C34" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="35" spans="4:23">
+      <c r="D35" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="37" spans="3:22">
+      <c r="C37" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="38" spans="4:23">
+      <c r="D38" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="41" spans="3:22">
+      <c r="C41" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="1" t="s">
+        <v>1016</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/learn_chinese2024.xlsx
+++ b/learn_chinese2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="17" activeTab="24"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="18" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="20240107" sheetId="4" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="20240901" sheetId="27" r:id="rId23"/>
     <sheet name="20240908" sheetId="29" r:id="rId24"/>
     <sheet name="20240922" sheetId="30" r:id="rId25"/>
+    <sheet name="20241006" sheetId="31" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="1061">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -12273,6 +12274,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Hmm... That's a bit out of my </t>
     </r>
     <r>
@@ -12315,6 +12321,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">give me a </t>
     </r>
     <r>
@@ -12337,6 +12348,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">é ，yǒu diǎn chāo chū wǒ de </t>
     </r>
     <r>
@@ -12378,6 +12395,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">gěi wǒ </t>
     </r>
     <r>
@@ -12404,6 +12427,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A:  This is an </t>
     </r>
     <r>
@@ -12446,6 +12474,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">zhè jiàn shì DaMarco de </t>
     </r>
     <r>
@@ -12526,6 +12560,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: i can give you a </t>
     </r>
     <r>
@@ -12554,6 +12593,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>wǒ kě yǐ gěi nǐ yī gè</t>
     </r>
     <r>
@@ -12585,6 +12629,805 @@
   </si>
   <si>
     <t>hěn hǎo ，wǒ mǎi le 。</t>
+  </si>
+  <si>
+    <t>Entering the Supermarket</t>
+  </si>
+  <si>
+    <t>A: 抱歉，您不能把包带进商场里。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Excuse me, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bags</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> aren’t permitted inside the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF72BF44"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>supermarket</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A: bào qiàn ，nín bú néng bǎ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>bāo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> dài jìn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF72BF44"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>shāng chǎng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> lǐ 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 奥，不好意思。</t>
+  </si>
+  <si>
+    <t>B: Oh, i’m sorry?</t>
+  </si>
+  <si>
+    <t>ào ，bú hǎo yì sī</t>
+  </si>
+  <si>
+    <t>A: 没关系的，进去的时候存一下包就好了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Don’t worry.Just </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF72BF44"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>check in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> your bag before entering.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">méi guān xì de ，jìn qù de shí hòu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF72BF44"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cún</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yī xià bāo jiù hǎo le 。</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 谢谢，请问在什么地方存包？</t>
+  </si>
+  <si>
+    <t>B: Thanks, Could you tell me where I should deposit my bag?</t>
+  </si>
+  <si>
+    <t>xiè xiè ，qǐng wèn zài shen me dì fāng cún bāo ？</t>
+  </si>
+  <si>
+    <t>A:寄存处就在前门后面。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>check room</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> is just behind the front door.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">jì cún chù </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jiù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> zài qián mén hòu miàn </t>
+    </r>
+  </si>
+  <si>
+    <t>B: 好的，我马上去存包。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: Okay. I will deposit my bag </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>right now</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">hǎo de ，wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mǎ shàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> qù cún bāo</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 可以去买东西了吗？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: are you ready to go </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shopping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">kě yǐ qù </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mǎi dōng xī</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 等一会儿，我先列一个购物清单。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: just a few minutes. I need to make a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>list of things</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">děng yī huì ér ，wǒ xiān liè yī gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>gòu wù qīng dān</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>that we need.</t>
+  </si>
+  <si>
+    <t>A: 好主意，你写茶叶，鸡蛋和土豆了吗？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: Good idea. Have you written down tea, eggs and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>potatoes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">hǎo zhǔ yì ，nǐ xiě chá yè ，jī dàn hé </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tǔ dòu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le ma ？</t>
+    </r>
+  </si>
+  <si>
+    <t>B: 忘记写土豆了。欧，我差点忘记了，我们急需</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>forgot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> about the potatoes. Oh, I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>almost forget</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> that</t>
+    </r>
+  </si>
+  <si>
+    <t>一个微波炉，对了，我们买什么茶叶？绿茶</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">we need a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microwave oven</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> . What kind of tea do you prefer?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>还是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>花茶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Green tea or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> flower tea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wàng jì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> xiě tǔ dòu le 。ōu ，wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>chà diǎn wàng jì le</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，wǒ men jí xū</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">yī gè </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wēi bō</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lú</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，duì le ，wǒ men mǎi shen me chá yè ？lǜ chá </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">hái shì huā chá </t>
+  </si>
+  <si>
+    <t>A: 两种都买一点吧。钱带够了吗？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: let’s just get both. Do you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bring enough money</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>liǎng zhǒng dōu mǎi yī diǎn ba 。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">qián dài gòu le ma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？</t>
+    </r>
+  </si>
+  <si>
+    <t>B:现金不是很多，不过我会带着信用卡的。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: We don’t have enough </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, But I’ll take my </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>credit card</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEF413D"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xiàn jīn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> bú shì hěn duō ，bú guò wǒ huì dài zhe </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006C3B"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xìn yòng kǎ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> de 。</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -12597,13 +13440,77 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="58">
+  <fonts count="74">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEF413D"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1C1C1C"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1C1C1C"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006C3B"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -12893,6 +13800,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF009353"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF62A73B"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF62A73B"/>
       <name val="等线"/>
       <charset val="1"/>
@@ -12905,19 +13836,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFED1C24"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <color rgb="FF00A65D"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -12929,19 +13848,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00A65D"/>
+      <color rgb="FFEF413D"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFED1C24"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF009353"/>
+      <color rgb="FF72BF44"/>
       <name val="等线"/>
-      <charset val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF62A73B"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -12953,21 +13896,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFFC000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF92D050"/>
+      <color rgb="FF72BF44"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -13297,137 +14234,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13455,6 +14392,17 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -13774,186 +14722,186 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="12" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="3:22">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="4:24">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="7" t="s">
+      <c r="X4" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:22">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="V7" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="4:23">
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="W8" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="3:22">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="V11" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="3:22">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="V14" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="4:23">
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W15" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="3:22">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="V17" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="3:22">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="V20" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="4:23">
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="W21" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="4:23">
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="W22" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="3:22">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="V24" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="3:22">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="V27" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="4:23">
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="W28" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="7:7">
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="12" t="s">
         <v>40</v>
       </c>
     </row>
@@ -13975,159 +14923,159 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.48148148148148" style="1" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="2.62962962962963" style="12" customWidth="1"/>
+    <col min="3" max="3" width="2.48148148148148" style="12" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="12" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="12" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="12" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="12" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="3" spans="3:24">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="X3" s="12" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="12" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="6" spans="3:24">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="X6" s="12" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="7" spans="4:25">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Y7" s="12" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="8" ht="17.85" customHeight="1" spans="4:4">
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="12" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="9" spans="3:24">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="X9" s="12" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="10" spans="4:25">
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="Y10" s="12" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="12" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="12" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="13" spans="3:24">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="X13" s="12" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="14" spans="4:25">
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="Y14" s="1" t="s">
+      <c r="Y14" s="12" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="12" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="12" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="17" spans="3:24">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="X17" s="12" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="12" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="20" spans="3:24">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="X20" s="12" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="21" spans="4:25">
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="Y21" s="1" t="s">
+      <c r="Y21" s="12" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="22" spans="4:25">
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="Y22" s="1" t="s">
+      <c r="Y22" s="12" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="12" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="12" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="12" t="s">
         <v>384</v>
       </c>
     </row>
@@ -14149,187 +15097,187 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.48148148148148" style="1" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="2.62962962962963" style="12" customWidth="1"/>
+    <col min="3" max="3" width="2.48148148148148" style="12" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="12" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="12" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="12" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="12" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="3" spans="3:22">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="12" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="12" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="6" spans="3:22">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="V6" s="12" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="12" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="9" spans="3:22">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="V9" s="12" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="12" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="12" spans="3:22">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="V12" s="12" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="12" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="15" spans="3:22">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="V15" s="12" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="12" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="18" spans="3:22">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="V18" s="12" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="12" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="21" spans="3:22">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="V21" s="12" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="12" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="24" spans="3:22">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="V24" s="12" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="12" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="12" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="27" spans="3:22">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="V27" s="12" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="28" spans="4:23">
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="W28" s="12" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="29" spans="4:23">
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="W29" s="1" t="s">
+      <c r="W29" s="12" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="12" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="12" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="12" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="33" spans="3:22">
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="V33" s="1" t="s">
+      <c r="V33" s="12" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="12" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="12" t="s">
         <v>423</v>
       </c>
     </row>
@@ -14351,221 +15299,221 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.82407407407407" style="1" customWidth="1"/>
-    <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1030" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="2.62962962962963" style="12" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="12" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="12" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="12" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="12" customWidth="1"/>
+    <col min="1030" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="12" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="12" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="12" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="12" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="12" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="12" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T10" s="12" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="11" spans="3:23">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="W11" s="9"/>
+      <c r="W11" s="20"/>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="T13" s="1" t="s">
+      <c r="C13" s="18"/>
+      <c r="T13" s="12" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="12" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="16" spans="2:27">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="AA16" s="7"/>
+      <c r="AA16" s="18"/>
     </row>
     <row r="17" spans="3:21">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="U17" s="9" t="s">
+      <c r="U17" s="20" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="18" spans="3:30">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="AA18" s="1" t="s">
+      <c r="AA18" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="AD18" s="1">
+      <c r="AD18" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="T19" s="12" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="12" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="22" spans="2:20">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="T22" s="12" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="23" spans="3:21">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="U23" s="1" t="s">
+      <c r="U23" s="12" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="T25" s="1" t="s">
+      <c r="T25" s="12" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="26" spans="3:25">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="U26" s="1" t="s">
+      <c r="U26" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="Y26" s="7"/>
+      <c r="Y26" s="18"/>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="12" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="28" spans="2:20">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="T28" s="1" t="s">
+      <c r="T28" s="12" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="18" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="N32" s="12" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="N33" s="12" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="N34" s="12" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="N35" s="12" t="s">
         <v>471</v>
       </c>
     </row>
@@ -14587,180 +15535,180 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.82407407407407" style="1" customWidth="1"/>
-    <col min="3" max="7" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="9" max="1029" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1030" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="2.62962962962963" style="12" customWidth="1"/>
+    <col min="2" max="2" width="2.82407407407407" style="12" customWidth="1"/>
+    <col min="3" max="7" width="2.62962962962963" style="12" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="12" customWidth="1"/>
+    <col min="9" max="1029" width="2.62962962962963" style="12" customWidth="1"/>
+    <col min="1030" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="12" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="12" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="12" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="7" spans="3:21">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="U7" s="7" t="s">
+      <c r="U7" s="18" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="12" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="18" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T10" s="12" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="12" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="T13" s="12" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="12" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" s="12" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="17" spans="3:21">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="U17" s="21" t="s">
+      <c r="U17" s="32" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="12" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="19" spans="3:20">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="T19" s="9" t="s">
+      <c r="T19" s="20" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T20" s="12" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="21" spans="3:21">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="U21" s="12" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="12" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="12" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="T24" s="1" t="s">
+      <c r="T24" s="12" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="12" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="T27" s="1" t="s">
+      <c r="T27" s="12" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="12" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="30" spans="2:20">
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="T30" s="1" t="s">
+      <c r="T30" s="12" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="12" t="s">
         <v>509</v>
       </c>
     </row>
@@ -14782,180 +15730,180 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="12" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="12" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="4" spans="3:23">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="W4" s="1" t="s">
+      <c r="D4" s="14"/>
+      <c r="W4" s="12" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="15" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="15" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="7" spans="3:23">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="12" t="s">
         <v>515</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="W7" s="1" t="s">
+      <c r="D7" s="16"/>
+      <c r="W7" s="12" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="13" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="10" spans="3:23">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="W10" s="12" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="12" t="s">
         <v>520</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="X11" s="12" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="15" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="13" spans="4:23">
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="15" t="s">
         <v>523</v>
       </c>
-      <c r="W13" s="8"/>
+      <c r="W13" s="19"/>
     </row>
     <row r="14" spans="3:23">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="W14" s="1" t="s">
+      <c r="D14" s="19"/>
+      <c r="W14" s="12" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="15" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="17" spans="3:27">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="W17" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="AA17" s="2"/>
+      <c r="AA17" s="13"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="23" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="19" spans="4:23">
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="24" t="s">
         <v>530</v>
       </c>
-      <c r="W19" s="8"/>
+      <c r="W19" s="19"/>
     </row>
     <row r="20" spans="3:23">
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="15" t="s">
         <v>531</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="W20" s="12" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="15" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="15" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="23" spans="3:23">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="W23" s="12" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="12" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="15" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="26" spans="3:23">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="W26" s="1" t="s">
+      <c r="D26" s="15"/>
+      <c r="W26" s="12" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="15" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="4"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="3:23">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="W29" s="1" t="s">
+      <c r="D29" s="16"/>
+      <c r="W29" s="12" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="12" t="s">
         <v>544</v>
       </c>
     </row>
@@ -14977,280 +15925,280 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="24" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="25" max="25" width="6.39814814814815" style="1" customWidth="1"/>
-    <col min="26" max="1021" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1022" max="1025" width="2.63888888888889" style="2" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="12" customWidth="1"/>
+    <col min="10" max="24" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="25" max="25" width="6.39814814814815" style="12" customWidth="1"/>
+    <col min="26" max="1021" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="1022" max="1025" width="2.63888888888889" style="13" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="12" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="4" spans="3:25">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y4" s="12" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="12" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="7" spans="3:25">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Y7" s="12" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="12" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="10" spans="3:25">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="Y10" s="12" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="11" spans="4:26">
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="Z11" s="1" t="s">
+      <c r="Z11" s="12" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="15" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="13" spans="3:25">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Y13" s="12" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="12" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="16" spans="3:25">
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="Y16" s="1" t="s">
+      <c r="Y16" s="12" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="17" spans="4:26">
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="Z17" s="12" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="18" spans="4:26">
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="Z18" s="12" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="15" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="20" spans="3:26">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="Z20" s="1" t="s">
+      <c r="Z20" s="12" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="21" spans="4:26">
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="Z21" s="12" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="23" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="15" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="24" spans="3:26">
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="15" t="s">
         <v>573</v>
       </c>
-      <c r="Z24" s="1" t="s">
+      <c r="Z24" s="12" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="12" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="27" spans="3:26">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="Z27" s="1" t="s">
+      <c r="Z27" s="12" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="12" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="30" spans="3:26">
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="Z30" s="1" t="s">
+      <c r="Z30" s="12" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="12" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="32" spans="27:27">
-      <c r="AA32" s="8"/>
+      <c r="AA32" s="19"/>
     </row>
     <row r="33" spans="3:26">
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="Z33" s="1" t="s">
+      <c r="Z33" s="12" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="12" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="15" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="36" spans="3:26">
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="Z36" s="1" t="s">
+      <c r="Z36" s="12" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="12" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="15" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="39" spans="3:26">
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="12" t="s">
         <v>590</v>
       </c>
-      <c r="Z39" s="1" t="s">
+      <c r="Z39" s="12" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="40" spans="4:4">
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="12" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="42" spans="3:26">
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="Z42" s="1" t="s">
+      <c r="Z42" s="12" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="43" spans="4:4">
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="12" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="44" spans="4:4">
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="15" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="45" spans="3:26">
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="12" t="s">
         <v>597</v>
       </c>
-      <c r="Z45" s="1" t="s">
+      <c r="Z45" s="12" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="46" spans="4:4">
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="12" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="48" spans="3:26">
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="12" t="s">
         <v>600</v>
       </c>
-      <c r="Z48" s="1" t="s">
+      <c r="Z48" s="12" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="49" spans="4:4">
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="12" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="50" spans="4:35">
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="15" t="s">
         <v>603</v>
       </c>
-      <c r="AI50" s="2"/>
+      <c r="AI50" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -15270,187 +16218,187 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="7" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="9" max="1024" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1025" max="16384" width="9" style="2"/>
+    <col min="1" max="7" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="12" customWidth="1"/>
+    <col min="9" max="1024" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="1025" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="12" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="V4" s="1" t="s">
+      <c r="C4" s="14"/>
+      <c r="V4" s="12" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="15" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="15" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="7" spans="2:22">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="V7" s="1" t="s">
+      <c r="C7" s="16"/>
+      <c r="V7" s="12" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="8" spans="3:23">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="W8" s="12" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="12" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="12" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="11" spans="2:22">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="12" t="s">
         <v>615</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="V11" s="12" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="15" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="13" spans="3:22">
-      <c r="C13" s="4"/>
-      <c r="V13" s="8"/>
+      <c r="C13" s="15"/>
+      <c r="V13" s="19"/>
     </row>
     <row r="14" spans="2:22">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="12" t="s">
         <v>618</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="V14" s="1" t="s">
+      <c r="C14" s="19"/>
+      <c r="V14" s="12" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="15" spans="3:23">
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W15" s="12" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="12" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="17" spans="3:26">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="Z17" s="2"/>
+      <c r="Z17" s="13"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="23" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="19" spans="2:22">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="12" t="s">
         <v>625</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="V19" s="1" t="s">
+      <c r="C19" s="24"/>
+      <c r="V19" s="12" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="12" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="21" spans="3:16">
-      <c r="C21" s="4"/>
-      <c r="M21" s="1" t="s">
+      <c r="C21" s="15"/>
+      <c r="M21" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" s="12" t="s">
         <v>629</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="O21" s="12" t="s">
         <v>630</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="P21" s="12" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="22" spans="2:22">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="12" t="s">
         <v>632</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="V22" s="1" t="s">
+      <c r="C22" s="15"/>
+      <c r="V22" s="12" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="12" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="25" spans="2:22">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="12" t="s">
         <v>635</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="V25" s="1" t="s">
+      <c r="C25" s="15"/>
+      <c r="V25" s="12" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="15" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="4"/>
+      <c r="C27" s="15"/>
     </row>
     <row r="28" ht="14.4" spans="3:11">
       <c r="C28" t="s">
         <v>628</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="12" t="s">
         <v>638</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" s="12" t="s">
         <v>639</v>
       </c>
     </row>
@@ -15458,10 +16406,10 @@
       <c r="C29" t="s">
         <v>629</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" s="12" t="s">
         <v>641</v>
       </c>
     </row>
@@ -15469,10 +16417,10 @@
       <c r="C30" t="s">
         <v>630</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="12" t="s">
         <v>642</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" s="12" t="s">
         <v>643</v>
       </c>
     </row>
@@ -15480,10 +16428,10 @@
       <c r="C31" t="s">
         <v>631</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="12" t="s">
         <v>644</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" s="12" t="s">
         <v>645</v>
       </c>
     </row>
@@ -15491,10 +16439,10 @@
       <c r="C32" t="s">
         <v>646</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="12" t="s">
         <v>647</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" s="12" t="s">
         <v>648</v>
       </c>
     </row>
@@ -15502,10 +16450,10 @@
       <c r="C33" t="s">
         <v>649</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="12" t="s">
         <v>650</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" s="12" t="s">
         <v>651</v>
       </c>
     </row>
@@ -15513,10 +16461,10 @@
       <c r="C34" t="s">
         <v>652</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="12" t="s">
         <v>653</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="K34" s="12" t="s">
         <v>654</v>
       </c>
     </row>
@@ -15524,10 +16472,10 @@
       <c r="C35" t="s">
         <v>655</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="12" t="s">
         <v>656</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K35" s="12" t="s">
         <v>651</v>
       </c>
     </row>
@@ -15535,10 +16483,10 @@
       <c r="C36" t="s">
         <v>657</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="12" t="s">
         <v>658</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K36" s="12" t="s">
         <v>659</v>
       </c>
     </row>
@@ -15546,10 +16494,10 @@
       <c r="C37" t="s">
         <v>660</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="12" t="s">
         <v>661</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K37" s="12" t="s">
         <v>662</v>
       </c>
     </row>
@@ -15557,10 +16505,10 @@
       <c r="C38" t="s">
         <v>663</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="12" t="s">
         <v>664</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K38" s="12" t="s">
         <v>665</v>
       </c>
     </row>
@@ -15568,10 +16516,10 @@
       <c r="C39" t="s">
         <v>666</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="12" t="s">
         <v>667</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="K39" s="12" t="s">
         <v>668</v>
       </c>
     </row>
@@ -15593,164 +16541,164 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="7" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="9" max="1024" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1025" max="16384" width="9" style="2"/>
+    <col min="1" max="7" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="12" customWidth="1"/>
+    <col min="9" max="1024" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="1025" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="12" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:20">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" s="12" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="12" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="7" spans="2:20">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="12" t="s">
         <v>670</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" s="12" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="8" spans="3:21">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="12" t="s">
         <v>672</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="U8" s="12" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="12" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="12" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="T11" s="12" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="12" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="14" spans="2:20">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="12" t="s">
         <v>678</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="T14" s="12" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="12" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="T17" s="12" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="12" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="12" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T20" s="12" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="12" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="23" spans="2:20">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="12" t="s">
         <v>685</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="T23" s="12" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="24" spans="3:21">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="U24" s="1" t="s">
+      <c r="U24" s="12" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="12" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="12" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="12" t="s">
         <v>690</v>
       </c>
-      <c r="T27" s="1" t="s">
+      <c r="T27" s="12" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="12" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="12" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="12" t="s">
         <v>693</v>
       </c>
     </row>
@@ -15772,210 +16720,210 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="19" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="20" max="20" width="4.26851851851852" style="1" customWidth="1"/>
-    <col min="21" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.62962962962963" style="12" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="12" customWidth="1"/>
+    <col min="10" max="19" width="2.62962962962963" style="12" customWidth="1"/>
+    <col min="20" max="20" width="4.26851851851852" style="12" customWidth="1"/>
+    <col min="21" max="1025" width="2.62962962962963" style="12" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="12" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="12" t="s">
         <v>695</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="12" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="12" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="12" t="s">
         <v>698</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="T6" s="2" t="s">
+      <c r="D6" s="13"/>
+      <c r="T6" s="13" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="12" t="s">
         <v>700</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="U7" s="12" t="s">
         <v>701</v>
       </c>
-      <c r="AA7" s="15"/>
+      <c r="AA7" s="26"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="12" t="s">
         <v>702</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="U8" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="AA8" s="15"/>
+      <c r="AA8" s="26"/>
     </row>
     <row r="9" spans="4:21">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="U9" s="13" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="25" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="13" t="s">
         <v>707</v>
       </c>
-      <c r="X11" s="18"/>
+      <c r="X11" s="29"/>
     </row>
     <row r="12" spans="3:20">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="12" t="s">
         <v>708</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="T12" s="13" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="13" spans="4:21">
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="12" t="s">
         <v>710</v>
       </c>
-      <c r="U13" s="2" t="s">
+      <c r="U13" s="13" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="14" spans="4:21">
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="13" t="s">
         <v>712</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="U14" s="12" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="13" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="2"/>
-      <c r="Z16" s="20"/>
+      <c r="D16" s="13"/>
+      <c r="Z16" s="31"/>
     </row>
     <row r="17" spans="3:20">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="12" t="s">
         <v>715</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="T17" s="2" t="s">
+      <c r="D17" s="13"/>
+      <c r="T17" s="13" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="13" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="19" spans="21:21">
-      <c r="U19" s="15"/>
+      <c r="U19" s="26"/>
     </row>
     <row r="20" spans="3:20">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="12" t="s">
         <v>718</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T20" s="12" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="13" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="2"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" spans="3:20">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="12" t="s">
         <v>721</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="T23" s="2" t="s">
+      <c r="D23" s="13"/>
+      <c r="T23" s="13" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="13" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="25" spans="22:22">
-      <c r="V25" s="19"/>
+      <c r="V25" s="30"/>
     </row>
     <row r="26" spans="3:20">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="12" t="s">
         <v>724</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="L26" s="15"/>
-      <c r="T26" s="2" t="s">
+      <c r="D26" s="13"/>
+      <c r="L26" s="26"/>
+      <c r="T26" s="13" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="13" t="s">
         <v>726</v>
       </c>
-      <c r="L27" s="15"/>
+      <c r="L27" s="26"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="2"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="3:20">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="12" t="s">
         <v>727</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="T29" s="1" t="s">
+      <c r="D29" s="13"/>
+      <c r="T29" s="12" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="12" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="32" spans="3:20">
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="12" t="s">
         <v>730</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="T32" s="1" t="s">
+      <c r="D32" s="13"/>
+      <c r="T32" s="12" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="13" t="s">
         <v>732</v>
       </c>
     </row>
@@ -15998,165 +16946,165 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="7" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="9" max="1024" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1025" max="16384" width="9" style="2"/>
+    <col min="1" max="7" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="8" max="8" width="2.73148148148148" style="12" customWidth="1"/>
+    <col min="9" max="1024" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="1025" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="12" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="4" spans="2:19">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="12" t="s">
         <v>734</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="S4" s="1" t="s">
+      <c r="C4" s="14"/>
+      <c r="S4" s="12" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="15" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="4"/>
+      <c r="C6" s="15"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="12" t="s">
         <v>737</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="S7" s="1" t="s">
+      <c r="C7" s="16"/>
+      <c r="S7" s="12" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="13" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="12" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="12" t="s">
         <v>741</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="S10" s="12" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="12" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="4"/>
+      <c r="C12" s="15"/>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="12" t="s">
         <v>744</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="S13" s="1" t="s">
+      <c r="C13" s="15"/>
+      <c r="S13" s="12" t="s">
         <v>745</v>
       </c>
-      <c r="V13" s="8"/>
+      <c r="V13" s="19"/>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="12" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="4"/>
+      <c r="C15" s="15"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="12" t="s">
         <v>747</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="S16" s="12" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="17" spans="3:26">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="12" t="s">
         <v>749</v>
       </c>
-      <c r="Z17" s="2"/>
+      <c r="Z17" s="13"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="12"/>
+      <c r="C18" s="23"/>
     </row>
     <row r="19" spans="2:22">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="12" t="s">
         <v>750</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="S19" s="1" t="s">
+      <c r="C19" s="24"/>
+      <c r="S19" s="12" t="s">
         <v>751</v>
       </c>
-      <c r="V19" s="8"/>
+      <c r="V19" s="19"/>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="4"/>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="12" t="s">
         <v>752</v>
       </c>
-      <c r="T20" s="7" t="s">
+      <c r="T20" s="18" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="15" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="15" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="23" spans="2:19">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="12" t="s">
         <v>756</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="S23" s="12" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="12" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="4"/>
+      <c r="C25" s="15"/>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="4"/>
+      <c r="C26" s="15"/>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="4"/>
+      <c r="C27" s="15"/>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="4"/>
+      <c r="C28" s="15"/>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="5"/>
+      <c r="C29" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -16176,225 +17124,225 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="12" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="4:24">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="X4" s="7"/>
+      <c r="X4" s="18"/>
     </row>
     <row r="5" spans="8:13">
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="12" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="T6" s="1" t="s">
+      <c r="D6" s="18"/>
+      <c r="T6" s="12" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="3:20">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="3:20">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="T12" s="1" t="s">
+      <c r="D12" s="18"/>
+      <c r="T12" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="3:20">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="T15" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="3:20">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="T18" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="3:20">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="T21" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="3:20">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="T24" s="1" t="s">
+      <c r="T24" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="3:20">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="T27" s="1" t="s">
+      <c r="T27" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="28" spans="4:21">
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="U28" s="1" t="s">
+      <c r="U28" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" spans="3:20">
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="T31" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="34" spans="3:20">
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="T34" s="1" t="s">
+      <c r="T34" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="37" spans="3:20">
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="T37" s="1" t="s">
+      <c r="T37" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="40" spans="3:20">
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="T40" s="1" t="s">
+      <c r="T40" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="41" spans="4:21">
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="U41" s="1" t="s">
+      <c r="U41" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="42" spans="4:4">
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="12" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="43" spans="4:4">
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="12" t="s">
         <v>88</v>
       </c>
     </row>
@@ -16416,257 +17364,257 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.82407407407407" style="1" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="2.62962962962963" style="12" customWidth="1"/>
+    <col min="3" max="3" width="2.82407407407407" style="12" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="12" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="12" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="12" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:27">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="12" t="s">
         <v>759</v>
       </c>
-      <c r="AA2" s="14"/>
+      <c r="AA2" s="25"/>
     </row>
     <row r="3" spans="3:21">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="12" t="s">
         <v>760</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" s="12" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="12" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="2"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="3:21">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="12" t="s">
         <v>763</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="U6" s="1" t="s">
+      <c r="D6" s="16"/>
+      <c r="U6" s="12" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="7" spans="4:28">
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="16" t="s">
         <v>765</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="AB7" s="15"/>
+      <c r="S7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="AB7" s="26"/>
     </row>
     <row r="8" spans="4:28">
-      <c r="D8" s="2"/>
-      <c r="AB8" s="15"/>
+      <c r="D8" s="13"/>
+      <c r="AB8" s="26"/>
     </row>
     <row r="9" spans="3:21">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="12" t="s">
         <v>766</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="U9" s="1" t="s">
+      <c r="D9" s="13"/>
+      <c r="U9" s="12" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="13" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="11" spans="6:25">
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="12" t="s">
         <v>769</v>
       </c>
-      <c r="T11" s="2"/>
-      <c r="Y11" s="18"/>
+      <c r="T11" s="13"/>
+      <c r="Y11" s="29"/>
     </row>
     <row r="12" spans="3:21">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="12" t="s">
         <v>770</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="1" t="s">
+      <c r="D12" s="13"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="12" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="13" spans="4:22">
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="13" t="s">
         <v>772</v>
       </c>
-      <c r="T13" s="17"/>
-      <c r="V13" s="1" t="s">
+      <c r="T13" s="28"/>
+      <c r="V13" s="12" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="14" spans="4:22">
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="13" t="s">
         <v>774</v>
       </c>
-      <c r="M14" s="14"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="V14" s="1" t="s">
+      <c r="M14" s="25"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="V14" s="12" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="16" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="16" spans="3:27">
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="12" t="s">
         <v>777</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="U16" s="1" t="s">
+      <c r="D16" s="13"/>
+      <c r="U16" s="12" t="s">
         <v>778</v>
       </c>
-      <c r="AA16" s="20"/>
+      <c r="AA16" s="31"/>
     </row>
     <row r="17" spans="4:19">
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="15" t="s">
         <v>779</v>
       </c>
-      <c r="S17" s="2"/>
+      <c r="S17" s="13"/>
     </row>
     <row r="18" spans="4:20">
-      <c r="D18" s="2"/>
-      <c r="T18" s="2"/>
+      <c r="D18" s="13"/>
+      <c r="T18" s="13"/>
     </row>
     <row r="19" spans="3:25">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="12" t="s">
         <v>780</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="U19" s="1" t="s">
+      <c r="D19" s="13"/>
+      <c r="U19" s="12" t="s">
         <v>781</v>
       </c>
-      <c r="Y19" s="2"/>
+      <c r="Y19" s="13"/>
     </row>
     <row r="20" spans="4:22">
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="13" t="s">
         <v>782</v>
       </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="14"/>
-      <c r="V20" s="1" t="s">
+      <c r="S20" s="13"/>
+      <c r="T20" s="25"/>
+      <c r="V20" s="12" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="2"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" spans="3:25">
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="13" t="s">
         <v>784</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="U22" s="1" t="s">
+      <c r="D22" s="25"/>
+      <c r="U22" s="12" t="s">
         <v>785</v>
       </c>
-      <c r="Y22" s="2"/>
+      <c r="Y22" s="13"/>
     </row>
     <row r="23" spans="4:26">
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="13" t="s">
         <v>786</v>
       </c>
-      <c r="S23" s="2"/>
-      <c r="U23" s="14"/>
-      <c r="Z23" s="16"/>
+      <c r="S23" s="13"/>
+      <c r="U23" s="25"/>
+      <c r="Z23" s="27"/>
     </row>
     <row r="24" spans="4:23">
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="16" t="s">
         <v>787</v>
       </c>
-      <c r="W24" s="19"/>
+      <c r="W24" s="30"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="13" t="s">
         <v>788</v>
       </c>
-      <c r="L25" s="15"/>
+      <c r="L25" s="26"/>
     </row>
     <row r="26" spans="3:21">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="12" t="s">
         <v>789</v>
       </c>
-      <c r="U26" s="1" t="s">
+      <c r="U26" s="12" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="27" spans="4:22">
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="12" t="s">
         <v>791</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="V27" s="12" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="4"/>
-      <c r="D28" s="1" t="s">
+      <c r="C28" s="15"/>
+      <c r="D28" s="12" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="29" spans="3:21">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="12" t="s">
         <v>794</v>
       </c>
-      <c r="U29" s="1" t="s">
+      <c r="U29" s="12" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="12" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="32" spans="3:21">
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="12" t="s">
         <v>797</v>
       </c>
-      <c r="U32" s="1" t="s">
+      <c r="U32" s="12" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="33" spans="4:22">
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="12" t="s">
         <v>799</v>
       </c>
-      <c r="V33" s="1" t="s">
+      <c r="V33" s="12" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="34" spans="4:22">
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="12" t="s">
         <v>801</v>
       </c>
-      <c r="T34" s="9"/>
-      <c r="V34" s="1" t="s">
+      <c r="T34" s="20"/>
+      <c r="V34" s="12" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="35" spans="4:22">
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="12" t="s">
         <v>803</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="V35" s="1" t="s">
+      <c r="E35" s="22"/>
+      <c r="V35" s="12" t="s">
         <v>804</v>
       </c>
     </row>
@@ -16689,218 +17637,218 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="12" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="12" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="4" spans="3:22">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="12" t="s">
         <v>806</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="V4" s="1" t="s">
+      <c r="D4" s="14"/>
+      <c r="V4" s="12" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="15" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="4"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="3:22">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="12" t="s">
         <v>809</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="V7" s="1" t="s">
+      <c r="D7" s="16"/>
+      <c r="V7" s="12" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="13" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="10" spans="3:22">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="12" t="s">
         <v>812</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="V10" s="12" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="12" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="4"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="3:23">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="12" t="s">
         <v>815</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="V13" s="1" t="s">
+      <c r="D13" s="15"/>
+      <c r="V13" s="12" t="s">
         <v>816</v>
       </c>
-      <c r="W13" s="8"/>
+      <c r="W13" s="19"/>
     </row>
     <row r="14" spans="4:23">
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="12" t="s">
         <v>817</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="W14" s="12" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="15" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="12" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="17" spans="4:27">
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="12" t="s">
         <v>821</v>
       </c>
-      <c r="AA17" s="2"/>
+      <c r="AA17" s="13"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="23" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="19" spans="3:22">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="12" t="s">
         <v>823</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="V19" s="1" t="s">
+      <c r="D19" s="24"/>
+      <c r="V19" s="12" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="20" spans="3:23">
-      <c r="C20" s="4"/>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="15"/>
+      <c r="D20" s="12" t="s">
         <v>825</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="W20" s="12" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="15" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="15" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="23" spans="3:22">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="12" t="s">
         <v>829</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="V23" s="12" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="24" spans="4:23">
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="12" t="s">
         <v>831</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="W24" s="12" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="25" spans="4:23">
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="15" t="s">
         <v>833</v>
       </c>
-      <c r="W25" s="1" t="s">
+      <c r="W25" s="12" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="26" spans="4:19">
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="15" t="s">
         <v>835</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="S26" s="12" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="15" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="28" spans="3:22">
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="12" t="s">
         <v>838</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="V28" s="1" t="s">
+      <c r="D28" s="15"/>
+      <c r="V28" s="12" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="29" spans="4:23">
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="16" t="s">
         <v>840</v>
       </c>
-      <c r="W29" s="1" t="s">
+      <c r="W29" s="12" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="12" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="31" spans="3:22">
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="12" t="s">
         <v>843</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="V31" s="12" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="12" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="34" spans="3:22">
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="12" t="s">
         <v>846</v>
       </c>
-      <c r="V34" s="1" t="s">
+      <c r="V34" s="12" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="12" t="s">
         <v>848</v>
       </c>
     </row>
@@ -16922,195 +17870,195 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="12" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="12" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="4" spans="3:21">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="12" t="s">
         <v>850</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="U4" s="1" t="s">
+      <c r="D4" s="14"/>
+      <c r="U4" s="12" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1" spans="4:4">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="15" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="11"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="3:21">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="12" t="s">
         <v>853</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="U7" s="1" t="s">
+      <c r="D7" s="16"/>
+      <c r="U7" s="12" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="13" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="10" spans="3:21">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="12" t="s">
         <v>856</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="U10" s="12" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="12" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="4"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="3:21">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="12" t="s">
         <v>859</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="U13" s="1" t="s">
+      <c r="D13" s="15"/>
+      <c r="U13" s="12" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="14" spans="4:24">
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="15" t="s">
         <v>861</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="V14" s="12" t="s">
         <v>862</v>
       </c>
-      <c r="W14" s="2"/>
-      <c r="X14" s="8"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="19"/>
     </row>
     <row r="15" spans="4:22">
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="16" t="s">
         <v>863</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="V15" s="12" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="13" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="13" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="2"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="3:23">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="12" t="s">
         <v>867</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="U19" s="1" t="s">
+      <c r="D19" s="16"/>
+      <c r="U19" s="12" t="s">
         <v>868</v>
       </c>
-      <c r="W19" s="8"/>
+      <c r="W19" s="19"/>
     </row>
     <row r="20" spans="4:28">
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="16" t="s">
         <v>869</v>
       </c>
-      <c r="AB20" s="2"/>
+      <c r="AB20" s="13"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="5"/>
+      <c r="D21" s="16"/>
     </row>
     <row r="22" spans="3:24">
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="12" t="s">
         <v>870</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="U22" s="1" t="s">
+      <c r="D22" s="13"/>
+      <c r="U22" s="12" t="s">
         <v>871</v>
       </c>
-      <c r="X22" s="8"/>
+      <c r="X22" s="19"/>
     </row>
     <row r="23" spans="4:24">
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="13" t="s">
         <v>872</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="V23" s="12" t="s">
         <v>873</v>
       </c>
-      <c r="X23" s="8"/>
+      <c r="X23" s="19"/>
     </row>
     <row r="24" spans="3:21">
-      <c r="C24" s="4"/>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="16" t="s">
         <v>874</v>
       </c>
-      <c r="U24" s="2"/>
+      <c r="U24" s="13"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="13" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="26" spans="3:21">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="12" t="s">
         <v>876</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="U26" s="1" t="s">
+      <c r="D26" s="13"/>
+      <c r="U26" s="12" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="16" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="13" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="29" spans="3:21">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="12" t="s">
         <v>880</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="U29" s="1" t="s">
+      <c r="D29" s="16"/>
+      <c r="U29" s="12" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="19" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="31" spans="40:41">
-      <c r="AN31" s="2"/>
-      <c r="AO31" s="2"/>
+      <c r="AN31" s="13"/>
+      <c r="AO31" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -17130,216 +18078,216 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1020" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1021" max="1025" width="2.63888888888889" style="2" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="12" customWidth="1"/>
+    <col min="10" max="1020" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="1021" max="1025" width="2.63888888888889" style="13" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="3" spans="2:22">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="12" t="s">
         <v>884</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="12" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="12" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="6" spans="2:22">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="12" t="s">
         <v>887</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="V6" s="12" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="12" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="9" spans="2:22">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="12" t="s">
         <v>890</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="V9" s="12" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="10" spans="3:22">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="12" t="s">
         <v>892</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="V10" s="12" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="12" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="12" spans="2:22">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="12" t="s">
         <v>895</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="V12" s="12" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="12" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="15" spans="2:22">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="12" t="s">
         <v>898</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="V15" s="12" t="s">
         <v>899</v>
       </c>
     </row>
     <row r="16" spans="3:23">
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="12" t="s">
         <v>900</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="W16" s="12" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="17" spans="3:23">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="12" t="s">
         <v>902</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="W17" s="12" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="12" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="12" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="20" spans="2:22">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="12" t="s">
         <v>906</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="V20" s="1" t="s">
+      <c r="D20" s="15"/>
+      <c r="V20" s="12" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="21" spans="3:22">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="18" t="s">
         <v>908</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="V21" s="1" t="s">
+      <c r="D21" s="15"/>
+      <c r="V21" s="12" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="12" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="23" spans="2:22">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="12" t="s">
         <v>911</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="V23" s="12" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="24" spans="3:23">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="12" t="s">
         <v>913</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="W24" s="12" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1" spans="3:22">
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="12" t="s">
         <v>915</v>
       </c>
-      <c r="V25" s="10" t="s">
+      <c r="V25" s="21" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="26" spans="3:23">
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="20" t="s">
         <v>917</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="W26" s="12" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="12" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="12" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="29" spans="2:22">
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="12" t="s">
         <v>921</v>
       </c>
-      <c r="V29" s="1" t="s">
+      <c r="V29" s="12" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="12" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="32" spans="2:22">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="12" t="s">
         <v>924</v>
       </c>
-      <c r="V32" s="1" t="s">
+      <c r="V32" s="12" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="12" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="34" spans="24:24">
-      <c r="X34" s="2"/>
+      <c r="X34" s="13"/>
     </row>
     <row r="36" spans="3:3">
-      <c r="C36" s="4"/>
+      <c r="C36" s="15"/>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="4"/>
+      <c r="C37" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -17359,224 +18307,224 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1030" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1031" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="12" customWidth="1"/>
+    <col min="10" max="1030" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="1031" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="12" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="4" spans="3:21">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="12" t="s">
         <v>928</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="U4" s="1" t="s">
+      <c r="D4" s="14"/>
+      <c r="U4" s="12" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1" spans="4:22">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="15" t="s">
         <v>930</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" s="12" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="6" spans="4:1030">
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="12" t="s">
         <v>932</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="V6" s="12" t="s">
         <v>933</v>
       </c>
-      <c r="AMP6" s="2"/>
+      <c r="AMP6" s="13"/>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="12" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="12" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="9" spans="3:21">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="12" t="s">
         <v>936</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="U9" s="1" t="s">
+      <c r="D9" s="13"/>
+      <c r="U9" s="12" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="10" spans="4:22">
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="12" t="s">
         <v>938</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="V10" s="12" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="11" spans="4:22">
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="12" t="s">
         <v>940</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="V11" s="12" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="12" spans="4:28">
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="12" t="s">
         <v>942</v>
       </c>
-      <c r="AB12" s="1" t="s">
+      <c r="AB12" s="12" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="13" spans="3:21">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="12" t="s">
         <v>944</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="U13" s="1" t="s">
+      <c r="D13" s="15"/>
+      <c r="U13" s="12" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="14" spans="4:22">
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="15" t="s">
         <v>946</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="V14" s="12" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="15" spans="4:29">
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="15" t="s">
         <v>948</v>
       </c>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="8"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="19"/>
     </row>
     <row r="16" spans="4:27">
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="16" t="s">
         <v>949</v>
       </c>
-      <c r="AA16" s="9"/>
+      <c r="AA16" s="20"/>
     </row>
     <row r="17" spans="3:21">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="12" t="s">
         <v>950</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="U17" s="1" t="s">
+      <c r="D17" s="15"/>
+      <c r="U17" s="12" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="18" spans="4:22">
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="13" t="s">
         <v>952</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="V18" s="12" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="19" spans="4:22">
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="13" t="s">
         <v>954</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="V19" s="12" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="20" spans="4:28">
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="16" t="s">
         <v>956</v>
       </c>
-      <c r="AB20" s="8"/>
+      <c r="AB20" s="19"/>
     </row>
     <row r="21" spans="3:33">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="12" t="s">
         <v>957</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="U21" s="1" t="s">
+      <c r="D21" s="16"/>
+      <c r="U21" s="12" t="s">
         <v>958</v>
       </c>
-      <c r="AG21" s="2"/>
+      <c r="AG21" s="13"/>
     </row>
     <row r="22" ht="17" customHeight="1" spans="4:4">
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="16" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="23" spans="4:29">
-      <c r="D23" s="2"/>
-      <c r="AC23" s="8"/>
+      <c r="D23" s="13"/>
+      <c r="AC23" s="19"/>
     </row>
     <row r="24" spans="3:29">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="12" t="s">
         <v>960</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="U24" s="1" t="s">
+      <c r="D24" s="13"/>
+      <c r="U24" s="12" t="s">
         <v>961</v>
       </c>
-      <c r="AC24" s="8"/>
+      <c r="AC24" s="19"/>
     </row>
     <row r="25" spans="3:26">
-      <c r="C25" s="4"/>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="15"/>
+      <c r="D25" s="16" t="s">
         <v>962</v>
       </c>
-      <c r="V25" s="7" t="s">
+      <c r="V25" s="18" t="s">
         <v>963</v>
       </c>
-      <c r="Z25" s="2"/>
+      <c r="Z25" s="13"/>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="13" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="13" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="28" spans="3:21">
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="12" t="s">
         <v>966</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="U28" s="1" t="s">
+      <c r="D28" s="16"/>
+      <c r="U28" s="12" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="15" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="5"/>
+      <c r="D30" s="16"/>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="6"/>
+      <c r="C31" s="17"/>
     </row>
     <row r="32" spans="45:46">
-      <c r="AS32" s="2"/>
-      <c r="AT32" s="2"/>
+      <c r="AS32" s="13"/>
+      <c r="AT32" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -17590,16 +18538,291 @@
   <sheetPr/>
   <dimension ref="C2:AMP42"/>
   <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="U34" sqref="U34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="12" customWidth="1"/>
+    <col min="10" max="1030" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="1031" max="16384" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4">
+      <c r="D3" s="12" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="4" spans="3:22">
+      <c r="C4" s="12" t="s">
+        <v>970</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="V4" s="12" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="4:4">
+      <c r="D5" s="15" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="6" spans="1030:1030">
+      <c r="AMP6" s="13"/>
+    </row>
+    <row r="7" spans="3:22">
+      <c r="C7" s="12" t="s">
+        <v>973</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="V7" s="12" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="12" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="3:22">
+      <c r="C10" s="12" t="s">
+        <v>976</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="V10" s="12" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="12" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="13" spans="3:22">
+      <c r="C13" s="12" t="s">
+        <v>979</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="V13" s="12" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="14" spans="4:23">
+      <c r="D14" s="15" t="s">
+        <v>981</v>
+      </c>
+      <c r="W14" s="12" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="15" spans="4:29">
+      <c r="D15" s="15"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="19"/>
+    </row>
+    <row r="16" spans="3:27">
+      <c r="C16" s="12" t="s">
+        <v>983</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="V16" s="12" t="s">
+        <v>984</v>
+      </c>
+      <c r="AA16" s="20"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="15" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="3:22">
+      <c r="C19" s="12" t="s">
+        <v>986</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="V19" s="12" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="20" spans="4:28">
+      <c r="D20" s="16" t="s">
+        <v>988</v>
+      </c>
+      <c r="W20" s="12" t="s">
+        <v>989</v>
+      </c>
+      <c r="AB20" s="19"/>
+    </row>
+    <row r="21" spans="4:33">
+      <c r="D21" s="16" t="s">
+        <v>990</v>
+      </c>
+      <c r="AG21" s="13"/>
+    </row>
+    <row r="22" ht="17" customHeight="1" spans="4:4">
+      <c r="D22" s="16" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29">
+      <c r="C23" s="12" t="s">
+        <v>992</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="V23" s="12" t="s">
+        <v>993</v>
+      </c>
+      <c r="AC23" s="19"/>
+    </row>
+    <row r="24" spans="4:29">
+      <c r="D24" s="13" t="s">
+        <v>994</v>
+      </c>
+      <c r="AC24" s="19"/>
+    </row>
+    <row r="25" spans="3:26">
+      <c r="C25" s="15"/>
+      <c r="D25" s="16" t="s">
+        <v>995</v>
+      </c>
+      <c r="V25" s="18"/>
+      <c r="Z25" s="13"/>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="13" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="3:22">
+      <c r="C28" s="12" t="s">
+        <v>997</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="V28" s="12" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="15" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="16"/>
+    </row>
+    <row r="31" spans="3:22">
+      <c r="C31" s="17" t="s">
+        <v>1000</v>
+      </c>
+      <c r="V31" s="12" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="32" spans="4:46">
+      <c r="D32" s="12" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AS32" s="13"/>
+      <c r="AT32" s="13"/>
+    </row>
+    <row r="34" spans="3:22">
+      <c r="C34" s="12" t="s">
+        <v>1003</v>
+      </c>
+      <c r="V34" s="12" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="35" spans="4:23">
+      <c r="D35" s="12" t="s">
+        <v>1005</v>
+      </c>
+      <c r="W35" s="12" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="12" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="37" spans="3:22">
+      <c r="C37" s="12" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V37" s="12" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="38" spans="4:23">
+      <c r="D38" s="12" t="s">
+        <v>1010</v>
+      </c>
+      <c r="W38" s="12" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="12" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="12" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="41" spans="3:22">
+      <c r="C41" s="12" t="s">
+        <v>1014</v>
+      </c>
+      <c r="V41" s="12" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="12" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:AA42"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1030" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1031" max="16384" width="9" style="2"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:3">
@@ -17609,248 +18832,227 @@
     </row>
     <row r="3" spans="4:4">
       <c r="D3" s="1" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="4" spans="3:22">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="4" spans="3:20">
       <c r="C4" s="1" t="s">
-        <v>970</v>
+        <v>1018</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="V4" s="1" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="5" ht="13" customHeight="1" spans="4:4">
+      <c r="T4" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
       <c r="D5" s="4" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="6" spans="1030:1030">
-      <c r="AMP6" s="2"/>
-    </row>
-    <row r="7" spans="3:22">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="3:20">
       <c r="C7" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="V7" s="1" t="s">
-        <v>974</v>
+        <v>1021</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="T7" s="1" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="1" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="9" spans="4:4">
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="3:22">
+      <c r="D8" s="6" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20">
       <c r="C10" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="V10" s="1" t="s">
-        <v>977</v>
+        <v>1024</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" s="1" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="13" spans="3:22">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="3:23">
       <c r="C13" s="1" t="s">
-        <v>979</v>
+        <v>1027</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="V13" s="1" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="14" spans="4:23">
-      <c r="D14" s="4" t="s">
-        <v>981</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="15" spans="4:29">
-      <c r="D15" s="4"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="8"/>
-    </row>
-    <row r="16" spans="3:27">
+      <c r="T13" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="W13" s="11"/>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" s="5" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="3:20">
       <c r="C16" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="V16" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="AA16" s="9"/>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="4" t="s">
-        <v>985</v>
-      </c>
+        <v>1030</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="17" spans="4:27">
+      <c r="D17" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="3:22">
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="3:23">
       <c r="C19" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="V19" s="1" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="20" spans="4:28">
-      <c r="D20" s="5" t="s">
-        <v>988</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="AB20" s="8"/>
-    </row>
-    <row r="21" spans="4:33">
-      <c r="D21" s="5" t="s">
-        <v>990</v>
-      </c>
-      <c r="AG21" s="2"/>
-    </row>
-    <row r="22" ht="17" customHeight="1" spans="4:4">
-      <c r="D22" s="5" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="23" spans="3:29">
+        <v>1033</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="T19" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="W19" s="11"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="4"/>
+      <c r="D20" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="3:20">
       <c r="C23" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="V23" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="AC23" s="8"/>
-    </row>
-    <row r="24" spans="4:29">
-      <c r="D24" s="2" t="s">
-        <v>994</v>
-      </c>
-      <c r="AC24" s="8"/>
-    </row>
-    <row r="25" spans="3:26">
-      <c r="C25" s="4"/>
-      <c r="D25" s="5" t="s">
-        <v>995</v>
-      </c>
-      <c r="V25" s="7"/>
-      <c r="Z25" s="2"/>
-    </row>
-    <row r="26" spans="4:4">
-      <c r="D26" s="2" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="27" spans="4:4">
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="3:22">
-      <c r="C28" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="V28" s="1" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="29" spans="4:4">
-      <c r="D29" s="4" t="s">
-        <v>999</v>
+        <v>1036</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="3:20">
+      <c r="C26" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="T26" s="1" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="27" spans="4:27">
+      <c r="D27" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AA27" s="10"/>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="3:20">
+      <c r="C29" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="T29" s="1" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="3:22">
-      <c r="C31" s="6" t="s">
-        <v>1000</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="32" spans="4:46">
-      <c r="D32" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="AS32" s="2"/>
-      <c r="AT32" s="2"/>
-    </row>
-    <row r="34" spans="3:22">
-      <c r="C34" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="V34" s="1" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="35" spans="4:23">
-      <c r="D35" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="W35" s="1" t="s">
-        <v>1006</v>
+      <c r="D30" s="1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20">
+      <c r="C32" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="33" spans="4:21">
+      <c r="D33" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="34" spans="4:21">
+      <c r="D34" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="3" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="36" spans="4:4">
       <c r="D36" s="1" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="37" spans="3:22">
-      <c r="C37" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="V37" s="1" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="38" spans="4:23">
-      <c r="D38" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="W38" s="1" t="s">
-        <v>1011</v>
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="1" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="38" spans="3:20">
+      <c r="C38" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" s="1" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="40" spans="4:4">
-      <c r="D40" s="1" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="41" spans="3:22">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="41" spans="3:20">
       <c r="C41" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="V41" s="1" t="s">
-        <v>1015</v>
+        <v>1058</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="42" spans="4:4">
-      <c r="D42" s="1" t="s">
-        <v>1016</v>
+      <c r="D42" s="3" t="s">
+        <v>1060</v>
       </c>
     </row>
   </sheetData>
@@ -17871,192 +19073,192 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="12" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="12" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="12" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="4:24">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="X4" s="7"/>
+      <c r="X4" s="18"/>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="7"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="9:9">
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="3:20">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T10" s="12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="14" spans="3:20">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="T14" s="12" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="17" spans="3:20">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="T17" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="12" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="20" spans="3:20">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T20" s="12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="12" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="23" spans="3:20">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="T23" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="12" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="26" spans="3:20">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="T26" s="1" t="s">
+      <c r="T26" s="12" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="27" spans="4:21">
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="U27" s="1" t="s">
+      <c r="U27" s="12" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="12" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31" spans="3:20">
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="T31" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="12" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="12" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="35" spans="4:20">
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="T35" s="1" t="s">
+      <c r="T35" s="12" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="36" spans="4:21">
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="U36" s="7" t="s">
+      <c r="U36" s="18" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="37" spans="3:20">
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="T37" s="1" t="s">
+      <c r="T37" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="12" t="s">
         <v>128</v>
       </c>
     </row>
@@ -18078,149 +19280,149 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="28" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="29" max="29" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="30" max="1045" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1046" max="16384" width="9" style="2"/>
+    <col min="1" max="28" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="29" max="29" width="2.73148148148148" style="12" customWidth="1"/>
+    <col min="30" max="1045" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="1046" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="3" spans="2:23">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" s="12" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="6" spans="2:23">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="W6" s="12" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="7" spans="3:24">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="X7" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="12" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="12" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="10" spans="2:23">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="W10" s="12" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="12" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="13" spans="2:23">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="W13" s="12" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="12" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="16" spans="2:23">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="W16" s="12" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="12" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="19" spans="2:23">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="W19" s="12" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="12" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="22" spans="2:23">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="W22" s="12" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="23" spans="3:24">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="X23" s="1" t="s">
+      <c r="X23" s="12" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="12" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="12" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="26" spans="2:23">
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="W26" s="12" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="35" t="s">
         <v>159</v>
       </c>
     </row>
@@ -18242,216 +19444,216 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="28" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="29" max="29" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="30" max="1045" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1046" max="16384" width="9" style="2"/>
+    <col min="1" max="28" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="29" max="29" width="2.73148148148148" style="12" customWidth="1"/>
+    <col min="30" max="1045" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="1046" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="12" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="4" spans="3:21">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" s="12" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="12" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="12" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="9" spans="2:20">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" s="12" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="10" spans="3:21">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="U10" s="12" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="12" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="12" spans="2:20">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="T12" s="12" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="13" spans="3:21">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="U13" s="12" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="12" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="12" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" s="12" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="12" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="T19" s="12" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="20" spans="3:21">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="U20" s="12" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="12" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="12" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="23" spans="2:44">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="T23" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="AR23" s="1" t="s">
+      <c r="AR23" s="12" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="24" spans="3:21">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="U24" s="1" t="s">
+      <c r="U24" s="12" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="12" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="12" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="T27" s="1" t="s">
+      <c r="C27" s="35"/>
+      <c r="T27" s="12" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="28" spans="3:21">
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="U28" s="1" t="s">
+      <c r="U28" s="12" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="12" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="12" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="31" spans="2:20">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="T31" s="12" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="12" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="34" spans="2:20">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="T34" s="1" t="s">
+      <c r="T34" s="12" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="35" spans="3:3">
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="12" t="s">
         <v>206</v>
       </c>
     </row>
@@ -18473,149 +19675,149 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="28" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="29" max="29" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="30" max="1045" width="2.63888888888889" style="1" customWidth="1"/>
-    <col min="1046" max="16384" width="9" style="2"/>
+    <col min="1" max="28" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="29" max="29" width="2.73148148148148" style="12" customWidth="1"/>
+    <col min="30" max="1045" width="2.63888888888889" style="12" customWidth="1"/>
+    <col min="1046" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="3" spans="2:22">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="12" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="12" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="6" spans="2:22">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="V6" s="12" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="7" spans="3:23">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="W7" s="12" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="12" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="20" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="10" spans="2:22">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="V10" s="12" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="12" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="V13" s="12" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="18" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="16" spans="2:22">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="V16" s="12" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="17" spans="3:23">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="W17" s="12" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="12" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="12" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="20" spans="2:22">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="V20" s="12" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="12" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="23" spans="2:22">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="V23" s="12" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="12" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="26" spans="2:22">
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="V26" s="1" t="s">
+      <c r="V26" s="12" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="12" t="s">
         <v>237</v>
       </c>
     </row>
@@ -18637,271 +19839,271 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="8" width="2.62962962962963" style="12" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="12" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="12" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="12" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="3" spans="3:26">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="Z3" s="2"/>
+      <c r="Z3" s="13"/>
     </row>
     <row r="4" spans="4:22">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="V4" s="13" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="5" spans="4:22">
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" s="12" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="6" spans="4:22">
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="V6" s="13" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="AA8" s="15"/>
+      <c r="AA8" s="26"/>
     </row>
     <row r="9" spans="4:27">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="AA9" s="15"/>
+      <c r="AA9" s="26"/>
     </row>
     <row r="10" spans="3:21">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="U10" s="13" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="11" spans="4:22">
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="V11" s="12" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="12" spans="3:21">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="U12" s="12" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="12" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="15" spans="3:21">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="U15" s="12" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="Z16" s="20"/>
+      <c r="Z16" s="31"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="2"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="3:21">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="U18" s="2" t="s">
+      <c r="U18" s="13" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="19" spans="4:22">
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="U19" s="15"/>
-      <c r="V19" s="1" t="s">
+      <c r="U19" s="26"/>
+      <c r="V19" s="12" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="20" spans="4:22">
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="V20" s="2" t="s">
+      <c r="V20" s="13" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="13" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="22" spans="4:21">
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="U22" s="12" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="23" spans="3:21">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="U23" s="2" t="s">
+      <c r="D23" s="13"/>
+      <c r="U23" s="13" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="V24" s="12" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="25" spans="4:22">
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="V25" s="19" t="s">
+      <c r="V25" s="30" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="26" spans="4:22">
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="L26" s="15"/>
-      <c r="V26" s="1" t="s">
+      <c r="L26" s="26"/>
+      <c r="V26" s="12" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="L27" s="15"/>
+      <c r="L27" s="26"/>
     </row>
     <row r="28" spans="3:21">
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="U28" s="1" t="s">
+      <c r="U28" s="12" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="29" spans="4:22">
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="V29" s="1" t="s">
+      <c r="V29" s="12" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="30" spans="4:22">
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="V30" s="1" t="s">
+      <c r="V30" s="12" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="13" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="13" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="33" spans="3:21">
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="U33" s="1" t="s">
+      <c r="U33" s="12" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="12" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="35" spans="24:24">
-      <c r="X35" s="1" t="s">
+      <c r="X35" s="12" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="37" spans="3:21">
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="U37" s="1" t="s">
+      <c r="U37" s="12" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="12" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="40" spans="3:21">
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="U40" s="1" t="s">
+      <c r="U40" s="12" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="41" spans="4:4">
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="12" t="s">
         <v>295</v>
       </c>
     </row>
@@ -18924,190 +20126,190 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.49074074074074" style="1" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="2.62962962962963" style="12" customWidth="1"/>
+    <col min="3" max="3" width="4.49074074074074" style="12" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="12" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="12" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="12" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="4:26">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="Z2" s="14"/>
+      <c r="Z2" s="25"/>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="13" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="4" spans="4:21">
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="13" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="33" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="T6" s="1" t="s">
+      <c r="D6" s="13"/>
+      <c r="T6" s="12" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="7" spans="4:27">
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="U7" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="AA7" s="15"/>
+      <c r="AA7" s="26"/>
     </row>
     <row r="8" spans="4:27">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="AA8" s="15"/>
+      <c r="AA8" s="26"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="13" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="10" spans="3:20">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="T10" s="2" t="s">
+      <c r="D10" s="25"/>
+      <c r="T10" s="13" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="11" spans="4:24">
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="U11" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="X11" s="18"/>
+      <c r="X11" s="29"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="13" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="2"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="3:20">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="M14" s="14"/>
-      <c r="Q14" s="18"/>
-      <c r="T14" s="1" t="s">
+      <c r="D14" s="34"/>
+      <c r="M14" s="25"/>
+      <c r="Q14" s="29"/>
+      <c r="T14" s="12" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="13" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="16" spans="4:26">
-      <c r="D16" s="2"/>
-      <c r="Z16" s="20"/>
+      <c r="D16" s="13"/>
+      <c r="Z16" s="31"/>
     </row>
     <row r="17" spans="3:20">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="T17" s="2" t="s">
+      <c r="D17" s="25"/>
+      <c r="T17" s="13" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="18" spans="4:21">
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="U18" s="12" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="19" spans="4:21">
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="L19" s="14"/>
-      <c r="U19" s="15"/>
+      <c r="L19" s="25"/>
+      <c r="U19" s="26"/>
     </row>
     <row r="20" spans="3:20">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="T20" s="13" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="21" spans="4:19">
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="S21" s="14"/>
+      <c r="S21" s="25"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="14"/>
+      <c r="D22" s="25"/>
     </row>
     <row r="23" spans="3:20">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="T23" s="1" t="s">
+      <c r="D23" s="25"/>
+      <c r="T23" s="12" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="24" spans="4:21">
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="U24" s="2" t="s">
+      <c r="U24" s="13" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="25" spans="4:22">
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="V25" s="19"/>
+      <c r="V25" s="30"/>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="L26" s="15"/>
+      <c r="L26" s="26"/>
     </row>
     <row r="50" ht="17.85" customHeight="1"/>
   </sheetData>
@@ -19128,113 +20330,113 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.48148148148148" style="1" customWidth="1"/>
-    <col min="4" max="8" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="2.62962962962963" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="2.62962962962963" style="12" customWidth="1"/>
+    <col min="3" max="3" width="2.48148148148148" style="12" customWidth="1"/>
+    <col min="4" max="8" width="2.62962962962963" style="12" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="12" customWidth="1"/>
+    <col min="10" max="1025" width="2.62962962962963" style="12" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="12" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="12" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="12" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="12" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="8" ht="17.85" customHeight="1"/>
     <row r="9" spans="3:20">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" s="12" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="12" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="12" spans="3:20">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="T12" s="12" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="12" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="15" spans="3:20">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="T15" s="12" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="16" spans="4:21">
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="U16" s="12" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="12" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="12" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="19" spans="3:20">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="T19" s="12" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="12" t="s">
         <v>351</v>
       </c>
     </row>

--- a/learn_chinese2024.xlsx
+++ b/learn_chinese2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="22" activeTab="29"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="23" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="20240107" sheetId="4" r:id="rId1"/>
@@ -37,6 +37,7 @@
     <sheet name="20241027" sheetId="33" r:id="rId28"/>
     <sheet name="20241103" sheetId="34" r:id="rId29"/>
     <sheet name="20241117" sheetId="35" r:id="rId30"/>
+    <sheet name="20241124" sheetId="36" r:id="rId31"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="1188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="1232">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -14975,6 +14976,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Why didn't you leave it </t>
     </r>
     <r>
@@ -14997,6 +15003,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">nǐ wéi shen me bú bǎ shū fàng zài </t>
     </r>
     <r>
@@ -15032,6 +15044,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B:  They're </t>
     </r>
     <r>
@@ -15054,6 +15071,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">tā men </t>
     </r>
     <r>
@@ -15083,6 +15106,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: i didn't finish today's </t>
     </r>
     <r>
@@ -15105,6 +15133,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wǒ jīn tiān méi yǒu dá wán </t>
     </r>
     <r>
@@ -15122,6 +15155,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Neither did i, simply </t>
     </r>
     <r>
@@ -15144,6 +15182,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">wǒ yě méi yǒu ，bǎ jǐ dào tí mù </t>
     </r>
     <r>
@@ -15181,6 +15224,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: i'm pretty sure i'll </t>
     </r>
     <r>
@@ -15203,6 +15251,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">kěn dìng </t>
     </r>
     <r>
@@ -15240,6 +15293,555 @@
   </si>
   <si>
     <t xml:space="preserve">hǎo ba </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Talking</t>
+  </si>
+  <si>
+    <t>A: 早上好。</t>
+  </si>
+  <si>
+    <t>A:morning。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> zǎo shàng hǎo </t>
+  </si>
+  <si>
+    <t>B: 嘿，你好，多么美好的早上。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: Hi, How are you on this </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> morning?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">hēi ，nǐ hǎo ，duō me </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>měi hǎo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> de zǎo shàng 。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 谢谢，我很好。</t>
+  </si>
+  <si>
+    <t>A:  Fine, think you.</t>
+  </si>
+  <si>
+    <t>xiè xiè ，wǒ hěn hǎo</t>
+  </si>
+  <si>
+    <t>B: 今天早上很冷，是吗？我很难起床。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: it sure is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> this morning. isn't it?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> jīn tiān zǎo shàng hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lěng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，shì ma ？。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>barely</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> even get out of bed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hěn nán</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> qǐ chuáng </t>
+    </r>
+  </si>
+  <si>
+    <t>A: 是的，非常的冷。</t>
+  </si>
+  <si>
+    <t>A: Yeah, it's pretty cold, alright.</t>
+  </si>
+  <si>
+    <t>shì de ，fēi cháng de lěng 。</t>
+  </si>
+  <si>
+    <t>B: 你看早上的新闻了吗？我听说Byron街发生</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B:  Did you catch the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>news</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> this morning?</t>
+    </r>
+  </si>
+  <si>
+    <t>了火灾。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">i heard that there was a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> on Byron street.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">nǐ kàn zǎo shàng de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xīn wén</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> le ma ？wǒ tīng shuō Byron jiē fā shēng </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">le </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>huǒ zāi</t>
+    </r>
+  </si>
+  <si>
+    <t>A: 还没看，我没听说这件事情。</t>
+  </si>
+  <si>
+    <t>A: No, i didn't hear about that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hái méi kàn ，wǒ méi tīng shuō zhè jiàn shì qíng </t>
+  </si>
+  <si>
+    <t>B: 你昨晚有没有看足球比赛？Messi在最后一分钟进球。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: Did you happen to watch the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>football game</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> last night?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">nǐ zuó wǎn yǒu méi yǒu kàn zú qiú </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bǐ sài</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ？</t>
+    </r>
+  </si>
+  <si>
+    <t>The Messi scored in the last minute.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Messi zài zuì hòu yī fèn zhōng jìn qiú </t>
+  </si>
+  <si>
+    <t>A: 没看，我不喜欢足球。</t>
+  </si>
+  <si>
+    <t>A:  No, i don't like football.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">méi kàn ，wǒ bú xǐ huān zú qiú </t>
+  </si>
+  <si>
+    <t>B: 哦，顺便说一下，我在办公室的圣诞party上看到你和你</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B: Oh. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>By the way</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, i saw you with your daughter at </t>
+    </r>
+  </si>
+  <si>
+    <t>女儿，她很漂亮。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>office Chrismas party</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, She's really beautiful.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ò ，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shùn biàn shuō yī xià</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，wǒ zài bàn gōng shì de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shèng dàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> shàng kàn dào nǐ hé nǐ</t>
+    </r>
+  </si>
+  <si>
+    <t>nǚ ér ，tā hěn piāo liàng 。</t>
+  </si>
+  <si>
+    <t>A: 她是我老婆，哦，我到了，很高兴和你聊天，再见。。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A: she's my </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wife</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>! Oh Here's my floor, Nice talking to you , bye.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">tā shì wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t>lǎo pó</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ，ò ，wǒ dào le ，hěn gāo xìng hé nǐ liáo tiān ，zài jiàn </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -15566,9 +16168,57 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00864B"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFED1C24"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00A65D"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF62A73B"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF62A73B"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF72BF44"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF009353"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="等线"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -15584,27 +16234,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00A65D"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF62A73B"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF009353"/>
-      <name val="等线"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -15614,31 +16246,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00864B"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF62A73B"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
+      <color rgb="FFFFC000"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -15650,7 +16258,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFC000"/>
+      <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -15658,12 +16266,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF72BF44"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -27548,7 +28150,7 @@
   <sheetPr/>
   <dimension ref="C1:AI49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -27778,6 +28380,232 @@
       <c r="E35" s="6"/>
     </row>
     <row r="49" ht="17.85" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:X37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1020" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1021" max="1025" width="2.63888888888889" style="2" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22">
+      <c r="B3" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="1" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22">
+      <c r="B6" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="1" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="B9" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="1" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22">
+      <c r="B12" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="13" spans="3:23">
+      <c r="C13" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="1" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22">
+      <c r="B15" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="1" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22">
+      <c r="B18" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23">
+      <c r="C19" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="2:22">
+      <c r="B22" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="1" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="25" ht="14" customHeight="1" spans="2:22">
+      <c r="B25" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23">
+      <c r="C26" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="1" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22">
+      <c r="B28" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="1" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22">
+      <c r="B31" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23">
+      <c r="C32" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="1" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="34" spans="3:24">
+      <c r="C34" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="X34" s="2"/>
+    </row>
+    <row r="35" spans="2:22">
+      <c r="B35" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="3" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/learn_chinese2024.xlsx
+++ b/learn_chinese2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="24" activeTab="31"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="25" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="20240107" sheetId="4" r:id="rId1"/>
@@ -39,6 +39,7 @@
     <sheet name="20241117" sheetId="35" r:id="rId30"/>
     <sheet name="20241124" sheetId="36" r:id="rId31"/>
     <sheet name="20241201" sheetId="37" r:id="rId32"/>
+    <sheet name="20241208" sheetId="38" r:id="rId33"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="1272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="1275">
   <si>
     <t>Chinese Lessons：</t>
   </si>
@@ -15849,6 +15850,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: Interesting </t>
     </r>
     <r>
@@ -15871,6 +15877,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>yǎn jiǎng</t>
     </r>
     <r>
@@ -15914,6 +15926,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Let me see, it's an </t>
     </r>
     <r>
@@ -15942,6 +15959,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">ràng wǒ xiǎng xiǎng ，shì gè </t>
     </r>
     <r>
@@ -16003,6 +16025,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">to ask me to help him in the </t>
     </r>
     <r>
@@ -16025,6 +16052,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wú suǒ bú tán ，zuì hòu ，tā </t>
     </r>
     <r>
@@ -16064,6 +16096,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">zài </t>
     </r>
     <r>
@@ -16092,6 +16129,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">B: Did you </t>
     </r>
     <r>
@@ -16114,6 +16156,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">nǐ </t>
     </r>
     <r>
@@ -16142,6 +16189,15 @@
   </si>
   <si>
     <t>dāng rán méi yǒu 。</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>3w</t>
+  </si>
+  <si>
+    <t>3k</t>
   </si>
 </sst>
 </file>
@@ -16468,7 +16524,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="9"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFED1C24"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF72BF44"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1B75BC"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF009353"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00A65D"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -16486,43 +16578,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="9"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF009353"/>
+      <color rgb="FFFFC000"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <color rgb="FF72BF44"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1B75BC"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF72BF44"/>
+      <color rgb="FF62A73B"/>
       <name val="等线"/>
       <charset val="1"/>
     </font>
@@ -16534,27 +16614,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF92D050"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF62A73B"/>
+      <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF72BF44"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00A65D"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -16562,12 +16624,6 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
-      <name val="等线"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -19815,8 +19871,8 @@
   <sheetPr/>
   <dimension ref="C1:X43"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -28918,8 +28974,8 @@
   <sheetPr/>
   <dimension ref="C1:Y38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -29115,6 +29171,251 @@
     </row>
     <row r="38" spans="3:3">
       <c r="C38" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:X42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="8" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73148148148148" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="2.63888888888889" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="4:4">
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="3:20">
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="4:24">
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="13:13">
+      <c r="M5" s="1" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20">
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="T6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20">
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20">
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="T11" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20">
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20">
+      <c r="C17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20">
+      <c r="C20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20">
+      <c r="C23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="9:11">
+      <c r="I25" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20">
+      <c r="C26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="4:21">
+      <c r="D27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20">
+      <c r="C30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="3:20">
+      <c r="C33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="3:20">
+      <c r="C36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="3:20">
+      <c r="C39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="4:21">
+      <c r="D40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
